--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="1310">
   <si>
     <t>Ņ</t>
   </si>
@@ -3951,6 +3951,12 @@
   </si>
   <si>
     <t>Ch1ck3n S4ndw1ch</t>
+  </si>
+  <si>
+    <t>o_Q</t>
+  </si>
+  <si>
+    <t>NerfGotDevouredByVodka</t>
   </si>
 </sst>
 </file>
@@ -3962,11 +3968,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4317,111 +4330,112 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -4640,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1075"/>
+  <dimension ref="A1:O1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1071" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1076" sqref="A1076"/>
+    <sheetView tabSelected="1" topLeftCell="A1077" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1080" sqref="B1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31032,6 +31046,122 @@
         <v>823</v>
       </c>
     </row>
+    <row r="1076" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1076">
+        <v>1075</v>
+      </c>
+      <c r="B1076" s="7">
+        <v>54125489</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1076" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>709</v>
+      </c>
+      <c r="F1076" s="29">
+        <v>46056</v>
+      </c>
+      <c r="G1076" s="56">
+        <v>0.35678240740740735</v>
+      </c>
+      <c r="H1076" s="90" t="s">
+        <v>956</v>
+      </c>
+      <c r="I1076" s="90" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1077">
+        <v>1076</v>
+      </c>
+      <c r="B1077" s="7">
+        <v>20981692</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1077" s="90" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1077" s="29">
+        <v>46054</v>
+      </c>
+      <c r="G1077" s="56">
+        <v>0.15534722222222222</v>
+      </c>
+      <c r="H1077" s="90" t="s">
+        <v>832</v>
+      </c>
+      <c r="I1077" s="90" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1078">
+        <v>1077</v>
+      </c>
+      <c r="B1078" s="7">
+        <v>11500183</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D1078" s="90" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1078" s="29">
+        <v>46054</v>
+      </c>
+      <c r="G1078" s="56">
+        <v>0.19093749999999998</v>
+      </c>
+      <c r="H1078" s="90" t="s">
+        <v>834</v>
+      </c>
+      <c r="I1078" s="90" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1079">
+        <v>1078</v>
+      </c>
+      <c r="B1079" s="7">
+        <v>22130000</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D1079" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1079" s="29">
+        <v>46056</v>
+      </c>
+      <c r="G1079" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1079" s="90" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I1079" s="90" t="s">
+        <v>823</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1">
     <sortState ref="A2:K1067">

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="1399">
   <si>
     <t>Ņ</t>
   </si>
@@ -3944,9 +3944,6 @@
     <t>Lag/Nyx</t>
   </si>
   <si>
-    <t>[o]</t>
-  </si>
-  <si>
     <t>Nest Guardian/Lag</t>
   </si>
   <si>
@@ -3957,6 +3954,276 @@
   </si>
   <si>
     <t>NerfGotDevouredByVodka</t>
+  </si>
+  <si>
+    <t>[AB-a] Ggrape</t>
+  </si>
+  <si>
+    <t>Gaffer</t>
+  </si>
+  <si>
+    <t>Tejthefatolympmanager</t>
+  </si>
+  <si>
+    <t>Ares/Nyx</t>
+  </si>
+  <si>
+    <t>[legend] blaze</t>
+  </si>
+  <si>
+    <t>Nerf🍺</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469253538835075152/id_DE.png?ex=6986fc7d&amp;is=6985aafd&amp;hm=eb144a4cd7e70c5d48b0bcf236d5b22d6cd9a0431c25cdcd7e8eacc48101418b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469253694536155136/id_DF.jpg?ex=6986fca2&amp;is=6985ab22&amp;hm=3e9cd713b84e2d42286e039d056f70e8237836e39b994c7faa34b76d3315bb63</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469253804753948786/id_DG.png?ex=6986fcbc&amp;is=6985ab3c&amp;hm=06e158da7c312bdb490dd4a4cc27fa25785b4f17bf6260769673c7beed87c67f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469253866729115770/id_DH.png?ex=6986fccb&amp;is=6985ab4b&amp;hm=af9b0964a269875d84515140c26cf37380694d42c14bf067de93c29e71de4b85</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469253924317040703/id_DI.jpg?ex=6986fcd8&amp;is=6985ab58&amp;hm=b212448ee3b696670cb11f10a690bec72c1cb7adf852fbad62ccc11f839cc46a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469253982693097492/id_DJ.png?ex=6986fce6&amp;is=6985ab66&amp;hm=b4bd85e7e66e6d611b2447d8f724607e1032d4845aa74bd9f7fc4947a640f1e8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254047709007902/id_DK.png?ex=6986fcf6&amp;is=6985ab76&amp;hm=246daf91127116e19448acd9b3e452dcf47919b091d9f6affdc66c656cf95149</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254105925943348/id_DL.png?ex=6986fd04&amp;is=6985ab84&amp;hm=ae00c680aca139ece0a2cb5c5f9b0eec6018fcf4fe3926f6348b4b057c2985cc</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254169151148127/id_DM.png?ex=6986fd13&amp;is=6985ab93&amp;hm=949e4821f3bf7275ab1c4436bdff6689ccab67702b72d0352f2a6ee4e9e5fc91</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254234510987296/id_DN.png?ex=6986fd22&amp;is=6985aba2&amp;hm=17d280bb42c2a594916343a30d6e25b4e65348ab2772fb1ae5bd0a86b89539d7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254288516579494/id_DO.png?ex=6986fd2f&amp;is=6985abaf&amp;hm=a6e4558fd12befa6587780c0d24fcb1f8d618eade1548d49376835479a2351e9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254353167847446/id_DP.png?ex=6986fd3f&amp;is=6985abbf&amp;hm=7e6bd8e1c55e275a17ac23e6b13a7897681853f94a1cac735a78a2d8cfbabf5f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254418951176339/id_DQ.png?ex=6986fd4e&amp;is=6985abce&amp;hm=e6a5bc2b7a597590aa0c9c6d4ded6cfbf7cbf1ee4132f5bad7aa6248afea7bf8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254488480026747/id_DR.png?ex=6986fd5f&amp;is=6985abdf&amp;hm=5aa27be84612d6419582b7b5ea99e7f7b19361211f3ea9410f619989c4133424</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469254538161553552/id_DS.jpg?ex=6986fd6b&amp;is=6985abeb&amp;hm=d8a161b39d46968df2b35be26ec10869a1a339dc4b00261080371ef23e942f44</t>
+  </si>
+  <si>
+    <t>Elite Crasher/Nest Keeper/Nest Guardian</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>DU</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>Dc</t>
+  </si>
+  <si>
+    <t>Dd</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Dg</t>
+  </si>
+  <si>
+    <t>Dh</t>
+  </si>
+  <si>
+    <t>Paladin/LC</t>
+  </si>
+  <si>
+    <t>Gersemi/Elite Crasher/Freyja</t>
+  </si>
+  <si>
+    <t>Poor decisions</t>
+  </si>
+  <si>
+    <t>Sentry</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268243482153032/id_DT.jpg?ex=69870a2e&amp;is=6985b8ae&amp;hm=373ad405096d302b2dcc27d20bfa4bebbeab49347626b3e2c241a8d2890c6bf5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268299727765625/id_DU.jpg?ex=69870a3c&amp;is=6985b8bc&amp;hm=b58fa1191f8fe4639b3d5dfea0a70bbd772607c180f4633c902fe8f4b8b8e9fd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268373165703313/id_DV.png?ex=69870a4d&amp;is=6985b8cd&amp;hm=f47f01b263d7070ffb3c202af6ca997762a19b0d5d92d13831a72e422c4b391a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268464039362654/id_DW.jpg?ex=69870a63&amp;is=6985b8e3&amp;hm=a8bd393bb8be837a40c761e2fcf39e3101bc0754af266d9ae2af58233805be67</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268611292987483/id_DX.png?ex=69870a86&amp;is=6985b906&amp;hm=1115c822f786465c8d6927f192cac1d7bd006a66c34a639e6377b2d423efc768</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268663273127957/id_DY.png?ex=69870a93&amp;is=6985b913&amp;hm=2b18edf71de14f00495b223e7c620b17be9722aec19c6447a30dd770a007fedd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268709892817091/id_DZ.jpg?ex=69870a9e&amp;is=6985b91e&amp;hm=f6a1e0ab9ea87f7d0dcbebe8a7c45745455e532176e05937a2988822a8af992d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268923139620994/id_Da.jpg?ex=69870ad0&amp;is=6985b950&amp;hm=8aa16dc9fcecd1d472f04d3443de5063efc7274e799b1a21f55792617df18569</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469268975719547093/id_Db.jpg?ex=69870add&amp;is=6985b95d&amp;hm=7f2373bc5a8b319008f84d037ba7773894132ef361d58e76ab13dbf62800a0eb</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469269038969520201/id_Dc.png?ex=69870aec&amp;is=6985b96c&amp;hm=34a2512d8a55fbb3429cca7dd639ba2ba97b50a5e851d57fff29e5dd1be757b2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469269118724341830/id_Dd.jpg?ex=69870aff&amp;is=6985b97f&amp;hm=6ba3b5ed391823c929c8e18a1c4c005adccec7b5807ca5c26093f6fad1ef49df</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469269171354468489/id_De.png?ex=69870b0c&amp;is=6985b98c&amp;hm=bd3ccec6fd71f19263e61d05e499b8685ffb0064c3ce8a0e615842780a0d8af6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469269222483038311/id_Df.jpg?ex=69870b18&amp;is=6985b998&amp;hm=be9bc07a0e703fad0764e2437ff638d5e8ca21c2c46b6aef3ff735f29c2760c2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469269298361929914/id_Dg.jpg?ex=69870b2a&amp;is=6985b9aa&amp;hm=0b52ef653e3b260b0e4bf70b1ecbca7e78540365321952e8ba2a1720a47b9481</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469269365965979730/id_Dh.jpg?ex=69870b3a&amp;is=6985b9ba&amp;hm=cc9908b57adafbe13d35ab7dad4298e9c0c041dde24f05150fe65f8ec874f994</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>Dj</t>
+  </si>
+  <si>
+    <t>Dk</t>
+  </si>
+  <si>
+    <t>Dl</t>
+  </si>
+  <si>
+    <t>Dm</t>
+  </si>
+  <si>
+    <t>Dn</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Dp</t>
+  </si>
+  <si>
+    <t>Dq</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Ds</t>
+  </si>
+  <si>
+    <t>Dt</t>
+  </si>
+  <si>
+    <t>Du</t>
+  </si>
+  <si>
+    <t>Dv</t>
+  </si>
+  <si>
+    <t>Dw</t>
+  </si>
+  <si>
+    <t>Nyx/Paladin</t>
+  </si>
+  <si>
+    <t>Nest Guardian/Nest Warden</t>
+  </si>
+  <si>
+    <t>Nest Warden/LC</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469282755455094866/id_Di.jpg?ex=698717b2&amp;is=6985c632&amp;hm=73602ca7ee69035ba1acf1a436d0361fca7c68944ff51c3f0f293529eac32956</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469282822702235896/id_Dj.jpg?ex=698717c2&amp;is=6985c642&amp;hm=e96d13202fa1873480ab6fbc5d830e1e3aac43c955f96cb4a6757eed093edbb2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469282869649084510/id_Dk.png?ex=698717ce&amp;is=6985c64e&amp;hm=918da7ba56eb4fcba7f20dd9dd461adcbc37dcdd40fe1939ff485eb3f4c9180a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469282932551188550/id_dl.png?ex=698717dd&amp;is=6985c65d&amp;hm=c67c7bd1d5977d9599bb12ccf0c7e5d0f0e8081ad330d525923318cdf5c989fb</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469282983197278282/id_Dm.png?ex=698717e9&amp;is=6985c669&amp;hm=cb23e3ba2a1bc355743f5ffdab732f1f77978ccf8f8fefa98c053a5a469adcaa</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283031138304133/id_Dn.png?ex=698717f4&amp;is=6985c674&amp;hm=f65afc7f3a5e7324e1b8b92dfa568aa7c2ac9c061c2c4b6986b4f1e9d1eaaf2d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283092089802836/id_Do.png?ex=69871803&amp;is=6985c683&amp;hm=6fd7814028981dfc14ee38636e40a9602811d4ba3c3d90c7f6dfa8389b0828d1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283137757642869/id_Dp.jpg?ex=6987180e&amp;is=6985c68e&amp;hm=30ed5d4cd67af17e3b171cb917bc755bb513a505cd02116f63e07c8a03d0eeff</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283188323909694/id_Dq.png?ex=6987181a&amp;is=6985c69a&amp;hm=fc71d70089bf85a88b863e7e10184fd0f2a80a0ef8ed94568c307fd99258dd9e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283237426630747/id_Dr.png?ex=69871825&amp;is=6985c6a5&amp;hm=76f9aa6bf0ca1ad63a6c381f3bd4d70fa9ca6d0f75dc0bb786651b315d0dc837</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283279877177445/id_Ds.png?ex=6987182f&amp;is=6985c6af&amp;hm=337b5d9a1b558f2e7249f048d92058c5e0105c483bb6cd09d632ab1687b19a4d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283320067002399/id_Dt.jpg?ex=69871839&amp;is=6985c6b9&amp;hm=da89344509cee54c29fb133f3858f5752e0673038606370008990a9471f392fc</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283401050751101/id_Du.png?ex=6987184c&amp;is=6985c6cc&amp;hm=153a64e025650ca24bf0864a3a3e92e347ea49dd0f1426d3220606c0724131a5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283445841592443/id_Dv.png?ex=69871857&amp;is=6985c6d7&amp;hm=4abf649517179ac66b6ea665bf0585bf36a76a952e86e01d4b8ea5aef0c43dcb</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1469283506470387755/id_Dw.jpg?ex=69871865&amp;is=6985c6e5&amp;hm=a14c3664de55a90400fd35dac7b974cc0fc2116a3a91b89713bbfc94169f74c2</t>
+  </si>
+  <si>
+    <t>alice in a xxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -3968,11 +4235,25 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4330,111 +4611,113 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4654,10 +4937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1079"/>
+  <dimension ref="A1:O1091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1077" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1080" sqref="B1080"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1092" sqref="B1092"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12732,8 +13015,11 @@
         <v>1286</v>
       </c>
       <c r="K197" s="1"/>
-      <c r="L197" s="60" t="s">
-        <v>1305</v>
+      <c r="L197" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M197" t="s">
+        <v>1315</v>
       </c>
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
@@ -12770,7 +13056,12 @@
         <v>1287</v>
       </c>
       <c r="K198" s="1"/>
-      <c r="L198" s="1"/>
+      <c r="L198" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M198" t="s">
+        <v>1316</v>
+      </c>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
     </row>
@@ -12806,7 +13097,12 @@
         <v>1288</v>
       </c>
       <c r="K199" s="1"/>
-      <c r="L199" s="1"/>
+      <c r="L199" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M199" t="s">
+        <v>1317</v>
+      </c>
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
     </row>
@@ -12842,7 +13138,12 @@
         <v>1289</v>
       </c>
       <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
+      <c r="L200" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M200" t="s">
+        <v>1318</v>
+      </c>
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
     </row>
@@ -12877,7 +13178,12 @@
       <c r="J201" s="63" t="s">
         <v>1290</v>
       </c>
-      <c r="L201" s="1"/>
+      <c r="L201" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M201" t="s">
+        <v>1319</v>
+      </c>
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
     </row>
@@ -12915,7 +13221,12 @@
       <c r="K202" t="s">
         <v>519</v>
       </c>
-      <c r="L202" s="1"/>
+      <c r="L202" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M202" t="s">
+        <v>1320</v>
+      </c>
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
     </row>
@@ -12951,7 +13262,12 @@
         <v>1292</v>
       </c>
       <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
+      <c r="L203" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M203" t="s">
+        <v>1321</v>
+      </c>
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
     </row>
@@ -12986,7 +13302,12 @@
       <c r="J204" s="63" t="s">
         <v>1293</v>
       </c>
-      <c r="L204" s="1"/>
+      <c r="L204" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M204" t="s">
+        <v>1322</v>
+      </c>
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
     </row>
@@ -13021,7 +13342,12 @@
       <c r="J205" s="63" t="s">
         <v>1294</v>
       </c>
-      <c r="L205" s="1"/>
+      <c r="L205" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M205" t="s">
+        <v>1323</v>
+      </c>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
     </row>
@@ -13056,7 +13382,12 @@
       <c r="J206" s="63" t="s">
         <v>1295</v>
       </c>
-      <c r="L206" s="1"/>
+      <c r="L206" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M206" t="s">
+        <v>1324</v>
+      </c>
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
@@ -13092,7 +13423,12 @@
         <v>1296</v>
       </c>
       <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
+      <c r="L207" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1325</v>
+      </c>
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
     </row>
@@ -13128,7 +13464,12 @@
         <v>1297</v>
       </c>
       <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
+      <c r="L208" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M208" t="s">
+        <v>1326</v>
+      </c>
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
     </row>
@@ -13164,7 +13505,12 @@
         <v>1300</v>
       </c>
       <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
+      <c r="L209" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M209" t="s">
+        <v>1327</v>
+      </c>
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
     </row>
@@ -13199,7 +13545,12 @@
       <c r="J210" s="63" t="s">
         <v>1298</v>
       </c>
-      <c r="L210" s="1"/>
+      <c r="L210" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M210" t="s">
+        <v>1328</v>
+      </c>
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
     </row>
@@ -13235,8 +13586,11 @@
         <v>1299</v>
       </c>
       <c r="K211" s="1"/>
-      <c r="L211" s="1" t="s">
-        <v>889</v>
+      <c r="L211" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M211" t="s">
+        <v>1329</v>
       </c>
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
@@ -13260,10 +13614,25 @@
       <c r="F212" s="30">
         <v>45960</v>
       </c>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
+      <c r="G212" s="56">
+        <v>0.1203125</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I212" t="s">
+        <v>823</v>
+      </c>
+      <c r="J212" s="63" t="s">
+        <v>1331</v>
+      </c>
       <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
+      <c r="L212" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M212" t="s">
+        <v>1350</v>
+      </c>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
     </row>
@@ -13286,10 +13655,25 @@
       <c r="F213" s="30">
         <v>45773</v>
       </c>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
+      <c r="G213" s="56">
+        <v>0.23534722222222224</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J213" s="63" t="s">
+        <v>1332</v>
+      </c>
       <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
+      <c r="L213" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M213" t="s">
+        <v>1351</v>
+      </c>
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
     </row>
@@ -13312,9 +13696,24 @@
       <c r="F214" s="29">
         <v>46033</v>
       </c>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="L214" s="1"/>
+      <c r="G214" s="56">
+        <v>0.29263888888888889</v>
+      </c>
+      <c r="H214" s="92" t="s">
+        <v>849</v>
+      </c>
+      <c r="I214" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J214" s="63" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L214" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M214" t="s">
+        <v>1352</v>
+      </c>
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
     </row>
@@ -13337,9 +13736,24 @@
       <c r="F215" s="29">
         <v>46028</v>
       </c>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="L215" s="1"/>
+      <c r="G215" s="56">
+        <v>0.11024305555555557</v>
+      </c>
+      <c r="H215" s="92" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I215" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J215" s="63" t="s">
+        <v>1334</v>
+      </c>
+      <c r="L215" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M215" t="s">
+        <v>1353</v>
+      </c>
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
     </row>
@@ -13362,9 +13776,24 @@
       <c r="F216" s="29">
         <v>44703</v>
       </c>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="L216" s="1"/>
+      <c r="G216" s="56">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="H216" s="92" t="s">
+        <v>834</v>
+      </c>
+      <c r="I216" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J216" s="63" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L216" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M216" t="s">
+        <v>1354</v>
+      </c>
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
     </row>
@@ -13387,9 +13816,24 @@
       <c r="F217" s="29">
         <v>46016</v>
       </c>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="L217" s="1"/>
+      <c r="G217" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H217" s="92" t="s">
+        <v>831</v>
+      </c>
+      <c r="I217" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J217" s="63" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L217" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M217" t="s">
+        <v>1355</v>
+      </c>
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
     </row>
@@ -13412,10 +13856,25 @@
       <c r="F218" s="30">
         <v>45839</v>
       </c>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
+      <c r="G218" s="56">
+        <v>0.39871527777777777</v>
+      </c>
+      <c r="H218" t="s">
+        <v>852</v>
+      </c>
+      <c r="I218" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J218" s="63" t="s">
+        <v>1337</v>
+      </c>
       <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
+      <c r="L218" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M218" t="s">
+        <v>1356</v>
+      </c>
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
     </row>
@@ -13438,12 +13897,27 @@
       <c r="F219" s="30">
         <v>45478</v>
       </c>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
+      <c r="G219" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I219" t="s">
+        <v>838</v>
+      </c>
+      <c r="J219" s="63" t="s">
+        <v>1338</v>
+      </c>
       <c r="K219" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L219" s="1"/>
+      <c r="L219" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M219" t="s">
+        <v>1357</v>
+      </c>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
@@ -13466,10 +13940,25 @@
       <c r="F220" s="30">
         <v>45942</v>
       </c>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
+      <c r="G220" s="56">
+        <v>0.10012731481481481</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J220" s="63" t="s">
+        <v>1339</v>
+      </c>
       <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
+      <c r="L220" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M220" t="s">
+        <v>1358</v>
+      </c>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
     </row>
@@ -13492,9 +13981,24 @@
       <c r="F221" s="29">
         <v>45502</v>
       </c>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="L221" s="1"/>
+      <c r="G221" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J221" s="63" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L221" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M221" t="s">
+        <v>1359</v>
+      </c>
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
     </row>
@@ -13517,10 +14021,25 @@
       <c r="F222" s="30">
         <v>45333</v>
       </c>
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
+      <c r="G222" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J222" s="63" t="s">
+        <v>1341</v>
+      </c>
       <c r="K222" s="1"/>
-      <c r="L222" s="1"/>
+      <c r="L222" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M222" t="s">
+        <v>1360</v>
+      </c>
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
     </row>
@@ -13543,10 +14062,25 @@
       <c r="F223" s="30">
         <v>45537</v>
       </c>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
+      <c r="G223" s="56">
+        <v>0.17872685185185186</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J223" s="63" t="s">
+        <v>1342</v>
+      </c>
       <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
+      <c r="L223" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M223" t="s">
+        <v>1361</v>
+      </c>
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
     </row>
@@ -13569,9 +14103,24 @@
       <c r="F224" s="29">
         <v>45984</v>
       </c>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="L224" s="1"/>
+      <c r="G224" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H224" s="92" t="s">
+        <v>857</v>
+      </c>
+      <c r="I224" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J224" s="63" t="s">
+        <v>1343</v>
+      </c>
+      <c r="L224" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M224" t="s">
+        <v>1362</v>
+      </c>
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
     </row>
@@ -13594,10 +14143,25 @@
       <c r="F225" s="30">
         <v>45752</v>
       </c>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
+      <c r="G225" s="56">
+        <v>0.24913194444444445</v>
+      </c>
+      <c r="H225" t="s">
+        <v>832</v>
+      </c>
+      <c r="I225" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J225" s="63" t="s">
+        <v>1344</v>
+      </c>
       <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
+      <c r="L225" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M225" t="s">
+        <v>1363</v>
+      </c>
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
     </row>
@@ -13620,10 +14184,25 @@
       <c r="F226" s="30">
         <v>45892</v>
       </c>
-      <c r="H226" s="1"/>
-      <c r="I226" s="1"/>
+      <c r="G226" s="56">
+        <v>0.14280092592592594</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I226" t="s">
+        <v>823</v>
+      </c>
+      <c r="J226" s="63" t="s">
+        <v>1345</v>
+      </c>
       <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
+      <c r="L226" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M226" t="s">
+        <v>1364</v>
+      </c>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
     </row>
@@ -13646,10 +14225,25 @@
       <c r="F227" s="30">
         <v>45670</v>
       </c>
-      <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
+      <c r="G227" s="56">
+        <v>0.1534837962962963</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="J227" s="63" t="s">
+        <v>1365</v>
+      </c>
       <c r="K227" s="1"/>
-      <c r="L227" s="1"/>
+      <c r="L227" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M227" t="s">
+        <v>1383</v>
+      </c>
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
     </row>
@@ -13672,10 +14266,27 @@
       <c r="F228" s="30">
         <v>45965</v>
       </c>
+      <c r="G228" s="56">
+        <v>0.13241898148148148</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I228" t="s">
+        <v>823</v>
+      </c>
+      <c r="J228" s="63" t="s">
+        <v>1366</v>
+      </c>
       <c r="K228" s="1">
         <v>4</v>
       </c>
-      <c r="L228" s="1"/>
+      <c r="L228" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M228" t="s">
+        <v>1384</v>
+      </c>
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
     </row>
@@ -13698,7 +14309,25 @@
       <c r="F229" s="30">
         <v>45685</v>
       </c>
+      <c r="G229" s="56">
+        <v>0.1343287037037037</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I229" t="s">
+        <v>823</v>
+      </c>
+      <c r="J229" s="63" t="s">
+        <v>1367</v>
+      </c>
       <c r="K229" s="1"/>
+      <c r="L229" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M229" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="230" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -13719,7 +14348,25 @@
       <c r="F230" s="30">
         <v>45963</v>
       </c>
+      <c r="G230" s="56">
+        <v>0.27565972222222224</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I230" t="s">
+        <v>823</v>
+      </c>
+      <c r="J230" s="63" t="s">
+        <v>1368</v>
+      </c>
       <c r="K230" s="1"/>
+      <c r="L230" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M230" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="231" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -13740,8 +14387,26 @@
       <c r="F231" s="29">
         <v>45575</v>
       </c>
+      <c r="G231" s="56">
+        <v>0.17188657407407407</v>
+      </c>
+      <c r="H231" s="92" t="s">
+        <v>832</v>
+      </c>
+      <c r="I231" t="s">
+        <v>823</v>
+      </c>
+      <c r="J231" s="63" t="s">
+        <v>1369</v>
+      </c>
       <c r="K231" s="10" t="s">
         <v>244</v>
+      </c>
+      <c r="L231" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M231" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13763,8 +14428,26 @@
       <c r="F232" s="29">
         <v>46046</v>
       </c>
+      <c r="G232" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H232" s="92" t="s">
+        <v>832</v>
+      </c>
+      <c r="I232" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J232" s="63" t="s">
+        <v>1370</v>
+      </c>
       <c r="K232" t="s">
         <v>796</v>
+      </c>
+      <c r="L232" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M232" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13786,7 +14469,25 @@
       <c r="F233" s="30">
         <v>45648</v>
       </c>
+      <c r="G233" s="56">
+        <v>0.16243055555555555</v>
+      </c>
+      <c r="H233" s="92" t="s">
+        <v>852</v>
+      </c>
+      <c r="I233" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J233" s="63" t="s">
+        <v>1371</v>
+      </c>
       <c r="K233" s="1"/>
+      <c r="L233" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M233" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="234" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -13807,6 +14508,24 @@
       <c r="F234" s="29">
         <v>45946</v>
       </c>
+      <c r="G234" s="56">
+        <v>0.19827546296296297</v>
+      </c>
+      <c r="H234" t="s">
+        <v>822</v>
+      </c>
+      <c r="I234" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J234" s="63" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L234" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M234" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="235" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -13827,6 +14546,24 @@
       <c r="F235" s="29">
         <v>46046</v>
       </c>
+      <c r="G235" s="56">
+        <v>0.14716435185185187</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I235" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J235" s="63" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L235" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M235" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="236" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -13847,7 +14584,25 @@
       <c r="F236" s="30">
         <v>45501</v>
       </c>
+      <c r="G236" s="56">
+        <v>0.11866898148148149</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I236" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J236" s="63" t="s">
+        <v>1374</v>
+      </c>
       <c r="K236" s="1"/>
+      <c r="L236" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M236" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="237" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -13868,8 +14623,26 @@
       <c r="F237" s="30">
         <v>45976</v>
       </c>
+      <c r="G237" s="56">
+        <v>0.1391087962962963</v>
+      </c>
+      <c r="H237" t="s">
+        <v>822</v>
+      </c>
+      <c r="I237" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J237" s="63" t="s">
+        <v>1375</v>
+      </c>
       <c r="K237" s="1" t="s">
         <v>128</v>
+      </c>
+      <c r="L237" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M237" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13891,6 +14664,24 @@
       <c r="F238" s="29">
         <v>46009</v>
       </c>
+      <c r="G238" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H238" t="s">
+        <v>512</v>
+      </c>
+      <c r="I238" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J238" s="63" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L238" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M238" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="239" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -13911,7 +14702,25 @@
       <c r="F239" s="30">
         <v>45759</v>
       </c>
+      <c r="G239" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H239" t="s">
+        <v>512</v>
+      </c>
+      <c r="I239" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J239" s="63" t="s">
+        <v>1377</v>
+      </c>
       <c r="K239" s="1"/>
+      <c r="L239" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M239" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="240" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -13932,11 +14741,29 @@
       <c r="F240" s="29">
         <v>46001</v>
       </c>
+      <c r="G240" s="56">
+        <v>0.17159722222222221</v>
+      </c>
+      <c r="H240" t="s">
+        <v>832</v>
+      </c>
+      <c r="I240" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J240" s="63" t="s">
+        <v>1378</v>
+      </c>
       <c r="K240" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L240" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M240" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -13955,8 +14782,26 @@
       <c r="F241" s="29">
         <v>45662</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G241" s="56">
+        <v>0.18775462962962963</v>
+      </c>
+      <c r="H241" t="s">
+        <v>852</v>
+      </c>
+      <c r="I241" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="J241" s="63" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L241" s="57" t="s">
+        <v>871</v>
+      </c>
+      <c r="M241" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -13976,7 +14821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13997,7 +14842,7 @@
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -14018,7 +14863,7 @@
       </c>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -14041,7 +14886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -14064,7 +14909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -14084,7 +14929,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -14105,7 +14950,7 @@
       </c>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -14126,7 +14971,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -14147,7 +14992,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14168,7 +15013,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14188,7 +15033,7 @@
         <v>45995</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14209,7 +15054,7 @@
       </c>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14232,7 +15077,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -14253,7 +15098,7 @@
       </c>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -30953,7 +31798,7 @@
         <v>0.23746527777777779</v>
       </c>
       <c r="H1072" s="89" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I1072" s="89" t="s">
         <v>823</v>
@@ -31025,7 +31870,7 @@
         <v>13708102</v>
       </c>
       <c r="C1075" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D1075" s="89" t="s">
         <v>453</v>
@@ -31112,7 +31957,7 @@
         <v>11500183</v>
       </c>
       <c r="C1078" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D1078" s="90" t="s">
         <v>634</v>
@@ -31141,7 +31986,7 @@
         <v>22130000</v>
       </c>
       <c r="C1079" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D1079" s="90" t="s">
         <v>61</v>
@@ -31159,6 +32004,354 @@
         <v>1301</v>
       </c>
       <c r="I1079" s="90" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1080">
+        <v>1079</v>
+      </c>
+      <c r="B1080" s="7">
+        <v>14074649</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D1080" s="91" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1080" s="29">
+        <v>46056</v>
+      </c>
+      <c r="G1080" s="56">
+        <v>0.12465277777777778</v>
+      </c>
+      <c r="H1080" s="91" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I1080" s="91" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1081">
+        <v>1080</v>
+      </c>
+      <c r="B1081" s="7">
+        <v>1672780</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D1081" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1081" s="29">
+        <v>46057</v>
+      </c>
+      <c r="G1081" s="56">
+        <v>0.12855324074074073</v>
+      </c>
+      <c r="H1081" s="91" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I1081" s="91" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1082">
+        <v>1081</v>
+      </c>
+      <c r="B1082" s="7">
+        <v>30809755</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D1082" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>662</v>
+      </c>
+      <c r="F1082" s="29">
+        <v>46054</v>
+      </c>
+      <c r="G1082" s="56">
+        <v>0.32336805555555553</v>
+      </c>
+      <c r="H1082" s="91" t="s">
+        <v>832</v>
+      </c>
+      <c r="I1082" s="91" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1083">
+        <v>1082</v>
+      </c>
+      <c r="B1083" s="7">
+        <v>23912308</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1083" s="91" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1083" s="29">
+        <v>46057</v>
+      </c>
+      <c r="G1083" s="56">
+        <v>0.13390046296296296</v>
+      </c>
+      <c r="H1083" s="91" t="s">
+        <v>832</v>
+      </c>
+      <c r="I1083" s="91" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1084">
+        <v>1083</v>
+      </c>
+      <c r="B1084" s="7">
+        <v>20654702</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1084" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1084" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1084" s="29">
+        <v>46058</v>
+      </c>
+      <c r="G1084" s="56">
+        <v>0.1025462962962963</v>
+      </c>
+      <c r="H1084" s="91" t="s">
+        <v>832</v>
+      </c>
+      <c r="I1084" s="92" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1085">
+        <v>1084</v>
+      </c>
+      <c r="B1085" s="7">
+        <v>25704850</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1085" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1085" s="92" t="s">
+        <v>720</v>
+      </c>
+      <c r="F1085" s="29">
+        <v>46058</v>
+      </c>
+      <c r="G1085" s="56">
+        <v>0.25913194444444443</v>
+      </c>
+      <c r="H1085" s="92" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I1085" s="92" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1086">
+        <v>1085</v>
+      </c>
+      <c r="B1086" s="7">
+        <v>53165970</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1086" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1086" s="92" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1086" s="29">
+        <v>46058</v>
+      </c>
+      <c r="G1086" s="56">
+        <v>0.38252314814814814</v>
+      </c>
+      <c r="H1086" s="92" t="s">
+        <v>849</v>
+      </c>
+      <c r="I1086" s="92" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1087">
+        <v>1086</v>
+      </c>
+      <c r="B1087" s="7">
+        <v>24350000</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D1087" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F1087" s="29">
+        <v>46058</v>
+      </c>
+      <c r="G1087" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1087" s="92" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I1087" s="92" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1088">
+        <v>1087</v>
+      </c>
+      <c r="B1088" s="7">
+        <v>14548774</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1088" s="92" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1088" s="29">
+        <v>46058</v>
+      </c>
+      <c r="G1088" s="56">
+        <v>0.39378472222222222</v>
+      </c>
+      <c r="H1088" s="92" t="s">
+        <v>849</v>
+      </c>
+      <c r="I1088" s="92" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1089">
+        <v>1088</v>
+      </c>
+      <c r="B1089" s="7">
+        <v>5516922</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D1089" s="92" t="s">
+        <v>665</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1089" s="29">
+        <v>46057</v>
+      </c>
+      <c r="G1089" s="56">
+        <v>6.9664351851851852E-2</v>
+      </c>
+      <c r="H1089" s="92" t="s">
+        <v>854</v>
+      </c>
+      <c r="I1089" s="92" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1090">
+        <v>1089</v>
+      </c>
+      <c r="B1090" s="7">
+        <v>10264461</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1090" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1090" s="29">
+        <v>46058</v>
+      </c>
+      <c r="G1090" s="56">
+        <v>5.2013888888888887E-2</v>
+      </c>
+      <c r="H1090" s="92" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1090" s="92" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1091">
+        <v>1090</v>
+      </c>
+      <c r="B1091" s="7">
+        <v>10838881</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D1091" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>535</v>
+      </c>
+      <c r="F1091" s="29">
+        <v>46056</v>
+      </c>
+      <c r="G1091" s="56">
+        <v>6.7094907407407409E-2</v>
+      </c>
+      <c r="H1091" s="92" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1091" s="92" t="s">
         <v>823</v>
       </c>
     </row>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5110" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="1570">
   <si>
     <t>Ņ</t>
   </si>
@@ -4734,6 +4734,9 @@
   </si>
   <si>
     <t>🌨🌨🌨</t>
+  </si>
+  <si>
+    <t>OGRE</t>
   </si>
 </sst>
 </file>
@@ -5475,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1097" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1102" sqref="I1102"/>
+    <sheetView tabSelected="1" topLeftCell="A637" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J639" sqref="J639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24558,7 +24561,7 @@
         <v>45761</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>624</v>
       </c>
@@ -24578,7 +24581,7 @@
         <v>45763</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>625</v>
       </c>
@@ -24598,7 +24601,7 @@
         <v>45734</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>626</v>
       </c>
@@ -24618,7 +24621,7 @@
         <v>46004</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>627</v>
       </c>
@@ -24638,7 +24641,7 @@
         <v>45738</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>628</v>
       </c>
@@ -24658,7 +24661,7 @@
         <v>45746</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>629</v>
       </c>
@@ -24678,7 +24681,7 @@
         <v>45854</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>630</v>
       </c>
@@ -24698,7 +24701,7 @@
         <v>46009</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>631</v>
       </c>
@@ -24718,7 +24721,7 @@
         <v>45719</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>632</v>
       </c>
@@ -24738,7 +24741,7 @@
         <v>45805</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>633</v>
       </c>
@@ -24758,7 +24761,7 @@
         <v>45898</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>634</v>
       </c>
@@ -24778,7 +24781,7 @@
         <v>45738</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>635</v>
       </c>
@@ -24798,7 +24801,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>636</v>
       </c>
@@ -24818,7 +24821,7 @@
         <v>45998</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>637</v>
       </c>
@@ -24837,8 +24840,20 @@
       <c r="F638" s="29">
         <v>45979</v>
       </c>
-    </row>
-    <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G638" s="56">
+        <v>3.0590277777777775E-2</v>
+      </c>
+      <c r="H638" t="s">
+        <v>851</v>
+      </c>
+      <c r="I638" t="s">
+        <v>822</v>
+      </c>
+      <c r="J638" s="63" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>638</v>
       </c>
@@ -24858,7 +24873,7 @@
         <v>45729</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>639</v>
       </c>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5689" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5710" uniqueCount="1780">
   <si>
     <t>Ņ</t>
   </si>
@@ -5352,6 +5352,21 @@
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/1471844339931021342/1471844816114417779/id_CL.png?ex=699069cd&amp;is=698f184d&amp;hm=eb915f63b6e92cbc1cddfa066e78412709fbb5f6a73874b3331dfce0eb699132</t>
+  </si>
+  <si>
+    <t>[𝛥ᶻ⎊Ǝ̸]p¡cture</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Lag/Elite Crasher</t>
+  </si>
+  <si>
+    <t>Poligon/Freyja</t>
+  </si>
+  <si>
+    <t>Auto-Crowbar</t>
   </si>
 </sst>
 </file>
@@ -5363,11 +5378,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5788,121 +5810,122 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6123,10 +6146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1118"/>
+  <dimension ref="A1:O1122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A1118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1123" sqref="B1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37318,6 +37341,122 @@
         <v>821</v>
       </c>
     </row>
+    <row r="1119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1119">
+        <v>1119</v>
+      </c>
+      <c r="B1119" s="7">
+        <v>96050000</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1119" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1119" s="29">
+        <v>46067</v>
+      </c>
+      <c r="G1119" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1119" s="102" t="s">
+        <v>855</v>
+      </c>
+      <c r="I1119" s="102" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1120">
+        <v>1120</v>
+      </c>
+      <c r="B1120" s="7">
+        <v>51447973</v>
+      </c>
+      <c r="C1120" s="102" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D1120" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1120" s="102" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F1120" s="29">
+        <v>46067</v>
+      </c>
+      <c r="G1120" s="56">
+        <v>0.25883101851851853</v>
+      </c>
+      <c r="H1120" s="102" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I1120" s="102" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1121">
+        <v>1121</v>
+      </c>
+      <c r="B1121" s="7">
+        <v>26029230</v>
+      </c>
+      <c r="C1121" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1121" s="102" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E1121" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1121" s="29">
+        <v>46067</v>
+      </c>
+      <c r="G1121" s="56">
+        <v>0.32885416666666667</v>
+      </c>
+      <c r="H1121" s="102" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I1121" s="102" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1122">
+        <v>1122</v>
+      </c>
+      <c r="B1122" s="7">
+        <v>14580138</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1122" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1122" s="102" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1122" s="29">
+        <v>46067</v>
+      </c>
+      <c r="G1122" s="56">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="H1122" s="102" t="s">
+        <v>820</v>
+      </c>
+      <c r="I1122" s="102" t="s">
+        <v>821</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1">
     <sortState ref="A2:K1067">

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5710" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5715" uniqueCount="1780">
   <si>
     <t>Ņ</t>
   </si>
@@ -5378,11 +5378,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5810,121 +5817,122 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6146,10 +6154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1122"/>
+  <dimension ref="A1:O1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1123" sqref="B1123"/>
+    <sheetView tabSelected="1" topLeftCell="A1119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1124" sqref="B1124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -37457,6 +37465,35 @@
         <v>821</v>
       </c>
     </row>
+    <row r="1123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1123">
+        <v>1123</v>
+      </c>
+      <c r="B1123" s="7">
+        <v>100022344</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1123" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1123" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1123" s="29">
+        <v>46067</v>
+      </c>
+      <c r="G1123" s="56">
+        <v>0.55396990740740737</v>
+      </c>
+      <c r="H1123" s="103" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I1123" s="103" t="s">
+        <v>821</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K1">
     <sortState ref="A2:K1067">

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6361" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6747" uniqueCount="2150">
   <si>
     <t>Ņ</t>
   </si>
@@ -6081,6 +6081,402 @@
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/1466759427955888160/1473408344009085049/id_H.jpg?ex=699619f3&amp;is=6994c873&amp;hm=934c3557198eab7ea9f6ad27ee737b0d74292b0e93699df6b0e4af8e15491ef0</t>
+  </si>
+  <si>
+    <t>Solar's Property</t>
+  </si>
+  <si>
+    <t>Kronos/Theia/Paladin/Nyx</t>
+  </si>
+  <si>
+    <t>Mega Auto-Pen</t>
+  </si>
+  <si>
+    <t>Infestordrive</t>
+  </si>
+  <si>
+    <t>Ragnarok/ Elite Crasher</t>
+  </si>
+  <si>
+    <t>helix2</t>
+  </si>
+  <si>
+    <t>けけすけ</t>
+  </si>
+  <si>
+    <t>Warrioragaymoderator</t>
+  </si>
+  <si>
+    <t>H)</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>IJ</t>
+  </si>
+  <si>
+    <t>IK</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>IW</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>IY</t>
+  </si>
+  <si>
+    <t>IZ</t>
+  </si>
+  <si>
+    <t>Ia</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ic</t>
+  </si>
+  <si>
+    <t>Paladin/Eris</t>
+  </si>
+  <si>
+    <t>Server Death</t>
+  </si>
+  <si>
+    <t>Selene/Nyx</t>
+  </si>
+  <si>
+    <t>Enchantress/Elite Crasher</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474133945854464152/id_H.jpg?ex=6998bdb8&amp;is=69976c38&amp;hm=01eb88ab501631085720f9b73148a9cb00213ccdebce2a1bbfefb1fca3d0964d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134019405905961/id_IA.jpg?ex=6998bdca&amp;is=69976c4a&amp;hm=79f876f6fc20f6b61a7d338498aaf60e8a8c3d5088c5048872c3d32ac51d0767</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134066747146312/id_IB.jpg?ex=6998bdd5&amp;is=69976c55&amp;hm=f162325207614fafdd79c7122bc124e29ac07462c77307f5e44a6adfb670af01</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134116998840530/id_IC.jpg?ex=6998bde1&amp;is=69976c61&amp;hm=3580ab4a295b2524d4aff191c10030b5c05807b507a9a013dbacd1b16d611851</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134177577177150/id_ID.jpg?ex=6998bdf0&amp;is=69976c70&amp;hm=0e12e7ffbbfcd79c3f80b6cf1c8dbe2165ce1acdd92369e64c9f9169bbc2236b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134256786604328/id_IE.png?ex=6998be02&amp;is=69976c82&amp;hm=b8fd5da2f86f3909c556aa4927de5fbfa4b64c2525153b4aa386c0942d0d00bb</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134352882565221/id_IF.png?ex=6998be19&amp;is=69976c99&amp;hm=f978fe9a85ea6a99b0653f271779646be2bdbc3299b33a0b6b747d83592e3c5d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134412991008789/id_IG.png?ex=6998be28&amp;is=69976ca8&amp;hm=74db16eb78c59ca6af47c0b1e24aaa63ec3e15e5e1d759c244c880cb17b94407</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134487179989187/id_IH.png?ex=6998be39&amp;is=69976cb9&amp;hm=e9fd48ee7eddd16a574adc52d4e776edfcd3f6b09737903355de3b96a15b55fa</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134534458183751/id_II.jpg?ex=6998be45&amp;is=69976cc5&amp;hm=96b925177b6671609a46fa11e0d4ed5cd4a7c0abc58e655024b4f19eb2a401cd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134596072374272/id_IJ.jpg?ex=6998be53&amp;is=69976cd3&amp;hm=1c103322b9aba9466bf76f066fd720fda2f9bd296b2e5f53e0575c5dda3fcb9b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134660031184927/id_IK.png?ex=6998be63&amp;is=69976ce3&amp;hm=9f5491212be355108638afd37615d31e8b7496fc7696d762ced9f213e3a4853e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134708916060292/id_IL.jpg?ex=6998be6e&amp;is=69976cee&amp;hm=1c163fecd1a835590c9ccee51e927daf483e647a5ef1f2b5c8525733ee62f9a5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134788708499619/id_IM.jpg?ex=6998be81&amp;is=69976d01&amp;hm=285ee0fdd7036a6372be9dbd38cd886f57957fe3e67a3ef3f957e91ab9c758de</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474134892664193075/id_IN.png?ex=6998be9a&amp;is=69976d1a&amp;hm=1f254666940712ceb7a0afcfe8d70da2c45059ce8a206cb0424fd3d97acb8116</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135301126488145/id_IO.png?ex=6998befb&amp;is=69976d7b&amp;hm=48b0cc159a4dfb1c1d9a76b9e54950cc38dcc7da0e1b246b5882083a2ae5e8da</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135358718480384/id_IP.jpg?ex=6998bf09&amp;is=69976d89&amp;hm=8c56eea5763046684376dce4193e3c29584aa2381d98b817a5cb2e1867bf3ab6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135404205572127/id_IQ.png?ex=6998bf14&amp;is=69976d94&amp;hm=b1b2adde451e200b00527383d8a25db109060b9cf2fed33b229499a1e1f8a283</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135468919754835/id_IR.png?ex=6998bf23&amp;is=69976da3&amp;hm=bfad5c0f780b65e25d5fd2096c84056c08a607748ccc5fcc8b24544e7bd2aa84</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135523671933108/id_IS.jpg?ex=6998bf30&amp;is=69976db0&amp;hm=ae40408f15ad08e26800c61af316d07119c241ae32d7442cc16b80f347ec1c72</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135574683058482/id_IT.jpg?ex=6998bf3d&amp;is=69976dbd&amp;hm=a8e27a9dad40ae6c5270109da1ec90bb1738f8bec7f0410f117de1a7f6289cd3</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135627011326015/id_IU.png?ex=6998bf49&amp;is=69976dc9&amp;hm=9260bdf08bf6df8e1eac774378510b9b309c13f35493f4fdd9646151a6bdf26c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135696884105350/id_IV.png?ex=6998bf5a&amp;is=69976dda&amp;hm=392bbae61a5abef43a0aab3bf1f18b8448da57649a0276b56d86e6b15a3c305d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135749405442210/id_IW.jpg?ex=6998bf66&amp;is=69976de6&amp;hm=087ed4ad1ac63d544776e02b6338737c45f80c56449b5b5a0041acd06e2e2514</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135798034071732/id_IX.png?ex=6998bf72&amp;is=69976df2&amp;hm=5aecdc29709869505e976701199d13c244ad3bf6511ee068ab642dc3a43a2085</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135853898141716/id_IY.jpeg?ex=6998bf7f&amp;is=69976dff&amp;hm=c962781b0edc7d6bf39bcfe3998c1658c6a07960b089d13991e3aedb3ae45d94</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135910747734158/id_IZ.png?ex=6998bf8d&amp;is=69976e0d&amp;hm=f8eb023b44ca5f441ea2fcda439a85cc052300c9b065d1380a75578d7b7dabcf</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474135971456094342/id_Ia.jpg?ex=6998bf9b&amp;is=69976e1b&amp;hm=c24296f4bb84bdb2e518e6f3fbf92be974adc251f83cb8f08269b28c417a71c0</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474136019208114449/id_Ib.jpg?ex=6998bfa7&amp;is=69976e27&amp;hm=13fbe53b6377b69ca21e1118fef3036f20f6a61af0eb976628c39a6ccea333d8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474136075470504026/id_Ic.jpg?ex=6998bfb4&amp;is=69976e34&amp;hm=917d77f6dc517c6362b38c88cb40a93ec8931d61ec8a5f690a5f1ddbde411c8a</t>
+  </si>
+  <si>
+    <t>Ie</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Ig</t>
+  </si>
+  <si>
+    <t>Ih</t>
+  </si>
+  <si>
+    <t>Ii</t>
+  </si>
+  <si>
+    <t>Ij</t>
+  </si>
+  <si>
+    <t>Ik</t>
+  </si>
+  <si>
+    <t>Il</t>
+  </si>
+  <si>
+    <t>Im</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Io</t>
+  </si>
+  <si>
+    <t>Ip</t>
+  </si>
+  <si>
+    <t>Iq</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Iu</t>
+  </si>
+  <si>
+    <t>Iv</t>
+  </si>
+  <si>
+    <t>Iw</t>
+  </si>
+  <si>
+    <t>Ix</t>
+  </si>
+  <si>
+    <t>Iy</t>
+  </si>
+  <si>
+    <t>Iz</t>
+  </si>
+  <si>
+    <t>I0</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>Paladin/Nest Warden</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474150560725864588/id_Id.png?ex=6998cd32&amp;is=69977bb2&amp;hm=3e5bd3fdd958e45011c0617166fc41ecc9def4d4476d60e1f4641e786c486e29</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474150615541088287/id_Ie.png?ex=6998cd3f&amp;is=69977bbf&amp;hm=2d5f4c15cb4ebb9457e16abbfe24ad0d652b6471ca74696bb3ff66b915fa6729</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474150674055954453/id_If.png?ex=6998cd4d&amp;is=69977bcd&amp;hm=4df01e196da7e50eb94964caa3720f039629d6b4f600486d5534aefd04d25cf0</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474150793132376176/id_Ig.png?ex=6998cd69&amp;is=69977be9&amp;hm=0e16bea68909dfb97e7b34df61ffabbdc3b50001bb093bb1dbeba1ebf8bc2237</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474150865458954250/id_Ih.png?ex=6998cd7a&amp;is=69977bfa&amp;hm=da02bee16909817d9753108035982c68772e26d708d91216e8863aaba65895d4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151008467943568/id_Ii.jpg?ex=6998cd9c&amp;is=69977c1c&amp;hm=399620d1983bddd383b8f2ecb71e8f51c6e8127aaf675a457634ef915c458dc7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151085550866563/id_Ij.png?ex=6998cdaf&amp;is=69977c2f&amp;hm=95fc8657b5bcefb8582f34af99e9949c4fb0daf06de76326a452adda5fe3bdd7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151142358384722/id_Ik.png?ex=6998cdbc&amp;is=69977c3c&amp;hm=cab1ecb98ff2bb1d8fda75032e4d25c3d6dbc9fc8e1d27bfa539de60027237f6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151217201676440/id_Il.png?ex=6998cdce&amp;is=69977c4e&amp;hm=f9206e7cfdf21269db1f29442a9916b818ad5ef14ae5ea87ac044b1e5cf6d62b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151273082257581/id_Im.png?ex=6998cddb&amp;is=69977c5b&amp;hm=fc28d76e25c0354b1f51a2dd8cdb0c7f7d74af745c99779bb19a1ecbb82b21c5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151337313697823/id_In.png?ex=6998cdeb&amp;is=69977c6b&amp;hm=c130b91996fa4cbcda8a5278460fe8c454439467068fb092da10a2ea4ba3e253</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151403357470741/id_Io.png?ex=6998cdfa&amp;is=69977c7a&amp;hm=3f9c0e3938dc98d2aad88bea91394c78d205f3ae70a613ec738f4a8de90bea10</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151452917366824/id_Ip.png?ex=6998ce06&amp;is=69977c86&amp;hm=626eabd56aceb053d2d232a5a777f7ae3ceb2af0a0a76838a2731bb390a3640c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151504616095824/id_Iq.png?ex=6998ce13&amp;is=69977c93&amp;hm=d41da1f08c024dad6dc0b50688eb827fedc7924b2fb704d29db0f905cb0c08ad</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151551789694996/id_Ir.png?ex=6998ce1e&amp;is=69977c9e&amp;hm=db5dbec84a3b8af37cf96412f6465732302480e89c99274453808acaa30ba7d4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151614427431087/id_Is.png?ex=6998ce2d&amp;is=69977cad&amp;hm=89547e65b6853edf07556dab88d741d54cfef1517e004d6a23cc5c0d202aa182</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151660862574794/id_It.png?ex=6998ce38&amp;is=69977cb8&amp;hm=8589c5e29c477256c2f6d095dcaf92efed17a9a7695a4ec9d48351d526e93e04</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151713169604770/id_Iu.jpg?ex=6998ce44&amp;is=69977cc4&amp;hm=aced2c15bb73e7f9e578cb37f085fabe2d7388262079ecfd5d69e9f80c5aba76</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151770740756602/id_Iv.png?ex=6998ce52&amp;is=69977cd2&amp;hm=c645119d67c9aa0ab96d5dc209bc9eec1525bfdcab9e8acc772a249318e8fb89</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474151835119124753/id_Iw.png?ex=6998ce61&amp;is=69977ce1&amp;hm=7d98cccbd77a1592fb94af4ad8badee5f99d501341e74201a253a0f53390d3dd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152003457388574/id_Ix.jpg?ex=6998ce8a&amp;is=69977d0a&amp;hm=086f352c0b06969dd43047868e9b5fe1fa45dbfa04ed493d785dd45637b40fb9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152048831234048/id_Iy.jpg?ex=6998ce94&amp;is=69977d14&amp;hm=8761c8925d115cf63123015ff144bd9bd8f81d27e7f017e1e5b8b2dcf860d324</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152097581891860/id_Iz.png?ex=6998cea0&amp;is=69977d20&amp;hm=e0107f7a929ace2a54e3c69ce06d94652d07dde88ce47abfac23c8f94cc1f6d6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152150429995148/id_I0.png?ex=6998cead&amp;is=69977d2d&amp;hm=8f760c498b7d94cc361af7170e92872677ad2ca9a2f36ca23502b92c4b5dbd2f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152206163902525/id_I1.jpg?ex=6998ceba&amp;is=69977d3a&amp;hm=29bddd89afec68c5fd25016d536ca71d4c0826c973fb9fd05511822d7c69dd43</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152311767961671/id_I2.jpg?ex=6998ced3&amp;is=69977d53&amp;hm=845b0e87d070f369b97cc6f659df59709b1fe761a8cb82349dc4b67e771c525b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152365484675082/id_I3.jpg?ex=6998cee0&amp;is=69977d60&amp;hm=3d66182e7125a1f9b540560bc19b3c0a792da6e0f4206e6b72cc714e0ab692d7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152476595847394/id_I4.png?ex=6998cefa&amp;is=69977d7a&amp;hm=e8ee05de1ec6948f4a1abb1cc3bddfcb12dff9c56ad0040f60ae967702c56821</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152534217068565/id_I5.jpg?ex=6998cf08&amp;is=69977d88&amp;hm=917ffa8d8e8043fff92b4979be616d63ef8077c7bc919bf7ca29ffa75e401c91</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152593487036502/id_I6.jpeg?ex=6998cf16&amp;is=69977d96&amp;hm=67f7663aec821dbcb655c9add5e497aa9f995f96d13366a6a5ccea5361e333cd</t>
   </si>
 </sst>
 </file>
@@ -6092,11 +6488,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6545,121 +6948,122 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -6668,6 +7072,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -6884,10 +7291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1139"/>
+  <dimension ref="A1:O1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L511" sqref="L511"/>
+    <sheetView tabSelected="1" topLeftCell="A1149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1153" sqref="B1153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13030,7 +13437,7 @@
       <c r="D143" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" s="107" t="s">
         <v>94</v>
       </c>
       <c r="F143" s="30">
@@ -21638,7 +22045,7 @@
         <v>61</v>
       </c>
       <c r="E347" t="s">
-        <v>199</v>
+        <v>2023</v>
       </c>
       <c r="F347" s="29">
         <v>45792</v>
@@ -22266,8 +22673,8 @@
       <c r="G362" s="56" t="s">
         <v>512</v>
       </c>
-      <c r="H362" s="99" t="s">
-        <v>512</v>
+      <c r="H362" s="106" t="s">
+        <v>2057</v>
       </c>
       <c r="I362" s="99" t="s">
         <v>820</v>
@@ -25045,7 +25452,7 @@
         <v>18</v>
       </c>
       <c r="F429" s="29">
-        <v>45802</v>
+        <v>45805</v>
       </c>
       <c r="G429" s="56">
         <v>0.17454861111111111</v>
@@ -25124,7 +25531,7 @@
         <v>5</v>
       </c>
       <c r="E431" t="s">
-        <v>199</v>
+        <v>2023</v>
       </c>
       <c r="F431" s="29">
         <v>45793</v>
@@ -28446,8 +28853,26 @@
       <c r="F511" s="29">
         <v>46018</v>
       </c>
+      <c r="G511" s="56">
+        <v>0.1292939814814815</v>
+      </c>
+      <c r="H511" s="106" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I511" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J511" s="108" t="s">
+        <v>2026</v>
+      </c>
       <c r="K511">
         <v>511</v>
+      </c>
+      <c r="M511" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N511" t="s">
+        <v>2060</v>
       </c>
     </row>
     <row r="512" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28469,11 +28894,29 @@
       <c r="F512" s="29">
         <v>45995</v>
       </c>
+      <c r="G512" s="56">
+        <v>6.9062500000000013E-2</v>
+      </c>
+      <c r="H512" s="106" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I512" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J512" s="108" t="s">
+        <v>2027</v>
+      </c>
       <c r="K512">
         <v>512</v>
       </c>
-    </row>
-    <row r="513" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M512" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N512" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>514</v>
       </c>
@@ -28492,11 +28935,29 @@
       <c r="F513" s="29">
         <v>45712</v>
       </c>
+      <c r="G513" s="56">
+        <v>0.10199074074074073</v>
+      </c>
+      <c r="H513" s="106" t="s">
+        <v>849</v>
+      </c>
+      <c r="I513" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J513" s="108" t="s">
+        <v>2028</v>
+      </c>
       <c r="K513">
         <v>513</v>
       </c>
-    </row>
-    <row r="514" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M513" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N513" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>515</v>
       </c>
@@ -28515,11 +28976,29 @@
       <c r="F514" s="29">
         <v>45857</v>
       </c>
+      <c r="G514" s="56">
+        <v>0.11542824074074075</v>
+      </c>
+      <c r="H514" s="106" t="s">
+        <v>829</v>
+      </c>
+      <c r="I514" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J514" s="108" t="s">
+        <v>2029</v>
+      </c>
       <c r="K514">
         <v>514</v>
       </c>
-    </row>
-    <row r="515" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M514" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N514" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>516</v>
       </c>
@@ -28538,11 +29017,29 @@
       <c r="F515" s="29">
         <v>45474</v>
       </c>
+      <c r="G515" s="56">
+        <v>0.16848379629629628</v>
+      </c>
+      <c r="H515" t="s">
+        <v>839</v>
+      </c>
+      <c r="I515" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J515" s="108" t="s">
+        <v>2030</v>
+      </c>
       <c r="K515">
         <v>515</v>
       </c>
-    </row>
-    <row r="516" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M515" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N515" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>517</v>
       </c>
@@ -28561,11 +29058,29 @@
       <c r="F516" s="29">
         <v>46009</v>
       </c>
+      <c r="G516" s="56">
+        <v>0.10950231481481482</v>
+      </c>
+      <c r="H516" s="106" t="s">
+        <v>846</v>
+      </c>
+      <c r="I516" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J516" s="108" t="s">
+        <v>2031</v>
+      </c>
       <c r="K516">
         <v>516</v>
       </c>
-    </row>
-    <row r="517" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M516" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N516" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>518</v>
       </c>
@@ -28584,11 +29099,29 @@
       <c r="F517" s="29">
         <v>46005</v>
       </c>
+      <c r="G517" s="56">
+        <v>6.5474537037037039E-2</v>
+      </c>
+      <c r="H517" s="106" t="s">
+        <v>2056</v>
+      </c>
+      <c r="I517" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J517" s="108" t="s">
+        <v>2032</v>
+      </c>
       <c r="K517">
         <v>517</v>
       </c>
-    </row>
-    <row r="518" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M517" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N517" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>519</v>
       </c>
@@ -28607,14 +29140,32 @@
       <c r="F518" s="29">
         <v>44711</v>
       </c>
+      <c r="G518" s="56">
+        <v>6.6423611111111114E-2</v>
+      </c>
+      <c r="H518" s="106" t="s">
+        <v>851</v>
+      </c>
+      <c r="I518" s="106" t="s">
+        <v>827</v>
+      </c>
+      <c r="J518" s="108" t="s">
+        <v>2033</v>
+      </c>
       <c r="K518">
         <v>518</v>
       </c>
       <c r="L518" s="7" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="519" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M518" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N518" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>520</v>
       </c>
@@ -28633,11 +29184,29 @@
       <c r="F519" s="29">
         <v>45996</v>
       </c>
+      <c r="G519" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H519" s="106" t="s">
+        <v>2057</v>
+      </c>
+      <c r="I519" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J519" s="108" t="s">
+        <v>2034</v>
+      </c>
       <c r="K519">
         <v>519</v>
       </c>
-    </row>
-    <row r="520" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M519" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N519" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>521</v>
       </c>
@@ -28656,11 +29225,29 @@
       <c r="F520" s="29">
         <v>45759</v>
       </c>
+      <c r="G520" s="56">
+        <v>0.10259259259259258</v>
+      </c>
+      <c r="H520" s="106" t="s">
+        <v>829</v>
+      </c>
+      <c r="I520" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J520" s="108" t="s">
+        <v>2035</v>
+      </c>
       <c r="K520">
         <v>520</v>
       </c>
-    </row>
-    <row r="521" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M520" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N520" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>522</v>
       </c>
@@ -28679,11 +29266,29 @@
       <c r="F521" s="29">
         <v>46033</v>
       </c>
+      <c r="G521" s="56">
+        <v>8.4618055555555557E-2</v>
+      </c>
+      <c r="H521" s="106" t="s">
+        <v>839</v>
+      </c>
+      <c r="I521" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J521" s="108" t="s">
+        <v>2036</v>
+      </c>
       <c r="K521">
         <v>521</v>
       </c>
-    </row>
-    <row r="522" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M521" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N521" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>523</v>
       </c>
@@ -28702,14 +29307,32 @@
       <c r="F522" s="29">
         <v>46001</v>
       </c>
+      <c r="G522" s="56">
+        <v>8.8912037037037039E-2</v>
+      </c>
+      <c r="H522" s="106" t="s">
+        <v>819</v>
+      </c>
+      <c r="I522" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J522" s="108" t="s">
+        <v>2037</v>
+      </c>
       <c r="K522">
         <v>522</v>
       </c>
       <c r="L522" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="523" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M522" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N522" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>524</v>
       </c>
@@ -28728,11 +29351,29 @@
       <c r="F523" s="29">
         <v>46040</v>
       </c>
+      <c r="G523" s="56">
+        <v>9.7430555555555562E-2</v>
+      </c>
+      <c r="H523" s="106" t="s">
+        <v>2058</v>
+      </c>
+      <c r="I523" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J523" s="108" t="s">
+        <v>2038</v>
+      </c>
       <c r="K523">
         <v>523</v>
       </c>
-    </row>
-    <row r="524" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M523" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N523" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>525</v>
       </c>
@@ -28751,11 +29392,29 @@
       <c r="F524" s="29">
         <v>45808</v>
       </c>
+      <c r="G524" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H524" t="s">
+        <v>512</v>
+      </c>
+      <c r="I524" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J524" s="108" t="s">
+        <v>2039</v>
+      </c>
       <c r="K524">
         <v>524</v>
       </c>
-    </row>
-    <row r="525" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M524" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N524" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>526</v>
       </c>
@@ -28774,11 +29433,29 @@
       <c r="F525" s="29">
         <v>46018</v>
       </c>
+      <c r="G525" s="56">
+        <v>0.10162037037037037</v>
+      </c>
+      <c r="H525" s="106" t="s">
+        <v>899</v>
+      </c>
+      <c r="I525" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J525" s="108" t="s">
+        <v>2040</v>
+      </c>
       <c r="K525">
         <v>525</v>
       </c>
-    </row>
-    <row r="526" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M525" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N525" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>527</v>
       </c>
@@ -28797,11 +29474,29 @@
       <c r="F526" s="29">
         <v>45703</v>
       </c>
+      <c r="G526" s="56">
+        <v>0.10755787037037036</v>
+      </c>
+      <c r="H526" s="106" t="s">
+        <v>825</v>
+      </c>
+      <c r="I526" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J526" s="108" t="s">
+        <v>2041</v>
+      </c>
       <c r="K526">
         <v>526</v>
       </c>
-    </row>
-    <row r="527" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M526" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N526" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>528</v>
       </c>
@@ -28820,11 +29515,29 @@
       <c r="F527" s="29">
         <v>45850</v>
       </c>
+      <c r="G527" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H527" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I527" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J527" s="108" t="s">
+        <v>2042</v>
+      </c>
       <c r="K527">
         <v>527</v>
       </c>
-    </row>
-    <row r="528" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M527" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N527" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>529</v>
       </c>
@@ -28843,11 +29556,29 @@
       <c r="F528" s="29">
         <v>45968</v>
       </c>
+      <c r="G528" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H528" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I528" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J528" s="108" t="s">
+        <v>2043</v>
+      </c>
       <c r="K528">
         <v>528</v>
       </c>
-    </row>
-    <row r="529" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M528" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N528" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>530</v>
       </c>
@@ -28866,11 +29597,29 @@
       <c r="F529" s="30">
         <v>45878</v>
       </c>
+      <c r="G529" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H529" t="s">
+        <v>512</v>
+      </c>
+      <c r="I529" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J529" s="108" t="s">
+        <v>2044</v>
+      </c>
       <c r="K529">
         <v>529</v>
       </c>
-    </row>
-    <row r="530" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M529" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N529" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>531</v>
       </c>
@@ -28889,12 +29638,30 @@
       <c r="F530" s="30">
         <v>45762</v>
       </c>
+      <c r="G530" s="56">
+        <v>0.2870138888888889</v>
+      </c>
+      <c r="H530" t="s">
+        <v>849</v>
+      </c>
+      <c r="I530" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J530" s="108" t="s">
+        <v>2045</v>
+      </c>
       <c r="K530">
         <v>530</v>
       </c>
       <c r="L530" s="1"/>
-    </row>
-    <row r="531" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M530" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N530" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>532</v>
       </c>
@@ -28913,12 +29680,30 @@
       <c r="F531" s="29">
         <v>45690</v>
       </c>
+      <c r="G531" s="56">
+        <v>6.4548611111111112E-2</v>
+      </c>
+      <c r="H531" s="106" t="s">
+        <v>849</v>
+      </c>
+      <c r="I531" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J531" s="108" t="s">
+        <v>2046</v>
+      </c>
       <c r="K531">
         <v>531</v>
       </c>
       <c r="L531" s="1"/>
-    </row>
-    <row r="532" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M531" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N531" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>533</v>
       </c>
@@ -28937,11 +29722,29 @@
       <c r="F532" s="29">
         <v>45539</v>
       </c>
+      <c r="G532" s="56">
+        <v>9.4710648148148155E-2</v>
+      </c>
+      <c r="H532" s="106" t="s">
+        <v>829</v>
+      </c>
+      <c r="I532" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J532" s="108" t="s">
+        <v>2047</v>
+      </c>
       <c r="K532">
         <v>532</v>
       </c>
-    </row>
-    <row r="533" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M532" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N532" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>534</v>
       </c>
@@ -28960,11 +29763,29 @@
       <c r="F533" s="29">
         <v>45741</v>
       </c>
+      <c r="G533" s="56">
+        <v>0.20898148148148146</v>
+      </c>
+      <c r="H533" s="106" t="s">
+        <v>829</v>
+      </c>
+      <c r="I533" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J533" s="108" t="s">
+        <v>2048</v>
+      </c>
       <c r="K533">
         <v>533</v>
       </c>
-    </row>
-    <row r="534" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M533" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N533" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>535</v>
       </c>
@@ -28983,11 +29804,29 @@
       <c r="F534" s="29">
         <v>46033</v>
       </c>
+      <c r="G534" s="56">
+        <v>5.9120370370370372E-2</v>
+      </c>
+      <c r="H534" s="106" t="s">
+        <v>853</v>
+      </c>
+      <c r="I534" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J534" s="108" t="s">
+        <v>2049</v>
+      </c>
       <c r="K534">
         <v>534</v>
       </c>
-    </row>
-    <row r="535" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M534" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N534" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>536</v>
       </c>
@@ -29006,11 +29845,29 @@
       <c r="F535" s="29">
         <v>46018</v>
       </c>
+      <c r="G535" s="56">
+        <v>9.7175925925925929E-2</v>
+      </c>
+      <c r="H535" s="106" t="s">
+        <v>844</v>
+      </c>
+      <c r="I535" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J535" s="108" t="s">
+        <v>2050</v>
+      </c>
       <c r="K535">
         <v>535</v>
       </c>
-    </row>
-    <row r="536" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M535" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N535" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>537</v>
       </c>
@@ -29029,11 +29886,29 @@
       <c r="F536" s="29">
         <v>46035</v>
       </c>
+      <c r="G536" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H536" s="106" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I536" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J536" s="108" t="s">
+        <v>2051</v>
+      </c>
       <c r="K536">
         <v>536</v>
       </c>
-    </row>
-    <row r="537" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M536" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N536" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>538</v>
       </c>
@@ -29052,11 +29927,29 @@
       <c r="F537" s="29">
         <v>45793</v>
       </c>
+      <c r="G537" s="56">
+        <v>8.3831018518518527E-2</v>
+      </c>
+      <c r="H537" s="106" t="s">
+        <v>839</v>
+      </c>
+      <c r="I537" s="106" t="s">
+        <v>827</v>
+      </c>
+      <c r="J537" s="108" t="s">
+        <v>2052</v>
+      </c>
       <c r="K537">
         <v>537</v>
       </c>
-    </row>
-    <row r="538" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M537" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N537" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>539</v>
       </c>
@@ -29075,11 +29968,29 @@
       <c r="F538" s="30">
         <v>45763</v>
       </c>
+      <c r="G538" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H538" t="s">
+        <v>846</v>
+      </c>
+      <c r="I538" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J538" s="108" t="s">
+        <v>2053</v>
+      </c>
       <c r="K538">
         <v>538</v>
       </c>
-    </row>
-    <row r="539" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M538" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N538" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>540</v>
       </c>
@@ -29098,12 +30009,30 @@
       <c r="F539" s="29">
         <v>45763</v>
       </c>
+      <c r="G539" s="56">
+        <v>0.43700231481481483</v>
+      </c>
+      <c r="H539" s="106" t="s">
+        <v>2059</v>
+      </c>
+      <c r="I539" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J539" s="108" t="s">
+        <v>2054</v>
+      </c>
       <c r="K539">
         <v>539</v>
       </c>
       <c r="L539" s="1"/>
-    </row>
-    <row r="540" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M539" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N539" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>541</v>
       </c>
@@ -29122,11 +30051,29 @@
       <c r="F540" s="30">
         <v>45738</v>
       </c>
+      <c r="G540" s="56">
+        <v>0.10885416666666665</v>
+      </c>
+      <c r="H540" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I540" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J540" s="108" t="s">
+        <v>2055</v>
+      </c>
       <c r="K540">
         <v>540</v>
       </c>
-    </row>
-    <row r="541" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M540" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N540" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>542</v>
       </c>
@@ -29145,12 +30092,30 @@
       <c r="F541" s="29">
         <v>46013</v>
       </c>
+      <c r="G541" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H541" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I541" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J541" s="108" t="s">
+        <v>858</v>
+      </c>
       <c r="K541">
         <v>541</v>
       </c>
       <c r="L541" s="1"/>
-    </row>
-    <row r="542" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M541" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N541" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>543</v>
       </c>
@@ -29169,11 +30134,29 @@
       <c r="F542" s="5">
         <v>45912</v>
       </c>
+      <c r="G542" s="56">
+        <v>7.604166666666666E-2</v>
+      </c>
+      <c r="H542" t="s">
+        <v>851</v>
+      </c>
+      <c r="I542" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J542" s="108" t="s">
+        <v>2090</v>
+      </c>
       <c r="K542">
         <v>542</v>
       </c>
-    </row>
-    <row r="543" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M542" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N542" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>544</v>
       </c>
@@ -29192,11 +30175,29 @@
       <c r="F543" s="30">
         <v>45963</v>
       </c>
+      <c r="G543" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H543" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I543" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J543" s="108" t="s">
+        <v>2091</v>
+      </c>
       <c r="K543">
         <v>543</v>
       </c>
-    </row>
-    <row r="544" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M543" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N543" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>545</v>
       </c>
@@ -29215,12 +30216,30 @@
       <c r="F544" s="29">
         <v>45965</v>
       </c>
+      <c r="G544" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H544" s="106" t="s">
+        <v>952</v>
+      </c>
+      <c r="I544" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J544" s="108" t="s">
+        <v>2092</v>
+      </c>
       <c r="K544">
         <v>544</v>
       </c>
       <c r="L544" s="1"/>
-    </row>
-    <row r="545" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M544" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N544" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>546</v>
       </c>
@@ -29239,11 +30258,29 @@
       <c r="F545" s="29">
         <v>45592</v>
       </c>
+      <c r="G545" s="56">
+        <v>0.1595486111111111</v>
+      </c>
+      <c r="H545" s="106" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I545" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J545" s="108" t="s">
+        <v>2093</v>
+      </c>
       <c r="K545">
         <v>545</v>
       </c>
-    </row>
-    <row r="546" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M545" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N545" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>547</v>
       </c>
@@ -29262,11 +30299,29 @@
       <c r="F546" s="29">
         <v>46009</v>
       </c>
+      <c r="G546" s="56">
+        <v>7.9039351851851861E-2</v>
+      </c>
+      <c r="H546" s="106" t="s">
+        <v>846</v>
+      </c>
+      <c r="I546" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J546" s="108" t="s">
+        <v>2094</v>
+      </c>
       <c r="K546">
         <v>546</v>
       </c>
-    </row>
-    <row r="547" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M546" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N546" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>548</v>
       </c>
@@ -29285,14 +30340,32 @@
       <c r="F547" s="29">
         <v>45294</v>
       </c>
+      <c r="G547" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H547" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I547" s="106" t="s">
+        <v>835</v>
+      </c>
+      <c r="J547" s="108" t="s">
+        <v>2095</v>
+      </c>
       <c r="K547">
         <v>547</v>
       </c>
       <c r="L547" s="51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M547" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N547" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>549</v>
       </c>
@@ -29311,11 +30384,29 @@
       <c r="F548" s="29">
         <v>45875</v>
       </c>
+      <c r="G548" s="56">
+        <v>0.11576388888888889</v>
+      </c>
+      <c r="H548" s="106" t="s">
+        <v>849</v>
+      </c>
+      <c r="I548" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J548" s="108" t="s">
+        <v>2096</v>
+      </c>
       <c r="K548">
         <v>548</v>
       </c>
-    </row>
-    <row r="549" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M548" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N548" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>550</v>
       </c>
@@ -29334,14 +30425,32 @@
       <c r="F549" s="29">
         <v>45516</v>
       </c>
+      <c r="G549" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H549" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I549" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J549" s="108" t="s">
+        <v>2097</v>
+      </c>
       <c r="K549">
         <v>549</v>
       </c>
       <c r="L549" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="550" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M549" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N549" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>551</v>
       </c>
@@ -29360,14 +30469,32 @@
       <c r="F550" s="29">
         <v>45199</v>
       </c>
+      <c r="G550" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H550" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I550" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J550" s="108" t="s">
+        <v>2098</v>
+      </c>
       <c r="K550">
         <v>550</v>
       </c>
       <c r="L550" s="51" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="551" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M550" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N550" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>552</v>
       </c>
@@ -29386,14 +30513,32 @@
       <c r="F551" s="34">
         <v>45759</v>
       </c>
+      <c r="G551" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H551" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I551" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J551" s="108" t="s">
+        <v>2099</v>
+      </c>
       <c r="K551">
         <v>551</v>
       </c>
       <c r="L551" s="101" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="552" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M551" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N551" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>553</v>
       </c>
@@ -29412,11 +30557,29 @@
       <c r="F552" s="29">
         <v>46015</v>
       </c>
+      <c r="G552" s="56">
+        <v>5.0439814814814819E-2</v>
+      </c>
+      <c r="H552" s="106" t="s">
+        <v>828</v>
+      </c>
+      <c r="I552" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J552" s="108" t="s">
+        <v>2100</v>
+      </c>
       <c r="K552">
         <v>552</v>
       </c>
-    </row>
-    <row r="553" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M552" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N552" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>554</v>
       </c>
@@ -29435,14 +30598,32 @@
       <c r="F553" s="29">
         <v>46002</v>
       </c>
+      <c r="G553" s="56">
+        <v>0.22958333333333333</v>
+      </c>
+      <c r="H553" s="106" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I553" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J553" s="108" t="s">
+        <v>2101</v>
+      </c>
       <c r="K553">
         <v>553</v>
       </c>
       <c r="L553" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="554" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M553" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N553" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>555</v>
       </c>
@@ -29461,11 +30642,29 @@
       <c r="F554" s="35">
         <v>45940</v>
       </c>
+      <c r="G554" s="56">
+        <v>0.10940972222222223</v>
+      </c>
+      <c r="H554" s="106" t="s">
+        <v>901</v>
+      </c>
+      <c r="I554" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J554" s="108" t="s">
+        <v>2102</v>
+      </c>
       <c r="K554">
         <v>554</v>
       </c>
-    </row>
-    <row r="555" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M554" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N554" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>556</v>
       </c>
@@ -29484,11 +30683,29 @@
       <c r="F555" s="29">
         <v>46027</v>
       </c>
+      <c r="G555" s="56">
+        <v>0.10769675925925926</v>
+      </c>
+      <c r="H555" s="106" t="s">
+        <v>951</v>
+      </c>
+      <c r="I555" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J555" s="108" t="s">
+        <v>2103</v>
+      </c>
       <c r="K555">
         <v>555</v>
       </c>
-    </row>
-    <row r="556" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M555" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N555" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>557</v>
       </c>
@@ -29507,11 +30724,29 @@
       <c r="F556" s="29">
         <v>46031</v>
       </c>
+      <c r="G556" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H556" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I556" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J556" s="108" t="s">
+        <v>2104</v>
+      </c>
       <c r="K556">
         <v>556</v>
       </c>
-    </row>
-    <row r="557" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M556" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N556" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>558</v>
       </c>
@@ -29530,11 +30765,29 @@
       <c r="F557" s="29">
         <v>46033</v>
       </c>
+      <c r="G557" s="56">
+        <v>6.1956018518518514E-2</v>
+      </c>
+      <c r="H557" s="106" t="s">
+        <v>956</v>
+      </c>
+      <c r="I557" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J557" s="108" t="s">
+        <v>2105</v>
+      </c>
       <c r="K557">
         <v>557</v>
       </c>
-    </row>
-    <row r="558" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M557" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N557" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>559</v>
       </c>
@@ -29553,11 +30806,29 @@
       <c r="F558" s="29">
         <v>45991</v>
       </c>
+      <c r="G558" s="56">
+        <v>4.5173611111111116E-2</v>
+      </c>
+      <c r="H558" s="106" t="s">
+        <v>819</v>
+      </c>
+      <c r="I558" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J558" s="108" t="s">
+        <v>2106</v>
+      </c>
       <c r="K558">
         <v>558</v>
       </c>
-    </row>
-    <row r="559" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M558" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N558" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>560</v>
       </c>
@@ -29576,12 +30847,30 @@
       <c r="F559" s="30">
         <v>45621</v>
       </c>
+      <c r="G559" s="109">
+        <v>0.13516203703703702</v>
+      </c>
+      <c r="H559" t="s">
+        <v>849</v>
+      </c>
+      <c r="I559" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J559" s="108" t="s">
+        <v>2107</v>
+      </c>
       <c r="K559">
         <v>559</v>
       </c>
       <c r="L559" s="1"/>
-    </row>
-    <row r="560" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M559" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N559" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>561</v>
       </c>
@@ -29600,12 +30889,30 @@
       <c r="F560" s="30">
         <v>45689</v>
       </c>
+      <c r="G560" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I560" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J560" s="108" t="s">
+        <v>2108</v>
+      </c>
       <c r="K560">
         <v>560</v>
       </c>
       <c r="L560" s="1"/>
-    </row>
-    <row r="561" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M560" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N560" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>562</v>
       </c>
@@ -29624,11 +30931,29 @@
       <c r="F561" s="29">
         <v>46047</v>
       </c>
+      <c r="G561" s="56">
+        <v>5.1944444444444439E-2</v>
+      </c>
+      <c r="H561" s="106" t="s">
+        <v>1372</v>
+      </c>
+      <c r="I561" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J561" s="108" t="s">
+        <v>2109</v>
+      </c>
       <c r="K561">
         <v>561</v>
       </c>
-    </row>
-    <row r="562" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M561" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N561" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>563</v>
       </c>
@@ -29647,11 +30972,29 @@
       <c r="F562" s="29">
         <v>45854</v>
       </c>
+      <c r="G562" s="56">
+        <v>9.2152777777777764E-2</v>
+      </c>
+      <c r="H562" s="106" t="s">
+        <v>846</v>
+      </c>
+      <c r="I562" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J562" s="108" t="s">
+        <v>2110</v>
+      </c>
       <c r="K562">
         <v>562</v>
       </c>
-    </row>
-    <row r="563" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M562" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N562" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>564</v>
       </c>
@@ -29670,14 +31013,32 @@
       <c r="F563" s="30">
         <v>45088</v>
       </c>
+      <c r="G563" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H563" t="s">
+        <v>512</v>
+      </c>
+      <c r="I563" s="106" t="s">
+        <v>295</v>
+      </c>
+      <c r="J563" s="108" t="s">
+        <v>2111</v>
+      </c>
       <c r="K563">
         <v>563</v>
       </c>
       <c r="L563" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="564" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M563" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N563" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>565</v>
       </c>
@@ -29696,11 +31057,29 @@
       <c r="F564" s="29">
         <v>45430</v>
       </c>
+      <c r="G564" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H564" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I564" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J564" s="108" t="s">
+        <v>2112</v>
+      </c>
       <c r="K564">
         <v>564</v>
       </c>
-    </row>
-    <row r="565" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M564" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N564" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>566</v>
       </c>
@@ -29719,11 +31098,29 @@
       <c r="F565" s="30">
         <v>45737</v>
       </c>
+      <c r="G565" s="56">
+        <v>7.9155092592592582E-2</v>
+      </c>
+      <c r="H565" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I565" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J565" s="108" t="s">
+        <v>2113</v>
+      </c>
       <c r="K565">
         <v>565</v>
       </c>
-    </row>
-    <row r="566" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M565" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N565" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>567</v>
       </c>
@@ -29742,11 +31139,29 @@
       <c r="F566" s="29">
         <v>45758</v>
       </c>
+      <c r="G566" s="56">
+        <v>0.14020833333333335</v>
+      </c>
+      <c r="H566" s="106" t="s">
+        <v>829</v>
+      </c>
+      <c r="I566" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J566" s="108" t="s">
+        <v>2114</v>
+      </c>
       <c r="K566">
         <v>566</v>
       </c>
-    </row>
-    <row r="567" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M566" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N566" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>568</v>
       </c>
@@ -29765,12 +31180,30 @@
       <c r="F567" s="30">
         <v>45802</v>
       </c>
+      <c r="G567" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H567" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I567" s="106" t="s">
+        <v>827</v>
+      </c>
+      <c r="J567" s="108" t="s">
+        <v>2115</v>
+      </c>
       <c r="K567">
         <v>567</v>
       </c>
       <c r="L567" s="1"/>
-    </row>
-    <row r="568" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M567" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N567" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>569</v>
       </c>
@@ -29789,11 +31222,29 @@
       <c r="F568" s="29">
         <v>45991</v>
       </c>
+      <c r="G568" s="56">
+        <v>7.7592592592592588E-2</v>
+      </c>
+      <c r="H568" s="106" t="s">
+        <v>819</v>
+      </c>
+      <c r="I568" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J568" s="108" t="s">
+        <v>2116</v>
+      </c>
       <c r="K568">
         <v>568</v>
       </c>
-    </row>
-    <row r="569" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M568" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N568" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>570</v>
       </c>
@@ -29812,11 +31263,29 @@
       <c r="F569" s="29">
         <v>46029</v>
       </c>
+      <c r="G569" s="56">
+        <v>0.10349537037037038</v>
+      </c>
+      <c r="H569" s="106" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I569" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J569" s="108" t="s">
+        <v>2117</v>
+      </c>
       <c r="K569">
         <v>569</v>
       </c>
-    </row>
-    <row r="570" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M569" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N569" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>571</v>
       </c>
@@ -29835,11 +31304,29 @@
       <c r="F570" s="29">
         <v>46033</v>
       </c>
+      <c r="G570" s="109" t="s">
+        <v>512</v>
+      </c>
+      <c r="H570" s="106" t="s">
+        <v>846</v>
+      </c>
+      <c r="I570" s="106" t="s">
+        <v>820</v>
+      </c>
+      <c r="J570" s="108" t="s">
+        <v>2118</v>
+      </c>
       <c r="K570">
         <v>570</v>
       </c>
-    </row>
-    <row r="571" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M570" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N570" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>572</v>
       </c>
@@ -29862,7 +31349,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>573</v>
       </c>
@@ -29885,7 +31372,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>574</v>
       </c>
@@ -29908,7 +31395,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>575</v>
       </c>
@@ -29931,7 +31418,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>576</v>
       </c>
@@ -29954,7 +31441,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>577</v>
       </c>
@@ -29991,7 +31478,7 @@
         <v>61</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>199</v>
+        <v>2023</v>
       </c>
       <c r="F577" s="30">
         <v>45802</v>
@@ -42020,7 +43507,7 @@
         <v>1127</v>
       </c>
       <c r="B1126" s="7">
-        <v>50470000</v>
+        <v>50486454</v>
       </c>
       <c r="C1126" s="104" t="s">
         <v>1778</v>
@@ -42032,13 +43519,13 @@
         <v>1779</v>
       </c>
       <c r="F1126" s="29">
-        <v>46068</v>
-      </c>
-      <c r="G1126" s="56" t="s">
-        <v>512</v>
-      </c>
-      <c r="H1126" s="104" t="s">
-        <v>512</v>
+        <v>46067</v>
+      </c>
+      <c r="G1126" s="56">
+        <v>0.23541666666666669</v>
+      </c>
+      <c r="H1126" s="106" t="s">
+        <v>819</v>
       </c>
       <c r="I1126" s="104" t="s">
         <v>820</v>
@@ -42418,6 +43905,383 @@
         <v>819</v>
       </c>
       <c r="I1139" s="105" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1140">
+        <v>1141</v>
+      </c>
+      <c r="B1140" s="7">
+        <v>35655031</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D1140" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1140" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1140" s="29">
+        <v>46072</v>
+      </c>
+      <c r="G1140" s="56">
+        <v>0.36799768518518516</v>
+      </c>
+      <c r="H1140" s="105" t="s">
+        <v>819</v>
+      </c>
+      <c r="I1140" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1141">
+        <v>1142</v>
+      </c>
+      <c r="B1141" s="7">
+        <v>36864125</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1141" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1141" s="106" t="s">
+        <v>708</v>
+      </c>
+      <c r="F1141" s="29">
+        <v>46071</v>
+      </c>
+      <c r="G1141" s="56">
+        <v>0.17954861111111112</v>
+      </c>
+      <c r="H1141" s="106" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I1141" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1142">
+        <v>1143</v>
+      </c>
+      <c r="B1142" s="7">
+        <v>30640670</v>
+      </c>
+      <c r="C1142" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1142" s="106" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1142" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1142" s="29">
+        <v>46072</v>
+      </c>
+      <c r="G1142" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1142" s="106" t="s">
+        <v>831</v>
+      </c>
+      <c r="I1142" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1143">
+        <v>1144</v>
+      </c>
+      <c r="B1143" s="7">
+        <v>15712931</v>
+      </c>
+      <c r="C1143" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1143" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1143" s="106" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1143" s="29">
+        <v>46072</v>
+      </c>
+      <c r="G1143" s="56">
+        <v>0.12391203703703703</v>
+      </c>
+      <c r="H1143" s="106" t="s">
+        <v>899</v>
+      </c>
+      <c r="I1143" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1144">
+        <v>1145</v>
+      </c>
+      <c r="B1144" s="7">
+        <v>9843456</v>
+      </c>
+      <c r="C1144" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1144" s="106" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E1144" s="106" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1144" s="29">
+        <v>46071</v>
+      </c>
+      <c r="G1144" s="56">
+        <v>7.6990740740740735E-2</v>
+      </c>
+      <c r="H1144" s="106" t="s">
+        <v>839</v>
+      </c>
+      <c r="I1144" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1145">
+        <v>1146</v>
+      </c>
+      <c r="B1145" s="7">
+        <v>14251597</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1145" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1145" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1145" s="29">
+        <v>46071</v>
+      </c>
+      <c r="G1145" s="56">
+        <v>8.4189814814814815E-2</v>
+      </c>
+      <c r="H1145" s="106" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I1145" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1146">
+        <v>1147</v>
+      </c>
+      <c r="B1146" s="7">
+        <v>1099415</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>652</v>
+      </c>
+      <c r="D1146" s="106" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E1146" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1146" s="29">
+        <v>46071</v>
+      </c>
+      <c r="G1146" s="56">
+        <v>4.5798611111111109E-2</v>
+      </c>
+      <c r="H1146" s="106" t="s">
+        <v>851</v>
+      </c>
+      <c r="I1146" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1147">
+        <v>1148</v>
+      </c>
+      <c r="B1147" s="7">
+        <v>31682775</v>
+      </c>
+      <c r="C1147" s="104" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D1147" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1147" s="106" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1147" s="29">
+        <v>46072</v>
+      </c>
+      <c r="G1147" s="56">
+        <v>0.23855324074074072</v>
+      </c>
+      <c r="H1147" s="106" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I1147" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1148">
+        <v>1149</v>
+      </c>
+      <c r="B1148" s="7">
+        <v>18360000</v>
+      </c>
+      <c r="C1148" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1148" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1148" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1148" s="30">
+        <v>45810</v>
+      </c>
+      <c r="G1148" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1148" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1148" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1149">
+        <v>1150</v>
+      </c>
+      <c r="B1149" s="7">
+        <v>13235952</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1149" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1149" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1149" s="29">
+        <v>46071</v>
+      </c>
+      <c r="G1149" s="56">
+        <v>7.5243055555555563E-2</v>
+      </c>
+      <c r="H1149" s="106" t="s">
+        <v>899</v>
+      </c>
+      <c r="I1149" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1150">
+        <v>1151</v>
+      </c>
+      <c r="B1150" s="7">
+        <v>20711868</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1150" s="106" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1150" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1150" s="29">
+        <v>46072</v>
+      </c>
+      <c r="G1150" s="56">
+        <v>0.22328703703703703</v>
+      </c>
+      <c r="H1150" s="106" t="s">
+        <v>819</v>
+      </c>
+      <c r="I1150" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1151">
+        <v>1152</v>
+      </c>
+      <c r="B1151" s="7">
+        <v>10391822</v>
+      </c>
+      <c r="C1151" s="106" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D1151" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1151" s="29">
+        <v>46072</v>
+      </c>
+      <c r="G1151" s="56">
+        <v>0.19957175925925927</v>
+      </c>
+      <c r="H1151" s="106" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I1151" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1152">
+        <v>1153</v>
+      </c>
+      <c r="B1152" s="7">
+        <v>1805444</v>
+      </c>
+      <c r="C1152" s="106" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D1152" s="106" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1152" s="106" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1152" s="29">
+        <v>46072</v>
+      </c>
+      <c r="G1152" s="56">
+        <v>0.20549768518518519</v>
+      </c>
+      <c r="H1152" s="106" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I1152" s="106" t="s">
         <v>820</v>
       </c>
     </row>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6747" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6919" uniqueCount="2216">
   <si>
     <t>Ņ</t>
   </si>
@@ -6477,6 +6477,204 @@
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474152593487036502/id_I6.jpeg?ex=6998cf16&amp;is=69977d96&amp;hm=67f7663aec821dbcb655c9add5e497aa9f995f96d13366a6a5ccea5361e333cd</t>
+  </si>
+  <si>
+    <t>Deus ex machina</t>
+  </si>
+  <si>
+    <t>Creator</t>
+  </si>
+  <si>
+    <t>Nest Warden/Elite Skimmer/Ragnarok</t>
+  </si>
+  <si>
+    <t>Melder</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I(</t>
+  </si>
+  <si>
+    <t>I)</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t>JO</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>JQ</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>JT</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>JV</t>
+  </si>
+  <si>
+    <t>JW</t>
+  </si>
+  <si>
+    <t>JX</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>Enchantress/Summoner/Sorcerer</t>
+  </si>
+  <si>
+    <t>Freyja/Nyx</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474429757016899688/id_I7.jpg?ex=6999d137&amp;is=69987fb7&amp;hm=38d47edcf573f8b6c1c64ba719487c2b2b990a4dfe37330866cb4c3f62f18d3b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474429821776953476/id_I8.png?ex=6999d147&amp;is=69987fc7&amp;hm=b64f098545d63c5c36fc0bf085b358afe2d7818d802e2665c1aef36b0d9ae39a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474429879452700864/id_I9.jpg?ex=6999d154&amp;is=69987fd4&amp;hm=11476af5e56708f2f08f05925c514b072c03cbe7f5c34ccb9a13622916584504</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474429943952969961/id_I.jpg?ex=6999d164&amp;is=69987fe4&amp;hm=ae56210cfd483e1a9582b3cac88c326537552d725454644c07ee7a9fee3c1e44</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474429999200211037/id_I.png?ex=6999d171&amp;is=69987ff1&amp;hm=37d6f5ca3514334ad4c3658b095200f6275eb91425b73b04283c4fc25d94fe2e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430051289137334/id_JA.png?ex=6999d17d&amp;is=69987ffd&amp;hm=b31f3faf5c67d3bd58048bd3a46ab8cc6ec18a022d35daa116bcce1f98c6329a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430112844742687/id_JB.png?ex=6999d18c&amp;is=6998800c&amp;hm=1e2336defefc0a3af053076882ba4d7b309deca3e2300550efefc2dc587ad19a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430205899837500/id_JC.png?ex=6999d1a2&amp;is=69988022&amp;hm=c16c06f88cd45fe283734063325572bbf95a94960271d6bbe369d8edd7293349</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430310132482158/id_JD.jpg?ex=6999d1bb&amp;is=6998803b&amp;hm=40f01f16d3276bda7654a5fe5bc2f4d690bc7bc95c105be4e59ac06a981f0764</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430359587258561/id_JE.jpg?ex=6999d1c7&amp;is=69988047&amp;hm=2104459db8b7f593ef011776314327ec2a761ebdc4100c413b2c02cfa361ebaa</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430408006438982/id_JF.jpg?ex=6999d1d2&amp;is=69988052&amp;hm=8474b163556dc77fdcee5d8990a1a8c5b1730db6b3629869ad9af595be9c2a05</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430467984851178/id_JG.png?ex=6999d1e1&amp;is=69988061&amp;hm=022852d35c5e7923751cd834b3c0b188e71d73b1a77680774b88ab81a40b5751</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430540034736339/id_JH.png?ex=6999d1f2&amp;is=69988072&amp;hm=4e3ef0aa9c428430604fc715e1a4e9b3bdddce2fcb509d5a084c2ca04e7adf34</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430715188740219/id_JI.jpg?ex=6999d21c&amp;is=6998809c&amp;hm=88a2e7e7c0d205c33de7e1fbf83576bc0dfd5b3b62f11649b60fee003eec9ce1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474430833958850700/id_JJ.jpg?ex=6999d238&amp;is=699880b8&amp;hm=f43ad4eb0d22165c2099cee7c6d897156cebb3fd829322b11b5e3ad0951fcffb</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474432480521093271/id_JK.png?ex=6999d3c0&amp;is=69988240&amp;hm=cf25acf2846b2f78b1bbbc62f8ca751619a17ac40f518cd50a7441f9a5ec428b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474432542299127993/id_JL.png?ex=6999d3cf&amp;is=6998824f&amp;hm=7eee619c41075063b1f1e7953f606a9c966ba7ea571b1bc4a708c450d5ba04f3</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474432617523712141/id_JM.jpg?ex=6999d3e1&amp;is=69988261&amp;hm=67a19290655567cdee5c72b05e0809af741849ff02e7cd44eac9921c44e4d6ca</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474432673190641922/id_JN.png?ex=6999d3ee&amp;is=6998826e&amp;hm=1f1c49228b260490e2ffc3be89db8474eff349790bc7eec836e7141edd7fce69</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474432841277509826/id_JO.png?ex=6999d416&amp;is=69988296&amp;hm=f84e06dc37d5e1cb53ab99e91384c768ccf0924f7f6e2b3fdd93a47aa05ea04f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474432909615300709/id_JP.png?ex=6999d427&amp;is=699882a7&amp;hm=b893257c3db8e63160d5ce306df8cbd99244d0a637614e9ee751cdc57ac84feb</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474432975398633624/id_JQ.png?ex=6999d436&amp;is=699882b6&amp;hm=948cbaad81d747b8c261dfd85477d673bc1e70d021d7c5cc747c91ad9d73218c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433050342326486/id_JR.png?ex=6999d448&amp;is=699882c8&amp;hm=4d0a526d41c7ec10988e2f35626a8bc2f6acbe4a09d53bafe092ac1579cf69b0</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433177064833126/id_JS.png?ex=6999d467&amp;is=699882e7&amp;hm=63516b2ff51ffb40a613016d7c66f2988e168dfa46ef68f11d0f64a308c2d651</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433229334384777/id_JT.png?ex=6999d473&amp;is=699882f3&amp;hm=10dfcacf6d0b34878dcf2b77ac009a5b5dfad6008f396d44e2089110474de1e2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433321948938372/id_JU.png?ex=6999d489&amp;is=69988309&amp;hm=82e5834d2a3de0e0e56fbc57a2232fdfddc97aeb54fa992b5e65b3717ba7183b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433452656033995/id_JV.png?ex=6999d4a8&amp;is=69988328&amp;hm=e25bd21aa6288b68cf5b8cc8d693f956936e8d83b6f61763469b7f4f52beed46</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433638136287355/id_JW.jpg?ex=6999d4d4&amp;is=69988354&amp;hm=ff026dbff5d2b4b1edae0969d490186baa3cf89b8e5ad624b22df55aaa8882c5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433706998632590/id_JX.jpg?ex=6999d4e5&amp;is=69988365&amp;hm=4474bd650fbc46c27dacfffa3e6ee589afc283a8869c5217fd4d3ab63fe74e80</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474433991883882588/id_JZ.jpg?ex=6999d529&amp;is=699883a9&amp;hm=3c833f13dac8281e435217053f5c3a69fddae1a1cfb1be4e4e8ce424cbba06a4</t>
   </si>
 </sst>
 </file>
@@ -6488,11 +6686,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6948,121 +7153,122 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7071,10 +7277,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -7291,10 +7497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1152"/>
+  <dimension ref="A1:O1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1153" sqref="B1153"/>
+    <sheetView tabSelected="1" topLeftCell="B596" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M635" sqref="M635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31345,8 +31551,26 @@
       <c r="F571" s="29">
         <v>45769</v>
       </c>
+      <c r="G571" s="56">
+        <v>0.12288194444444445</v>
+      </c>
+      <c r="H571" s="110" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I571" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J571" s="63" t="s">
+        <v>2154</v>
+      </c>
       <c r="K571">
         <v>571</v>
+      </c>
+      <c r="M571" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N571" t="s">
+        <v>2186</v>
       </c>
     </row>
     <row r="572" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31368,8 +31592,26 @@
       <c r="F572" s="29">
         <v>45783</v>
       </c>
+      <c r="G572" s="56">
+        <v>7.9965277777777774E-2</v>
+      </c>
+      <c r="H572" s="110" t="s">
+        <v>829</v>
+      </c>
+      <c r="I572" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J572" s="63" t="s">
+        <v>2155</v>
+      </c>
       <c r="K572">
         <v>572</v>
+      </c>
+      <c r="M572" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N572" t="s">
+        <v>2187</v>
       </c>
     </row>
     <row r="573" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31391,8 +31633,26 @@
       <c r="F573" s="29">
         <v>45446</v>
       </c>
+      <c r="G573" s="56">
+        <v>6.4513888888888885E-2</v>
+      </c>
+      <c r="H573" s="110" t="s">
+        <v>829</v>
+      </c>
+      <c r="I573" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J573" s="63" t="s">
+        <v>2156</v>
+      </c>
       <c r="K573">
         <v>573</v>
+      </c>
+      <c r="M573" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N573" t="s">
+        <v>2188</v>
       </c>
     </row>
     <row r="574" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31414,8 +31674,26 @@
       <c r="F574" s="29">
         <v>45699</v>
       </c>
+      <c r="G574" s="56">
+        <v>7.0868055555555545E-2</v>
+      </c>
+      <c r="H574" s="110" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I574" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J574" s="63" t="s">
+        <v>2157</v>
+      </c>
       <c r="K574">
         <v>574</v>
+      </c>
+      <c r="M574" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N574" t="s">
+        <v>2189</v>
       </c>
     </row>
     <row r="575" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31437,8 +31715,26 @@
       <c r="F575" s="29">
         <v>45795</v>
       </c>
+      <c r="G575" s="56">
+        <v>0.30337962962962967</v>
+      </c>
+      <c r="H575" s="110" t="s">
+        <v>828</v>
+      </c>
+      <c r="I575" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J575" s="63" t="s">
+        <v>2158</v>
+      </c>
       <c r="K575">
         <v>575</v>
+      </c>
+      <c r="M575" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N575" t="s">
+        <v>2190</v>
       </c>
     </row>
     <row r="576" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31460,11 +31756,29 @@
       <c r="F576" s="29">
         <v>45706</v>
       </c>
+      <c r="G576" s="56">
+        <v>0.13135416666666666</v>
+      </c>
+      <c r="H576" s="110" t="s">
+        <v>849</v>
+      </c>
+      <c r="I576" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J576" s="63" t="s">
+        <v>2159</v>
+      </c>
       <c r="K576">
         <v>576</v>
       </c>
-    </row>
-    <row r="577" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M576" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N576" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>578</v>
       </c>
@@ -31483,12 +31797,30 @@
       <c r="F577" s="30">
         <v>45802</v>
       </c>
+      <c r="G577" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H577" t="s">
+        <v>512</v>
+      </c>
+      <c r="I577" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J577" s="63" t="s">
+        <v>2160</v>
+      </c>
       <c r="K577">
         <v>577</v>
       </c>
       <c r="L577" s="1"/>
-    </row>
-    <row r="578" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M577" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N577" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>579</v>
       </c>
@@ -31507,11 +31839,29 @@
       <c r="F578" s="30">
         <v>45728</v>
       </c>
+      <c r="G578" s="56">
+        <v>9.5162037037037031E-2</v>
+      </c>
+      <c r="H578" t="s">
+        <v>849</v>
+      </c>
+      <c r="I578" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J578" s="63" t="s">
+        <v>2161</v>
+      </c>
       <c r="K578">
         <v>578</v>
       </c>
-    </row>
-    <row r="579" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M578" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N578" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>580</v>
       </c>
@@ -31530,11 +31880,29 @@
       <c r="F579" s="29">
         <v>45788</v>
       </c>
+      <c r="G579" s="56">
+        <v>0.14002314814814815</v>
+      </c>
+      <c r="H579" s="110" t="s">
+        <v>849</v>
+      </c>
+      <c r="I579" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J579" s="63" t="s">
+        <v>2162</v>
+      </c>
       <c r="K579">
         <v>579</v>
       </c>
-    </row>
-    <row r="580" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M579" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N579" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>581</v>
       </c>
@@ -31553,11 +31921,29 @@
       <c r="F580" s="29">
         <v>45797</v>
       </c>
+      <c r="G580" s="56">
+        <v>6.6701388888888893E-2</v>
+      </c>
+      <c r="H580" s="110" t="s">
+        <v>849</v>
+      </c>
+      <c r="I580" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J580" s="63" t="s">
+        <v>2163</v>
+      </c>
       <c r="K580">
         <v>580</v>
       </c>
-    </row>
-    <row r="581" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M580" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N580" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>582</v>
       </c>
@@ -31576,11 +31962,29 @@
       <c r="F581" s="29">
         <v>45765</v>
       </c>
+      <c r="G581" s="56">
+        <v>0.10349537037037038</v>
+      </c>
+      <c r="H581" s="110" t="s">
+        <v>2184</v>
+      </c>
+      <c r="I581" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J581" s="63" t="s">
+        <v>2164</v>
+      </c>
       <c r="K581">
         <v>581</v>
       </c>
-    </row>
-    <row r="582" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M581" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N581" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>583</v>
       </c>
@@ -31599,11 +32003,29 @@
       <c r="F582" s="29">
         <v>46010</v>
       </c>
+      <c r="G582" s="56">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H582" s="110" t="s">
+        <v>829</v>
+      </c>
+      <c r="I582" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J582" s="63" t="s">
+        <v>2165</v>
+      </c>
       <c r="K582">
         <v>582</v>
       </c>
-    </row>
-    <row r="583" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M582" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N582" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>584</v>
       </c>
@@ -31622,11 +32044,29 @@
       <c r="F583" s="29">
         <v>45984</v>
       </c>
+      <c r="G583" s="56">
+        <v>4.6724537037037044E-2</v>
+      </c>
+      <c r="H583" s="110" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I583" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J583" s="63" t="s">
+        <v>2166</v>
+      </c>
       <c r="K583">
         <v>583</v>
       </c>
-    </row>
-    <row r="584" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M583" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N583" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>585</v>
       </c>
@@ -31645,11 +32085,29 @@
       <c r="F584" s="29">
         <v>46046</v>
       </c>
+      <c r="G584" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H584" s="110" t="s">
+        <v>844</v>
+      </c>
+      <c r="I584" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J584" s="63" t="s">
+        <v>2167</v>
+      </c>
       <c r="K584">
         <v>584</v>
       </c>
-    </row>
-    <row r="585" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M584" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N584" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>586</v>
       </c>
@@ -31668,11 +32126,29 @@
       <c r="F585" s="29">
         <v>46039</v>
       </c>
+      <c r="G585" s="56">
+        <v>0.1467013888888889</v>
+      </c>
+      <c r="H585" s="110" t="s">
+        <v>981</v>
+      </c>
+      <c r="I585" s="110" t="s">
+        <v>295</v>
+      </c>
+      <c r="J585" s="63" t="s">
+        <v>2168</v>
+      </c>
       <c r="K585">
         <v>585</v>
       </c>
-    </row>
-    <row r="586" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M585" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N585" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>587</v>
       </c>
@@ -31691,11 +32167,29 @@
       <c r="F586" s="29">
         <v>46010</v>
       </c>
+      <c r="G586" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H586" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="I586" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J586" s="63" t="s">
+        <v>2169</v>
+      </c>
       <c r="K586">
         <v>586</v>
       </c>
-    </row>
-    <row r="587" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M586" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N586" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>588</v>
       </c>
@@ -31714,14 +32208,32 @@
       <c r="F587" s="29">
         <v>46001</v>
       </c>
+      <c r="G587" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H587" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="I587" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J587" s="63" t="s">
+        <v>2170</v>
+      </c>
       <c r="K587">
         <v>587</v>
       </c>
       <c r="L587" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="588" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M587" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N587" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>589</v>
       </c>
@@ -31740,11 +32252,29 @@
       <c r="F588" s="29">
         <v>45152</v>
       </c>
+      <c r="G588" s="56">
+        <v>0.13768518518518519</v>
+      </c>
+      <c r="H588" s="110" t="s">
+        <v>819</v>
+      </c>
+      <c r="I588" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J588" s="63" t="s">
+        <v>2171</v>
+      </c>
       <c r="K588">
         <v>588</v>
       </c>
-    </row>
-    <row r="589" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M588" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N588" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>590</v>
       </c>
@@ -31763,11 +32293,29 @@
       <c r="F589" s="29">
         <v>45977</v>
       </c>
+      <c r="G589" s="56">
+        <v>8.3877314814814807E-2</v>
+      </c>
+      <c r="H589" s="110" t="s">
+        <v>901</v>
+      </c>
+      <c r="I589" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J589" s="63" t="s">
+        <v>2172</v>
+      </c>
       <c r="K589">
         <v>589</v>
       </c>
-    </row>
-    <row r="590" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M589" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N589" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>591</v>
       </c>
@@ -31786,11 +32334,29 @@
       <c r="F590" s="29">
         <v>46027</v>
       </c>
+      <c r="G590" s="56">
+        <v>0.1017013888888889</v>
+      </c>
+      <c r="H590" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="I590" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J590" s="63" t="s">
+        <v>2173</v>
+      </c>
       <c r="K590">
         <v>590</v>
       </c>
-    </row>
-    <row r="591" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M590" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N590" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>592</v>
       </c>
@@ -31809,14 +32375,32 @@
       <c r="F591" s="29">
         <v>45294</v>
       </c>
+      <c r="G591" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H591" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="I591" s="110" t="s">
+        <v>835</v>
+      </c>
+      <c r="J591" s="63" t="s">
+        <v>2174</v>
+      </c>
       <c r="K591">
         <v>591</v>
       </c>
       <c r="L591" s="51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="592" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M591" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N591" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>593</v>
       </c>
@@ -31835,11 +32419,29 @@
       <c r="F592" s="29">
         <v>45946</v>
       </c>
+      <c r="G592" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H592" s="110" t="s">
+        <v>512</v>
+      </c>
+      <c r="I592" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J592" s="63" t="s">
+        <v>2175</v>
+      </c>
       <c r="K592">
         <v>592</v>
       </c>
-    </row>
-    <row r="593" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M592" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N592" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>594</v>
       </c>
@@ -31858,14 +32460,32 @@
       <c r="F593" s="29">
         <v>46001</v>
       </c>
+      <c r="G593" s="56">
+        <v>8.700231481481481E-2</v>
+      </c>
+      <c r="H593" s="110" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I593" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J593" s="63" t="s">
+        <v>2176</v>
+      </c>
       <c r="K593">
         <v>593</v>
       </c>
       <c r="L593" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="594" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M593" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N593" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>595</v>
       </c>
@@ -31884,14 +32504,32 @@
       <c r="F594" s="30">
         <v>45073</v>
       </c>
+      <c r="G594" s="56">
+        <v>0.24995370370370371</v>
+      </c>
+      <c r="H594" t="s">
+        <v>831</v>
+      </c>
+      <c r="I594" s="110" t="s">
+        <v>295</v>
+      </c>
+      <c r="J594" s="63" t="s">
+        <v>2177</v>
+      </c>
       <c r="K594">
         <v>594</v>
       </c>
       <c r="L594" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="595" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M594" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N594" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>596</v>
       </c>
@@ -31910,11 +32548,29 @@
       <c r="F595" s="29">
         <v>45647</v>
       </c>
+      <c r="G595" s="56">
+        <v>0.10234953703703703</v>
+      </c>
+      <c r="H595" t="s">
+        <v>829</v>
+      </c>
+      <c r="I595" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J595" s="63" t="s">
+        <v>2178</v>
+      </c>
       <c r="K595">
         <v>595</v>
       </c>
-    </row>
-    <row r="596" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M595" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N595" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>597</v>
       </c>
@@ -31933,11 +32589,29 @@
       <c r="F596" s="29">
         <v>46005</v>
       </c>
+      <c r="G596" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="H596" t="s">
+        <v>512</v>
+      </c>
+      <c r="I596" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J596" s="63" t="s">
+        <v>2179</v>
+      </c>
       <c r="K596">
         <v>596</v>
       </c>
-    </row>
-    <row r="597" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M596" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N596" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>598</v>
       </c>
@@ -31956,11 +32630,29 @@
       <c r="F597" s="29">
         <v>45957</v>
       </c>
+      <c r="G597" s="56">
+        <v>9.4502314814814817E-2</v>
+      </c>
+      <c r="H597" t="s">
+        <v>819</v>
+      </c>
+      <c r="I597" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J597" s="63" t="s">
+        <v>2180</v>
+      </c>
       <c r="K597">
         <v>597</v>
       </c>
-    </row>
-    <row r="598" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M597" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N597" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>599</v>
       </c>
@@ -31979,11 +32671,29 @@
       <c r="F598" s="29">
         <v>45998</v>
       </c>
+      <c r="G598" s="56">
+        <v>8.6030092592592589E-2</v>
+      </c>
+      <c r="H598" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I598" s="110" t="s">
+        <v>295</v>
+      </c>
+      <c r="J598" s="63" t="s">
+        <v>2181</v>
+      </c>
       <c r="K598">
         <v>598</v>
       </c>
-    </row>
-    <row r="599" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M598" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N598" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>600</v>
       </c>
@@ -32002,11 +32712,29 @@
       <c r="F599" s="29">
         <v>45998</v>
       </c>
+      <c r="G599" s="56">
+        <v>0.11135416666666666</v>
+      </c>
+      <c r="H599" t="s">
+        <v>844</v>
+      </c>
+      <c r="I599" s="110" t="s">
+        <v>295</v>
+      </c>
+      <c r="J599" s="63" t="s">
+        <v>2182</v>
+      </c>
       <c r="K599">
         <v>599</v>
       </c>
-    </row>
-    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M599" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N599" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>601</v>
       </c>
@@ -32025,11 +32753,29 @@
       <c r="F600" s="29">
         <v>46012</v>
       </c>
+      <c r="G600" s="56">
+        <v>5.5567129629629626E-2</v>
+      </c>
+      <c r="H600" t="s">
+        <v>825</v>
+      </c>
+      <c r="I600" s="110" t="s">
+        <v>820</v>
+      </c>
+      <c r="J600" s="63" t="s">
+        <v>2183</v>
+      </c>
       <c r="K600">
         <v>600</v>
       </c>
-    </row>
-    <row r="601" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M600" s="57" t="s">
+        <v>868</v>
+      </c>
+      <c r="N600" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>602</v>
       </c>
@@ -32055,7 +32801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="602" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>603</v>
       </c>
@@ -32078,7 +32824,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>604</v>
       </c>
@@ -32101,7 +32847,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>605</v>
       </c>
@@ -32124,7 +32870,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>606</v>
       </c>
@@ -32150,7 +32896,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>607</v>
       </c>
@@ -32173,7 +32919,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>608</v>
       </c>
@@ -32196,7 +32942,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="608" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>609</v>
       </c>
@@ -44282,6 +45028,93 @@
         <v>1190</v>
       </c>
       <c r="I1152" s="106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1153">
+        <v>1154</v>
+      </c>
+      <c r="B1153" s="7">
+        <v>19687708</v>
+      </c>
+      <c r="C1153" s="110" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D1153" s="110" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E1153" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1153" s="29">
+        <v>46073</v>
+      </c>
+      <c r="G1153" s="56">
+        <v>0.20443287037037039</v>
+      </c>
+      <c r="H1153" s="110" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I1153" s="110" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1154">
+        <v>1155</v>
+      </c>
+      <c r="B1154" s="7">
+        <v>39229228</v>
+      </c>
+      <c r="C1154" s="104" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D1154" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1154" s="110" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1154" s="29">
+        <v>46073</v>
+      </c>
+      <c r="G1154" s="56">
+        <v>0.21200231481481482</v>
+      </c>
+      <c r="H1154" s="110" t="s">
+        <v>844</v>
+      </c>
+      <c r="I1154" s="110" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1155">
+        <v>1156</v>
+      </c>
+      <c r="B1155" s="7">
+        <v>10007377</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1155" s="110" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E1155" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1155" s="29">
+        <v>46073</v>
+      </c>
+      <c r="G1155" s="56">
+        <v>8.1793981481481481E-2</v>
+      </c>
+      <c r="H1155" s="110" t="s">
+        <v>829</v>
+      </c>
+      <c r="I1155" s="110" t="s">
         <v>820</v>
       </c>
     </row>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="2279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7390" uniqueCount="2410">
   <si>
     <t>Ņ</t>
   </si>
@@ -4715,9 +4715,6 @@
     <t>🌨🌨🌨</t>
   </si>
   <si>
-    <t>OGRE</t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
@@ -6386,9 +6383,6 @@
     <t>Paladin/Nest Warden</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474150560725864588/id_Id.png?ex=6998cd32&amp;is=69977bb2&amp;hm=3e5bd3fdd958e45011c0617166fc41ecc9def4d4476d60e1f4641e786c486e29</t>
-  </si>
-  <si>
     <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474150615541088287/id_Ie.png?ex=6998cd3f&amp;is=69977bbf&amp;hm=2d5f4c15cb4ebb9457e16abbfe24ad0d652b6471ca74696bb3ff66b915fa6729</t>
   </si>
   <si>
@@ -6864,6 +6858,405 @@
   </si>
   <si>
     <t>Stalker</t>
+  </si>
+  <si>
+    <t>Efe</t>
+  </si>
+  <si>
+    <t>Stall</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1471844339931021342/1474655501026332803/id_Id.png?ex=699aa375&amp;is=699951f5&amp;hm=ef551ccb936d1a6b1b859e1e6f28c6ce4ae50730f869e26f5585351039bca4cd</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J(</t>
+  </si>
+  <si>
+    <t>J)</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>KJ</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>KQ</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>Eris/Exorcistor/Summoner</t>
+  </si>
+  <si>
+    <t>Summoner/Exorcistor</t>
+  </si>
+  <si>
+    <t>LC/Nest Warden</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474673844160565338/id_J3.png?ex=699ab48a&amp;is=6999630a&amp;hm=fe21f247efb3e12cbf3e3132a49c613434816b12ad714e89dc04d1197ca08bdf</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474673904936030318/id_J4.jpg?ex=699ab499&amp;is=69996319&amp;hm=57f446b5908faabafc47cd5439edcebfe6d9fd8d6b46fa9bdde730f313886dd0</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474673966378389587/id_J5.png?ex=699ab4a7&amp;is=69996327&amp;hm=d3d4bcfc6fa13e7150df3cc2a9a5a38dda7327b97e041ef894b497cdf6776e49</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674017502887966/id_J6.png?ex=699ab4b3&amp;is=69996333&amp;hm=319fc43c20c57cc4a6d48cbef7251cae40f34f38b8a14ca913f7e738639d82e8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674081130614844/id_J7.jpg?ex=699ab4c3&amp;is=69996343&amp;hm=e12076700d0d0f72fd8f4b99de8d59a224d609340058a920b1870620ae3acd40</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674130237263913/id_J8.jpg?ex=699ab4ce&amp;is=6999634e&amp;hm=669dcc658d4dec324eaef5049e7021dbc4a8952920767717f2309afbf8e45671</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674187867263078/id_J9.png?ex=699ab4dc&amp;is=6999635c&amp;hm=32705bd9166507692fc847801e0ec00318ac9a26377557cc8632944d93cca267</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674245203132532/id_J.png?ex=699ab4ea&amp;is=6999636a&amp;hm=c0717e2c1d43c1cab66c81cc97cf8f527d0d451d245bb13c0e628ebbcd1a7fae</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674323879887041/id_J.png?ex=699ab4fc&amp;is=6999637c&amp;hm=44b3529fa65e080283d3d475b254b491d9c5be2b8ba26c332557e2676fc99267</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674409376583761/id_KA.png?ex=699ab511&amp;is=69996391&amp;hm=9282573c3736743091432539fae23c63da0ac6f48aef4ac29d95787148815102</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674463470653561/id_KB.jpeg?ex=699ab51e&amp;is=6999639e&amp;hm=b3f54fd034b8000cf5e9950ca35eb0dda98f74853901616b64a0028f1dad97ce</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674513948966976/id_KC.jpg?ex=699ab52a&amp;is=699963aa&amp;hm=3b13af3f73edf9c6a6b0f1b1abb02a59f4d9e755c5d3206b0baa315b01e5e845</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674618219630692/id_KD.jpg?ex=699ab543&amp;is=699963c3&amp;hm=15d1e4054f13165264bada9993a0bb98606ad2ee4387888b577b8e42a7c84bf1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674672451715273/id_KE.jpg?ex=699ab550&amp;is=699963d0&amp;hm=bc602eb504f5adca1061b2a776cf6f782285b930c574270ca3a329e2e2ffe60e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474674724788371567/id_KF.png?ex=699ab55c&amp;is=699963dc&amp;hm=56fd3fba593169582c663ceab845cf29eabf69755dd436568aeb2d3624cc5934</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675382732062861/id_KG.jpg?ex=699ab5f9&amp;is=69996479&amp;hm=9369b84ba058cbf41639fb3eb3909641b57cd6ea18a54101f9989150d0312e5b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675447060234394/id_KH.jpg?ex=699ab608&amp;is=69996488&amp;hm=3262e54df0be5fc74905837f18e1b2a9171a75896c3aefdf3a1f415d916af4b9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675499476455455/id_KI.png?ex=699ab615&amp;is=69996495&amp;hm=ec1be96f34d51e61577709b6efa19e761add04ab4a51381728e5bc1660616e7d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675638899314708/id_KJ.jpg?ex=699ab636&amp;is=699964b6&amp;hm=43b953850e81e78ffe9c6858e8cbd203445acff1d89591f0467821c8ebc86c03</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675697623765032/id_KK.jpg?ex=699ab644&amp;is=699964c4&amp;hm=e172c5e0648049b81ed5b002c5ca93abea16f0783d14cc0b8fd2eb54855c58a7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675750731776062/id_KL.jpg?ex=699ab651&amp;is=699964d1&amp;hm=34b5e5ebca1bf5d393538cf2db1baead1788b6ed084d8d6fc524786840be0ad1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675813948588143/id_KM.png?ex=699ab660&amp;is=699964e0&amp;hm=809e821ca79c049273a2211cc74d0eb21c5bdb3e8273f0b4536dbfeec9e5cf17</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474675954633801790/id_KN.jpg?ex=699ab681&amp;is=69996501&amp;hm=f76b6057046f76e5504f5a386849d5e6542754a8bd2cb21960135632867be72c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474676008799047831/id_KO.png?ex=699ab68e&amp;is=6999650e&amp;hm=3ce57c9ae91ec2dced8e564f14644d18e27274efc4e3fceb3552fa0df14d6107</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474676093830168678/id_KP.jpg?ex=699ab6a2&amp;is=69996522&amp;hm=f047e2c7141d2bcba21a1e034b17a4448a30fdac7d396a92f52bb458853253cc</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474676137941794877/id_KQ.jpg?ex=699ab6ad&amp;is=6999652d&amp;hm=5ba17d19acc76d22927e5e4d6069c9a1ae8e740d4a2ab8307dc1951c040ae863</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474676190068346953/id_KR.png?ex=699ab6b9&amp;is=69996539&amp;hm=6286731d91802b8312c037f56e0f94cccdf96ac4620624f740e61a088c88c001</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474676240626749491/id_KS.png?ex=699ab6c5&amp;is=69996545&amp;hm=4ff97525486ab903714e8f45343736ada5e4ba4a9bd771e1a6d17664b86f2cd2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474676288567644210/id_KT.jpg?ex=699ab6d1&amp;is=69996551&amp;hm=cd758f33d7f84131155d08a89b09c26a95d10a8e8a1073041db8433d14ad106d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474676338248912927/id_KU.jpg?ex=699ab6dd&amp;is=6999655d&amp;hm=4510ef9d541e1d4fa1e52f14419c5a8a74be8526f16a6c5a2d7576f2163bee77</t>
+  </si>
+  <si>
+    <t>KV</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>KX</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>KZ</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Kd</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Kf</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Kh</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Kj</t>
+  </si>
+  <si>
+    <t>Kk</t>
+  </si>
+  <si>
+    <t>Kl</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>Kn</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Kq</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>Ku</t>
+  </si>
+  <si>
+    <t>Kv</t>
+  </si>
+  <si>
+    <t>Kw</t>
+  </si>
+  <si>
+    <t>Kx</t>
+  </si>
+  <si>
+    <t>Ky</t>
+  </si>
+  <si>
+    <t>Summoner/Ragnarok/Elite Crasher/Exorcistor</t>
+  </si>
+  <si>
+    <t>Summoner/Elite Skimmer</t>
+  </si>
+  <si>
+    <t>Nest Wave</t>
+  </si>
+  <si>
+    <t>Elite Crasher/Elite Skimmer</t>
+  </si>
+  <si>
+    <t>Elite Crasher/Shiny Sentry</t>
+  </si>
+  <si>
+    <t>Eliete Crasher/Kronos</t>
+  </si>
+  <si>
+    <t>Ragnarok/Ares</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474700988563849328/id_KV.jpg?ex=699acdd2&amp;is=69997c52&amp;hm=94e0ae4fb4c5df0cffff84bfc546eab16ef91ad1777eefa6dda1a0ff4ff0d355</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701080431693875/id_KW.png?ex=699acde8&amp;is=69997c68&amp;hm=0fa28cb50d892cd1fed7afdbab812c019595d6297c6fc5b3372a145479511885</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701161218052136/id_KX.png?ex=699acdfb&amp;is=69997c7b&amp;hm=957871221db8bada641b91768f014f18d876cb2811b0ce4bc1ac3d0031f94f8b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701234719031326/id_KY.png?ex=699ace0c&amp;is=69997c8c&amp;hm=a0d244e43ac626e317f5348a55003a5a2e817e24e8857e073f045ea9becef756</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701281032667156/id_KZ.jpg?ex=699ace18&amp;is=69997c98&amp;hm=83fb5b786a6bebfd66f0051b921980a71fe8ad218ef83cbea27fce82c2b2c2da</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701470208102481/id_Ka.jpg?ex=699ace45&amp;is=69997cc5&amp;hm=f514562149f5bdbd173cfa9257a3b9f87366f26bd0dcb86c45d9eb3bc377e084</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701521068232704/id_Kb.png?ex=699ace51&amp;is=69997cd1&amp;hm=26654496e5f8da394373abbb5286f8f5d339aebc72a77d24db5b26a2309a4b4c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701589506687119/id_Kc.png?ex=699ace61&amp;is=69997ce1&amp;hm=5d6a7f61ef0b58a2d10e0a829014ca5b868f7b31f522e2380eb9389f0158dcfa</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701634415362170/id_Kd.jpg?ex=699ace6c&amp;is=69997cec&amp;hm=9461f451e92c5be411de2823c03bc688b6d3ab58922fc2ad6de5dd0404aae4ff</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701685224902838/id_Ke.png?ex=699ace78&amp;is=69997cf8&amp;hm=9dfcf8720246082bbf3d9e7912d22f99ac4465b326b8b8543879db8cb938eb8a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701729286197348/id_Kf.png?ex=699ace82&amp;is=69997d02&amp;hm=a68fb9201fcd7a056364a94ed21f21770b7f5086e94e0b687bc55af7ee9c382e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701772424613969/id_Kg.jpg?ex=699ace8d&amp;is=69997d0d&amp;hm=d4b08f93326154005980b3a19e1576d919b732145f47b83c3dec264cf59070e5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701817945391207/id_Kh.png?ex=699ace98&amp;is=69997d18&amp;hm=aba5bae8963e890ae40d4c372f48f2822d8a3355391eb926891911cd293c3138</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701863038353451/id_Ki.png?ex=699acea2&amp;is=69997d22&amp;hm=b2246dc899bf22b27404e3ded3df4415cb601577a09890c3dc6aae6b3e2664e4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474701904188674150/id_Kj.jpg?ex=699aceac&amp;is=69997d2c&amp;hm=a984ce9174dfea4c66bf774d8af90f836d52e3e7ae16d078915f77fed57b059c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702021264412682/id_Kk.jpg?ex=699acec8&amp;is=69997d48&amp;hm=d90f2d395037d58893d939d7cda5a56b112d2a53d2109e9a0b7904edb14ba4ce</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702066483069030/id_Kl.png?ex=699aced3&amp;is=69997d53&amp;hm=00a4f347d66ccdbe16def939fdbbd11383dbbadca470287093c96c4a2d29b413</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702110267277332/id_Km.png?ex=699acedd&amp;is=69997d5d&amp;hm=e84c418b6524db9f46cb5663d96d890d3e090b9a51782ecf65644b45dd1bfd9d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702153204633610/id_Kn.jpg?ex=699acee7&amp;is=69997d67&amp;hm=4be30a76b42b02be0426eb5071834c6587dea30756fc37e5b13b5e867f0d01ac</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702192320712815/id_Ko.jpg?ex=699acef1&amp;is=69997d71&amp;hm=3d29af31325996984bb8ea9063d06fe781836888e4ba4c2a76ffa5813c410088</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702255922876447/id_Kp.png?ex=699acf00&amp;is=69997d80&amp;hm=223bdd60295c5abd5290b1b9de05b4422d2221bd944f17ef268733223f96df03</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702307391180981/id_Kq.png?ex=699acf0c&amp;is=69997d8c&amp;hm=d3e0984cc3fc73301668320ae043c04a48714cf212723ed3ffe71d4b3b6c5f8d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702353029533696/id_Kr.png?ex=699acf17&amp;is=69997d97&amp;hm=2341fe364bfc7d188bd32a791e94c897922bb158827e7a29bb4e1d71a19da01e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702400643141632/id_Ks.png?ex=699acf22&amp;is=69997da2&amp;hm=e2c06f8a03252d94a0fd672bd44dddccf44cfd7dea928f83d74f36ebab0f0928</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702447921463377/id_Kt.jpg?ex=699acf2e&amp;is=69997dae&amp;hm=a601e6d9b9450da2c1611f3985fef3f7beca4e7d6024778672889690283e71c4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702493031333949/id_Ku.jpg?ex=699acf38&amp;is=69997db8&amp;hm=1450983e54089061523fe91f7732d5e5d5e3dd0412d5b1055faddffb36cc3c4f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702541152587896/id_Kv.png?ex=699acf44&amp;is=69997dc4&amp;hm=148085773e071eb083866bc871180a33f08415ee24aaad32b156e2083fe07a50</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702588531441688/id_Kw.png?ex=699acf4f&amp;is=69997dcf&amp;hm=26c6fb059bbd4b12c5046f94d8bbd3e13ea172949ec4d83f22d26f731009b3f5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702639605354652/id_Kx.png?ex=699acf5b&amp;is=69997ddb&amp;hm=73a805cbae24503ed342974cad8043e15b2829f8e28e06946a3be7066a253bee</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1474702689190547668/id_Ky.png?ex=699acf67&amp;is=69997de7&amp;hm=ba1e400b9a229b2d8cbc075531134f3727804d9f108c882eda3d7b27cdc4e9fa</t>
   </si>
 </sst>
 </file>
@@ -6875,11 +7268,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7349,121 +7749,122 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7472,10 +7873,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -7694,10 +8095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1156"/>
+  <dimension ref="A1:O1157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A627" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J630" sqref="J630"/>
+    <sheetView tabSelected="1" topLeftCell="A688" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J692" sqref="J692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7750,7 +8151,7 @@
         <v>857</v>
       </c>
       <c r="K1" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="L1" s="74" t="s">
         <v>856</v>
@@ -13696,7 +14097,7 @@
         <v>867</v>
       </c>
       <c r="N139" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="O139" s="1"/>
     </row>
@@ -13738,7 +14139,7 @@
         <v>867</v>
       </c>
       <c r="N140" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="O140" s="1"/>
     </row>
@@ -21177,7 +21578,7 @@
         <v>819</v>
       </c>
       <c r="J316" s="63" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="K316">
         <v>316</v>
@@ -21186,7 +21587,7 @@
         <v>867</v>
       </c>
       <c r="N316" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="317" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21212,13 +21613,13 @@
         <v>0.12402777777777778</v>
       </c>
       <c r="H317" s="98" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="I317" s="98" t="s">
         <v>826</v>
       </c>
       <c r="J317" s="63" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K317">
         <v>317</v>
@@ -21227,7 +21628,7 @@
         <v>867</v>
       </c>
       <c r="N317" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="318" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21259,7 +21660,7 @@
         <v>826</v>
       </c>
       <c r="J318" s="63" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K318">
         <v>318</v>
@@ -21268,7 +21669,7 @@
         <v>867</v>
       </c>
       <c r="N318" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="319" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21294,13 +21695,13 @@
         <v>9.4861111111111118E-2</v>
       </c>
       <c r="H319" s="98" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I319" s="98" t="s">
         <v>819</v>
       </c>
       <c r="J319" s="63" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K319">
         <v>319</v>
@@ -21309,7 +21710,7 @@
         <v>867</v>
       </c>
       <c r="N319" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="320" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21341,7 +21742,7 @@
         <v>819</v>
       </c>
       <c r="J320" s="63" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K320">
         <v>320</v>
@@ -21350,7 +21751,7 @@
         <v>867</v>
       </c>
       <c r="N320" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="321" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21382,7 +21783,7 @@
         <v>819</v>
       </c>
       <c r="J321" s="63" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="K321">
         <v>321</v>
@@ -21391,7 +21792,7 @@
         <v>867</v>
       </c>
       <c r="N321" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="322" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21423,7 +21824,7 @@
         <v>819</v>
       </c>
       <c r="J322" s="63" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K322">
         <v>322</v>
@@ -21432,7 +21833,7 @@
         <v>867</v>
       </c>
       <c r="N322" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="323" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21458,13 +21859,13 @@
         <v>0.11847222222222221</v>
       </c>
       <c r="H323" s="98" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="I323" s="98" t="s">
         <v>819</v>
       </c>
       <c r="J323" s="63" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K323">
         <v>323</v>
@@ -21473,7 +21874,7 @@
         <v>867</v>
       </c>
       <c r="N323" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="324" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21505,7 +21906,7 @@
         <v>819</v>
       </c>
       <c r="J324" s="63" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K324">
         <v>324</v>
@@ -21514,7 +21915,7 @@
         <v>867</v>
       </c>
       <c r="N324" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="325" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21546,7 +21947,7 @@
         <v>819</v>
       </c>
       <c r="J325" s="63" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K325">
         <v>325</v>
@@ -21555,7 +21956,7 @@
         <v>867</v>
       </c>
       <c r="N325" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="326" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21587,7 +21988,7 @@
         <v>819</v>
       </c>
       <c r="J326" s="63" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K326">
         <v>326</v>
@@ -21596,7 +21997,7 @@
         <v>867</v>
       </c>
       <c r="N326" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="327" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21628,7 +22029,7 @@
         <v>819</v>
       </c>
       <c r="J327" s="63" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K327">
         <v>327</v>
@@ -21638,7 +22039,7 @@
         <v>867</v>
       </c>
       <c r="N327" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="328" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21670,7 +22071,7 @@
         <v>819</v>
       </c>
       <c r="J328" s="63" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K328">
         <v>328</v>
@@ -21679,7 +22080,7 @@
         <v>867</v>
       </c>
       <c r="N328" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="329" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21711,7 +22112,7 @@
         <v>819</v>
       </c>
       <c r="J329" s="63" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K329">
         <v>329</v>
@@ -21720,7 +22121,7 @@
         <v>867</v>
       </c>
       <c r="N329" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="330" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21752,7 +22153,7 @@
         <v>819</v>
       </c>
       <c r="J330" s="63" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K330">
         <v>330</v>
@@ -21761,7 +22162,7 @@
         <v>867</v>
       </c>
       <c r="N330" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="331" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21793,7 +22194,7 @@
         <v>819</v>
       </c>
       <c r="J331" s="63" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="K331">
         <v>331</v>
@@ -21802,7 +22203,7 @@
         <v>867</v>
       </c>
       <c r="N331" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="332" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21834,7 +22235,7 @@
         <v>819</v>
       </c>
       <c r="J332" s="63" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="K332">
         <v>332</v>
@@ -21843,7 +22244,7 @@
         <v>867</v>
       </c>
       <c r="N332" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="333" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21875,7 +22276,7 @@
         <v>819</v>
       </c>
       <c r="J333" s="63" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="K333">
         <v>333</v>
@@ -21884,7 +22285,7 @@
         <v>867</v>
       </c>
       <c r="N333" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="334" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21916,19 +22317,19 @@
         <v>834</v>
       </c>
       <c r="J334" s="63" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K334">
         <v>334</v>
       </c>
       <c r="L334" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="M334" s="57" t="s">
         <v>867</v>
       </c>
       <c r="N334" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="335" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21960,7 +22361,7 @@
         <v>819</v>
       </c>
       <c r="J335" s="63" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="K335">
         <v>335</v>
@@ -21969,7 +22370,7 @@
         <v>867</v>
       </c>
       <c r="N335" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="336" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22001,7 +22402,7 @@
         <v>826</v>
       </c>
       <c r="J336" s="63" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="K336">
         <v>336</v>
@@ -22011,7 +22412,7 @@
         <v>867</v>
       </c>
       <c r="N336" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22043,7 +22444,7 @@
         <v>819</v>
       </c>
       <c r="J337" s="63" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="K337">
         <v>337</v>
@@ -22053,7 +22454,7 @@
         <v>867</v>
       </c>
       <c r="N337" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22085,7 +22486,7 @@
         <v>819</v>
       </c>
       <c r="J338" s="63" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="K338">
         <v>338</v>
@@ -22094,7 +22495,7 @@
         <v>867</v>
       </c>
       <c r="N338" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22126,7 +22527,7 @@
         <v>819</v>
       </c>
       <c r="J339" s="63" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="K339">
         <v>339</v>
@@ -22135,7 +22536,7 @@
         <v>867</v>
       </c>
       <c r="N339" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="340" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22167,7 +22568,7 @@
         <v>819</v>
       </c>
       <c r="J340" s="63" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="K340">
         <v>340</v>
@@ -22176,7 +22577,7 @@
         <v>867</v>
       </c>
       <c r="N340" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="341" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22208,7 +22609,7 @@
         <v>819</v>
       </c>
       <c r="J341" s="63" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="K341">
         <v>341</v>
@@ -22220,7 +22621,7 @@
         <v>867</v>
       </c>
       <c r="N341" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="342" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22252,7 +22653,7 @@
         <v>819</v>
       </c>
       <c r="J342" s="63" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="K342">
         <v>342</v>
@@ -22264,7 +22665,7 @@
         <v>867</v>
       </c>
       <c r="N342" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22296,7 +22697,7 @@
         <v>819</v>
       </c>
       <c r="J343" s="63" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="K343">
         <v>343</v>
@@ -22308,7 +22709,7 @@
         <v>867</v>
       </c>
       <c r="N343" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="344" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22340,7 +22741,7 @@
         <v>819</v>
       </c>
       <c r="J344" s="63" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="K344">
         <v>344</v>
@@ -22349,7 +22750,7 @@
         <v>867</v>
       </c>
       <c r="N344" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="345" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22381,7 +22782,7 @@
         <v>819</v>
       </c>
       <c r="J345" s="63" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="K345">
         <v>345</v>
@@ -22390,7 +22791,7 @@
         <v>867</v>
       </c>
       <c r="N345" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="346" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22422,7 +22823,7 @@
         <v>819</v>
       </c>
       <c r="J346" s="63" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="K346">
         <v>346</v>
@@ -22431,7 +22832,7 @@
         <v>867</v>
       </c>
       <c r="N346" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="347" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22448,7 +22849,7 @@
         <v>61</v>
       </c>
       <c r="E347" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F347" s="29">
         <v>45792</v>
@@ -22463,7 +22864,7 @@
         <v>819</v>
       </c>
       <c r="J347" s="63" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="K347">
         <v>347</v>
@@ -22475,7 +22876,7 @@
         <v>867</v>
       </c>
       <c r="N347" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="348" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22507,7 +22908,7 @@
         <v>819</v>
       </c>
       <c r="J348" s="63" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="K348">
         <v>348</v>
@@ -22516,7 +22917,7 @@
         <v>867</v>
       </c>
       <c r="N348" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="349" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22548,7 +22949,7 @@
         <v>819</v>
       </c>
       <c r="J349" s="63" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K349">
         <v>349</v>
@@ -22557,7 +22958,7 @@
         <v>867</v>
       </c>
       <c r="N349" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22583,13 +22984,13 @@
         <v>9.3564814814814823E-2</v>
       </c>
       <c r="H350" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I350" s="99" t="s">
         <v>826</v>
       </c>
       <c r="J350" s="63" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K350">
         <v>350</v>
@@ -22598,7 +22999,7 @@
         <v>867</v>
       </c>
       <c r="N350" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="351" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22624,13 +23025,13 @@
         <v>0.15982638888888889</v>
       </c>
       <c r="H351" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I351" s="99" t="s">
         <v>819</v>
       </c>
       <c r="J351" s="63" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="K351">
         <v>351</v>
@@ -22640,7 +23041,7 @@
         <v>867</v>
       </c>
       <c r="N351" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22672,7 +23073,7 @@
         <v>819</v>
       </c>
       <c r="J352" s="63" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="K352">
         <v>352</v>
@@ -22681,7 +23082,7 @@
         <v>867</v>
       </c>
       <c r="N352" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="353" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22713,7 +23114,7 @@
         <v>819</v>
       </c>
       <c r="J353" s="63" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="K353">
         <v>353</v>
@@ -22722,7 +23123,7 @@
         <v>867</v>
       </c>
       <c r="N353" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="354" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22754,7 +23155,7 @@
         <v>819</v>
       </c>
       <c r="J354" s="63" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="K354">
         <v>354</v>
@@ -22763,7 +23164,7 @@
         <v>867</v>
       </c>
       <c r="N354" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="355" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22795,7 +23196,7 @@
         <v>819</v>
       </c>
       <c r="J355" s="63" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="K355">
         <v>355</v>
@@ -22804,7 +23205,7 @@
         <v>867</v>
       </c>
       <c r="N355" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="356" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22830,13 +23231,13 @@
         <v>511</v>
       </c>
       <c r="H356" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="I356" s="99" t="s">
         <v>819</v>
       </c>
       <c r="J356" s="63" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="K356">
         <v>356</v>
@@ -22846,7 +23247,7 @@
         <v>867</v>
       </c>
       <c r="N356" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="357" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22878,7 +23279,7 @@
         <v>819</v>
       </c>
       <c r="J357" s="63" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="K357">
         <v>357</v>
@@ -22887,7 +23288,7 @@
         <v>867</v>
       </c>
       <c r="N357" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="358" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22919,7 +23320,7 @@
         <v>819</v>
       </c>
       <c r="J358" s="63" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="K358">
         <v>358</v>
@@ -22928,7 +23329,7 @@
         <v>867</v>
       </c>
       <c r="N358" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="359" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22960,7 +23361,7 @@
         <v>819</v>
       </c>
       <c r="J359" s="63" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="K359">
         <v>359</v>
@@ -22969,7 +23370,7 @@
         <v>867</v>
       </c>
       <c r="N359" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="360" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23001,7 +23402,7 @@
         <v>819</v>
       </c>
       <c r="J360" s="63" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="K360">
         <v>360</v>
@@ -23010,7 +23411,7 @@
         <v>867</v>
       </c>
       <c r="N360" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="361" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23042,7 +23443,7 @@
         <v>819</v>
       </c>
       <c r="J361" s="63" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="K361">
         <v>361</v>
@@ -23051,7 +23452,7 @@
         <v>867</v>
       </c>
       <c r="N361" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="362" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23077,13 +23478,13 @@
         <v>511</v>
       </c>
       <c r="H362" s="106" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I362" s="99" t="s">
         <v>819</v>
       </c>
       <c r="J362" s="63" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="K362">
         <v>362</v>
@@ -23092,7 +23493,7 @@
         <v>867</v>
       </c>
       <c r="N362" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23124,7 +23525,7 @@
         <v>819</v>
       </c>
       <c r="J363" s="63" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K363">
         <v>363</v>
@@ -23133,7 +23534,7 @@
         <v>867</v>
       </c>
       <c r="N363" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="364" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23165,7 +23566,7 @@
         <v>819</v>
       </c>
       <c r="J364" s="63" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="K364">
         <v>364</v>
@@ -23174,7 +23575,7 @@
         <v>867</v>
       </c>
       <c r="N364" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="365" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23206,7 +23607,7 @@
         <v>819</v>
       </c>
       <c r="J365" s="63" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K365">
         <v>365</v>
@@ -23215,7 +23616,7 @@
         <v>867</v>
       </c>
       <c r="N365" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="366" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23247,7 +23648,7 @@
         <v>819</v>
       </c>
       <c r="J366" s="63" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K366">
         <v>366</v>
@@ -23256,7 +23657,7 @@
         <v>867</v>
       </c>
       <c r="N366" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="367" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23288,7 +23689,7 @@
         <v>819</v>
       </c>
       <c r="J367" s="63" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K367">
         <v>367</v>
@@ -23297,7 +23698,7 @@
         <v>867</v>
       </c>
       <c r="N367" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="368" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23329,7 +23730,7 @@
         <v>826</v>
       </c>
       <c r="J368" s="63" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K368">
         <v>368</v>
@@ -23339,7 +23740,7 @@
         <v>867</v>
       </c>
       <c r="N368" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="369" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23371,7 +23772,7 @@
         <v>819</v>
       </c>
       <c r="J369" s="63" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="K369">
         <v>369</v>
@@ -23380,7 +23781,7 @@
         <v>867</v>
       </c>
       <c r="N369" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="370" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23412,7 +23813,7 @@
         <v>819</v>
       </c>
       <c r="J370" s="63" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K370">
         <v>370</v>
@@ -23421,7 +23822,7 @@
         <v>867</v>
       </c>
       <c r="N370" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="371" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23453,7 +23854,7 @@
         <v>819</v>
       </c>
       <c r="J371" s="63" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="K371">
         <v>371</v>
@@ -23463,7 +23864,7 @@
         <v>867</v>
       </c>
       <c r="N371" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="372" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23495,7 +23896,7 @@
         <v>819</v>
       </c>
       <c r="J372" s="63" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K372">
         <v>372</v>
@@ -23504,7 +23905,7 @@
         <v>867</v>
       </c>
       <c r="N372" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="373" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23536,7 +23937,7 @@
         <v>819</v>
       </c>
       <c r="J373" s="63" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K373">
         <v>373</v>
@@ -23545,7 +23946,7 @@
         <v>867</v>
       </c>
       <c r="N373" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="374" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23577,7 +23978,7 @@
         <v>826</v>
       </c>
       <c r="J374" s="63" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K374">
         <v>374</v>
@@ -23586,7 +23987,7 @@
         <v>867</v>
       </c>
       <c r="N374" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="375" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23618,7 +24019,7 @@
         <v>819</v>
       </c>
       <c r="J375" s="63" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="K375">
         <v>375</v>
@@ -23627,7 +24028,7 @@
         <v>867</v>
       </c>
       <c r="N375" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="376" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23659,7 +24060,7 @@
         <v>826</v>
       </c>
       <c r="J376" s="63" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="K376">
         <v>376</v>
@@ -23669,7 +24070,7 @@
         <v>867</v>
       </c>
       <c r="N376" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="377" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23695,13 +24096,13 @@
         <v>0.10528935185185184</v>
       </c>
       <c r="H377" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="I377" s="100" t="s">
         <v>819</v>
       </c>
       <c r="J377" s="63" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K377">
         <v>377</v>
@@ -23710,7 +24111,7 @@
         <v>867</v>
       </c>
       <c r="N377" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="378" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23742,7 +24143,7 @@
         <v>819</v>
       </c>
       <c r="J378" s="63" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K378">
         <v>378</v>
@@ -23751,7 +24152,7 @@
         <v>867</v>
       </c>
       <c r="N378" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="379" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23783,19 +24184,19 @@
         <v>834</v>
       </c>
       <c r="J379" s="63" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="K379">
         <v>379</v>
       </c>
       <c r="L379" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="M379" s="57" t="s">
         <v>867</v>
       </c>
       <c r="N379" s="100" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="380" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23827,7 +24228,7 @@
         <v>819</v>
       </c>
       <c r="J380" s="63" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K380">
         <v>380</v>
@@ -23836,7 +24237,7 @@
         <v>867</v>
       </c>
       <c r="N380" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="381" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23868,7 +24269,7 @@
         <v>819</v>
       </c>
       <c r="J381" s="63" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="K381">
         <v>381</v>
@@ -23878,7 +24279,7 @@
         <v>867</v>
       </c>
       <c r="N381" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="382" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23910,7 +24311,7 @@
         <v>819</v>
       </c>
       <c r="J382" s="63" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K382">
         <v>382</v>
@@ -23919,7 +24320,7 @@
         <v>867</v>
       </c>
       <c r="N382" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="383" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23951,7 +24352,7 @@
         <v>819</v>
       </c>
       <c r="J383" s="63" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="K383">
         <v>383</v>
@@ -23961,7 +24362,7 @@
         <v>867</v>
       </c>
       <c r="N383" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="384" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23993,7 +24394,7 @@
         <v>826</v>
       </c>
       <c r="J384" s="63" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K384">
         <v>384</v>
@@ -24002,7 +24403,7 @@
         <v>867</v>
       </c>
       <c r="N384" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="385" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24034,7 +24435,7 @@
         <v>819</v>
       </c>
       <c r="J385" s="63" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K385">
         <v>385</v>
@@ -24043,7 +24444,7 @@
         <v>867</v>
       </c>
       <c r="N385" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="386" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24075,7 +24476,7 @@
         <v>819</v>
       </c>
       <c r="J386" s="63" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="K386">
         <v>386</v>
@@ -24087,7 +24488,7 @@
         <v>867</v>
       </c>
       <c r="N386" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="387" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24119,7 +24520,7 @@
         <v>819</v>
       </c>
       <c r="J387" s="63" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="K387">
         <v>387</v>
@@ -24128,7 +24529,7 @@
         <v>867</v>
       </c>
       <c r="N387" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="388" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24160,7 +24561,7 @@
         <v>819</v>
       </c>
       <c r="J388" s="63" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K388">
         <v>388</v>
@@ -24169,7 +24570,7 @@
         <v>867</v>
       </c>
       <c r="N388" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="389" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24195,13 +24596,13 @@
         <v>9.0335648148148151E-2</v>
       </c>
       <c r="H389" s="100" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I389" s="100" t="s">
         <v>819</v>
       </c>
       <c r="J389" s="63" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K389">
         <v>389</v>
@@ -24210,7 +24611,7 @@
         <v>867</v>
       </c>
       <c r="N389" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="390" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24242,7 +24643,7 @@
         <v>819</v>
       </c>
       <c r="J390" s="63" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K390">
         <v>390</v>
@@ -24251,7 +24652,7 @@
         <v>867</v>
       </c>
       <c r="N390" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="391" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24277,13 +24678,13 @@
         <v>0.29799768518518516</v>
       </c>
       <c r="H391" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="I391" s="101" t="s">
         <v>819</v>
       </c>
       <c r="J391" s="63" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="K391">
         <v>391</v>
@@ -24292,7 +24693,7 @@
         <v>867</v>
       </c>
       <c r="N391" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="392" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24324,7 +24725,7 @@
         <v>819</v>
       </c>
       <c r="J392" s="63" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K392">
         <v>392</v>
@@ -24336,7 +24737,7 @@
         <v>867</v>
       </c>
       <c r="N392" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="393" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24368,7 +24769,7 @@
         <v>819</v>
       </c>
       <c r="J393" s="63" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="K393">
         <v>393</v>
@@ -24378,7 +24779,7 @@
         <v>867</v>
       </c>
       <c r="N393" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="394" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24410,7 +24811,7 @@
         <v>819</v>
       </c>
       <c r="J394" s="63" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K394">
         <v>394</v>
@@ -24419,7 +24820,7 @@
         <v>867</v>
       </c>
       <c r="N394" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="395" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24445,13 +24846,13 @@
         <v>8.1747685185185187E-2</v>
       </c>
       <c r="H395" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="I395" s="101" t="s">
         <v>819</v>
       </c>
       <c r="J395" s="63" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="K395">
         <v>395</v>
@@ -24460,7 +24861,7 @@
         <v>867</v>
       </c>
       <c r="N395" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="396" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24492,7 +24893,7 @@
         <v>819</v>
       </c>
       <c r="J396" s="63" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="K396">
         <v>396</v>
@@ -24501,7 +24902,7 @@
         <v>867</v>
       </c>
       <c r="N396" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="397" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24533,7 +24934,7 @@
         <v>295</v>
       </c>
       <c r="J397" s="63" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="K397">
         <v>397</v>
@@ -24543,7 +24944,7 @@
         <v>867</v>
       </c>
       <c r="N397" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="398" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24575,7 +24976,7 @@
         <v>834</v>
       </c>
       <c r="J398" s="63" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="K398">
         <v>398</v>
@@ -24587,7 +24988,7 @@
         <v>867</v>
       </c>
       <c r="N398" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="399" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24613,13 +25014,13 @@
         <v>0.11820601851851853</v>
       </c>
       <c r="H399" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="I399" s="101" t="s">
         <v>819</v>
       </c>
       <c r="J399" s="63" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K399">
         <v>399</v>
@@ -24628,7 +25029,7 @@
         <v>867</v>
       </c>
       <c r="N399" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="400" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24660,7 +25061,7 @@
         <v>819</v>
       </c>
       <c r="J400" s="63" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K400">
         <v>400</v>
@@ -24669,7 +25070,7 @@
         <v>867</v>
       </c>
       <c r="N400" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="401" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24701,7 +25102,7 @@
         <v>819</v>
       </c>
       <c r="J401" s="63" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="K401">
         <v>401</v>
@@ -24710,7 +25111,7 @@
         <v>867</v>
       </c>
       <c r="N401" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="402" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24742,7 +25143,7 @@
         <v>295</v>
       </c>
       <c r="J402" s="63" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="K402">
         <v>402</v>
@@ -24751,7 +25152,7 @@
         <v>867</v>
       </c>
       <c r="N402" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="403" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24777,7 +25178,7 @@
         <v>0.28423611111111108</v>
       </c>
       <c r="H403" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="I403" s="101" t="s">
         <v>819</v>
@@ -24792,7 +25193,7 @@
         <v>867</v>
       </c>
       <c r="N403" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="404" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24824,7 +25225,7 @@
         <v>819</v>
       </c>
       <c r="J404" s="63" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="K404">
         <v>404</v>
@@ -24834,7 +25235,7 @@
         <v>867</v>
       </c>
       <c r="N404" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="405" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24866,7 +25267,7 @@
         <v>819</v>
       </c>
       <c r="J405" s="63" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="K405">
         <v>405</v>
@@ -24875,7 +25276,7 @@
         <v>867</v>
       </c>
       <c r="N405" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="406" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24907,7 +25308,7 @@
         <v>826</v>
       </c>
       <c r="J406" s="63" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="K406">
         <v>406</v>
@@ -24916,7 +25317,7 @@
         <v>867</v>
       </c>
       <c r="N406" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="407" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24948,7 +25349,7 @@
         <v>819</v>
       </c>
       <c r="J407" s="63" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="K407">
         <v>407</v>
@@ -24957,7 +25358,7 @@
         <v>867</v>
       </c>
       <c r="N407" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="408" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24989,7 +25390,7 @@
         <v>819</v>
       </c>
       <c r="J408" s="63" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="K408">
         <v>408</v>
@@ -24999,7 +25400,7 @@
         <v>867</v>
       </c>
       <c r="N408" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="409" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25031,7 +25432,7 @@
         <v>819</v>
       </c>
       <c r="J409" s="63" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="K409">
         <v>409</v>
@@ -25043,7 +25444,7 @@
         <v>867</v>
       </c>
       <c r="N409" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="410" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25075,7 +25476,7 @@
         <v>819</v>
       </c>
       <c r="J410" s="63" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="K410">
         <v>410</v>
@@ -25085,7 +25486,7 @@
         <v>867</v>
       </c>
       <c r="N410" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="411" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25117,7 +25518,7 @@
         <v>819</v>
       </c>
       <c r="J411" s="63" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="K411">
         <v>411</v>
@@ -25126,7 +25527,7 @@
         <v>867</v>
       </c>
       <c r="N411" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="412" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25158,7 +25559,7 @@
         <v>819</v>
       </c>
       <c r="J412" s="63" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="K412">
         <v>412</v>
@@ -25170,7 +25571,7 @@
         <v>867</v>
       </c>
       <c r="N412" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="413" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25202,7 +25603,7 @@
         <v>819</v>
       </c>
       <c r="J413" s="63" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="K413">
         <v>413</v>
@@ -25212,7 +25613,7 @@
         <v>867</v>
       </c>
       <c r="N413" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="414" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25244,7 +25645,7 @@
         <v>819</v>
       </c>
       <c r="J414" s="63" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="K414">
         <v>414</v>
@@ -25253,7 +25654,7 @@
         <v>867</v>
       </c>
       <c r="N414" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="415" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25285,7 +25686,7 @@
         <v>819</v>
       </c>
       <c r="J415" s="63" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="K415">
         <v>415</v>
@@ -25294,7 +25695,7 @@
         <v>867</v>
       </c>
       <c r="N415" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="416" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25326,7 +25727,7 @@
         <v>819</v>
       </c>
       <c r="J416" s="63" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="K416">
         <v>416</v>
@@ -25335,7 +25736,7 @@
         <v>867</v>
       </c>
       <c r="N416" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="417" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25367,7 +25768,7 @@
         <v>819</v>
       </c>
       <c r="J417" s="63" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="K417">
         <v>417</v>
@@ -25376,7 +25777,7 @@
         <v>867</v>
       </c>
       <c r="N417" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="418" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25408,7 +25809,7 @@
         <v>819</v>
       </c>
       <c r="J418" s="63" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="K418">
         <v>418</v>
@@ -25420,7 +25821,7 @@
         <v>867</v>
       </c>
       <c r="N418" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="419" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25452,7 +25853,7 @@
         <v>826</v>
       </c>
       <c r="J419" s="63" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="K419">
         <v>419</v>
@@ -25462,7 +25863,7 @@
         <v>867</v>
       </c>
       <c r="N419" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="420" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25494,7 +25895,7 @@
         <v>826</v>
       </c>
       <c r="J420" s="63" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="K420">
         <v>420</v>
@@ -25503,7 +25904,7 @@
         <v>867</v>
       </c>
       <c r="N420" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="421" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25535,7 +25936,7 @@
         <v>819</v>
       </c>
       <c r="J421" s="63" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="K421">
         <v>421</v>
@@ -25544,7 +25945,7 @@
         <v>867</v>
       </c>
       <c r="N421" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="422" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25576,7 +25977,7 @@
         <v>819</v>
       </c>
       <c r="J422" s="63" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="K422">
         <v>422</v>
@@ -25585,7 +25986,7 @@
         <v>867</v>
       </c>
       <c r="N422" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="423" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25617,7 +26018,7 @@
         <v>819</v>
       </c>
       <c r="J423" s="63" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="K423">
         <v>423</v>
@@ -25626,7 +26027,7 @@
         <v>867</v>
       </c>
       <c r="N423" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="424" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25658,7 +26059,7 @@
         <v>819</v>
       </c>
       <c r="J424" s="63" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="K424">
         <v>424</v>
@@ -25667,7 +26068,7 @@
         <v>867</v>
       </c>
       <c r="N424" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="425" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25699,7 +26100,7 @@
         <v>819</v>
       </c>
       <c r="J425" s="63" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="K425">
         <v>425</v>
@@ -25708,7 +26109,7 @@
         <v>867</v>
       </c>
       <c r="N425" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="426" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25740,7 +26141,7 @@
         <v>819</v>
       </c>
       <c r="J426" s="63" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K426">
         <v>426</v>
@@ -25750,7 +26151,7 @@
         <v>867</v>
       </c>
       <c r="N426" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="427" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25782,7 +26183,7 @@
         <v>826</v>
       </c>
       <c r="J427" s="63" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="K427">
         <v>427</v>
@@ -25791,7 +26192,7 @@
         <v>867</v>
       </c>
       <c r="N427" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="428" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25823,7 +26224,7 @@
         <v>819</v>
       </c>
       <c r="J428" s="63" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="K428">
         <v>428</v>
@@ -25835,7 +26236,7 @@
         <v>867</v>
       </c>
       <c r="N428" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="429" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25867,7 +26268,7 @@
         <v>819</v>
       </c>
       <c r="J429" s="63" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="K429">
         <v>429</v>
@@ -25876,7 +26277,7 @@
         <v>867</v>
       </c>
       <c r="N429" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="430" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25902,13 +26303,13 @@
         <v>8.7986111111111112E-2</v>
       </c>
       <c r="H430" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="I430" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J430" s="63" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K430">
         <v>430</v>
@@ -25917,7 +26318,7 @@
         <v>867</v>
       </c>
       <c r="N430" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="431" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25934,7 +26335,7 @@
         <v>5</v>
       </c>
       <c r="E431" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F431" s="29">
         <v>45793</v>
@@ -25949,7 +26350,7 @@
         <v>826</v>
       </c>
       <c r="J431" s="63" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="K431">
         <v>431</v>
@@ -25958,7 +26359,7 @@
         <v>867</v>
       </c>
       <c r="N431" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="432" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25990,7 +26391,7 @@
         <v>819</v>
       </c>
       <c r="J432" s="63" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="K432">
         <v>432</v>
@@ -25999,7 +26400,7 @@
         <v>867</v>
       </c>
       <c r="N432" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="433" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26031,7 +26432,7 @@
         <v>295</v>
       </c>
       <c r="J433" s="63" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="K433">
         <v>433</v>
@@ -26041,7 +26442,7 @@
         <v>867</v>
       </c>
       <c r="N433" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="434" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26073,7 +26474,7 @@
         <v>819</v>
       </c>
       <c r="J434" s="63" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="K434">
         <v>434</v>
@@ -26082,7 +26483,7 @@
         <v>867</v>
       </c>
       <c r="N434" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="435" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26114,7 +26515,7 @@
         <v>819</v>
       </c>
       <c r="J435" s="63" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="K435">
         <v>435</v>
@@ -26124,7 +26525,7 @@
         <v>867</v>
       </c>
       <c r="N435" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="436" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26156,7 +26557,7 @@
         <v>819</v>
       </c>
       <c r="J436" s="63" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K436">
         <v>436</v>
@@ -26165,7 +26566,7 @@
         <v>867</v>
       </c>
       <c r="N436" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="437" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26197,7 +26598,7 @@
         <v>819</v>
       </c>
       <c r="J437" s="63" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="K437">
         <v>437</v>
@@ -26207,7 +26608,7 @@
         <v>867</v>
       </c>
       <c r="N437" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="438" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26233,13 +26634,13 @@
         <v>0.10583333333333333</v>
       </c>
       <c r="H438" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I438" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J438" s="63" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="K438">
         <v>438</v>
@@ -26249,7 +26650,7 @@
         <v>867</v>
       </c>
       <c r="N438" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="439" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26275,13 +26676,13 @@
         <v>0.15697916666666667</v>
       </c>
       <c r="H439" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="I439" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J439" s="63" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="K439">
         <v>439</v>
@@ -26291,7 +26692,7 @@
         <v>867</v>
       </c>
       <c r="N439" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="440" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26323,7 +26724,7 @@
         <v>826</v>
       </c>
       <c r="J440" s="63" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="K440">
         <v>440</v>
@@ -26332,7 +26733,7 @@
         <v>867</v>
       </c>
       <c r="N440" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="441" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26364,7 +26765,7 @@
         <v>819</v>
       </c>
       <c r="J441" s="63" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="K441">
         <v>441</v>
@@ -26373,7 +26774,7 @@
         <v>867</v>
       </c>
       <c r="N441" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="442" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26405,7 +26806,7 @@
         <v>819</v>
       </c>
       <c r="J442" s="63" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="K442">
         <v>442</v>
@@ -26414,7 +26815,7 @@
         <v>867</v>
       </c>
       <c r="N442" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="443" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26446,7 +26847,7 @@
         <v>819</v>
       </c>
       <c r="J443" s="63" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="K443">
         <v>443</v>
@@ -26455,7 +26856,7 @@
         <v>867</v>
       </c>
       <c r="N443" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="444" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26481,13 +26882,13 @@
         <v>511</v>
       </c>
       <c r="H444" s="105" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="I444" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J444" s="63" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="K444">
         <v>444</v>
@@ -26499,7 +26900,7 @@
         <v>867</v>
       </c>
       <c r="N444" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="445" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26531,7 +26932,7 @@
         <v>819</v>
       </c>
       <c r="J445" s="63" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="K445">
         <v>445</v>
@@ -26540,7 +26941,7 @@
         <v>867</v>
       </c>
       <c r="N445" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="446" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26572,7 +26973,7 @@
         <v>295</v>
       </c>
       <c r="J446" s="63" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="K446">
         <v>446</v>
@@ -26581,7 +26982,7 @@
         <v>867</v>
       </c>
       <c r="N446" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="447" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26613,7 +27014,7 @@
         <v>819</v>
       </c>
       <c r="J447" s="63" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="K447">
         <v>447</v>
@@ -26622,7 +27023,7 @@
         <v>867</v>
       </c>
       <c r="N447" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="448" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26654,7 +27055,7 @@
         <v>826</v>
       </c>
       <c r="J448" s="63" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="K448">
         <v>448</v>
@@ -26663,7 +27064,7 @@
         <v>867</v>
       </c>
       <c r="N448" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="449" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26695,7 +27096,7 @@
         <v>819</v>
       </c>
       <c r="J449" s="63" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K449">
         <v>449</v>
@@ -26704,7 +27105,7 @@
         <v>867</v>
       </c>
       <c r="N449" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="450" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26736,7 +27137,7 @@
         <v>819</v>
       </c>
       <c r="J450" s="63" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="K450">
         <v>450</v>
@@ -26745,7 +27146,7 @@
         <v>867</v>
       </c>
       <c r="N450" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="451" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26777,7 +27178,7 @@
         <v>819</v>
       </c>
       <c r="J451" s="63" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="K451">
         <v>451</v>
@@ -26787,7 +27188,7 @@
         <v>867</v>
       </c>
       <c r="N451" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="452" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26813,13 +27214,13 @@
         <v>8.8668981481481488E-2</v>
       </c>
       <c r="H452" s="105" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="I452" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J452" s="63" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="K452">
         <v>452</v>
@@ -26828,7 +27229,7 @@
         <v>867</v>
       </c>
       <c r="N452" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="453" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26860,7 +27261,7 @@
         <v>819</v>
       </c>
       <c r="J453" s="63" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="K453">
         <v>453</v>
@@ -26869,7 +27270,7 @@
         <v>867</v>
       </c>
       <c r="N453" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="454" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26901,7 +27302,7 @@
         <v>819</v>
       </c>
       <c r="J454" s="63" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="K454">
         <v>454</v>
@@ -26910,7 +27311,7 @@
         <v>867</v>
       </c>
       <c r="N454" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="455" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26936,13 +27337,13 @@
         <v>8.519675925925925E-2</v>
       </c>
       <c r="H455" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I455" s="105" t="s">
         <v>826</v>
       </c>
       <c r="J455" s="63" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="K455">
         <v>455</v>
@@ -26954,7 +27355,7 @@
         <v>867</v>
       </c>
       <c r="N455" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="456" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -26986,7 +27387,7 @@
         <v>819</v>
       </c>
       <c r="J456" s="63" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="K456">
         <v>456</v>
@@ -26995,7 +27396,7 @@
         <v>867</v>
       </c>
       <c r="N456" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="457" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27021,13 +27422,13 @@
         <v>0.38420138888888888</v>
       </c>
       <c r="H457" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="I457" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J457" s="63" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="K457">
         <v>457</v>
@@ -27036,7 +27437,7 @@
         <v>867</v>
       </c>
       <c r="N457" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="458" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27068,7 +27469,7 @@
         <v>834</v>
       </c>
       <c r="J458" s="63" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="K458">
         <v>458</v>
@@ -27080,7 +27481,7 @@
         <v>867</v>
       </c>
       <c r="N458" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="459" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27106,13 +27507,13 @@
         <v>8.8425925925925922E-2</v>
       </c>
       <c r="H459" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="I459" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J459" s="63" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="K459">
         <v>459</v>
@@ -27124,7 +27525,7 @@
         <v>867</v>
       </c>
       <c r="N459" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="460" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27156,7 +27557,7 @@
         <v>819</v>
       </c>
       <c r="J460" s="63" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="K460">
         <v>460</v>
@@ -27165,7 +27566,7 @@
         <v>867</v>
       </c>
       <c r="N460" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="461" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27197,7 +27598,7 @@
         <v>819</v>
       </c>
       <c r="J461" s="63" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="K461">
         <v>461</v>
@@ -27209,7 +27610,7 @@
         <v>867</v>
       </c>
       <c r="N461" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="462" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27241,7 +27642,7 @@
         <v>819</v>
       </c>
       <c r="J462" s="63" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="K462">
         <v>462</v>
@@ -27250,7 +27651,7 @@
         <v>867</v>
       </c>
       <c r="N462" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="463" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27282,7 +27683,7 @@
         <v>819</v>
       </c>
       <c r="J463" s="63" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="K463">
         <v>463</v>
@@ -27291,7 +27692,7 @@
         <v>867</v>
       </c>
       <c r="N463" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="464" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27317,13 +27718,13 @@
         <v>8.5578703703703699E-2</v>
       </c>
       <c r="H464" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I464" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J464" s="63" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="K464">
         <v>464</v>
@@ -27332,7 +27733,7 @@
         <v>867</v>
       </c>
       <c r="N464" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="465" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27364,7 +27765,7 @@
         <v>819</v>
       </c>
       <c r="J465" s="63" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="K465">
         <v>465</v>
@@ -27373,7 +27774,7 @@
         <v>867</v>
       </c>
       <c r="N465" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="466" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27405,7 +27806,7 @@
         <v>826</v>
       </c>
       <c r="J466" s="63" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="K466">
         <v>466</v>
@@ -27414,7 +27815,7 @@
         <v>867</v>
       </c>
       <c r="N466" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="467" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27446,7 +27847,7 @@
         <v>819</v>
       </c>
       <c r="J467" s="63" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="K467">
         <v>467</v>
@@ -27455,7 +27856,7 @@
         <v>867</v>
       </c>
       <c r="N467" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="468" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27481,13 +27882,13 @@
         <v>0.11586805555555556</v>
       </c>
       <c r="H468" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="I468" s="105" t="s">
         <v>295</v>
       </c>
       <c r="J468" s="63" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="K468">
         <v>468</v>
@@ -27496,7 +27897,7 @@
         <v>867</v>
       </c>
       <c r="N468" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="469" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27522,13 +27923,13 @@
         <v>8.5509259259259271E-2</v>
       </c>
       <c r="H469" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="I469" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J469" s="63" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="K469">
         <v>469</v>
@@ -27537,7 +27938,7 @@
         <v>867</v>
       </c>
       <c r="N469" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="470" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27569,7 +27970,7 @@
         <v>819</v>
       </c>
       <c r="J470" s="63" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="K470">
         <v>470</v>
@@ -27578,7 +27979,7 @@
         <v>867</v>
       </c>
       <c r="N470" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="471" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27604,13 +28005,13 @@
         <v>511</v>
       </c>
       <c r="H471" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="I471" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J471" s="63" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="K471">
         <v>471</v>
@@ -27619,7 +28020,7 @@
         <v>867</v>
       </c>
       <c r="N471" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="472" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27651,7 +28052,7 @@
         <v>819</v>
       </c>
       <c r="J472" s="63" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="K472">
         <v>472</v>
@@ -27660,7 +28061,7 @@
         <v>867</v>
       </c>
       <c r="N472" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="473" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27692,7 +28093,7 @@
         <v>819</v>
       </c>
       <c r="J473" s="63" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="K473">
         <v>473</v>
@@ -27701,7 +28102,7 @@
         <v>867</v>
       </c>
       <c r="N473" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="474" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27733,7 +28134,7 @@
         <v>819</v>
       </c>
       <c r="J474" s="63" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="K474">
         <v>474</v>
@@ -27742,7 +28143,7 @@
         <v>867</v>
       </c>
       <c r="N474" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="475" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27774,7 +28175,7 @@
         <v>819</v>
       </c>
       <c r="J475" s="63" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="K475">
         <v>475</v>
@@ -27783,7 +28184,7 @@
         <v>867</v>
       </c>
       <c r="N475" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="476" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27815,7 +28216,7 @@
         <v>819</v>
       </c>
       <c r="J476" s="63" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="K476">
         <v>476</v>
@@ -27824,7 +28225,7 @@
         <v>867</v>
       </c>
       <c r="N476" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="477" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27856,7 +28257,7 @@
         <v>819</v>
       </c>
       <c r="J477" s="63" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="K477">
         <v>477</v>
@@ -27865,7 +28266,7 @@
         <v>867</v>
       </c>
       <c r="N477" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="478" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27897,7 +28298,7 @@
         <v>819</v>
       </c>
       <c r="J478" s="63" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="K478">
         <v>478</v>
@@ -27907,7 +28308,7 @@
         <v>867</v>
       </c>
       <c r="N478" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="479" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27939,7 +28340,7 @@
         <v>834</v>
       </c>
       <c r="J479" s="63" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="K479">
         <v>479</v>
@@ -27951,7 +28352,7 @@
         <v>867</v>
       </c>
       <c r="N479" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="480" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -27983,7 +28384,7 @@
         <v>819</v>
       </c>
       <c r="J480" s="63" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="K480">
         <v>480</v>
@@ -27992,7 +28393,7 @@
         <v>867</v>
       </c>
       <c r="N480" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="481" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28024,7 +28425,7 @@
         <v>834</v>
       </c>
       <c r="J481" s="63" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="K481">
         <v>481</v>
@@ -28036,7 +28437,7 @@
         <v>867</v>
       </c>
       <c r="N481" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="482" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28068,7 +28469,7 @@
         <v>819</v>
       </c>
       <c r="J482" s="63" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="K482">
         <v>482</v>
@@ -28077,7 +28478,7 @@
         <v>867</v>
       </c>
       <c r="N482" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="483" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28109,7 +28510,7 @@
         <v>834</v>
       </c>
       <c r="J483" s="63" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="K483">
         <v>483</v>
@@ -28121,7 +28522,7 @@
         <v>867</v>
       </c>
       <c r="N483" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="484" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28153,7 +28554,7 @@
         <v>819</v>
       </c>
       <c r="J484" s="63" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="K484">
         <v>484</v>
@@ -28162,7 +28563,7 @@
         <v>867</v>
       </c>
       <c r="N484" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="485" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28194,7 +28595,7 @@
         <v>819</v>
       </c>
       <c r="J485" s="63" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="K485">
         <v>485</v>
@@ -28203,7 +28604,7 @@
         <v>867</v>
       </c>
       <c r="N485" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="486" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28235,7 +28636,7 @@
         <v>819</v>
       </c>
       <c r="J486" s="63" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="K486">
         <v>486</v>
@@ -28244,7 +28645,7 @@
         <v>867</v>
       </c>
       <c r="N486" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="487" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28276,7 +28677,7 @@
         <v>819</v>
       </c>
       <c r="J487" s="63" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="K487">
         <v>487</v>
@@ -28285,7 +28686,7 @@
         <v>867</v>
       </c>
       <c r="N487" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="488" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28317,7 +28718,7 @@
         <v>819</v>
       </c>
       <c r="J488" s="63" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="K488">
         <v>488</v>
@@ -28326,7 +28727,7 @@
         <v>867</v>
       </c>
       <c r="N488" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="489" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28358,7 +28759,7 @@
         <v>819</v>
       </c>
       <c r="J489" s="63" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="K489">
         <v>489</v>
@@ -28367,7 +28768,7 @@
         <v>867</v>
       </c>
       <c r="N489" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="490" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28399,7 +28800,7 @@
         <v>819</v>
       </c>
       <c r="J490" s="63" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="K490">
         <v>490</v>
@@ -28408,7 +28809,7 @@
         <v>867</v>
       </c>
       <c r="N490" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="491" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28434,13 +28835,13 @@
         <v>0.10414351851851851</v>
       </c>
       <c r="H491" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="I491" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J491" s="63" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="K491">
         <v>491</v>
@@ -28449,7 +28850,7 @@
         <v>867</v>
       </c>
       <c r="N491" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="492" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28481,7 +28882,7 @@
         <v>819</v>
       </c>
       <c r="J492" s="63" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="K492">
         <v>492</v>
@@ -28491,7 +28892,7 @@
         <v>867</v>
       </c>
       <c r="N492" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="493" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28523,7 +28924,7 @@
         <v>295</v>
       </c>
       <c r="J493" s="63" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="K493">
         <v>493</v>
@@ -28532,7 +28933,7 @@
         <v>867</v>
       </c>
       <c r="N493" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="494" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28564,7 +28965,7 @@
         <v>819</v>
       </c>
       <c r="J494" s="63" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="K494">
         <v>494</v>
@@ -28573,7 +28974,7 @@
         <v>867</v>
       </c>
       <c r="N494" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="495" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28605,7 +29006,7 @@
         <v>295</v>
       </c>
       <c r="J495" s="63" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="K495">
         <v>495</v>
@@ -28614,7 +29015,7 @@
         <v>867</v>
       </c>
       <c r="N495" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="496" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28646,7 +29047,7 @@
         <v>295</v>
       </c>
       <c r="J496" s="63" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="K496">
         <v>496</v>
@@ -28655,7 +29056,7 @@
         <v>867</v>
       </c>
       <c r="N496" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="497" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28687,7 +29088,7 @@
         <v>819</v>
       </c>
       <c r="J497" s="63" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K497">
         <v>497</v>
@@ -28696,7 +29097,7 @@
         <v>867</v>
       </c>
       <c r="N497" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="498" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28728,7 +29129,7 @@
         <v>819</v>
       </c>
       <c r="J498" s="63" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="K498">
         <v>498</v>
@@ -28737,7 +29138,7 @@
         <v>867</v>
       </c>
       <c r="N498" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="499" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28769,7 +29170,7 @@
         <v>295</v>
       </c>
       <c r="J499" s="63" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="K499">
         <v>499</v>
@@ -28781,7 +29182,7 @@
         <v>867</v>
       </c>
       <c r="N499" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="500" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28807,13 +29208,13 @@
         <v>511</v>
       </c>
       <c r="H500" s="105" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I500" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J500" s="63" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="K500">
         <v>500</v>
@@ -28822,7 +29223,7 @@
         <v>867</v>
       </c>
       <c r="N500" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="501" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28854,7 +29255,7 @@
         <v>819</v>
       </c>
       <c r="J501" s="63" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K501">
         <v>501</v>
@@ -28863,7 +29264,7 @@
         <v>867</v>
       </c>
       <c r="N501" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="502" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28895,7 +29296,7 @@
         <v>826</v>
       </c>
       <c r="J502" s="63" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="K502">
         <v>502</v>
@@ -28905,7 +29306,7 @@
         <v>867</v>
       </c>
       <c r="N502" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="503" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28937,7 +29338,7 @@
         <v>819</v>
       </c>
       <c r="J503" s="63" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="K503">
         <v>503</v>
@@ -28946,7 +29347,7 @@
         <v>867</v>
       </c>
       <c r="N503" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="504" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28978,7 +29379,7 @@
         <v>819</v>
       </c>
       <c r="J504" s="63" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="K504">
         <v>504</v>
@@ -28987,7 +29388,7 @@
         <v>867</v>
       </c>
       <c r="N504" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="505" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29019,7 +29420,7 @@
         <v>819</v>
       </c>
       <c r="J505" s="63" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="K505">
         <v>505</v>
@@ -29028,7 +29429,7 @@
         <v>867</v>
       </c>
       <c r="N505" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="506" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29054,13 +29455,13 @@
         <v>0.12409722222222223</v>
       </c>
       <c r="H506" s="105" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I506" s="105" t="s">
         <v>819</v>
       </c>
       <c r="J506" s="63" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="K506">
         <v>506</v>
@@ -29069,7 +29470,7 @@
         <v>867</v>
       </c>
       <c r="N506" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="507" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29095,13 +29496,13 @@
         <v>0.12537037037037038</v>
       </c>
       <c r="H507" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I507" s="105" t="s">
         <v>295</v>
       </c>
       <c r="J507" s="63" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="K507">
         <v>507</v>
@@ -29110,7 +29511,7 @@
         <v>867</v>
       </c>
       <c r="N507" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="508" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29142,7 +29543,7 @@
         <v>295</v>
       </c>
       <c r="J508" s="63" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="K508">
         <v>508</v>
@@ -29152,7 +29553,7 @@
         <v>867</v>
       </c>
       <c r="N508" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="509" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29184,7 +29585,7 @@
         <v>819</v>
       </c>
       <c r="J509" s="63" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="K509">
         <v>509</v>
@@ -29193,7 +29594,7 @@
         <v>867</v>
       </c>
       <c r="N509" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="510" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29225,7 +29626,7 @@
         <v>295</v>
       </c>
       <c r="J510" s="63" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K510">
         <v>510</v>
@@ -29234,7 +29635,7 @@
         <v>867</v>
       </c>
       <c r="N510" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="511" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29260,13 +29661,13 @@
         <v>0.1292939814814815</v>
       </c>
       <c r="H511" s="106" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I511" s="106" t="s">
         <v>819</v>
       </c>
       <c r="J511" s="108" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="K511">
         <v>511</v>
@@ -29275,7 +29676,7 @@
         <v>867</v>
       </c>
       <c r="N511" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="512" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29307,7 +29708,7 @@
         <v>819</v>
       </c>
       <c r="J512" s="108" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="K512">
         <v>512</v>
@@ -29316,7 +29717,7 @@
         <v>867</v>
       </c>
       <c r="N512" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="513" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29348,7 +29749,7 @@
         <v>819</v>
       </c>
       <c r="J513" s="108" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="K513">
         <v>513</v>
@@ -29357,7 +29758,7 @@
         <v>867</v>
       </c>
       <c r="N513" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="514" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29389,7 +29790,7 @@
         <v>295</v>
       </c>
       <c r="J514" s="108" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="K514">
         <v>514</v>
@@ -29398,7 +29799,7 @@
         <v>867</v>
       </c>
       <c r="N514" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="515" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29430,7 +29831,7 @@
         <v>819</v>
       </c>
       <c r="J515" s="108" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="K515">
         <v>515</v>
@@ -29439,7 +29840,7 @@
         <v>867</v>
       </c>
       <c r="N515" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="516" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29471,7 +29872,7 @@
         <v>819</v>
       </c>
       <c r="J516" s="108" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="K516">
         <v>516</v>
@@ -29480,7 +29881,7 @@
         <v>867</v>
       </c>
       <c r="N516" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="517" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29506,13 +29907,13 @@
         <v>6.5474537037037039E-2</v>
       </c>
       <c r="H517" s="106" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="I517" s="106" t="s">
         <v>819</v>
       </c>
       <c r="J517" s="108" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="K517">
         <v>517</v>
@@ -29521,7 +29922,7 @@
         <v>867</v>
       </c>
       <c r="N517" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="518" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29553,7 +29954,7 @@
         <v>826</v>
       </c>
       <c r="J518" s="108" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="K518">
         <v>518</v>
@@ -29565,7 +29966,7 @@
         <v>867</v>
       </c>
       <c r="N518" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="519" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29591,13 +29992,13 @@
         <v>511</v>
       </c>
       <c r="H519" s="106" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I519" s="106" t="s">
         <v>819</v>
       </c>
       <c r="J519" s="108" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="K519">
         <v>519</v>
@@ -29606,7 +30007,7 @@
         <v>867</v>
       </c>
       <c r="N519" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="520" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29638,7 +30039,7 @@
         <v>819</v>
       </c>
       <c r="J520" s="108" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="K520">
         <v>520</v>
@@ -29647,7 +30048,7 @@
         <v>867</v>
       </c>
       <c r="N520" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="521" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29679,7 +30080,7 @@
         <v>819</v>
       </c>
       <c r="J521" s="108" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="K521">
         <v>521</v>
@@ -29688,7 +30089,7 @@
         <v>867</v>
       </c>
       <c r="N521" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="522" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29720,7 +30121,7 @@
         <v>819</v>
       </c>
       <c r="J522" s="108" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="K522">
         <v>522</v>
@@ -29732,7 +30133,7 @@
         <v>867</v>
       </c>
       <c r="N522" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="523" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29758,13 +30159,13 @@
         <v>9.7430555555555562E-2</v>
       </c>
       <c r="H523" s="106" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="I523" s="106" t="s">
         <v>295</v>
       </c>
       <c r="J523" s="108" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="K523">
         <v>523</v>
@@ -29773,7 +30174,7 @@
         <v>867</v>
       </c>
       <c r="N523" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="524" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29805,7 +30206,7 @@
         <v>295</v>
       </c>
       <c r="J524" s="108" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="K524">
         <v>524</v>
@@ -29814,7 +30215,7 @@
         <v>867</v>
       </c>
       <c r="N524" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="525" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29846,7 +30247,7 @@
         <v>819</v>
       </c>
       <c r="J525" s="108" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="K525">
         <v>525</v>
@@ -29855,7 +30256,7 @@
         <v>867</v>
       </c>
       <c r="N525" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="526" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29887,7 +30288,7 @@
         <v>819</v>
       </c>
       <c r="J526" s="108" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="K526">
         <v>526</v>
@@ -29896,7 +30297,7 @@
         <v>867</v>
       </c>
       <c r="N526" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="527" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29928,7 +30329,7 @@
         <v>295</v>
       </c>
       <c r="J527" s="108" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="K527">
         <v>527</v>
@@ -29937,7 +30338,7 @@
         <v>867</v>
       </c>
       <c r="N527" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="528" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29969,7 +30370,7 @@
         <v>295</v>
       </c>
       <c r="J528" s="108" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="K528">
         <v>528</v>
@@ -29978,7 +30379,7 @@
         <v>867</v>
       </c>
       <c r="N528" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="529" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30010,7 +30411,7 @@
         <v>819</v>
       </c>
       <c r="J529" s="108" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="K529">
         <v>529</v>
@@ -30019,7 +30420,7 @@
         <v>867</v>
       </c>
       <c r="N529" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="530" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30051,7 +30452,7 @@
         <v>819</v>
       </c>
       <c r="J530" s="108" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="K530">
         <v>530</v>
@@ -30061,7 +30462,7 @@
         <v>867</v>
       </c>
       <c r="N530" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="531" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30093,7 +30494,7 @@
         <v>819</v>
       </c>
       <c r="J531" s="108" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="K531">
         <v>531</v>
@@ -30103,7 +30504,7 @@
         <v>867</v>
       </c>
       <c r="N531" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="532" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30135,7 +30536,7 @@
         <v>819</v>
       </c>
       <c r="J532" s="108" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="K532">
         <v>532</v>
@@ -30144,7 +30545,7 @@
         <v>867</v>
       </c>
       <c r="N532" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="533" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30176,7 +30577,7 @@
         <v>819</v>
       </c>
       <c r="J533" s="108" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="K533">
         <v>533</v>
@@ -30185,7 +30586,7 @@
         <v>867</v>
       </c>
       <c r="N533" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="534" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30217,7 +30618,7 @@
         <v>819</v>
       </c>
       <c r="J534" s="108" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="K534">
         <v>534</v>
@@ -30226,7 +30627,7 @@
         <v>867</v>
       </c>
       <c r="N534" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="535" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30258,7 +30659,7 @@
         <v>819</v>
       </c>
       <c r="J535" s="108" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="K535">
         <v>535</v>
@@ -30267,7 +30668,7 @@
         <v>867</v>
       </c>
       <c r="N535" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="536" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30299,7 +30700,7 @@
         <v>819</v>
       </c>
       <c r="J536" s="108" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="K536">
         <v>536</v>
@@ -30308,7 +30709,7 @@
         <v>867</v>
       </c>
       <c r="N536" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="537" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30340,7 +30741,7 @@
         <v>826</v>
       </c>
       <c r="J537" s="108" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="K537">
         <v>537</v>
@@ -30349,7 +30750,7 @@
         <v>867</v>
       </c>
       <c r="N537" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="538" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30381,7 +30782,7 @@
         <v>819</v>
       </c>
       <c r="J538" s="108" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="K538">
         <v>538</v>
@@ -30390,7 +30791,7 @@
         <v>867</v>
       </c>
       <c r="N538" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="539" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30416,13 +30817,13 @@
         <v>0.43700231481481483</v>
       </c>
       <c r="H539" s="106" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="I539" s="106" t="s">
         <v>819</v>
       </c>
       <c r="J539" s="108" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="K539">
         <v>539</v>
@@ -30432,7 +30833,7 @@
         <v>867</v>
       </c>
       <c r="N539" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="540" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30464,7 +30865,7 @@
         <v>819</v>
       </c>
       <c r="J540" s="108" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="K540">
         <v>540</v>
@@ -30473,7 +30874,7 @@
         <v>867</v>
       </c>
       <c r="N540" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="541" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30515,7 +30916,7 @@
         <v>867</v>
       </c>
       <c r="N541" t="s">
-        <v>2119</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="542" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30547,7 +30948,7 @@
         <v>819</v>
       </c>
       <c r="J542" s="108" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="K542">
         <v>542</v>
@@ -30556,7 +30957,7 @@
         <v>867</v>
       </c>
       <c r="N542" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="543" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30588,7 +30989,7 @@
         <v>819</v>
       </c>
       <c r="J543" s="108" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="K543">
         <v>543</v>
@@ -30597,7 +30998,7 @@
         <v>867</v>
       </c>
       <c r="N543" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="544" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30629,7 +31030,7 @@
         <v>819</v>
       </c>
       <c r="J544" s="108" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="K544">
         <v>544</v>
@@ -30639,7 +31040,7 @@
         <v>867</v>
       </c>
       <c r="N544" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="545" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30671,7 +31072,7 @@
         <v>819</v>
       </c>
       <c r="J545" s="108" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="K545">
         <v>545</v>
@@ -30680,7 +31081,7 @@
         <v>867</v>
       </c>
       <c r="N545" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="546" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30712,7 +31113,7 @@
         <v>819</v>
       </c>
       <c r="J546" s="108" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="K546">
         <v>546</v>
@@ -30721,7 +31122,7 @@
         <v>867</v>
       </c>
       <c r="N546" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="547" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30753,7 +31154,7 @@
         <v>834</v>
       </c>
       <c r="J547" s="108" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="K547">
         <v>547</v>
@@ -30765,7 +31166,7 @@
         <v>867</v>
       </c>
       <c r="N547" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="548" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30797,7 +31198,7 @@
         <v>295</v>
       </c>
       <c r="J548" s="108" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="K548">
         <v>548</v>
@@ -30806,7 +31207,7 @@
         <v>867</v>
       </c>
       <c r="N548" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="549" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30838,7 +31239,7 @@
         <v>819</v>
       </c>
       <c r="J549" s="108" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="K549">
         <v>549</v>
@@ -30850,7 +31251,7 @@
         <v>867</v>
       </c>
       <c r="N549" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="550" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30882,7 +31283,7 @@
         <v>819</v>
       </c>
       <c r="J550" s="108" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="K550">
         <v>550</v>
@@ -30894,7 +31295,7 @@
         <v>867</v>
       </c>
       <c r="N550" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="551" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30926,19 +31327,19 @@
         <v>819</v>
       </c>
       <c r="J551" s="108" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="K551">
         <v>551</v>
       </c>
       <c r="L551" s="101" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="M551" s="57" t="s">
         <v>867</v>
       </c>
       <c r="N551" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="552" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30970,7 +31371,7 @@
         <v>819</v>
       </c>
       <c r="J552" s="108" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="K552">
         <v>552</v>
@@ -30979,7 +31380,7 @@
         <v>867</v>
       </c>
       <c r="N552" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="553" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31011,7 +31412,7 @@
         <v>819</v>
       </c>
       <c r="J553" s="108" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="K553">
         <v>553</v>
@@ -31023,7 +31424,7 @@
         <v>867</v>
       </c>
       <c r="N553" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="554" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31055,7 +31456,7 @@
         <v>819</v>
       </c>
       <c r="J554" s="108" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="K554">
         <v>554</v>
@@ -31064,7 +31465,7 @@
         <v>867</v>
       </c>
       <c r="N554" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="555" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31096,7 +31497,7 @@
         <v>819</v>
       </c>
       <c r="J555" s="108" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="K555">
         <v>555</v>
@@ -31105,7 +31506,7 @@
         <v>867</v>
       </c>
       <c r="N555" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="556" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31137,7 +31538,7 @@
         <v>819</v>
       </c>
       <c r="J556" s="108" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="K556">
         <v>556</v>
@@ -31146,7 +31547,7 @@
         <v>867</v>
       </c>
       <c r="N556" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="557" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31178,7 +31579,7 @@
         <v>819</v>
       </c>
       <c r="J557" s="108" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="K557">
         <v>557</v>
@@ -31187,7 +31588,7 @@
         <v>867</v>
       </c>
       <c r="N557" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="558" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31219,7 +31620,7 @@
         <v>819</v>
       </c>
       <c r="J558" s="108" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="K558">
         <v>558</v>
@@ -31228,7 +31629,7 @@
         <v>867</v>
       </c>
       <c r="N558" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="559" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31260,7 +31661,7 @@
         <v>819</v>
       </c>
       <c r="J559" s="108" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="K559">
         <v>559</v>
@@ -31270,7 +31671,7 @@
         <v>867</v>
       </c>
       <c r="N559" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="560" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31302,7 +31703,7 @@
         <v>819</v>
       </c>
       <c r="J560" s="108" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="K560">
         <v>560</v>
@@ -31312,7 +31713,7 @@
         <v>867</v>
       </c>
       <c r="N560" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="561" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31344,7 +31745,7 @@
         <v>819</v>
       </c>
       <c r="J561" s="108" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="K561">
         <v>561</v>
@@ -31353,7 +31754,7 @@
         <v>867</v>
       </c>
       <c r="N561" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="562" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31385,7 +31786,7 @@
         <v>295</v>
       </c>
       <c r="J562" s="108" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="K562">
         <v>562</v>
@@ -31394,7 +31795,7 @@
         <v>867</v>
       </c>
       <c r="N562" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="563" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31426,7 +31827,7 @@
         <v>295</v>
       </c>
       <c r="J563" s="108" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="K563">
         <v>563</v>
@@ -31438,7 +31839,7 @@
         <v>867</v>
       </c>
       <c r="N563" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="564" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31470,7 +31871,7 @@
         <v>819</v>
       </c>
       <c r="J564" s="108" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="K564">
         <v>564</v>
@@ -31479,7 +31880,7 @@
         <v>867</v>
       </c>
       <c r="N564" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="565" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31511,7 +31912,7 @@
         <v>819</v>
       </c>
       <c r="J565" s="108" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="K565">
         <v>565</v>
@@ -31520,7 +31921,7 @@
         <v>867</v>
       </c>
       <c r="N565" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="566" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31552,7 +31953,7 @@
         <v>819</v>
       </c>
       <c r="J566" s="108" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="K566">
         <v>566</v>
@@ -31561,7 +31962,7 @@
         <v>867</v>
       </c>
       <c r="N566" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="567" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31593,7 +31994,7 @@
         <v>826</v>
       </c>
       <c r="J567" s="108" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K567">
         <v>567</v>
@@ -31603,7 +32004,7 @@
         <v>867</v>
       </c>
       <c r="N567" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="568" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31635,7 +32036,7 @@
         <v>819</v>
       </c>
       <c r="J568" s="108" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="K568">
         <v>568</v>
@@ -31644,7 +32045,7 @@
         <v>867</v>
       </c>
       <c r="N568" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="569" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31670,13 +32071,13 @@
         <v>0.10349537037037038</v>
       </c>
       <c r="H569" s="106" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="I569" s="106" t="s">
         <v>819</v>
       </c>
       <c r="J569" s="108" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="K569">
         <v>569</v>
@@ -31685,7 +32086,7 @@
         <v>867</v>
       </c>
       <c r="N569" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="570" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31717,7 +32118,7 @@
         <v>819</v>
       </c>
       <c r="J570" s="108" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="K570">
         <v>570</v>
@@ -31726,7 +32127,7 @@
         <v>867</v>
       </c>
       <c r="N570" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="571" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31758,7 +32159,7 @@
         <v>819</v>
       </c>
       <c r="J571" s="63" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="K571">
         <v>571</v>
@@ -31767,7 +32168,7 @@
         <v>867</v>
       </c>
       <c r="N571" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="572" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31799,7 +32200,7 @@
         <v>819</v>
       </c>
       <c r="J572" s="63" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="K572">
         <v>572</v>
@@ -31808,7 +32209,7 @@
         <v>867</v>
       </c>
       <c r="N572" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="573" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31840,7 +32241,7 @@
         <v>819</v>
       </c>
       <c r="J573" s="63" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="K573">
         <v>573</v>
@@ -31849,7 +32250,7 @@
         <v>867</v>
       </c>
       <c r="N573" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="574" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31881,7 +32282,7 @@
         <v>819</v>
       </c>
       <c r="J574" s="63" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="K574">
         <v>574</v>
@@ -31890,7 +32291,7 @@
         <v>867</v>
       </c>
       <c r="N574" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="575" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31922,7 +32323,7 @@
         <v>819</v>
       </c>
       <c r="J575" s="63" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="K575">
         <v>575</v>
@@ -31931,7 +32332,7 @@
         <v>867</v>
       </c>
       <c r="N575" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="576" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31963,7 +32364,7 @@
         <v>819</v>
       </c>
       <c r="J576" s="63" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="K576">
         <v>576</v>
@@ -31972,7 +32373,7 @@
         <v>867</v>
       </c>
       <c r="N576" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="577" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31989,7 +32390,7 @@
         <v>61</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F577" s="30">
         <v>45802</v>
@@ -32004,7 +32405,7 @@
         <v>819</v>
       </c>
       <c r="J577" s="63" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="K577">
         <v>577</v>
@@ -32014,7 +32415,7 @@
         <v>867</v>
       </c>
       <c r="N577" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="578" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32046,7 +32447,7 @@
         <v>819</v>
       </c>
       <c r="J578" s="63" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="K578">
         <v>578</v>
@@ -32055,7 +32456,7 @@
         <v>867</v>
       </c>
       <c r="N578" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="579" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32087,7 +32488,7 @@
         <v>819</v>
       </c>
       <c r="J579" s="63" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="K579">
         <v>579</v>
@@ -32096,7 +32497,7 @@
         <v>867</v>
       </c>
       <c r="N579" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="580" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32128,7 +32529,7 @@
         <v>819</v>
       </c>
       <c r="J580" s="63" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="K580">
         <v>580</v>
@@ -32137,7 +32538,7 @@
         <v>867</v>
       </c>
       <c r="N580" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="581" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32163,13 +32564,13 @@
         <v>0.10349537037037038</v>
       </c>
       <c r="H581" s="110" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="I581" s="110" t="s">
         <v>819</v>
       </c>
       <c r="J581" s="63" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="K581">
         <v>581</v>
@@ -32178,7 +32579,7 @@
         <v>867</v>
       </c>
       <c r="N581" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="582" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32210,7 +32611,7 @@
         <v>819</v>
       </c>
       <c r="J582" s="63" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="K582">
         <v>582</v>
@@ -32219,7 +32620,7 @@
         <v>867</v>
       </c>
       <c r="N582" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="583" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32251,7 +32652,7 @@
         <v>819</v>
       </c>
       <c r="J583" s="63" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="K583">
         <v>583</v>
@@ -32260,7 +32661,7 @@
         <v>867</v>
       </c>
       <c r="N583" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="584" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32292,7 +32693,7 @@
         <v>819</v>
       </c>
       <c r="J584" s="63" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="K584">
         <v>584</v>
@@ -32301,7 +32702,7 @@
         <v>867</v>
       </c>
       <c r="N584" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="585" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32333,7 +32734,7 @@
         <v>295</v>
       </c>
       <c r="J585" s="63" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="K585">
         <v>585</v>
@@ -32342,7 +32743,7 @@
         <v>867</v>
       </c>
       <c r="N585" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="586" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32374,7 +32775,7 @@
         <v>819</v>
       </c>
       <c r="J586" s="63" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="K586">
         <v>586</v>
@@ -32383,7 +32784,7 @@
         <v>867</v>
       </c>
       <c r="N586" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="587" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32415,7 +32816,7 @@
         <v>819</v>
       </c>
       <c r="J587" s="63" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="K587">
         <v>587</v>
@@ -32427,7 +32828,7 @@
         <v>867</v>
       </c>
       <c r="N587" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="588" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32459,7 +32860,7 @@
         <v>819</v>
       </c>
       <c r="J588" s="63" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="K588">
         <v>588</v>
@@ -32468,7 +32869,7 @@
         <v>867</v>
       </c>
       <c r="N588" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="589" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32500,7 +32901,7 @@
         <v>819</v>
       </c>
       <c r="J589" s="63" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="K589">
         <v>589</v>
@@ -32509,7 +32910,7 @@
         <v>867</v>
       </c>
       <c r="N589" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="590" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32541,7 +32942,7 @@
         <v>819</v>
       </c>
       <c r="J590" s="63" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="K590">
         <v>590</v>
@@ -32550,7 +32951,7 @@
         <v>867</v>
       </c>
       <c r="N590" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="591" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32582,7 +32983,7 @@
         <v>834</v>
       </c>
       <c r="J591" s="63" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="K591">
         <v>591</v>
@@ -32594,7 +32995,7 @@
         <v>867</v>
       </c>
       <c r="N591" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="592" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32626,7 +33027,7 @@
         <v>819</v>
       </c>
       <c r="J592" s="63" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="K592">
         <v>592</v>
@@ -32635,7 +33036,7 @@
         <v>867</v>
       </c>
       <c r="N592" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="593" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32661,13 +33062,13 @@
         <v>8.700231481481481E-2</v>
       </c>
       <c r="H593" s="110" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="I593" s="110" t="s">
         <v>819</v>
       </c>
       <c r="J593" s="63" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="K593">
         <v>593</v>
@@ -32679,7 +33080,7 @@
         <v>867</v>
       </c>
       <c r="N593" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="594" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32711,7 +33112,7 @@
         <v>295</v>
       </c>
       <c r="J594" s="63" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="K594">
         <v>594</v>
@@ -32723,7 +33124,7 @@
         <v>867</v>
       </c>
       <c r="N594" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="595" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32755,7 +33156,7 @@
         <v>819</v>
       </c>
       <c r="J595" s="63" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="K595">
         <v>595</v>
@@ -32764,7 +33165,7 @@
         <v>867</v>
       </c>
       <c r="N595" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="596" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32796,7 +33197,7 @@
         <v>819</v>
       </c>
       <c r="J596" s="63" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="K596">
         <v>596</v>
@@ -32805,7 +33206,7 @@
         <v>867</v>
       </c>
       <c r="N596" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="597" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32837,7 +33238,7 @@
         <v>819</v>
       </c>
       <c r="J597" s="63" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="K597">
         <v>597</v>
@@ -32846,7 +33247,7 @@
         <v>867</v>
       </c>
       <c r="N597" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="598" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32878,7 +33279,7 @@
         <v>295</v>
       </c>
       <c r="J598" s="63" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="K598">
         <v>598</v>
@@ -32887,7 +33288,7 @@
         <v>867</v>
       </c>
       <c r="N598" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="599" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32919,7 +33320,7 @@
         <v>295</v>
       </c>
       <c r="J599" s="63" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="K599">
         <v>599</v>
@@ -32928,7 +33329,7 @@
         <v>867</v>
       </c>
       <c r="N599" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="600" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32960,7 +33361,7 @@
         <v>819</v>
       </c>
       <c r="J600" s="63" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="K600">
         <v>600</v>
@@ -32969,7 +33370,7 @@
         <v>867</v>
       </c>
       <c r="N600" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="601" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33001,7 +33402,7 @@
         <v>834</v>
       </c>
       <c r="J601" s="63" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="K601">
         <v>601</v>
@@ -33013,7 +33414,7 @@
         <v>867</v>
       </c>
       <c r="N601" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="602" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33045,7 +33446,7 @@
         <v>819</v>
       </c>
       <c r="J602" s="63" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="K602">
         <v>602</v>
@@ -33054,7 +33455,7 @@
         <v>867</v>
       </c>
       <c r="N602" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="603" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33080,13 +33481,13 @@
         <v>0.11231481481481481</v>
       </c>
       <c r="H603" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="I603" s="111" t="s">
         <v>819</v>
       </c>
       <c r="J603" s="63" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="K603">
         <v>603</v>
@@ -33095,7 +33496,7 @@
         <v>867</v>
       </c>
       <c r="N603" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="604" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33127,7 +33528,7 @@
         <v>819</v>
       </c>
       <c r="J604" s="63" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="K604">
         <v>604</v>
@@ -33136,7 +33537,7 @@
         <v>867</v>
       </c>
       <c r="N604" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="605" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33168,7 +33569,7 @@
         <v>819</v>
       </c>
       <c r="J605" s="63" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="K605">
         <v>605</v>
@@ -33180,7 +33581,7 @@
         <v>867</v>
       </c>
       <c r="N605" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="606" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33206,13 +33607,13 @@
         <v>0.11182870370370369</v>
       </c>
       <c r="H606" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I606" s="111" t="s">
         <v>819</v>
       </c>
       <c r="J606" s="63" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="K606">
         <v>606</v>
@@ -33221,7 +33622,7 @@
         <v>867</v>
       </c>
       <c r="N606" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="607" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33253,7 +33654,7 @@
         <v>819</v>
       </c>
       <c r="J607" s="63" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="K607">
         <v>607</v>
@@ -33262,7 +33663,7 @@
         <v>867</v>
       </c>
       <c r="N607" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="608" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33288,13 +33689,13 @@
         <v>5.5856481481481479E-2</v>
       </c>
       <c r="H608" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="I608" s="111" t="s">
         <v>819</v>
       </c>
       <c r="J608" s="63" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="K608">
         <v>608</v>
@@ -33303,7 +33704,7 @@
         <v>867</v>
       </c>
       <c r="N608" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="609" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33329,13 +33730,13 @@
         <v>4.7592592592592596E-2</v>
       </c>
       <c r="H609" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="I609" s="111" t="s">
         <v>819</v>
       </c>
       <c r="J609" s="63" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="K609">
         <v>609</v>
@@ -33344,7 +33745,7 @@
         <v>867</v>
       </c>
       <c r="N609" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="610" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33376,7 +33777,7 @@
         <v>819</v>
       </c>
       <c r="J610" s="63" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="K610">
         <v>610</v>
@@ -33385,7 +33786,7 @@
         <v>867</v>
       </c>
       <c r="N610" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="611" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33417,7 +33818,7 @@
         <v>819</v>
       </c>
       <c r="J611" s="63" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="K611">
         <v>611</v>
@@ -33426,7 +33827,7 @@
         <v>867</v>
       </c>
       <c r="N611" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="612" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33458,7 +33859,7 @@
         <v>295</v>
       </c>
       <c r="J612" s="63" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="K612">
         <v>612</v>
@@ -33470,7 +33871,7 @@
         <v>867</v>
       </c>
       <c r="N612" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="613" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33502,7 +33903,7 @@
         <v>826</v>
       </c>
       <c r="J613" s="63" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="K613">
         <v>613</v>
@@ -33511,7 +33912,7 @@
         <v>867</v>
       </c>
       <c r="N613" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="614" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33543,7 +33944,7 @@
         <v>819</v>
       </c>
       <c r="J614" s="63" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="K614">
         <v>614</v>
@@ -33552,7 +33953,7 @@
         <v>867</v>
       </c>
       <c r="N614" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="615" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33584,7 +33985,7 @@
         <v>819</v>
       </c>
       <c r="J615" s="63" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="K615">
         <v>615</v>
@@ -33593,7 +33994,7 @@
         <v>867</v>
       </c>
       <c r="N615" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="616" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33625,7 +34026,7 @@
         <v>819</v>
       </c>
       <c r="J616" s="63" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="K616">
         <v>616</v>
@@ -33634,7 +34035,7 @@
         <v>867</v>
       </c>
       <c r="N616" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="617" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33666,7 +34067,7 @@
         <v>819</v>
       </c>
       <c r="J617" s="63" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="K617">
         <v>617</v>
@@ -33675,7 +34076,7 @@
         <v>867</v>
       </c>
       <c r="N617" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="618" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33707,7 +34108,7 @@
         <v>819</v>
       </c>
       <c r="J618" s="63" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="K618">
         <v>618</v>
@@ -33716,7 +34117,7 @@
         <v>867</v>
       </c>
       <c r="N618" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="619" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33748,7 +34149,7 @@
         <v>819</v>
       </c>
       <c r="J619" s="63" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="K619">
         <v>619</v>
@@ -33760,7 +34161,7 @@
         <v>867</v>
       </c>
       <c r="N619" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="620" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33792,7 +34193,7 @@
         <v>819</v>
       </c>
       <c r="J620" s="63" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="K620">
         <v>620</v>
@@ -33801,7 +34202,7 @@
         <v>867</v>
       </c>
       <c r="N620" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="621" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33833,7 +34234,7 @@
         <v>819</v>
       </c>
       <c r="J621" s="63" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="K621">
         <v>621</v>
@@ -33842,7 +34243,7 @@
         <v>867</v>
       </c>
       <c r="N621" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="622" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33874,7 +34275,7 @@
         <v>826</v>
       </c>
       <c r="J622" s="63" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="K622">
         <v>622</v>
@@ -33883,7 +34284,7 @@
         <v>867</v>
       </c>
       <c r="N622" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="623" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33915,7 +34316,7 @@
         <v>819</v>
       </c>
       <c r="J623" s="63" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="K623">
         <v>623</v>
@@ -33924,7 +34325,7 @@
         <v>867</v>
       </c>
       <c r="N623" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="624" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33956,7 +34357,7 @@
         <v>819</v>
       </c>
       <c r="J624" s="63" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="K624">
         <v>624</v>
@@ -33965,7 +34366,7 @@
         <v>867</v>
       </c>
       <c r="N624" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="625" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33997,7 +34398,7 @@
         <v>819</v>
       </c>
       <c r="J625" s="63" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="K625">
         <v>625</v>
@@ -34006,7 +34407,7 @@
         <v>867</v>
       </c>
       <c r="N625" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="626" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34038,7 +34439,7 @@
         <v>819</v>
       </c>
       <c r="J626" s="63" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="K626">
         <v>626</v>
@@ -34047,7 +34448,7 @@
         <v>867</v>
       </c>
       <c r="N626" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="627" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34079,7 +34480,7 @@
         <v>295</v>
       </c>
       <c r="J627" s="63" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="K627">
         <v>627</v>
@@ -34088,7 +34489,7 @@
         <v>867</v>
       </c>
       <c r="N627" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="628" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34120,7 +34521,7 @@
         <v>819</v>
       </c>
       <c r="J628" s="63" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="K628">
         <v>628</v>
@@ -34129,7 +34530,7 @@
         <v>867</v>
       </c>
       <c r="N628" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="629" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34155,13 +34556,13 @@
         <v>5.0208333333333334E-2</v>
       </c>
       <c r="H629" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="I629" s="111" t="s">
         <v>819</v>
       </c>
       <c r="J629" s="63" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="K629">
         <v>629</v>
@@ -34170,7 +34571,7 @@
         <v>867</v>
       </c>
       <c r="N629" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="630" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34202,7 +34603,7 @@
         <v>819</v>
       </c>
       <c r="J630" s="63" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="K630">
         <v>630</v>
@@ -34211,7 +34612,7 @@
         <v>867</v>
       </c>
       <c r="N630" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="631" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34233,8 +34634,26 @@
       <c r="F631" s="29">
         <v>45898</v>
       </c>
+      <c r="G631" s="56">
+        <v>9.2824074074074073E-2</v>
+      </c>
+      <c r="H631" t="s">
+        <v>2310</v>
+      </c>
+      <c r="I631" t="s">
+        <v>819</v>
+      </c>
+      <c r="J631" s="63" t="s">
+        <v>2280</v>
+      </c>
       <c r="K631">
         <v>631</v>
+      </c>
+      <c r="M631" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N631" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="632" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34256,8 +34675,26 @@
       <c r="F632" s="29">
         <v>45738</v>
       </c>
+      <c r="G632" s="56">
+        <v>0.15236111111111111</v>
+      </c>
+      <c r="H632" t="s">
+        <v>848</v>
+      </c>
+      <c r="I632" t="s">
+        <v>819</v>
+      </c>
+      <c r="J632" s="63" t="s">
+        <v>2281</v>
+      </c>
       <c r="K632">
         <v>632</v>
+      </c>
+      <c r="M632" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N632" t="s">
+        <v>2314</v>
       </c>
     </row>
     <row r="633" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34279,8 +34716,26 @@
       <c r="F633" s="29">
         <v>45689</v>
       </c>
+      <c r="G633" s="56">
+        <v>0.1038425925925926</v>
+      </c>
+      <c r="H633" t="s">
+        <v>848</v>
+      </c>
+      <c r="I633" t="s">
+        <v>819</v>
+      </c>
+      <c r="J633" s="63" t="s">
+        <v>2282</v>
+      </c>
       <c r="K633">
         <v>633</v>
+      </c>
+      <c r="M633" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N633" t="s">
+        <v>2315</v>
       </c>
     </row>
     <row r="634" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34302,8 +34757,26 @@
       <c r="F634" s="29">
         <v>45998</v>
       </c>
+      <c r="G634" s="56">
+        <v>0.12028935185185186</v>
+      </c>
+      <c r="H634" t="s">
+        <v>818</v>
+      </c>
+      <c r="I634" t="s">
+        <v>295</v>
+      </c>
+      <c r="J634" s="63" t="s">
+        <v>2283</v>
+      </c>
       <c r="K634">
         <v>634</v>
+      </c>
+      <c r="M634" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N634" t="s">
+        <v>2316</v>
       </c>
     </row>
     <row r="635" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34335,10 +34808,16 @@
         <v>819</v>
       </c>
       <c r="J635" s="63" t="s">
-        <v>1562</v>
+        <v>2284</v>
       </c>
       <c r="K635">
         <v>635</v>
+      </c>
+      <c r="M635" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N635" t="s">
+        <v>2317</v>
       </c>
     </row>
     <row r="636" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34360,8 +34839,26 @@
       <c r="F636" s="29">
         <v>45729</v>
       </c>
+      <c r="G636" s="56">
+        <v>8.6585648148148162E-2</v>
+      </c>
+      <c r="H636" t="s">
+        <v>898</v>
+      </c>
+      <c r="I636" t="s">
+        <v>819</v>
+      </c>
+      <c r="J636" s="63" t="s">
+        <v>2285</v>
+      </c>
       <c r="K636">
         <v>636</v>
+      </c>
+      <c r="M636" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N636" t="s">
+        <v>2318</v>
       </c>
     </row>
     <row r="637" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34383,8 +34880,26 @@
       <c r="F637" s="30">
         <v>45980</v>
       </c>
+      <c r="G637" s="56">
+        <v>6.0601851851851851E-2</v>
+      </c>
+      <c r="H637" t="s">
+        <v>828</v>
+      </c>
+      <c r="I637" t="s">
+        <v>819</v>
+      </c>
+      <c r="J637" s="63" t="s">
+        <v>2286</v>
+      </c>
       <c r="K637">
         <v>637</v>
+      </c>
+      <c r="M637" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N637" t="s">
+        <v>2319</v>
       </c>
     </row>
     <row r="638" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34406,10 +34921,28 @@
       <c r="F638" s="29">
         <v>46015</v>
       </c>
+      <c r="G638" s="56">
+        <v>9.5104166666666656E-2</v>
+      </c>
+      <c r="H638" t="s">
+        <v>845</v>
+      </c>
+      <c r="I638" t="s">
+        <v>819</v>
+      </c>
+      <c r="J638" s="63" t="s">
+        <v>2287</v>
+      </c>
       <c r="K638">
         <v>638</v>
       </c>
       <c r="L638" s="1"/>
+      <c r="M638" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N638" t="s">
+        <v>2320</v>
+      </c>
     </row>
     <row r="639" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639">
@@ -34430,8 +34963,26 @@
       <c r="F639" s="29">
         <v>45654</v>
       </c>
+      <c r="G639" s="56">
+        <v>7.8032407407407411E-2</v>
+      </c>
+      <c r="H639" t="s">
+        <v>898</v>
+      </c>
+      <c r="I639" t="s">
+        <v>819</v>
+      </c>
+      <c r="J639" s="63" t="s">
+        <v>2288</v>
+      </c>
       <c r="K639">
         <v>639</v>
+      </c>
+      <c r="M639" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N639" t="s">
+        <v>2321</v>
       </c>
     </row>
     <row r="640" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34453,11 +35004,29 @@
       <c r="F640" s="29">
         <v>44841</v>
       </c>
+      <c r="G640" s="56">
+        <v>0.18230324074074075</v>
+      </c>
+      <c r="H640" t="s">
+        <v>828</v>
+      </c>
+      <c r="I640" t="s">
+        <v>295</v>
+      </c>
+      <c r="J640" s="63" t="s">
+        <v>2289</v>
+      </c>
       <c r="K640">
         <v>640</v>
       </c>
-    </row>
-    <row r="641" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M640" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N640" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="641" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>642</v>
       </c>
@@ -34476,11 +35045,29 @@
       <c r="F641" s="29">
         <v>46035</v>
       </c>
+      <c r="G641" s="56">
+        <v>4.7673611111111104E-2</v>
+      </c>
+      <c r="H641" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="I641" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J641" s="63" t="s">
+        <v>2290</v>
+      </c>
       <c r="K641">
         <v>641</v>
       </c>
-    </row>
-    <row r="642" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M641" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N641" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="642" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>643</v>
       </c>
@@ -34499,11 +35086,29 @@
       <c r="F642" s="29">
         <v>45898</v>
       </c>
+      <c r="G642" s="56">
+        <v>5.7175925925925929E-2</v>
+      </c>
+      <c r="H642" s="112" t="s">
+        <v>898</v>
+      </c>
+      <c r="I642" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J642" s="63" t="s">
+        <v>2291</v>
+      </c>
       <c r="K642">
         <v>642</v>
       </c>
-    </row>
-    <row r="643" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M642" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N642" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>644</v>
       </c>
@@ -34522,11 +35127,29 @@
       <c r="F643" s="29">
         <v>46018</v>
       </c>
+      <c r="G643" s="56">
+        <v>7.4791666666666659E-2</v>
+      </c>
+      <c r="H643" s="112" t="s">
+        <v>838</v>
+      </c>
+      <c r="I643" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J643" s="63" t="s">
+        <v>2292</v>
+      </c>
       <c r="K643">
         <v>643</v>
       </c>
-    </row>
-    <row r="644" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M643" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N643" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="644" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>645</v>
       </c>
@@ -34545,11 +35168,29 @@
       <c r="F644" s="29">
         <v>46030</v>
       </c>
+      <c r="G644" s="56">
+        <v>6.5706018518518525E-2</v>
+      </c>
+      <c r="H644" s="112" t="s">
+        <v>2311</v>
+      </c>
+      <c r="I644" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J644" s="63" t="s">
+        <v>2293</v>
+      </c>
       <c r="K644">
         <v>644</v>
       </c>
-    </row>
-    <row r="645" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M644" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N644" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="645" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>646</v>
       </c>
@@ -34568,11 +35209,29 @@
       <c r="F645" s="29">
         <v>45912</v>
       </c>
+      <c r="G645" s="56">
+        <v>8.2557870370370365E-2</v>
+      </c>
+      <c r="H645" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="I645" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J645" s="63" t="s">
+        <v>2294</v>
+      </c>
       <c r="K645">
         <v>645</v>
       </c>
-    </row>
-    <row r="646" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M645" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N645" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="646" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>647</v>
       </c>
@@ -34591,14 +35250,32 @@
       <c r="F646" s="29">
         <v>45999</v>
       </c>
+      <c r="G646" s="56">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="H646" s="112" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I646" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J646" s="63" t="s">
+        <v>2295</v>
+      </c>
       <c r="K646">
         <v>646</v>
       </c>
       <c r="L646" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="647" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M646" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N646" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="647" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>648</v>
       </c>
@@ -34617,11 +35294,29 @@
       <c r="F647" s="29">
         <v>45714</v>
       </c>
+      <c r="G647" s="56">
+        <v>0.13545138888888889</v>
+      </c>
+      <c r="H647" s="112" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I647" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J647" s="63" t="s">
+        <v>2296</v>
+      </c>
       <c r="K647">
         <v>647</v>
       </c>
-    </row>
-    <row r="648" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M647" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N647" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="648" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>649</v>
       </c>
@@ -34640,11 +35335,29 @@
       <c r="F648" s="29">
         <v>45964</v>
       </c>
+      <c r="G648" s="56">
+        <v>5.6666666666666671E-2</v>
+      </c>
+      <c r="H648" s="112" t="s">
+        <v>838</v>
+      </c>
+      <c r="I648" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J648" s="63" t="s">
+        <v>2297</v>
+      </c>
       <c r="K648">
         <v>648</v>
       </c>
-    </row>
-    <row r="649" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M648" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N648" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="649" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>650</v>
       </c>
@@ -34663,11 +35376,29 @@
       <c r="F649" s="29">
         <v>46015</v>
       </c>
+      <c r="G649" s="56">
+        <v>7.7812499999999993E-2</v>
+      </c>
+      <c r="H649" s="112" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I649" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J649" s="63" t="s">
+        <v>2298</v>
+      </c>
       <c r="K649">
         <v>649</v>
       </c>
-    </row>
-    <row r="650" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M649" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N649" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="650" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>651</v>
       </c>
@@ -34686,11 +35417,29 @@
       <c r="F650" s="29">
         <v>45773</v>
       </c>
+      <c r="G650" s="56">
+        <v>5.4386574074074073E-2</v>
+      </c>
+      <c r="H650" s="112" t="s">
+        <v>848</v>
+      </c>
+      <c r="I650" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J650" s="63" t="s">
+        <v>2299</v>
+      </c>
       <c r="K650">
         <v>650</v>
       </c>
-    </row>
-    <row r="651" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M650" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N650" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="651" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>652</v>
       </c>
@@ -34709,11 +35458,29 @@
       <c r="F651" s="29">
         <v>45877</v>
       </c>
+      <c r="G651" s="56">
+        <v>4.614583333333333E-2</v>
+      </c>
+      <c r="H651" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="I651" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J651" s="63" t="s">
+        <v>2300</v>
+      </c>
       <c r="K651">
         <v>651</v>
       </c>
-    </row>
-    <row r="652" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M651" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N651" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="652" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>653</v>
       </c>
@@ -34732,11 +35499,29 @@
       <c r="F652" s="29">
         <v>45964</v>
       </c>
+      <c r="G652" s="56">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="H652" s="112" t="s">
+        <v>900</v>
+      </c>
+      <c r="I652" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J652" s="63" t="s">
+        <v>2301</v>
+      </c>
       <c r="K652">
         <v>652</v>
       </c>
-    </row>
-    <row r="653" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M652" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N652" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="653" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>654</v>
       </c>
@@ -34755,14 +35540,32 @@
       <c r="F653" s="30">
         <v>45787</v>
       </c>
+      <c r="G653" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H653" t="s">
+        <v>511</v>
+      </c>
+      <c r="I653" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J653" s="63" t="s">
+        <v>2302</v>
+      </c>
       <c r="K653">
         <v>653</v>
       </c>
       <c r="L653" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="654" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M653" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N653" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="654" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>655</v>
       </c>
@@ -34781,11 +35584,29 @@
       <c r="F654" s="29">
         <v>45649</v>
       </c>
+      <c r="G654" s="56">
+        <v>8.7060185185185171E-2</v>
+      </c>
+      <c r="H654" t="s">
+        <v>2312</v>
+      </c>
+      <c r="I654" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J654" s="63" t="s">
+        <v>2303</v>
+      </c>
       <c r="K654">
         <v>654</v>
       </c>
-    </row>
-    <row r="655" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M654" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N654" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="655" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>656</v>
       </c>
@@ -34804,11 +35625,29 @@
       <c r="F655" s="29">
         <v>45748</v>
       </c>
+      <c r="G655" s="56">
+        <v>5.6909722222222216E-2</v>
+      </c>
+      <c r="H655" t="s">
+        <v>845</v>
+      </c>
+      <c r="I655" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J655" s="63" t="s">
+        <v>2304</v>
+      </c>
       <c r="K655">
         <v>655</v>
       </c>
-    </row>
-    <row r="656" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M655" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N655" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="656" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>657</v>
       </c>
@@ -34827,11 +35666,29 @@
       <c r="F656" s="29">
         <v>45900</v>
       </c>
+      <c r="G656" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H656" t="s">
+        <v>511</v>
+      </c>
+      <c r="I656" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J656" s="63" t="s">
+        <v>2305</v>
+      </c>
       <c r="K656">
         <v>656</v>
       </c>
-    </row>
-    <row r="657" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M656" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N656" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="657" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>658</v>
       </c>
@@ -34850,11 +35707,29 @@
       <c r="F657" s="29">
         <v>46000</v>
       </c>
+      <c r="G657" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H657" t="s">
+        <v>511</v>
+      </c>
+      <c r="I657" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J657" s="63" t="s">
+        <v>2306</v>
+      </c>
       <c r="K657">
         <v>657</v>
       </c>
-    </row>
-    <row r="658" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M657" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N657" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="658" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>659</v>
       </c>
@@ -34873,11 +35748,29 @@
       <c r="F658" s="29">
         <v>46030</v>
       </c>
+      <c r="G658" s="56">
+        <v>8.4895833333333337E-2</v>
+      </c>
+      <c r="H658" t="s">
+        <v>818</v>
+      </c>
+      <c r="I658" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J658" s="63" t="s">
+        <v>2307</v>
+      </c>
       <c r="K658">
         <v>658</v>
       </c>
-    </row>
-    <row r="659" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M658" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N658" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="659" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>660</v>
       </c>
@@ -34896,11 +35789,29 @@
       <c r="F659" s="29">
         <v>45787</v>
       </c>
+      <c r="G659" s="56">
+        <v>0.10562500000000001</v>
+      </c>
+      <c r="H659" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I659" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J659" s="63" t="s">
+        <v>2308</v>
+      </c>
       <c r="K659">
         <v>659</v>
       </c>
-    </row>
-    <row r="660" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M659" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N659" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="660" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>661</v>
       </c>
@@ -34919,11 +35830,29 @@
       <c r="F660" s="29">
         <v>45850</v>
       </c>
+      <c r="G660" s="56">
+        <v>5.1793981481481483E-2</v>
+      </c>
+      <c r="H660" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I660" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J660" s="63" t="s">
+        <v>2309</v>
+      </c>
       <c r="K660">
         <v>660</v>
       </c>
-    </row>
-    <row r="661" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M660" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N660" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="661" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>662</v>
       </c>
@@ -34942,11 +35871,29 @@
       <c r="F661" s="29">
         <v>45857</v>
       </c>
+      <c r="G661" s="56">
+        <v>6.6655092592592599E-2</v>
+      </c>
+      <c r="H661" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I661" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J661" s="63" t="s">
+        <v>2343</v>
+      </c>
       <c r="K661">
         <v>661</v>
       </c>
-    </row>
-    <row r="662" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M661" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N661" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="662" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>663</v>
       </c>
@@ -34965,11 +35912,29 @@
       <c r="F662" s="29">
         <v>45998</v>
       </c>
+      <c r="G662" s="56">
+        <v>0.12461805555555555</v>
+      </c>
+      <c r="H662" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I662" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J662" s="63" t="s">
+        <v>2344</v>
+      </c>
       <c r="K662">
         <v>662</v>
       </c>
-    </row>
-    <row r="663" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M662" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N662" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="663" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>664</v>
       </c>
@@ -34988,11 +35953,29 @@
       <c r="F663" s="29">
         <v>45875</v>
       </c>
+      <c r="G663" s="56">
+        <v>8.5752314814814823E-2</v>
+      </c>
+      <c r="H663" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I663" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J663" s="63" t="s">
+        <v>2345</v>
+      </c>
       <c r="K663">
         <v>663</v>
       </c>
-    </row>
-    <row r="664" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M663" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N663" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="664" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>665</v>
       </c>
@@ -35011,11 +35994,29 @@
       <c r="F664" s="29">
         <v>46006</v>
       </c>
+      <c r="G664" s="56">
+        <v>0.11964120370370369</v>
+      </c>
+      <c r="H664" s="112" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I664" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J664" s="63" t="s">
+        <v>2346</v>
+      </c>
       <c r="K664">
         <v>664</v>
       </c>
-    </row>
-    <row r="665" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M664" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N664" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="665" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>666</v>
       </c>
@@ -35034,11 +36035,29 @@
       <c r="F665" s="29">
         <v>45717</v>
       </c>
+      <c r="G665" s="56">
+        <v>4.5092592592592594E-2</v>
+      </c>
+      <c r="H665" s="112" t="s">
+        <v>950</v>
+      </c>
+      <c r="I665" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J665" s="63" t="s">
+        <v>2347</v>
+      </c>
       <c r="K665">
         <v>665</v>
       </c>
-    </row>
-    <row r="666" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M665" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N665" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>667</v>
       </c>
@@ -35057,11 +36076,29 @@
       <c r="F666" s="29">
         <v>46035</v>
       </c>
+      <c r="G666" s="56">
+        <v>3.5972222222222218E-2</v>
+      </c>
+      <c r="H666" s="112" t="s">
+        <v>824</v>
+      </c>
+      <c r="I666" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J666" s="63" t="s">
+        <v>2348</v>
+      </c>
       <c r="K666">
         <v>666</v>
       </c>
-    </row>
-    <row r="667" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M666" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N666" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>668</v>
       </c>
@@ -35080,11 +36117,29 @@
       <c r="F667" s="29">
         <v>46001</v>
       </c>
+      <c r="G667" s="56">
+        <v>4.9745370370370377E-2</v>
+      </c>
+      <c r="H667" s="112" t="s">
+        <v>898</v>
+      </c>
+      <c r="I667" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J667" s="63" t="s">
+        <v>2349</v>
+      </c>
       <c r="K667">
         <v>667</v>
       </c>
-    </row>
-    <row r="668" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M667" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N667" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>669</v>
       </c>
@@ -35103,11 +36158,29 @@
       <c r="F668" s="29">
         <v>45984</v>
       </c>
+      <c r="G668" s="56">
+        <v>0.11596064814814815</v>
+      </c>
+      <c r="H668" s="112" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I668" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J668" s="63" t="s">
+        <v>2350</v>
+      </c>
       <c r="K668">
         <v>668</v>
       </c>
-    </row>
-    <row r="669" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M668" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N668" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="669" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>670</v>
       </c>
@@ -35126,11 +36199,29 @@
       <c r="F669" s="29">
         <v>45763</v>
       </c>
+      <c r="G669" s="56">
+        <v>0.20224537037037038</v>
+      </c>
+      <c r="H669" s="112" t="s">
+        <v>843</v>
+      </c>
+      <c r="I669" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J669" s="63" t="s">
+        <v>2351</v>
+      </c>
       <c r="K669">
         <v>669</v>
       </c>
-    </row>
-    <row r="670" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M669" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N669" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>671</v>
       </c>
@@ -35149,12 +36240,30 @@
       <c r="F670" s="30">
         <v>45704</v>
       </c>
+      <c r="G670" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H670" s="112" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I670" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J670" s="63" t="s">
+        <v>2352</v>
+      </c>
       <c r="K670">
         <v>670</v>
       </c>
       <c r="L670" s="1"/>
-    </row>
-    <row r="671" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M670" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N670" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>672</v>
       </c>
@@ -35173,11 +36282,29 @@
       <c r="F671" s="29">
         <v>45909</v>
       </c>
+      <c r="G671" s="56">
+        <v>5.6400462962962965E-2</v>
+      </c>
+      <c r="H671" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="I671" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J671" s="63" t="s">
+        <v>2353</v>
+      </c>
       <c r="K671">
         <v>671</v>
       </c>
-    </row>
-    <row r="672" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M671" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N671" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>673</v>
       </c>
@@ -35196,11 +36323,29 @@
       <c r="F672" s="29">
         <v>45543</v>
       </c>
+      <c r="G672" s="56">
+        <v>4.5856481481481477E-2</v>
+      </c>
+      <c r="H672" s="112" t="s">
+        <v>898</v>
+      </c>
+      <c r="I672" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J672" s="63" t="s">
+        <v>2354</v>
+      </c>
       <c r="K672">
         <v>672</v>
       </c>
-    </row>
-    <row r="673" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M672" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N672" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>674</v>
       </c>
@@ -35219,11 +36364,29 @@
       <c r="F673" s="29">
         <v>45763</v>
       </c>
+      <c r="G673" s="56">
+        <v>0.25716435185185188</v>
+      </c>
+      <c r="H673" s="112" t="s">
+        <v>2376</v>
+      </c>
+      <c r="I673" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J673" s="63" t="s">
+        <v>2355</v>
+      </c>
       <c r="K673">
         <v>673</v>
       </c>
-    </row>
-    <row r="674" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M673" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N673" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>675</v>
       </c>
@@ -35242,11 +36405,29 @@
       <c r="F674" s="29">
         <v>46025</v>
       </c>
+      <c r="G674" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H674" s="112" t="s">
+        <v>898</v>
+      </c>
+      <c r="I674" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J674" s="63" t="s">
+        <v>2356</v>
+      </c>
       <c r="K674">
         <v>674</v>
       </c>
-    </row>
-    <row r="675" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M674" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N674" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>676</v>
       </c>
@@ -35265,11 +36446,29 @@
       <c r="F675" s="29">
         <v>45775</v>
       </c>
+      <c r="G675" s="56">
+        <v>4.7870370370370369E-2</v>
+      </c>
+      <c r="H675" s="112" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I675" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J675" s="63" t="s">
+        <v>2357</v>
+      </c>
       <c r="K675">
         <v>675</v>
       </c>
-    </row>
-    <row r="676" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M675" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N675" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>677</v>
       </c>
@@ -35288,11 +36487,29 @@
       <c r="F676" s="29">
         <v>45790</v>
       </c>
+      <c r="G676" s="56">
+        <v>8.7418981481481473E-2</v>
+      </c>
+      <c r="H676" s="112" t="s">
+        <v>848</v>
+      </c>
+      <c r="I676" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J676" s="63" t="s">
+        <v>2358</v>
+      </c>
       <c r="K676">
         <v>676</v>
       </c>
-    </row>
-    <row r="677" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M676" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N676" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>678</v>
       </c>
@@ -35311,11 +36528,29 @@
       <c r="F677" s="29">
         <v>46027</v>
       </c>
+      <c r="G677" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H677" s="112" t="s">
+        <v>511</v>
+      </c>
+      <c r="I677" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J677" s="63" t="s">
+        <v>2359</v>
+      </c>
       <c r="K677">
         <v>677</v>
       </c>
-    </row>
-    <row r="678" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M677" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N677" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>679</v>
       </c>
@@ -35334,11 +36569,29 @@
       <c r="F678" s="29">
         <v>46015</v>
       </c>
+      <c r="G678" s="56">
+        <v>8.1956018518518511E-2</v>
+      </c>
+      <c r="H678" s="112" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I678" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J678" s="63" t="s">
+        <v>2360</v>
+      </c>
       <c r="K678">
         <v>678</v>
       </c>
-    </row>
-    <row r="679" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M678" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N678" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>680</v>
       </c>
@@ -35357,11 +36610,29 @@
       <c r="F679" s="29">
         <v>46017</v>
       </c>
+      <c r="G679" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H679" s="112" t="s">
+        <v>843</v>
+      </c>
+      <c r="I679" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J679" s="63" t="s">
+        <v>2361</v>
+      </c>
       <c r="K679">
         <v>679</v>
       </c>
-    </row>
-    <row r="680" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M679" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N679" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>681</v>
       </c>
@@ -35380,11 +36651,29 @@
       <c r="F680" s="29">
         <v>45795</v>
       </c>
+      <c r="G680" s="56">
+        <v>7.0046296296296287E-2</v>
+      </c>
+      <c r="H680" s="112" t="s">
+        <v>900</v>
+      </c>
+      <c r="I680" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J680" s="63" t="s">
+        <v>2362</v>
+      </c>
       <c r="K680">
         <v>680</v>
       </c>
-    </row>
-    <row r="681" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M680" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N680" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="681" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>682</v>
       </c>
@@ -35403,11 +36692,29 @@
       <c r="F681" s="29">
         <v>46028</v>
       </c>
+      <c r="G681" s="56">
+        <v>5.7812499999999996E-2</v>
+      </c>
+      <c r="H681" s="112" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I681" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J681" s="63" t="s">
+        <v>2363</v>
+      </c>
       <c r="K681">
         <v>681</v>
       </c>
-    </row>
-    <row r="682" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M681" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N681" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>683</v>
       </c>
@@ -35426,11 +36733,29 @@
       <c r="F682" s="29">
         <v>45996</v>
       </c>
+      <c r="G682" s="56">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="H682" s="112" t="s">
+        <v>850</v>
+      </c>
+      <c r="I682" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J682" s="63" t="s">
+        <v>2364</v>
+      </c>
       <c r="K682">
         <v>682</v>
       </c>
-    </row>
-    <row r="683" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M682" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N682" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>684</v>
       </c>
@@ -35449,11 +36774,29 @@
       <c r="F683" s="29">
         <v>46023</v>
       </c>
+      <c r="G683" s="56">
+        <v>0.1045949074074074</v>
+      </c>
+      <c r="H683" s="112" t="s">
+        <v>2377</v>
+      </c>
+      <c r="I683" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J683" s="63" t="s">
+        <v>2365</v>
+      </c>
       <c r="K683">
         <v>683</v>
       </c>
-    </row>
-    <row r="684" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M683" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N683" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>685</v>
       </c>
@@ -35472,11 +36815,29 @@
       <c r="F684" s="29">
         <v>44842</v>
       </c>
+      <c r="G684" s="56">
+        <v>0.16143518518518518</v>
+      </c>
+      <c r="H684" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="I684" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J684" s="63" t="s">
+        <v>2366</v>
+      </c>
       <c r="K684">
         <v>684</v>
       </c>
-    </row>
-    <row r="685" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M684" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N684" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>686</v>
       </c>
@@ -35495,11 +36856,29 @@
       <c r="F685" s="29">
         <v>46017</v>
       </c>
+      <c r="G685" s="56">
+        <v>4.9467592592592591E-2</v>
+      </c>
+      <c r="H685" s="112" t="s">
+        <v>2378</v>
+      </c>
+      <c r="I685" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J685" s="63" t="s">
+        <v>2367</v>
+      </c>
       <c r="K685">
         <v>685</v>
       </c>
-    </row>
-    <row r="686" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M685" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N685" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>687</v>
       </c>
@@ -35518,14 +36897,32 @@
       <c r="F686" s="29">
         <v>46002</v>
       </c>
+      <c r="G686" s="56">
+        <v>3.4351851851851849E-2</v>
+      </c>
+      <c r="H686" s="112" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I686" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J686" s="63" t="s">
+        <v>2368</v>
+      </c>
       <c r="K686">
         <v>686</v>
       </c>
       <c r="L686" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="687" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M686" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N686" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>688</v>
       </c>
@@ -35544,11 +36941,29 @@
       <c r="F687" s="29">
         <v>45763</v>
       </c>
+      <c r="G687" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H687" s="112" t="s">
+        <v>511</v>
+      </c>
+      <c r="I687" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J687" s="63" t="s">
+        <v>2369</v>
+      </c>
       <c r="K687">
         <v>687</v>
       </c>
-    </row>
-    <row r="688" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M687" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N687" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>689</v>
       </c>
@@ -35567,8 +36982,29 @@
       <c r="F688" s="29">
         <v>45995</v>
       </c>
-    </row>
-    <row r="689" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G688" s="56">
+        <v>0.16512731481481482</v>
+      </c>
+      <c r="H688" s="112" t="s">
+        <v>851</v>
+      </c>
+      <c r="I688" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J688" s="63" t="s">
+        <v>2370</v>
+      </c>
+      <c r="K688">
+        <v>688</v>
+      </c>
+      <c r="M688" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N688" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>690</v>
       </c>
@@ -35587,11 +37023,32 @@
       <c r="F689" s="29">
         <v>45322</v>
       </c>
+      <c r="G689" s="56">
+        <v>0.12942129629629631</v>
+      </c>
+      <c r="H689" s="112" t="s">
+        <v>2379</v>
+      </c>
+      <c r="I689" s="112" t="s">
+        <v>295</v>
+      </c>
+      <c r="J689" s="63" t="s">
+        <v>2371</v>
+      </c>
+      <c r="K689">
+        <v>689</v>
+      </c>
       <c r="L689" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="690" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M689" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N689" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>691</v>
       </c>
@@ -35610,8 +37067,29 @@
       <c r="F690" s="29">
         <v>45644</v>
       </c>
-    </row>
-    <row r="691" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G690" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="H690" s="112" t="s">
+        <v>511</v>
+      </c>
+      <c r="I690" s="112" t="s">
+        <v>819</v>
+      </c>
+      <c r="J690" s="63" t="s">
+        <v>2372</v>
+      </c>
+      <c r="K690">
+        <v>690</v>
+      </c>
+      <c r="M690" s="57" t="s">
+        <v>867</v>
+      </c>
+      <c r="N690" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>692</v>
       </c>
@@ -35631,7 +37109,7 @@
         <v>46028</v>
       </c>
     </row>
-    <row r="692" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>693</v>
       </c>
@@ -35654,7 +37132,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="693" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>694</v>
       </c>
@@ -35674,7 +37152,7 @@
         <v>45715</v>
       </c>
     </row>
-    <row r="694" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>695</v>
       </c>
@@ -35694,7 +37172,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="695" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>696</v>
       </c>
@@ -35714,7 +37192,7 @@
         <v>45937</v>
       </c>
     </row>
-    <row r="696" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>697</v>
       </c>
@@ -35734,7 +37212,7 @@
         <v>45830</v>
       </c>
     </row>
-    <row r="697" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>698</v>
       </c>
@@ -35754,7 +37232,7 @@
         <v>46028</v>
       </c>
     </row>
-    <row r="698" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>699</v>
       </c>
@@ -35775,7 +37253,7 @@
       </c>
       <c r="L698" s="1"/>
     </row>
-    <row r="699" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>700</v>
       </c>
@@ -35795,7 +37273,7 @@
         <v>46014</v>
       </c>
     </row>
-    <row r="700" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>701</v>
       </c>
@@ -35815,7 +37293,7 @@
         <v>45765</v>
       </c>
     </row>
-    <row r="701" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>702</v>
       </c>
@@ -35835,7 +37313,7 @@
         <v>45774</v>
       </c>
     </row>
-    <row r="702" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>703</v>
       </c>
@@ -35855,7 +37333,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="703" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>704</v>
       </c>
@@ -35875,7 +37353,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="704" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>705</v>
       </c>
@@ -38255,7 +39733,7 @@
         <v>32</v>
       </c>
       <c r="D821" s="111" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E821" t="s">
         <v>29</v>
@@ -44242,7 +45720,7 @@
         <v>959</v>
       </c>
       <c r="D1100" s="99" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E1100" t="s">
         <v>441</v>
@@ -44341,7 +45819,7 @@
         <v>0.30057870370370371</v>
       </c>
       <c r="H1103" s="101" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="I1103" s="101" t="s">
         <v>819</v>
@@ -44358,7 +45836,7 @@
         <v>959</v>
       </c>
       <c r="D1104" s="101" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="E1104" t="s">
         <v>441</v>
@@ -44384,13 +45862,13 @@
         <v>10390000</v>
       </c>
       <c r="C1105" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D1105" s="101" t="s">
         <v>158</v>
       </c>
       <c r="E1105" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="F1105" s="29">
         <v>46004</v>
@@ -44413,13 +45891,13 @@
         <v>11070000</v>
       </c>
       <c r="C1106" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D1106" s="101" t="s">
         <v>47</v>
       </c>
       <c r="E1106" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="F1106" s="29">
         <v>45478</v>
@@ -44445,7 +45923,7 @@
         <v>536</v>
       </c>
       <c r="D1107" s="101" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E1107" t="s">
         <v>536</v>
@@ -44471,13 +45949,13 @@
         <v>13980000</v>
       </c>
       <c r="C1108" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D1108" s="101" t="s">
         <v>61</v>
       </c>
       <c r="E1108" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F1108" s="29">
         <v>46065</v>
@@ -44486,7 +45964,7 @@
         <v>511</v>
       </c>
       <c r="H1108" s="101" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="I1108" s="101" t="s">
         <v>819</v>
@@ -44558,13 +46036,13 @@
         <v>10430000</v>
       </c>
       <c r="C1111" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1111" s="101" t="s">
         <v>1747</v>
       </c>
-      <c r="D1111" s="101" t="s">
-        <v>1748</v>
-      </c>
       <c r="E1111" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F1111" s="29">
         <v>45759</v>
@@ -44631,7 +46109,7 @@
         <v>0.19513888888888889</v>
       </c>
       <c r="H1113" s="101" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="I1113" s="101" t="s">
         <v>819</v>
@@ -44645,7 +46123,7 @@
         <v>16460000</v>
       </c>
       <c r="C1114" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D1114" s="101" t="s">
         <v>5</v>
@@ -44703,7 +46181,7 @@
         <v>20203292</v>
       </c>
       <c r="C1116" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D1116" s="101" t="s">
         <v>61</v>
@@ -44790,13 +46268,13 @@
         <v>51447973</v>
       </c>
       <c r="C1119" s="102" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D1119" s="102" t="s">
         <v>13</v>
       </c>
       <c r="E1119" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1119" s="29">
         <v>46067</v>
@@ -44805,7 +46283,7 @@
         <v>0.25883101851851853</v>
       </c>
       <c r="H1119" s="102" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="I1119" s="102" t="s">
         <v>819</v>
@@ -44822,7 +46300,7 @@
         <v>28</v>
       </c>
       <c r="D1120" s="102" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E1120" s="102" t="s">
         <v>29</v>
@@ -44834,7 +46312,7 @@
         <v>0.32885416666666667</v>
       </c>
       <c r="H1120" s="102" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="I1120" s="102" t="s">
         <v>819</v>
@@ -44964,13 +46442,13 @@
         <v>11634123</v>
       </c>
       <c r="C1125" s="102" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D1125" s="104" t="s">
         <v>393</v>
       </c>
       <c r="E1125" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1125" s="29">
         <v>46067</v>
@@ -44993,13 +46471,13 @@
         <v>50486454</v>
       </c>
       <c r="C1126" s="104" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D1126" s="104" t="s">
         <v>432</v>
       </c>
       <c r="E1126" s="104" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F1126" s="29">
         <v>46067</v>
@@ -45022,13 +46500,13 @@
         <v>6500000</v>
       </c>
       <c r="C1127" s="104" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D1127" s="104" t="s">
         <v>426</v>
       </c>
       <c r="E1127" s="104" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F1127" s="29">
         <v>46067</v>
@@ -45051,13 +46529,13 @@
         <v>22580000</v>
       </c>
       <c r="C1128" s="104" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D1128" s="104" t="s">
         <v>9</v>
       </c>
       <c r="E1128" s="104" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="F1128" s="29">
         <v>46067</v>
@@ -45083,7 +46561,7 @@
         <v>29</v>
       </c>
       <c r="D1129" s="104" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="E1129" s="104" t="s">
         <v>29</v>
@@ -45109,13 +46587,13 @@
         <v>11995037</v>
       </c>
       <c r="C1130" s="102" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D1130" s="104" t="s">
         <v>97</v>
       </c>
       <c r="E1130" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1130" s="29">
         <v>46065</v>
@@ -45124,7 +46602,7 @@
         <v>9.5983796296296289E-2</v>
       </c>
       <c r="H1130" s="104" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="I1130" s="104" t="s">
         <v>819</v>
@@ -45138,13 +46616,13 @@
         <v>12470293</v>
       </c>
       <c r="C1131" s="102" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D1131" s="104" t="s">
         <v>454</v>
       </c>
       <c r="E1131" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1131" s="29">
         <v>46065</v>
@@ -45153,7 +46631,7 @@
         <v>0.11239583333333332</v>
       </c>
       <c r="H1131" s="104" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="I1131" s="104" t="s">
         <v>819</v>
@@ -45167,13 +46645,13 @@
         <v>3683365</v>
       </c>
       <c r="C1132" s="104" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D1132" s="104" t="s">
         <v>379</v>
       </c>
       <c r="E1132" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1132" s="29">
         <v>46055</v>
@@ -45196,13 +46674,13 @@
         <v>16246656</v>
       </c>
       <c r="C1133" s="104" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D1133" s="104" t="s">
         <v>67</v>
       </c>
       <c r="E1133" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1133" s="29">
         <v>46055</v>
@@ -45225,13 +46703,13 @@
         <v>7945684</v>
       </c>
       <c r="C1134" s="104" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D1134" s="104" t="s">
         <v>24</v>
       </c>
       <c r="E1134" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1134" s="29">
         <v>46056</v>
@@ -45254,13 +46732,13 @@
         <v>5656056</v>
       </c>
       <c r="C1135" s="102" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D1135" s="104" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E1135" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1135" s="29">
         <v>46066</v>
@@ -45283,13 +46761,13 @@
         <v>12035121</v>
       </c>
       <c r="C1136" s="102" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D1136" s="104" t="s">
         <v>33</v>
       </c>
       <c r="E1136" s="104" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1136" s="29">
         <v>46067</v>
@@ -45298,7 +46776,7 @@
         <v>5.0462962962962959E-2</v>
       </c>
       <c r="H1136" s="104" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="I1136" s="104" t="s">
         <v>819</v>
@@ -45312,10 +46790,10 @@
         <v>11512160</v>
       </c>
       <c r="C1137" s="105" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D1137" s="105" t="s">
         <v>1788</v>
-      </c>
-      <c r="D1137" s="105" t="s">
-        <v>1789</v>
       </c>
       <c r="E1137" s="105" t="s">
         <v>660</v>
@@ -45370,10 +46848,10 @@
         <v>4069142</v>
       </c>
       <c r="C1139" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D1139" s="105" t="s">
         <v>1821</v>
-      </c>
-      <c r="D1139" s="105" t="s">
-        <v>1822</v>
       </c>
       <c r="E1139" s="105" t="s">
         <v>221</v>
@@ -45399,7 +46877,7 @@
         <v>35655031</v>
       </c>
       <c r="C1140" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D1140" s="106" t="s">
         <v>35</v>
@@ -45443,7 +46921,7 @@
         <v>0.17954861111111112</v>
       </c>
       <c r="H1141" s="106" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I1141" s="106" t="s">
         <v>819</v>
@@ -45518,10 +46996,10 @@
         <v>25</v>
       </c>
       <c r="D1144" s="106" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E1144" s="106" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1144" s="29">
         <v>46071</v>
@@ -45576,7 +47054,7 @@
         <v>651</v>
       </c>
       <c r="D1146" s="106" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E1146" s="106" t="s">
         <v>221</v>
@@ -45602,13 +47080,13 @@
         <v>31682775</v>
       </c>
       <c r="C1147" s="104" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D1147" s="106" t="s">
         <v>15</v>
       </c>
       <c r="E1147" s="106" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1147" s="29">
         <v>46072</v>
@@ -45617,7 +47095,7 @@
         <v>0.23855324074074072</v>
       </c>
       <c r="H1147" s="106" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I1147" s="106" t="s">
         <v>819</v>
@@ -45718,7 +47196,7 @@
         <v>10391822</v>
       </c>
       <c r="C1151" s="106" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D1151" s="106" t="s">
         <v>91</v>
@@ -45747,7 +47225,7 @@
         <v>1805444</v>
       </c>
       <c r="C1152" s="106" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D1152" s="106" t="s">
         <v>219</v>
@@ -45776,10 +47254,10 @@
         <v>19687708</v>
       </c>
       <c r="C1153" s="110" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D1153" s="110" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="E1153" s="110" t="s">
         <v>29</v>
@@ -45791,7 +47269,7 @@
         <v>0.20443287037037039</v>
       </c>
       <c r="H1153" s="110" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I1153" s="110" t="s">
         <v>819</v>
@@ -45805,13 +47283,13 @@
         <v>39229228</v>
       </c>
       <c r="C1154" s="104" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D1154" s="110" t="s">
         <v>13</v>
       </c>
       <c r="E1154" s="110" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="F1154" s="29">
         <v>46073</v>
@@ -45837,7 +47315,7 @@
         <v>8</v>
       </c>
       <c r="D1155" s="110" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="E1155" s="110" t="s">
         <v>8</v>
@@ -45881,6 +47359,35 @@
         <v>511</v>
       </c>
       <c r="I1156" s="111" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1157">
+        <v>1158</v>
+      </c>
+      <c r="B1157" s="7">
+        <v>2661541</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D1157" s="112" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E1157" s="112" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F1157" s="29">
+        <v>46074</v>
+      </c>
+      <c r="G1157" s="56">
+        <v>2.5624999999999998E-2</v>
+      </c>
+      <c r="H1157" s="112" t="s">
+        <v>850</v>
+      </c>
+      <c r="I1157" s="112" t="s">
         <v>819</v>
       </c>
     </row>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7935" uniqueCount="2615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8106" uniqueCount="2691">
   <si>
     <t>Ņ</t>
   </si>
@@ -7872,6 +7872,234 @@
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475488665927942259/id_MM.jpg?ex=699dab67&amp;is=699c59e7&amp;hm=fb251a4735c27823299c5883641ad3e2cd4cf2940157cee5bcf87c8e01140ee0</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Mb</t>
+  </si>
+  <si>
+    <t>Mc</t>
+  </si>
+  <si>
+    <t>Md</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Mf</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>Mh</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Mj</t>
+  </si>
+  <si>
+    <t>Mk</t>
+  </si>
+  <si>
+    <t>Ml</t>
+  </si>
+  <si>
+    <t>Mm</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>Mq</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Mt</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Mv</t>
+  </si>
+  <si>
+    <t>Mw</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Mz</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>Zaphkiel/Freyja</t>
+  </si>
+  <si>
+    <t>Paladin/Theia</t>
+  </si>
+  <si>
+    <t>Ragnarok/Nest Warden/Elite Skimmer</t>
+  </si>
+  <si>
+    <t>Elite Skimmer/Summoner</t>
+  </si>
+  <si>
+    <t>Elite Skimmer/Nest Keeper</t>
+  </si>
+  <si>
+    <t>Eris/Elite Crasher</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520168208765150/id_MN.jpeg?ex=699dc8bd&amp;is=699c773d&amp;hm=cd41b86cb55d102c39c9af65e2b8fff0d86bed7d54fda465957c5bb4fcd4e3a6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520250190761984/id_MO.png?ex=699dc8d1&amp;is=699c7751&amp;hm=1bb6caa7ece13d7a858e15ee7e5df5b7f8af711c692180a92462cb2fe4631784</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520296902590585/id_MP.jpg?ex=699dc8dc&amp;is=699c775c&amp;hm=eaf593363d69620cfb282785c754a970d1bb7ac5fa509ec65d7aa3bde1078f60</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520347498479616/id_MQ.png?ex=699dc8e8&amp;is=699c7768&amp;hm=1fa8ea339c350b9f0e438f296199d274b021db53af87c36f4eff05e166ff7654</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520393757458483/id_MR.jpg?ex=699dc8f3&amp;is=699c7773&amp;hm=b53977a67b129101903be34c96377c937836b134911926ad7e97b66b9e611682</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520444441296996/id_MS.jpg?ex=699dc8ff&amp;is=699c777f&amp;hm=675b01f5857e0a0dc27d75320fc06b8f5a256db8cfc310c114e6d4edd092e7b6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520492675793008/id_MT.jpg?ex=699dc90b&amp;is=699c778b&amp;hm=f33c775c1bce1f19f535f2899c735ba5ecda03e6f1f883dbb2a4ba2c6b20392e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520535348645898/id_MU.png?ex=699dc915&amp;is=699c7795&amp;hm=745bfa2c63e4b9b6ff1b0df06fabd65ba415048da56c7f5e7603bdcfae74c345</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520817734619311/id_MV.png?ex=699dc958&amp;is=699c77d8&amp;hm=5b0680bfda587e3ac03ba7f6c00640680b0d8e90d690083ee510ae4f6d88cfa8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520865033523312/id_MW.jpg?ex=699dc964&amp;is=699c77e4&amp;hm=18e9da97e821c20dd70821be215cc6bf184a0e170fd122ba0e3f8eaeeba268b5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520905718530251/id_MX.jpeg?ex=699dc96d&amp;is=699c77ed&amp;hm=1de6b5eb576a7a5e81c8a33d5b58187829ae227dda3bf9fa78131e3cfed4ec50</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520948886306947/id_MY.png?ex=699dc978&amp;is=699c77f8&amp;hm=a1310b06c7790d5159d1ddb907ae0ac272a18560caad3d7934942b350dc308b6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475520992347557991/id_MZ.png?ex=699dc982&amp;is=699c7802&amp;hm=8f87ec16a5e664b6cbac9cee02b588133e8a34eaae4d2857cdff537d8e1a847c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475521035196432535/id_Ma.jpg?ex=699dc98c&amp;is=699c780c&amp;hm=bd58659ac1198759969ab4bff0582ef4d9e59eaae8320190c4346bead2f4eca2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475521080134336542/id_Mb.jpg?ex=699dc997&amp;is=699c7817&amp;hm=db4fb1d7cee6015f75c3cbc10fcf10428bbb678781cd51af1e120613666f9da1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557280970702869/id_Mc.jpg?ex=699deb4e&amp;is=699c99ce&amp;hm=2d07635d3ed5fbed31b1ce74de511fe5143aa076dc5423ce50455cf7aaf3748a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557360750559476/id_Md.jpg?ex=699deb61&amp;is=699c99e1&amp;hm=f0a8531097713d63df52efecff6f1aad183d605d6eae8f40b52918ab4ae9ae10</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557402903314442/id_Me.jpg?ex=699deb6b&amp;is=699c99eb&amp;hm=2e6ec6dbd37628f53239f76481879bd5b31e199fcae5b24edd5a0cb7500c56b2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557456309522613/id_Mf.jpg?ex=699deb78&amp;is=699c99f8&amp;hm=8fb53fbb554664160033ba4cb8521dda04655511873122cddeb3eb1d90a95896</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557526719299594/id_Mg.png?ex=699deb88&amp;is=699c9a08&amp;hm=85b6817f44a7c0968b47d82d74e3cf4bc06f8fe8f0ca39b02a905285f2c936fd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557569589153983/id_Mh.jpg?ex=699deb93&amp;is=699c9a13&amp;hm=79e6ac57acf2a20df2a758497d48549a4e91d8e2f10e9ce5366da396238db5e1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557613218562048/id_Mi.png?ex=699deb9d&amp;is=699c9a1d&amp;hm=4d7e75f846c20cb5005cb02ffffe24be18a38ba6bcafc08cb4817384f02bef72</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557660962328576/id_Mj.jpg?ex=699deba8&amp;is=699c9a28&amp;hm=b44ba021828504275609a9b980714de21ac2416ee7a6c88efeb261aa4254d35c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557705933394083/id_Mk.png?ex=699debb3&amp;is=699c9a33&amp;hm=bfd7261e59aba1d1a339f1491958b2aab63a13021cdd5083859a7bbbfd9b3a00</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557790213738496/id_Ml.png?ex=699debc7&amp;is=699c9a47&amp;hm=7c901d805ed6cda473645250a71fff7a65096b2fe41b333be27f983ac60270db</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557842978213939/id_Mm.jpg?ex=699debd4&amp;is=699c9a54&amp;hm=200886a5e2ab87e10b37cfdcb77e677af454092c238c65e4f392af53ad9be622</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475557903560867910/id_Mn.png?ex=699debe2&amp;is=699c9a62&amp;hm=7fd5e2e9375ec2e911b9eeabe7326704232f95bc417ccdd7c9bf80cac460ae13</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475558154376052898/id_Mo.jpg?ex=699dec1e&amp;is=699c9a9e&amp;hm=51a0fb1c3f19f236959d046646db50b3e9ea2a6ed4b0e9109ac029559db61b4e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475558220272636128/id_Mp.jpg?ex=699dec2e&amp;is=699c9aae&amp;hm=05a58985b93d28c312b824590e27e4d469668e527c9a1baad180513e105b6d08</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475558277227089992/id_Mq.jpg?ex=699dec3b&amp;is=699c9abb&amp;hm=e0b753fea0122c21776685e1e52ac0d276b1510b383640cc5e91c64332c73099</t>
   </si>
 </sst>
 </file>
@@ -7883,11 +8111,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="69" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8392,118 +8627,119 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -8512,18 +8748,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -8743,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A778" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K782" sqref="K782"/>
+    <sheetView tabSelected="1" topLeftCell="A808" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H812" sqref="H812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40250,8 +40486,8 @@
       <c r="L751" t="s">
         <v>476</v>
       </c>
-      <c r="M751" s="115" t="s">
-        <v>2434</v>
+      <c r="M751" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N751" t="s">
         <v>2585</v>
@@ -40294,8 +40530,8 @@
       <c r="L752" t="s">
         <v>791</v>
       </c>
-      <c r="M752" s="115" t="s">
-        <v>2434</v>
+      <c r="M752" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N752" t="s">
         <v>2586</v>
@@ -40335,8 +40571,8 @@
       <c r="K753">
         <v>753</v>
       </c>
-      <c r="M753" s="115" t="s">
-        <v>2434</v>
+      <c r="M753" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N753" t="s">
         <v>2587</v>
@@ -40376,8 +40612,8 @@
       <c r="K754">
         <v>754</v>
       </c>
-      <c r="M754" s="115" t="s">
-        <v>2434</v>
+      <c r="M754" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N754" t="s">
         <v>2588</v>
@@ -40417,8 +40653,8 @@
       <c r="K755">
         <v>755</v>
       </c>
-      <c r="M755" s="115" t="s">
-        <v>2434</v>
+      <c r="M755" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N755" t="s">
         <v>2589</v>
@@ -40458,8 +40694,8 @@
       <c r="K756">
         <v>756</v>
       </c>
-      <c r="M756" s="115" t="s">
-        <v>2434</v>
+      <c r="M756" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N756" t="s">
         <v>2590</v>
@@ -40499,8 +40735,8 @@
       <c r="K757">
         <v>757</v>
       </c>
-      <c r="M757" s="115" t="s">
-        <v>2434</v>
+      <c r="M757" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N757" t="s">
         <v>2591</v>
@@ -40540,8 +40776,8 @@
       <c r="K758">
         <v>758</v>
       </c>
-      <c r="M758" s="115" t="s">
-        <v>2434</v>
+      <c r="M758" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N758" t="s">
         <v>2592</v>
@@ -40584,8 +40820,8 @@
       <c r="L759" t="s">
         <v>344</v>
       </c>
-      <c r="M759" s="115" t="s">
-        <v>2434</v>
+      <c r="M759" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N759" t="s">
         <v>2593</v>
@@ -40625,8 +40861,8 @@
       <c r="K760">
         <v>760</v>
       </c>
-      <c r="M760" s="115" t="s">
-        <v>2434</v>
+      <c r="M760" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N760" t="s">
         <v>2594</v>
@@ -40666,8 +40902,8 @@
       <c r="K761">
         <v>761</v>
       </c>
-      <c r="M761" s="115" t="s">
-        <v>2434</v>
+      <c r="M761" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N761" t="s">
         <v>2595</v>
@@ -40707,8 +40943,8 @@
       <c r="K762">
         <v>762</v>
       </c>
-      <c r="M762" s="115" t="s">
-        <v>2434</v>
+      <c r="M762" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N762" t="s">
         <v>2596</v>
@@ -40748,8 +40984,8 @@
       <c r="K763">
         <v>763</v>
       </c>
-      <c r="M763" s="115" t="s">
-        <v>2434</v>
+      <c r="M763" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N763" t="s">
         <v>2597</v>
@@ -40789,8 +41025,8 @@
       <c r="K764">
         <v>764</v>
       </c>
-      <c r="M764" s="115" t="s">
-        <v>2434</v>
+      <c r="M764" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N764" t="s">
         <v>2598</v>
@@ -40830,8 +41066,8 @@
       <c r="K765">
         <v>765</v>
       </c>
-      <c r="M765" s="115" t="s">
-        <v>2434</v>
+      <c r="M765" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N765" t="s">
         <v>2599</v>
@@ -40871,8 +41107,8 @@
       <c r="K766">
         <v>766</v>
       </c>
-      <c r="M766" s="115" t="s">
-        <v>2434</v>
+      <c r="M766" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N766" t="s">
         <v>2600</v>
@@ -40912,8 +41148,8 @@
       <c r="K767">
         <v>767</v>
       </c>
-      <c r="M767" s="115" t="s">
-        <v>2434</v>
+      <c r="M767" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N767" t="s">
         <v>2601</v>
@@ -40953,8 +41189,8 @@
       <c r="K768">
         <v>768</v>
       </c>
-      <c r="M768" s="115" t="s">
-        <v>2434</v>
+      <c r="M768" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N768" t="s">
         <v>2602</v>
@@ -40994,8 +41230,8 @@
       <c r="K769">
         <v>769</v>
       </c>
-      <c r="M769" s="115" t="s">
-        <v>2434</v>
+      <c r="M769" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N769" t="s">
         <v>2603</v>
@@ -41035,8 +41271,8 @@
       <c r="K770">
         <v>770</v>
       </c>
-      <c r="M770" s="115" t="s">
-        <v>2434</v>
+      <c r="M770" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N770" t="s">
         <v>2604</v>
@@ -41076,8 +41312,8 @@
       <c r="K771">
         <v>771</v>
       </c>
-      <c r="M771" s="115" t="s">
-        <v>2434</v>
+      <c r="M771" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N771" t="s">
         <v>2605</v>
@@ -41117,8 +41353,8 @@
       <c r="K772">
         <v>772</v>
       </c>
-      <c r="M772" s="115" t="s">
-        <v>2434</v>
+      <c r="M772" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N772" t="s">
         <v>2606</v>
@@ -41158,8 +41394,8 @@
       <c r="K773">
         <v>773</v>
       </c>
-      <c r="M773" s="115" t="s">
-        <v>2434</v>
+      <c r="M773" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N773" t="s">
         <v>2607</v>
@@ -41199,8 +41435,8 @@
       <c r="K774">
         <v>774</v>
       </c>
-      <c r="M774" s="115" t="s">
-        <v>2434</v>
+      <c r="M774" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N774" t="s">
         <v>2608</v>
@@ -41240,8 +41476,8 @@
       <c r="K775">
         <v>775</v>
       </c>
-      <c r="M775" s="115" t="s">
-        <v>2434</v>
+      <c r="M775" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N775" t="s">
         <v>2609</v>
@@ -41281,8 +41517,8 @@
       <c r="K776">
         <v>776</v>
       </c>
-      <c r="M776" s="115" t="s">
-        <v>2434</v>
+      <c r="M776" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N776" t="s">
         <v>2610</v>
@@ -41322,8 +41558,8 @@
       <c r="K777">
         <v>777</v>
       </c>
-      <c r="M777" s="115" t="s">
-        <v>2434</v>
+      <c r="M777" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N777" t="s">
         <v>2611</v>
@@ -41363,8 +41599,8 @@
       <c r="K778">
         <v>778</v>
       </c>
-      <c r="M778" s="115" t="s">
-        <v>2434</v>
+      <c r="M778" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N778" t="s">
         <v>2612</v>
@@ -41404,8 +41640,8 @@
       <c r="K779">
         <v>779</v>
       </c>
-      <c r="M779" s="115" t="s">
-        <v>2434</v>
+      <c r="M779" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N779" t="s">
         <v>2613</v>
@@ -41445,8 +41681,8 @@
       <c r="K780">
         <v>780</v>
       </c>
-      <c r="M780" s="115" t="s">
-        <v>2434</v>
+      <c r="M780" s="57" t="s">
+        <v>865</v>
       </c>
       <c r="N780" t="s">
         <v>2614</v>
@@ -41471,6 +41707,27 @@
       <c r="F781" s="29">
         <v>46048</v>
       </c>
+      <c r="G781" s="56">
+        <v>4.9340277777777775E-2</v>
+      </c>
+      <c r="H781" s="116" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I781" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J781" s="63" t="s">
+        <v>2615</v>
+      </c>
+      <c r="K781">
+        <v>781</v>
+      </c>
+      <c r="M781" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N781" t="s">
+        <v>2661</v>
+      </c>
     </row>
     <row r="782" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782">
@@ -41491,6 +41748,27 @@
       <c r="F782" s="29">
         <v>46019</v>
       </c>
+      <c r="G782" s="56">
+        <v>3.4548611111111113E-2</v>
+      </c>
+      <c r="H782" s="116" t="s">
+        <v>2655</v>
+      </c>
+      <c r="I782" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J782" s="63" t="s">
+        <v>2616</v>
+      </c>
+      <c r="K782">
+        <v>782</v>
+      </c>
+      <c r="M782" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N782" t="s">
+        <v>2662</v>
+      </c>
     </row>
     <row r="783" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783">
@@ -41511,6 +41789,27 @@
       <c r="F783" s="29">
         <v>45808</v>
       </c>
+      <c r="G783" s="56">
+        <v>9.2789351851851845E-2</v>
+      </c>
+      <c r="H783" t="s">
+        <v>846</v>
+      </c>
+      <c r="I783" s="116" t="s">
+        <v>295</v>
+      </c>
+      <c r="J783" s="63" t="s">
+        <v>2617</v>
+      </c>
+      <c r="K783">
+        <v>783</v>
+      </c>
+      <c r="M783" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N783" t="s">
+        <v>2663</v>
+      </c>
     </row>
     <row r="784" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784">
@@ -41531,8 +41830,29 @@
       <c r="F784" s="29">
         <v>45998</v>
       </c>
-    </row>
-    <row r="785" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G784" s="56">
+        <v>0.10454861111111112</v>
+      </c>
+      <c r="H784" t="s">
+        <v>2656</v>
+      </c>
+      <c r="I784" s="116" t="s">
+        <v>295</v>
+      </c>
+      <c r="J784" s="63" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K784">
+        <v>784</v>
+      </c>
+      <c r="M784" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N784" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="785" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>786</v>
       </c>
@@ -41551,8 +41871,29 @@
       <c r="F785" s="29">
         <v>45982</v>
       </c>
-    </row>
-    <row r="786" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G785" s="56">
+        <v>8.1087962962962959E-2</v>
+      </c>
+      <c r="H785" t="s">
+        <v>948</v>
+      </c>
+      <c r="I785" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J785" s="63" t="s">
+        <v>2619</v>
+      </c>
+      <c r="K785">
+        <v>785</v>
+      </c>
+      <c r="M785" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N785" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="786" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>787</v>
       </c>
@@ -41571,8 +41912,29 @@
       <c r="F786" s="29">
         <v>45139</v>
       </c>
-    </row>
-    <row r="787" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G786" s="56">
+        <v>6.1030092592592594E-2</v>
+      </c>
+      <c r="H786" s="116" t="s">
+        <v>846</v>
+      </c>
+      <c r="I786" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J786" s="63" t="s">
+        <v>2620</v>
+      </c>
+      <c r="K786">
+        <v>786</v>
+      </c>
+      <c r="M786" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N786" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="787" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>788</v>
       </c>
@@ -41591,8 +41953,29 @@
       <c r="F787" s="29">
         <v>45792</v>
       </c>
-    </row>
-    <row r="788" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G787" s="56">
+        <v>4.5266203703703704E-2</v>
+      </c>
+      <c r="H787" s="116" t="s">
+        <v>2657</v>
+      </c>
+      <c r="I787" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J787" s="63" t="s">
+        <v>2621</v>
+      </c>
+      <c r="K787">
+        <v>787</v>
+      </c>
+      <c r="M787" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N787" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="788" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>789</v>
       </c>
@@ -41611,8 +41994,29 @@
       <c r="F788" s="29">
         <v>45991</v>
       </c>
-    </row>
-    <row r="789" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G788" s="56">
+        <v>0.12092592592592592</v>
+      </c>
+      <c r="H788" s="116" t="s">
+        <v>1575</v>
+      </c>
+      <c r="I788" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J788" s="63" t="s">
+        <v>2622</v>
+      </c>
+      <c r="K788">
+        <v>788</v>
+      </c>
+      <c r="M788" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N788" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="789" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>790</v>
       </c>
@@ -41631,8 +42035,29 @@
       <c r="F789" s="29">
         <v>46018</v>
       </c>
-    </row>
-    <row r="790" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G789" s="56">
+        <v>8.6874999999999994E-2</v>
+      </c>
+      <c r="H789" s="116" t="s">
+        <v>816</v>
+      </c>
+      <c r="I789" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J789" s="63" t="s">
+        <v>2624</v>
+      </c>
+      <c r="K789">
+        <v>789</v>
+      </c>
+      <c r="M789" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N789" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="790" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>791</v>
       </c>
@@ -41651,8 +42076,29 @@
       <c r="F790" s="29">
         <v>45746</v>
       </c>
-    </row>
-    <row r="791" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G790" s="56">
+        <v>4.2719907407407408E-2</v>
+      </c>
+      <c r="H790" s="116" t="s">
+        <v>849</v>
+      </c>
+      <c r="I790" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J790" s="63" t="s">
+        <v>2623</v>
+      </c>
+      <c r="K790">
+        <v>790</v>
+      </c>
+      <c r="M790" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N790" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="791" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>792</v>
       </c>
@@ -41671,8 +42117,29 @@
       <c r="F791" s="29">
         <v>46033</v>
       </c>
-    </row>
-    <row r="792" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G791" s="56">
+        <v>4.116898148148148E-2</v>
+      </c>
+      <c r="H791" s="116" t="s">
+        <v>2655</v>
+      </c>
+      <c r="I791" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J791" s="63" t="s">
+        <v>2625</v>
+      </c>
+      <c r="K791">
+        <v>791</v>
+      </c>
+      <c r="M791" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N791" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="792" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>793</v>
       </c>
@@ -41691,8 +42158,29 @@
       <c r="F792" s="29">
         <v>45909</v>
       </c>
-    </row>
-    <row r="793" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G792" s="56">
+        <v>4.7974537037037045E-2</v>
+      </c>
+      <c r="H792" s="116" t="s">
+        <v>826</v>
+      </c>
+      <c r="I792" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J792" s="63" t="s">
+        <v>2626</v>
+      </c>
+      <c r="K792">
+        <v>792</v>
+      </c>
+      <c r="M792" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N792" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="793" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>794</v>
       </c>
@@ -41711,8 +42199,29 @@
       <c r="F793" s="29">
         <v>46004</v>
       </c>
-    </row>
-    <row r="794" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G793" s="56">
+        <v>8.8796296296296304E-2</v>
+      </c>
+      <c r="H793" s="116" t="s">
+        <v>843</v>
+      </c>
+      <c r="I793" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J793" s="63" t="s">
+        <v>2627</v>
+      </c>
+      <c r="K793">
+        <v>793</v>
+      </c>
+      <c r="M793" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N793" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="794" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>795</v>
       </c>
@@ -41731,8 +42240,29 @@
       <c r="F794" s="29">
         <v>45736</v>
       </c>
-    </row>
-    <row r="795" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G794" s="56">
+        <v>5.0578703703703709E-2</v>
+      </c>
+      <c r="H794" s="116" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I794" s="116" t="s">
+        <v>817</v>
+      </c>
+      <c r="J794" s="63" t="s">
+        <v>2628</v>
+      </c>
+      <c r="K794">
+        <v>794</v>
+      </c>
+      <c r="M794" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N794" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="795" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>796</v>
       </c>
@@ -41751,8 +42281,29 @@
       <c r="F795" s="29">
         <v>45648</v>
       </c>
-    </row>
-    <row r="796" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G795" s="56">
+        <v>8.5706018518518515E-2</v>
+      </c>
+      <c r="H795" s="116" t="s">
+        <v>836</v>
+      </c>
+      <c r="I795" t="s">
+        <v>817</v>
+      </c>
+      <c r="J795" s="63" t="s">
+        <v>2629</v>
+      </c>
+      <c r="K795">
+        <v>795</v>
+      </c>
+      <c r="M795" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N795" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="796" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>797</v>
       </c>
@@ -41771,11 +42322,32 @@
       <c r="F796" s="29">
         <v>45992</v>
       </c>
+      <c r="G796" s="56">
+        <v>4.1886574074074069E-2</v>
+      </c>
+      <c r="H796" t="s">
+        <v>816</v>
+      </c>
+      <c r="I796" t="s">
+        <v>817</v>
+      </c>
+      <c r="J796" s="63" t="s">
+        <v>2630</v>
+      </c>
+      <c r="K796">
+        <v>796</v>
+      </c>
       <c r="L796" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="797" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M796" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N796" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="797" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>798</v>
       </c>
@@ -41794,8 +42366,29 @@
       <c r="F797" s="29">
         <v>45724</v>
       </c>
-    </row>
-    <row r="798" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G797" s="56">
+        <v>5.3078703703703704E-2</v>
+      </c>
+      <c r="H797" t="s">
+        <v>2112</v>
+      </c>
+      <c r="I797" t="s">
+        <v>817</v>
+      </c>
+      <c r="J797" s="63" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K797">
+        <v>797</v>
+      </c>
+      <c r="M797" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N797" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="798" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>799</v>
       </c>
@@ -41814,8 +42407,29 @@
       <c r="F798" s="29">
         <v>46014</v>
       </c>
-    </row>
-    <row r="799" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G798" s="56">
+        <v>3.1828703703703706E-2</v>
+      </c>
+      <c r="H798" t="s">
+        <v>2658</v>
+      </c>
+      <c r="I798" t="s">
+        <v>817</v>
+      </c>
+      <c r="J798" s="63" t="s">
+        <v>2632</v>
+      </c>
+      <c r="K798">
+        <v>798</v>
+      </c>
+      <c r="M798" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N798" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="799" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>800</v>
       </c>
@@ -41834,8 +42448,29 @@
       <c r="F799" s="29">
         <v>45570</v>
       </c>
-    </row>
-    <row r="800" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G799" s="56">
+        <v>5.2905092592592594E-2</v>
+      </c>
+      <c r="H799" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I799" t="s">
+        <v>817</v>
+      </c>
+      <c r="J799" s="63" t="s">
+        <v>2633</v>
+      </c>
+      <c r="K799">
+        <v>799</v>
+      </c>
+      <c r="M799" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N799" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="800" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>801</v>
       </c>
@@ -41854,8 +42489,29 @@
       <c r="F800" s="29">
         <v>46017</v>
       </c>
-    </row>
-    <row r="801" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G800" s="56">
+        <v>0.10966435185185186</v>
+      </c>
+      <c r="H800" t="s">
+        <v>816</v>
+      </c>
+      <c r="I800" t="s">
+        <v>817</v>
+      </c>
+      <c r="J800" s="63" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K800">
+        <v>800</v>
+      </c>
+      <c r="M800" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N800" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="801" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>802</v>
       </c>
@@ -41874,8 +42530,29 @@
       <c r="F801" s="29">
         <v>45792</v>
       </c>
-    </row>
-    <row r="802" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G801" s="56">
+        <v>4.3506944444444445E-2</v>
+      </c>
+      <c r="H801" t="s">
+        <v>34</v>
+      </c>
+      <c r="I801" t="s">
+        <v>817</v>
+      </c>
+      <c r="J801" s="63" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K801">
+        <v>801</v>
+      </c>
+      <c r="M801" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N801" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="802" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>803</v>
       </c>
@@ -41894,8 +42571,29 @@
       <c r="F802" s="29">
         <v>46005</v>
       </c>
-    </row>
-    <row r="803" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G802" s="56">
+        <v>5.2418981481481476E-2</v>
+      </c>
+      <c r="H802" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I802" t="s">
+        <v>817</v>
+      </c>
+      <c r="J802" s="63" t="s">
+        <v>2636</v>
+      </c>
+      <c r="K802">
+        <v>802</v>
+      </c>
+      <c r="M802" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N802" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="803" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>804</v>
       </c>
@@ -41914,8 +42612,29 @@
       <c r="F803" s="29">
         <v>45703</v>
       </c>
-    </row>
-    <row r="804" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G803" s="56">
+        <v>3.8680555555555558E-2</v>
+      </c>
+      <c r="H803" t="s">
+        <v>836</v>
+      </c>
+      <c r="I803" t="s">
+        <v>817</v>
+      </c>
+      <c r="J803" s="63" t="s">
+        <v>2637</v>
+      </c>
+      <c r="K803">
+        <v>803</v>
+      </c>
+      <c r="M803" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N803" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="804" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>805</v>
       </c>
@@ -41934,8 +42653,29 @@
       <c r="F804" s="29">
         <v>46049</v>
       </c>
-    </row>
-    <row r="805" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G804" s="56">
+        <v>5.0150462962962966E-2</v>
+      </c>
+      <c r="H804" t="s">
+        <v>2659</v>
+      </c>
+      <c r="I804" t="s">
+        <v>817</v>
+      </c>
+      <c r="J804" s="63" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K804">
+        <v>804</v>
+      </c>
+      <c r="M804" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N804" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="805" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>806</v>
       </c>
@@ -41954,8 +42694,29 @@
       <c r="F805" s="29">
         <v>46038</v>
       </c>
-    </row>
-    <row r="806" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G805" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H805" t="s">
+        <v>1120</v>
+      </c>
+      <c r="I805" t="s">
+        <v>817</v>
+      </c>
+      <c r="J805" s="63" t="s">
+        <v>2639</v>
+      </c>
+      <c r="K805">
+        <v>805</v>
+      </c>
+      <c r="M805" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N805" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="806" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>807</v>
       </c>
@@ -41974,8 +42735,29 @@
       <c r="F806" s="29">
         <v>45726</v>
       </c>
-    </row>
-    <row r="807" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G806" s="56">
+        <v>7.6215277777777771E-2</v>
+      </c>
+      <c r="H806" t="s">
+        <v>955</v>
+      </c>
+      <c r="I806" t="s">
+        <v>817</v>
+      </c>
+      <c r="J806" s="63" t="s">
+        <v>2640</v>
+      </c>
+      <c r="K806">
+        <v>806</v>
+      </c>
+      <c r="M806" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N806" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="807" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>808</v>
       </c>
@@ -41994,11 +42776,32 @@
       <c r="F807" s="29">
         <v>46002</v>
       </c>
+      <c r="G807" s="56">
+        <v>5.2280092592592593E-2</v>
+      </c>
+      <c r="H807" t="s">
+        <v>896</v>
+      </c>
+      <c r="I807" t="s">
+        <v>817</v>
+      </c>
+      <c r="J807" s="63" t="s">
+        <v>2641</v>
+      </c>
+      <c r="K807">
+        <v>807</v>
+      </c>
       <c r="L807" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="808" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M807" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N807" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="808" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>809</v>
       </c>
@@ -42017,8 +42820,29 @@
       <c r="F808" s="29">
         <v>45713</v>
       </c>
-    </row>
-    <row r="809" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G808" s="56">
+        <v>5.2280092592592593E-2</v>
+      </c>
+      <c r="H808" t="s">
+        <v>2660</v>
+      </c>
+      <c r="I808" t="s">
+        <v>817</v>
+      </c>
+      <c r="J808" s="63" t="s">
+        <v>2642</v>
+      </c>
+      <c r="K808">
+        <v>808</v>
+      </c>
+      <c r="M808" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N808" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="809" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>810</v>
       </c>
@@ -42037,8 +42861,29 @@
       <c r="F809" s="29">
         <v>46017</v>
       </c>
-    </row>
-    <row r="810" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G809" s="56">
+        <v>4.6585648148148147E-2</v>
+      </c>
+      <c r="H809" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I809" t="s">
+        <v>817</v>
+      </c>
+      <c r="J809" s="63" t="s">
+        <v>2643</v>
+      </c>
+      <c r="K809">
+        <v>809</v>
+      </c>
+      <c r="M809" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N809" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="810" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>811</v>
       </c>
@@ -42057,8 +42902,29 @@
       <c r="F810" s="29">
         <v>46019</v>
       </c>
-    </row>
-    <row r="811" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G810" s="56">
+        <v>3.9259259259259258E-2</v>
+      </c>
+      <c r="H810" t="s">
+        <v>826</v>
+      </c>
+      <c r="I810" t="s">
+        <v>817</v>
+      </c>
+      <c r="J810" s="63" t="s">
+        <v>2644</v>
+      </c>
+      <c r="K810">
+        <v>810</v>
+      </c>
+      <c r="M810" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N810" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="811" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>812</v>
       </c>
@@ -42077,8 +42943,17 @@
       <c r="F811" s="29">
         <v>45850</v>
       </c>
-    </row>
-    <row r="812" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K811">
+        <v>811</v>
+      </c>
+      <c r="M811" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N811" s="63" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="812" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>813</v>
       </c>
@@ -42097,8 +42972,17 @@
       <c r="F812" s="29">
         <v>45904</v>
       </c>
-    </row>
-    <row r="813" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K812">
+        <v>812</v>
+      </c>
+      <c r="M812" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N812" s="63" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="813" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>814</v>
       </c>
@@ -42117,8 +43001,17 @@
       <c r="F813" s="29">
         <v>46012</v>
       </c>
-    </row>
-    <row r="814" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K813">
+        <v>813</v>
+      </c>
+      <c r="M813" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N813" s="63" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="814" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>815</v>
       </c>
@@ -42137,8 +43030,17 @@
       <c r="F814" s="29">
         <v>46016</v>
       </c>
-    </row>
-    <row r="815" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K814">
+        <v>814</v>
+      </c>
+      <c r="M814" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N814" s="63" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="815" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>816</v>
       </c>
@@ -42157,8 +43059,17 @@
       <c r="F815" s="29">
         <v>45893</v>
       </c>
-    </row>
-    <row r="816" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K815">
+        <v>815</v>
+      </c>
+      <c r="M815" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N815" s="63" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="816" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>817</v>
       </c>
@@ -42177,8 +43088,17 @@
       <c r="F816" s="29">
         <v>46028</v>
       </c>
-    </row>
-    <row r="817" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K816">
+        <v>816</v>
+      </c>
+      <c r="M816" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N816" s="63" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="817" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>818</v>
       </c>
@@ -42197,8 +43117,17 @@
       <c r="F817" s="29">
         <v>46000</v>
       </c>
-    </row>
-    <row r="818" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K817">
+        <v>817</v>
+      </c>
+      <c r="M817" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N817" s="63" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="818" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>819</v>
       </c>
@@ -42217,8 +43146,17 @@
       <c r="F818" s="29">
         <v>45923</v>
       </c>
-    </row>
-    <row r="819" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K818">
+        <v>818</v>
+      </c>
+      <c r="M818" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N818" s="63" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="819" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>820</v>
       </c>
@@ -42237,8 +43175,17 @@
       <c r="F819" s="29">
         <v>46004</v>
       </c>
-    </row>
-    <row r="820" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K819">
+        <v>819</v>
+      </c>
+      <c r="M819" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N819" s="63" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="820" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>821</v>
       </c>
@@ -42257,8 +43204,17 @@
       <c r="F820" s="29">
         <v>45782</v>
       </c>
-    </row>
-    <row r="821" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K820">
+        <v>820</v>
+      </c>
+      <c r="M820" s="116" t="s">
+        <v>2434</v>
+      </c>
+      <c r="N820" s="63" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="821" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>822</v>
       </c>
@@ -42278,7 +43234,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="822" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>823</v>
       </c>
@@ -42298,7 +43254,7 @@
         <v>45879</v>
       </c>
     </row>
-    <row r="823" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>824</v>
       </c>
@@ -42318,7 +43274,7 @@
         <v>45708</v>
       </c>
     </row>
-    <row r="824" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>825</v>
       </c>
@@ -42338,7 +43294,7 @@
         <v>45647</v>
       </c>
     </row>
-    <row r="825" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>826</v>
       </c>
@@ -42358,7 +43314,7 @@
         <v>45795</v>
       </c>
     </row>
-    <row r="826" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>827</v>
       </c>
@@ -42378,7 +43334,7 @@
         <v>46024</v>
       </c>
     </row>
-    <row r="827" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>828</v>
       </c>
@@ -42398,7 +43354,7 @@
         <v>46016</v>
       </c>
     </row>
-    <row r="828" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>829</v>
       </c>
@@ -42418,7 +43374,7 @@
         <v>46009</v>
       </c>
     </row>
-    <row r="829" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>830</v>
       </c>
@@ -42441,7 +43397,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="830" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>831</v>
       </c>
@@ -42461,7 +43417,7 @@
         <v>45809</v>
       </c>
     </row>
-    <row r="831" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>832</v>
       </c>
@@ -42481,7 +43437,7 @@
         <v>46017</v>
       </c>
     </row>
-    <row r="832" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>833</v>
       </c>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8106" uniqueCount="2691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8243" uniqueCount="2743">
   <si>
     <t>Ņ</t>
   </si>
@@ -7331,9 +7331,6 @@
     <t>LQ</t>
   </si>
   <si>
-    <t>[o]</t>
-  </si>
-  <si>
     <t>Elite Skimmer/Elite Crasher</t>
   </si>
   <si>
@@ -8100,6 +8097,165 @@
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475558277227089992/id_Mq.jpg?ex=699dec3b&amp;is=699c9abb&amp;hm=e0b753fea0122c21776685e1e52ac0d276b1510b383640cc5e91c64332c73099</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>M(</t>
+  </si>
+  <si>
+    <t>M)</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Theia/Summoner/Nyx/Elite Crasher</t>
+  </si>
+  <si>
+    <t>Kronos/Summoner</t>
+  </si>
+  <si>
+    <t>Ragnarok/Zaphkiel</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873262067253360/id_Mr.jpg?ex=699f1196&amp;is=699dc016&amp;hm=e876862864fb9d5a64c4eb3dff6f68fe9630157d8c0a372715589f3195d50162</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873321668182136/id_Ms.jpg?ex=699f11a4&amp;is=699dc024&amp;hm=def10c8abbebf8247215727c87f8e000229ef94ef6e4ddf155d4be93c4048baf</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873397178372248/id_Mt.png?ex=699f11b6&amp;is=699dc036&amp;hm=cc2625e979dbf0c9153aa5961ec7fcd852613bcca272fa8651cc51970b79c27a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873458633179198/id_Mu.png?ex=699f11c4&amp;is=699dc044&amp;hm=aa3dbfcac6f107d7a1b187205c74e67ab3eb6e17cb472d6a358159aa32ae8e07</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873517001244733/id_Mv.jpg?ex=699f11d2&amp;is=699dc052&amp;hm=5c8ad6c01658b1f42685f49bceceac80037606ff6451a2e614f5d1e9ddcd5421</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873572873572412/id_Mw.jpg?ex=699f11e0&amp;is=699dc060&amp;hm=434815f589c3c9a2cfecbabf68971fde3bea8b6059b48e9fe0cd13dc5ee9cdc7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873626636161106/id_Mx.png?ex=699f11ec&amp;is=699dc06c&amp;hm=1746911bf3726128c1cd998a972324d965bc39e715e7b82fe907b5b737dc34af</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873674241249431/id_My.png?ex=699f11f8&amp;is=699dc078&amp;hm=0972c051ee41034cf334e35e99ce4d15872132a7e6714251158ba3224cd74f90</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873727295127622/id_Mz.png?ex=699f1204&amp;is=699dc084&amp;hm=f13ffe5f7f3fb818b66467b0bc6dbb07c6629469353d892f639d5ac6c3b8d5f3</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873797088477436/id_M0.jpg?ex=699f1215&amp;is=699dc095&amp;hm=febd5473fc2a1e53bcd9b8dc5f07269b6b475b3596530452c8484affc387e69b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873841233530910/id_M1.png?ex=699f1220&amp;is=699dc0a0&amp;hm=792855665186c3f0f17af8395bae2e4531207f04a8a6a7c490ce2d491304979b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873883851587584/id_M2.jpg?ex=699f122a&amp;is=699dc0aa&amp;hm=297959b2a04ee2fce563bc2a5bbfe71f08615ec30062c3880fab05a31986b70b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873930949689445/id_M3.jpg?ex=699f1235&amp;is=699dc0b5&amp;hm=fcd160af360e55fb945eecf0ffa56598e0223b45416433e73f4d6fd64eb7beee</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475873978219364575/id_M4.png?ex=699f1240&amp;is=699dc0c0&amp;hm=7887b22a820b6151ae911d15ee59bed3c67d36ded091b2ea90276a9e5d16f8e7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874022754488455/id_M5.jpg?ex=699f124b&amp;is=699dc0cb&amp;hm=1d08fa359b97bc3f7fb392abdaaf08e268c93c61e37cefff5af49523d3bb00f5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874293048148009/id_M6.png?ex=699f128b&amp;is=699dc10b&amp;hm=37049d410ae4c3dfa59bf936aaae621d1407384c1543a06701926b215e5c2189</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874339369914368/id_M7.png?ex=699f1296&amp;is=699dc116&amp;hm=a782d90818f88f1cdae40ef29e1daded779bd065dd5f5a5dafc1f3da50c91392</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874392901816392/id_M8.png?ex=699f12a3&amp;is=699dc123&amp;hm=b1f791a6451975fd270eb05945fbde80798c956f32ad6b990a4e8b8bde0cc633</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874440423149648/id_M9.jpg?ex=699f12af&amp;is=699dc12f&amp;hm=f67c3e3db7e9ed8ba055bff0c00adbde6ee40b225d2750f3bfb83b52d29e403a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874566843924651/id_M.jpg?ex=699f12cd&amp;is=699dc14d&amp;hm=4757b3281b4461d6403f75c5122b9e113cefc4c84b3c1f4e3e684426c0a6126f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874628114186462/id_M.png?ex=699f12db&amp;is=699dc15b&amp;hm=fe9f35db83c0df6a0d5413bbb0bdb5aba4c6c9fa8a716d2378c6ab37178914cb</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874770858807426/id_NA.jpg?ex=699f12fd&amp;is=699dc17d&amp;hm=b49608118696ce52d21c465740d4311af0c43bae4355ed0a628eda6932f7a566</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874828320768161/id_NB.jpg?ex=699f130b&amp;is=699dc18b&amp;hm=1a107de1817d56051a7df8f9de97b78fac0430fbef93ecbd49a9a17d40d009bf</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874878392500415/id_NC.png?ex=699f1317&amp;is=699dc197&amp;hm=5587b9d04bc5999524655279a2066228d324f20330663c0b5694c0d54b688032</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874932310282385/id_ND.png?ex=699f1324&amp;is=699dc1a4&amp;hm=2593bec51802d4fcdf36b388971a361fe950359c803710384ef903de14d44acf</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475874994780246067/id_NE.png?ex=699f1333&amp;is=699dc1b3&amp;hm=424e809e4b7daeb549eb234360db47cf2b4fdcbd6973eccef75f0408cefc70af</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475875070898343953/id_NF.png?ex=699f1345&amp;is=699dc1c5&amp;hm=49744302f19def22317a7a8291c472320a460f011c7c17893f67b880bb76c9dd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475875117467959428/id_NG.png?ex=699f1350&amp;is=699dc1d0&amp;hm=553b54d48d75ef252e15b41b62f5ae03d2b821673c89d7a35929bc02d4493621</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475875187764363597/id_NH.jpg?ex=699f1361&amp;is=699dc1e1&amp;hm=3d50b21fde0ebff6c754d21aef056ddea41e4b13cfe72b5e6e4091fc7989a15f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1475875234195312811/id_NI.jpg?ex=699f136c&amp;is=699dc1ec&amp;hm=8daf68eac64e925bab9e44182e8caf100be67cebebc33d59d2aa856886b7f10e</t>
   </si>
 </sst>
 </file>
@@ -8111,11 +8267,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="70" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8627,118 +8790,119 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="66" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -8747,18 +8911,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -8979,8 +9143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A808" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H812" sqref="H812"/>
+    <sheetView tabSelected="1" topLeftCell="A838" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L841" sqref="L841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13773,7 +13937,7 @@
         <v>865</v>
       </c>
       <c r="N111" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="O111" s="1"/>
     </row>
@@ -14073,7 +14237,7 @@
         <v>865</v>
       </c>
       <c r="N118" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="O118" s="1"/>
     </row>
@@ -29360,7 +29524,7 @@
         <v>865</v>
       </c>
       <c r="N482" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="483" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38009,7 +38173,7 @@
         <v>865</v>
       </c>
       <c r="N691" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="692" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38035,7 +38199,7 @@
         <v>0.11703703703703704</v>
       </c>
       <c r="H692" s="112" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="I692" s="112" t="s">
         <v>817</v>
@@ -38053,7 +38217,7 @@
         <v>865</v>
       </c>
       <c r="N692" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="693" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38094,7 +38258,7 @@
         <v>865</v>
       </c>
       <c r="N693" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="694" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38135,7 +38299,7 @@
         <v>865</v>
       </c>
       <c r="N694" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="695" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38176,7 +38340,7 @@
         <v>865</v>
       </c>
       <c r="N695" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="696" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38217,7 +38381,7 @@
         <v>865</v>
       </c>
       <c r="N696" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="697" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38258,7 +38422,7 @@
         <v>865</v>
       </c>
       <c r="N697" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="698" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38300,7 +38464,7 @@
         <v>865</v>
       </c>
       <c r="N698" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="699" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38341,7 +38505,7 @@
         <v>865</v>
       </c>
       <c r="N699" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="700" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38382,7 +38546,7 @@
         <v>865</v>
       </c>
       <c r="N700" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="701" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38423,7 +38587,7 @@
         <v>865</v>
       </c>
       <c r="N701" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="702" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38464,7 +38628,7 @@
         <v>865</v>
       </c>
       <c r="N702" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="703" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38505,7 +38669,7 @@
         <v>865</v>
       </c>
       <c r="N703" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="704" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38546,7 +38710,7 @@
         <v>865</v>
       </c>
       <c r="N704" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="705" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38587,7 +38751,7 @@
         <v>865</v>
       </c>
       <c r="N705" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="706" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38628,7 +38792,7 @@
         <v>865</v>
       </c>
       <c r="N706" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="707" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38669,7 +38833,7 @@
         <v>865</v>
       </c>
       <c r="N707" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="708" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38710,7 +38874,7 @@
         <v>865</v>
       </c>
       <c r="N708" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="709" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38751,7 +38915,7 @@
         <v>865</v>
       </c>
       <c r="N709" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="710" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38792,7 +38956,7 @@
         <v>865</v>
       </c>
       <c r="N710" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="711" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38836,7 +39000,7 @@
         <v>865</v>
       </c>
       <c r="N711" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="712" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38877,7 +39041,7 @@
         <v>865</v>
       </c>
       <c r="N712" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="713" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38918,7 +39082,7 @@
         <v>865</v>
       </c>
       <c r="N713" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="714" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38959,7 +39123,7 @@
         <v>865</v>
       </c>
       <c r="N714" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="715" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39000,7 +39164,7 @@
         <v>865</v>
       </c>
       <c r="N715" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="716" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39041,7 +39205,7 @@
         <v>865</v>
       </c>
       <c r="N716" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="717" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39082,7 +39246,7 @@
         <v>865</v>
       </c>
       <c r="N717" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="718" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39123,7 +39287,7 @@
         <v>865</v>
       </c>
       <c r="N718" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="719" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39164,7 +39328,7 @@
         <v>865</v>
       </c>
       <c r="N719" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="720" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39205,7 +39369,7 @@
         <v>865</v>
       </c>
       <c r="N720" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="721" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39237,7 +39401,7 @@
         <v>817</v>
       </c>
       <c r="J721" s="63" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="K721">
         <v>721</v>
@@ -39249,7 +39413,7 @@
         <v>865</v>
       </c>
       <c r="N721" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="722" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39281,7 +39445,7 @@
         <v>824</v>
       </c>
       <c r="J722" s="63" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="K722">
         <v>722</v>
@@ -39290,7 +39454,7 @@
         <v>865</v>
       </c>
       <c r="N722" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="723" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39316,13 +39480,13 @@
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="H723" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="I723" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J723" s="63" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="K723">
         <v>723</v>
@@ -39331,7 +39495,7 @@
         <v>865</v>
       </c>
       <c r="N723" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="724" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39363,7 +39527,7 @@
         <v>295</v>
       </c>
       <c r="J724" s="63" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="K724">
         <v>724</v>
@@ -39372,7 +39536,7 @@
         <v>865</v>
       </c>
       <c r="N724" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="725" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39398,13 +39562,13 @@
         <v>0.15850694444444444</v>
       </c>
       <c r="H725" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="I725" s="115" t="s">
         <v>295</v>
       </c>
       <c r="J725" s="63" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="K725">
         <v>725</v>
@@ -39414,7 +39578,7 @@
         <v>865</v>
       </c>
       <c r="N725" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="726" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39446,7 +39610,7 @@
         <v>817</v>
       </c>
       <c r="J726" s="63" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="K726">
         <v>726</v>
@@ -39455,7 +39619,7 @@
         <v>865</v>
       </c>
       <c r="N726" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="727" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39481,13 +39645,13 @@
         <v>0.33924768518518517</v>
       </c>
       <c r="H727" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="I727" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J727" s="63" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="K727">
         <v>727</v>
@@ -39497,7 +39661,7 @@
         <v>865</v>
       </c>
       <c r="N727" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="728" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39529,7 +39693,7 @@
         <v>817</v>
       </c>
       <c r="J728" s="63" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="K728">
         <v>728</v>
@@ -39541,7 +39705,7 @@
         <v>865</v>
       </c>
       <c r="N728" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="729" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39573,7 +39737,7 @@
         <v>817</v>
       </c>
       <c r="J729" s="63" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="K729">
         <v>729</v>
@@ -39582,7 +39746,7 @@
         <v>865</v>
       </c>
       <c r="N729" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="730" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39614,7 +39778,7 @@
         <v>817</v>
       </c>
       <c r="J730" s="63" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="K730">
         <v>730</v>
@@ -39623,7 +39787,7 @@
         <v>865</v>
       </c>
       <c r="N730" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="731" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39655,7 +39819,7 @@
         <v>817</v>
       </c>
       <c r="J731" s="63" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="K731">
         <v>731</v>
@@ -39664,7 +39828,7 @@
         <v>865</v>
       </c>
       <c r="N731" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="732" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39696,7 +39860,7 @@
         <v>295</v>
       </c>
       <c r="J732" s="63" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="K732">
         <v>732</v>
@@ -39708,7 +39872,7 @@
         <v>865</v>
       </c>
       <c r="N732" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="733" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39740,7 +39904,7 @@
         <v>817</v>
       </c>
       <c r="J733" s="63" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="K733">
         <v>733</v>
@@ -39749,7 +39913,7 @@
         <v>865</v>
       </c>
       <c r="N733" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="734" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39781,7 +39945,7 @@
         <v>824</v>
       </c>
       <c r="J734" s="63" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="K734">
         <v>734</v>
@@ -39790,7 +39954,7 @@
         <v>865</v>
       </c>
       <c r="N734" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="735" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39822,7 +39986,7 @@
         <v>817</v>
       </c>
       <c r="J735" s="63" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="K735">
         <v>735</v>
@@ -39831,7 +39995,7 @@
         <v>865</v>
       </c>
       <c r="N735" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="736" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39863,7 +40027,7 @@
         <v>817</v>
       </c>
       <c r="J736" s="63" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="K736">
         <v>736</v>
@@ -39872,7 +40036,7 @@
         <v>865</v>
       </c>
       <c r="N736" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="737" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39898,13 +40062,13 @@
         <v>6.2083333333333331E-2</v>
       </c>
       <c r="H737" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="I737" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J737" s="63" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="K737">
         <v>737</v>
@@ -39913,7 +40077,7 @@
         <v>865</v>
       </c>
       <c r="N737" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="738" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39945,7 +40109,7 @@
         <v>817</v>
       </c>
       <c r="J738" s="63" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="K738">
         <v>738</v>
@@ -39954,7 +40118,7 @@
         <v>865</v>
       </c>
       <c r="N738" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="739" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39986,7 +40150,7 @@
         <v>817</v>
       </c>
       <c r="J739" s="63" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="K739">
         <v>739</v>
@@ -39995,7 +40159,7 @@
         <v>865</v>
       </c>
       <c r="N739" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="740" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40021,13 +40185,13 @@
         <v>4.7488425925925927E-2</v>
       </c>
       <c r="H740" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="I740" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J740" s="63" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="K740">
         <v>740</v>
@@ -40036,7 +40200,7 @@
         <v>865</v>
       </c>
       <c r="N740" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="741" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40068,7 +40232,7 @@
         <v>817</v>
       </c>
       <c r="J741" s="63" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K741">
         <v>741</v>
@@ -40077,7 +40241,7 @@
         <v>865</v>
       </c>
       <c r="N741" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="742" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40109,7 +40273,7 @@
         <v>295</v>
       </c>
       <c r="J742" s="63" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="K742">
         <v>742</v>
@@ -40118,7 +40282,7 @@
         <v>865</v>
       </c>
       <c r="N742" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="743" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40144,13 +40308,13 @@
         <v>4.6307870370370374E-2</v>
       </c>
       <c r="H743" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="I743" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J743" s="63" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="K743">
         <v>743</v>
@@ -40159,7 +40323,7 @@
         <v>865</v>
       </c>
       <c r="N743" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="744" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40191,7 +40355,7 @@
         <v>817</v>
       </c>
       <c r="J744" s="63" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="K744">
         <v>744</v>
@@ -40200,7 +40364,7 @@
         <v>865</v>
       </c>
       <c r="N744" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="745" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40232,7 +40396,7 @@
         <v>817</v>
       </c>
       <c r="J745" s="63" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="K745">
         <v>745</v>
@@ -40241,7 +40405,7 @@
         <v>865</v>
       </c>
       <c r="N745" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="746" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40273,7 +40437,7 @@
         <v>817</v>
       </c>
       <c r="J746" s="63" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="K746">
         <v>746</v>
@@ -40282,7 +40446,7 @@
         <v>865</v>
       </c>
       <c r="N746" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="747" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40314,7 +40478,7 @@
         <v>295</v>
       </c>
       <c r="J747" s="63" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="K747">
         <v>747</v>
@@ -40323,7 +40487,7 @@
         <v>865</v>
       </c>
       <c r="N747" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="748" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40334,7 +40498,7 @@
         <v>6480000</v>
       </c>
       <c r="C748" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="D748" t="s">
         <v>5</v>
@@ -40355,7 +40519,7 @@
         <v>824</v>
       </c>
       <c r="J748" s="63" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="K748">
         <v>748</v>
@@ -40364,7 +40528,7 @@
         <v>865</v>
       </c>
       <c r="N748" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="749" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40390,13 +40554,13 @@
         <v>7.9513888888888884E-2</v>
       </c>
       <c r="H749" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="I749" s="115" t="s">
         <v>295</v>
       </c>
       <c r="J749" s="63" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="K749">
         <v>749</v>
@@ -40405,7 +40569,7 @@
         <v>865</v>
       </c>
       <c r="N749" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="750" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40437,7 +40601,7 @@
         <v>817</v>
       </c>
       <c r="J750" s="63" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="K750">
         <v>750</v>
@@ -40446,7 +40610,7 @@
         <v>865</v>
       </c>
       <c r="N750" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="751" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40478,7 +40642,7 @@
         <v>817</v>
       </c>
       <c r="J751" s="63" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="K751">
         <v>751</v>
@@ -40490,7 +40654,7 @@
         <v>865</v>
       </c>
       <c r="N751" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="752" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40522,7 +40686,7 @@
         <v>817</v>
       </c>
       <c r="J752" s="63" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="K752">
         <v>752</v>
@@ -40534,7 +40698,7 @@
         <v>865</v>
       </c>
       <c r="N752" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="753" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40566,7 +40730,7 @@
         <v>817</v>
       </c>
       <c r="J753" s="63" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="K753">
         <v>753</v>
@@ -40575,7 +40739,7 @@
         <v>865</v>
       </c>
       <c r="N753" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="754" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40607,7 +40771,7 @@
         <v>817</v>
       </c>
       <c r="J754" s="63" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="K754">
         <v>754</v>
@@ -40616,7 +40780,7 @@
         <v>865</v>
       </c>
       <c r="N754" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="755" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40648,7 +40812,7 @@
         <v>817</v>
       </c>
       <c r="J755" s="63" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="K755">
         <v>755</v>
@@ -40657,7 +40821,7 @@
         <v>865</v>
       </c>
       <c r="N755" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="756" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40689,7 +40853,7 @@
         <v>817</v>
       </c>
       <c r="J756" s="63" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="K756">
         <v>756</v>
@@ -40698,7 +40862,7 @@
         <v>865</v>
       </c>
       <c r="N756" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="757" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40730,7 +40894,7 @@
         <v>817</v>
       </c>
       <c r="J757" s="63" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="K757">
         <v>757</v>
@@ -40739,7 +40903,7 @@
         <v>865</v>
       </c>
       <c r="N757" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="758" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40771,7 +40935,7 @@
         <v>817</v>
       </c>
       <c r="J758" s="63" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="K758">
         <v>758</v>
@@ -40780,7 +40944,7 @@
         <v>865</v>
       </c>
       <c r="N758" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="759" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40812,7 +40976,7 @@
         <v>817</v>
       </c>
       <c r="J759" s="63" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="K759">
         <v>759</v>
@@ -40824,7 +40988,7 @@
         <v>865</v>
       </c>
       <c r="N759" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="760" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40856,7 +41020,7 @@
         <v>817</v>
       </c>
       <c r="J760" s="63" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="K760">
         <v>760</v>
@@ -40865,7 +41029,7 @@
         <v>865</v>
       </c>
       <c r="N760" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="761" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40897,7 +41061,7 @@
         <v>295</v>
       </c>
       <c r="J761" s="63" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="K761">
         <v>761</v>
@@ -40906,7 +41070,7 @@
         <v>865</v>
       </c>
       <c r="N761" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="762" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40938,7 +41102,7 @@
         <v>817</v>
       </c>
       <c r="J762" s="63" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="K762">
         <v>762</v>
@@ -40947,7 +41111,7 @@
         <v>865</v>
       </c>
       <c r="N762" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="763" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40973,13 +41137,13 @@
         <v>5.9212962962962967E-2</v>
       </c>
       <c r="H763" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I763" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J763" s="63" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="K763">
         <v>763</v>
@@ -40988,7 +41152,7 @@
         <v>865</v>
       </c>
       <c r="N763" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="764" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41014,13 +41178,13 @@
         <v>4.538194444444444E-2</v>
       </c>
       <c r="H764" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="I764" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J764" s="63" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="K764">
         <v>764</v>
@@ -41029,7 +41193,7 @@
         <v>865</v>
       </c>
       <c r="N764" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="765" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41055,13 +41219,13 @@
         <v>6.671296296296296E-2</v>
       </c>
       <c r="H765" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="I765" s="115" t="s">
         <v>295</v>
       </c>
       <c r="J765" s="63" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="K765">
         <v>765</v>
@@ -41070,7 +41234,7 @@
         <v>865</v>
       </c>
       <c r="N765" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="766" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41102,7 +41266,7 @@
         <v>817</v>
       </c>
       <c r="J766" s="63" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="K766">
         <v>766</v>
@@ -41111,7 +41275,7 @@
         <v>865</v>
       </c>
       <c r="N766" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="767" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41143,7 +41307,7 @@
         <v>817</v>
       </c>
       <c r="J767" s="63" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="K767">
         <v>767</v>
@@ -41152,7 +41316,7 @@
         <v>865</v>
       </c>
       <c r="N767" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="768" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41184,7 +41348,7 @@
         <v>817</v>
       </c>
       <c r="J768" s="63" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="K768">
         <v>768</v>
@@ -41193,7 +41357,7 @@
         <v>865</v>
       </c>
       <c r="N768" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="769" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41219,13 +41383,13 @@
         <v>3.2615740740740744E-2</v>
       </c>
       <c r="H769" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="I769" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J769" s="63" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="K769">
         <v>769</v>
@@ -41234,7 +41398,7 @@
         <v>865</v>
       </c>
       <c r="N769" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="770" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41266,7 +41430,7 @@
         <v>817</v>
       </c>
       <c r="J770" s="63" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="K770">
         <v>770</v>
@@ -41275,7 +41439,7 @@
         <v>865</v>
       </c>
       <c r="N770" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="771" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41307,7 +41471,7 @@
         <v>817</v>
       </c>
       <c r="J771" s="63" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="K771">
         <v>771</v>
@@ -41316,7 +41480,7 @@
         <v>865</v>
       </c>
       <c r="N771" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="772" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41348,7 +41512,7 @@
         <v>817</v>
       </c>
       <c r="J772" s="63" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="K772">
         <v>772</v>
@@ -41357,7 +41521,7 @@
         <v>865</v>
       </c>
       <c r="N772" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="773" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41383,13 +41547,13 @@
         <v>0.13998842592592592</v>
       </c>
       <c r="H773" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="I773" s="115" t="s">
         <v>817</v>
       </c>
       <c r="J773" s="63" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="K773">
         <v>773</v>
@@ -41398,7 +41562,7 @@
         <v>865</v>
       </c>
       <c r="N773" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="774" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41430,7 +41594,7 @@
         <v>817</v>
       </c>
       <c r="J774" s="63" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="K774">
         <v>774</v>
@@ -41439,7 +41603,7 @@
         <v>865</v>
       </c>
       <c r="N774" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="775" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41471,7 +41635,7 @@
         <v>817</v>
       </c>
       <c r="J775" s="63" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="K775">
         <v>775</v>
@@ -41480,7 +41644,7 @@
         <v>865</v>
       </c>
       <c r="N775" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="776" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41512,7 +41676,7 @@
         <v>817</v>
       </c>
       <c r="J776" s="63" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="K776">
         <v>776</v>
@@ -41521,7 +41685,7 @@
         <v>865</v>
       </c>
       <c r="N776" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="777" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41553,7 +41717,7 @@
         <v>817</v>
       </c>
       <c r="J777" s="63" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="K777">
         <v>777</v>
@@ -41562,7 +41726,7 @@
         <v>865</v>
       </c>
       <c r="N777" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="778" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41594,7 +41758,7 @@
         <v>817</v>
       </c>
       <c r="J778" s="63" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="K778">
         <v>778</v>
@@ -41603,7 +41767,7 @@
         <v>865</v>
       </c>
       <c r="N778" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="779" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41635,7 +41799,7 @@
         <v>817</v>
       </c>
       <c r="J779" s="63" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="K779">
         <v>779</v>
@@ -41644,7 +41808,7 @@
         <v>865</v>
       </c>
       <c r="N779" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="780" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41676,7 +41840,7 @@
         <v>817</v>
       </c>
       <c r="J780" s="63" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="K780">
         <v>780</v>
@@ -41685,7 +41849,7 @@
         <v>865</v>
       </c>
       <c r="N780" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="781" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41717,7 +41881,7 @@
         <v>817</v>
       </c>
       <c r="J781" s="63" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="K781">
         <v>781</v>
@@ -41726,7 +41890,7 @@
         <v>865</v>
       </c>
       <c r="N781" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="782" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41752,13 +41916,13 @@
         <v>3.4548611111111113E-2</v>
       </c>
       <c r="H782" s="116" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="I782" s="116" t="s">
         <v>817</v>
       </c>
       <c r="J782" s="63" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="K782">
         <v>782</v>
@@ -41767,7 +41931,7 @@
         <v>865</v>
       </c>
       <c r="N782" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="783" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41799,7 +41963,7 @@
         <v>295</v>
       </c>
       <c r="J783" s="63" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="K783">
         <v>783</v>
@@ -41808,7 +41972,7 @@
         <v>865</v>
       </c>
       <c r="N783" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="784" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41834,13 +41998,13 @@
         <v>0.10454861111111112</v>
       </c>
       <c r="H784" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="I784" s="116" t="s">
         <v>295</v>
       </c>
       <c r="J784" s="63" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="K784">
         <v>784</v>
@@ -41849,7 +42013,7 @@
         <v>865</v>
       </c>
       <c r="N784" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="785" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41881,7 +42045,7 @@
         <v>817</v>
       </c>
       <c r="J785" s="63" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="K785">
         <v>785</v>
@@ -41890,7 +42054,7 @@
         <v>865</v>
       </c>
       <c r="N785" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="786" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41922,7 +42086,7 @@
         <v>817</v>
       </c>
       <c r="J786" s="63" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="K786">
         <v>786</v>
@@ -41931,7 +42095,7 @@
         <v>865</v>
       </c>
       <c r="N786" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="787" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41957,13 +42121,13 @@
         <v>4.5266203703703704E-2</v>
       </c>
       <c r="H787" s="116" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="I787" s="116" t="s">
         <v>817</v>
       </c>
       <c r="J787" s="63" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="K787">
         <v>787</v>
@@ -41972,7 +42136,7 @@
         <v>865</v>
       </c>
       <c r="N787" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="788" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42004,7 +42168,7 @@
         <v>817</v>
       </c>
       <c r="J788" s="63" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="K788">
         <v>788</v>
@@ -42013,7 +42177,7 @@
         <v>865</v>
       </c>
       <c r="N788" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="789" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42045,7 +42209,7 @@
         <v>817</v>
       </c>
       <c r="J789" s="63" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="K789">
         <v>789</v>
@@ -42054,7 +42218,7 @@
         <v>865</v>
       </c>
       <c r="N789" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="790" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42086,7 +42250,7 @@
         <v>817</v>
       </c>
       <c r="J790" s="63" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="K790">
         <v>790</v>
@@ -42095,7 +42259,7 @@
         <v>865</v>
       </c>
       <c r="N790" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="791" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42121,13 +42285,13 @@
         <v>4.116898148148148E-2</v>
       </c>
       <c r="H791" s="116" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="I791" s="116" t="s">
         <v>817</v>
       </c>
       <c r="J791" s="63" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="K791">
         <v>791</v>
@@ -42136,7 +42300,7 @@
         <v>865</v>
       </c>
       <c r="N791" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="792" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42168,7 +42332,7 @@
         <v>817</v>
       </c>
       <c r="J792" s="63" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="K792">
         <v>792</v>
@@ -42177,7 +42341,7 @@
         <v>865</v>
       </c>
       <c r="N792" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="793" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42209,7 +42373,7 @@
         <v>817</v>
       </c>
       <c r="J793" s="63" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="K793">
         <v>793</v>
@@ -42218,7 +42382,7 @@
         <v>865</v>
       </c>
       <c r="N793" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="794" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42250,7 +42414,7 @@
         <v>817</v>
       </c>
       <c r="J794" s="63" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="K794">
         <v>794</v>
@@ -42259,7 +42423,7 @@
         <v>865</v>
       </c>
       <c r="N794" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="795" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42291,7 +42455,7 @@
         <v>817</v>
       </c>
       <c r="J795" s="63" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="K795">
         <v>795</v>
@@ -42300,7 +42464,7 @@
         <v>865</v>
       </c>
       <c r="N795" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="796" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42332,7 +42496,7 @@
         <v>817</v>
       </c>
       <c r="J796" s="63" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="K796">
         <v>796</v>
@@ -42344,7 +42508,7 @@
         <v>865</v>
       </c>
       <c r="N796" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="797" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42376,7 +42540,7 @@
         <v>817</v>
       </c>
       <c r="J797" s="63" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="K797">
         <v>797</v>
@@ -42385,7 +42549,7 @@
         <v>865</v>
       </c>
       <c r="N797" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="798" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42411,13 +42575,13 @@
         <v>3.1828703703703706E-2</v>
       </c>
       <c r="H798" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="I798" t="s">
         <v>817</v>
       </c>
       <c r="J798" s="63" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="K798">
         <v>798</v>
@@ -42426,7 +42590,7 @@
         <v>865</v>
       </c>
       <c r="N798" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="799" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42458,7 +42622,7 @@
         <v>817</v>
       </c>
       <c r="J799" s="63" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="K799">
         <v>799</v>
@@ -42467,7 +42631,7 @@
         <v>865</v>
       </c>
       <c r="N799" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="800" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42499,7 +42663,7 @@
         <v>817</v>
       </c>
       <c r="J800" s="63" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="K800">
         <v>800</v>
@@ -42508,7 +42672,7 @@
         <v>865</v>
       </c>
       <c r="N800" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="801" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42540,7 +42704,7 @@
         <v>817</v>
       </c>
       <c r="J801" s="63" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="K801">
         <v>801</v>
@@ -42549,7 +42713,7 @@
         <v>865</v>
       </c>
       <c r="N801" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="802" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42581,7 +42745,7 @@
         <v>817</v>
       </c>
       <c r="J802" s="63" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="K802">
         <v>802</v>
@@ -42590,7 +42754,7 @@
         <v>865</v>
       </c>
       <c r="N802" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="803" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42622,7 +42786,7 @@
         <v>817</v>
       </c>
       <c r="J803" s="63" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="K803">
         <v>803</v>
@@ -42631,7 +42795,7 @@
         <v>865</v>
       </c>
       <c r="N803" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="804" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42657,13 +42821,13 @@
         <v>5.0150462962962966E-2</v>
       </c>
       <c r="H804" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="I804" t="s">
         <v>817</v>
       </c>
       <c r="J804" s="63" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="K804">
         <v>804</v>
@@ -42672,7 +42836,7 @@
         <v>865</v>
       </c>
       <c r="N804" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="805" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42704,7 +42868,7 @@
         <v>817</v>
       </c>
       <c r="J805" s="63" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="K805">
         <v>805</v>
@@ -42713,7 +42877,7 @@
         <v>865</v>
       </c>
       <c r="N805" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="806" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42745,7 +42909,7 @@
         <v>817</v>
       </c>
       <c r="J806" s="63" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="K806">
         <v>806</v>
@@ -42754,7 +42918,7 @@
         <v>865</v>
       </c>
       <c r="N806" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="807" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42786,7 +42950,7 @@
         <v>817</v>
       </c>
       <c r="J807" s="63" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="K807">
         <v>807</v>
@@ -42798,7 +42962,7 @@
         <v>865</v>
       </c>
       <c r="N807" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="808" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42824,13 +42988,13 @@
         <v>5.2280092592592593E-2</v>
       </c>
       <c r="H808" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="I808" t="s">
         <v>817</v>
       </c>
       <c r="J808" s="63" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="K808">
         <v>808</v>
@@ -42839,7 +43003,7 @@
         <v>865</v>
       </c>
       <c r="N808" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="809" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42871,7 +43035,7 @@
         <v>817</v>
       </c>
       <c r="J809" s="63" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="K809">
         <v>809</v>
@@ -42880,7 +43044,7 @@
         <v>865</v>
       </c>
       <c r="N809" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="810" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42912,7 +43076,7 @@
         <v>817</v>
       </c>
       <c r="J810" s="63" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="K810">
         <v>810</v>
@@ -42921,7 +43085,7 @@
         <v>865</v>
       </c>
       <c r="N810" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="811" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42943,14 +43107,26 @@
       <c r="F811" s="29">
         <v>45850</v>
       </c>
+      <c r="G811" s="56">
+        <v>3.8668981481481478E-2</v>
+      </c>
+      <c r="H811" t="s">
+        <v>846</v>
+      </c>
+      <c r="I811" t="s">
+        <v>295</v>
+      </c>
+      <c r="J811" s="63" t="s">
+        <v>2644</v>
+      </c>
       <c r="K811">
         <v>811</v>
       </c>
-      <c r="M811" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N811" s="63" t="s">
-        <v>2645</v>
+      <c r="M811" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N811" t="s">
+        <v>2713</v>
       </c>
     </row>
     <row r="812" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42972,14 +43148,26 @@
       <c r="F812" s="29">
         <v>45904</v>
       </c>
+      <c r="G812" s="56">
+        <v>3.5370370370370365E-2</v>
+      </c>
+      <c r="H812" t="s">
+        <v>826</v>
+      </c>
+      <c r="I812" t="s">
+        <v>817</v>
+      </c>
+      <c r="J812" s="63" t="s">
+        <v>2645</v>
+      </c>
       <c r="K812">
         <v>812</v>
       </c>
-      <c r="M812" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N812" s="63" t="s">
-        <v>2646</v>
+      <c r="M812" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N812" t="s">
+        <v>2714</v>
       </c>
     </row>
     <row r="813" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43001,14 +43189,26 @@
       <c r="F813" s="29">
         <v>46012</v>
       </c>
+      <c r="G813" s="56">
+        <v>5.6157407407407406E-2</v>
+      </c>
+      <c r="H813" t="s">
+        <v>826</v>
+      </c>
+      <c r="I813" t="s">
+        <v>817</v>
+      </c>
+      <c r="J813" s="63" t="s">
+        <v>2646</v>
+      </c>
       <c r="K813">
         <v>813</v>
       </c>
-      <c r="M813" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N813" s="63" t="s">
-        <v>2647</v>
+      <c r="M813" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N813" t="s">
+        <v>2715</v>
       </c>
     </row>
     <row r="814" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43030,14 +43230,26 @@
       <c r="F814" s="29">
         <v>46016</v>
       </c>
+      <c r="G814" s="56">
+        <v>3.9965277777777773E-2</v>
+      </c>
+      <c r="H814" t="s">
+        <v>836</v>
+      </c>
+      <c r="I814" t="s">
+        <v>817</v>
+      </c>
+      <c r="J814" s="63" t="s">
+        <v>2647</v>
+      </c>
       <c r="K814">
         <v>814</v>
       </c>
-      <c r="M814" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N814" s="63" t="s">
-        <v>2648</v>
+      <c r="M814" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N814" t="s">
+        <v>2716</v>
       </c>
     </row>
     <row r="815" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43059,14 +43271,26 @@
       <c r="F815" s="29">
         <v>45893</v>
       </c>
+      <c r="G815" s="56">
+        <v>5.3483796296296293E-2</v>
+      </c>
+      <c r="H815" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I815" t="s">
+        <v>817</v>
+      </c>
+      <c r="J815" s="63" t="s">
+        <v>2648</v>
+      </c>
       <c r="K815">
         <v>815</v>
       </c>
-      <c r="M815" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N815" s="63" t="s">
-        <v>2649</v>
+      <c r="M815" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N815" t="s">
+        <v>2717</v>
       </c>
     </row>
     <row r="816" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43088,14 +43312,26 @@
       <c r="F816" s="29">
         <v>46028</v>
       </c>
+      <c r="G816" s="56">
+        <v>7.9872685185185185E-2</v>
+      </c>
+      <c r="H816" s="117" t="s">
+        <v>844</v>
+      </c>
+      <c r="I816" t="s">
+        <v>817</v>
+      </c>
+      <c r="J816" s="63" t="s">
+        <v>2649</v>
+      </c>
       <c r="K816">
         <v>816</v>
       </c>
-      <c r="M816" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N816" s="63" t="s">
-        <v>2650</v>
+      <c r="M816" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N816" t="s">
+        <v>2718</v>
       </c>
     </row>
     <row r="817" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43117,14 +43353,26 @@
       <c r="F817" s="29">
         <v>46000</v>
       </c>
+      <c r="G817" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H817" t="s">
+        <v>509</v>
+      </c>
+      <c r="I817" t="s">
+        <v>817</v>
+      </c>
+      <c r="J817" s="63" t="s">
+        <v>2650</v>
+      </c>
       <c r="K817">
         <v>817</v>
       </c>
-      <c r="M817" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N817" s="63" t="s">
-        <v>2651</v>
+      <c r="M817" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N817" t="s">
+        <v>2719</v>
       </c>
     </row>
     <row r="818" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43146,14 +43394,26 @@
       <c r="F818" s="29">
         <v>45923</v>
       </c>
+      <c r="G818" s="56">
+        <v>5.1076388888888886E-2</v>
+      </c>
+      <c r="H818" t="s">
+        <v>898</v>
+      </c>
+      <c r="I818" t="s">
+        <v>817</v>
+      </c>
+      <c r="J818" s="63" t="s">
+        <v>2651</v>
+      </c>
       <c r="K818">
         <v>818</v>
       </c>
-      <c r="M818" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N818" s="63" t="s">
-        <v>2652</v>
+      <c r="M818" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N818" t="s">
+        <v>2720</v>
       </c>
     </row>
     <row r="819" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43175,14 +43435,26 @@
       <c r="F819" s="29">
         <v>46004</v>
       </c>
+      <c r="G819" s="56">
+        <v>6.2210648148148147E-2</v>
+      </c>
+      <c r="H819" t="s">
+        <v>2710</v>
+      </c>
+      <c r="I819" t="s">
+        <v>817</v>
+      </c>
+      <c r="J819" s="63" t="s">
+        <v>2652</v>
+      </c>
       <c r="K819">
         <v>819</v>
       </c>
-      <c r="M819" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N819" s="63" t="s">
-        <v>2653</v>
+      <c r="M819" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N819" t="s">
+        <v>2721</v>
       </c>
     </row>
     <row r="820" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43204,14 +43476,26 @@
       <c r="F820" s="29">
         <v>45782</v>
       </c>
+      <c r="G820" s="56">
+        <v>5.0902777777777776E-2</v>
+      </c>
+      <c r="H820" t="s">
+        <v>2711</v>
+      </c>
+      <c r="I820" t="s">
+        <v>817</v>
+      </c>
+      <c r="J820" s="63" t="s">
+        <v>2653</v>
+      </c>
       <c r="K820">
         <v>820</v>
       </c>
-      <c r="M820" s="116" t="s">
-        <v>2434</v>
-      </c>
-      <c r="N820" s="63" t="s">
-        <v>2654</v>
+      <c r="M820" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N820" t="s">
+        <v>2722</v>
       </c>
     </row>
     <row r="821" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43233,6 +43517,27 @@
       <c r="F821" s="29">
         <v>45850</v>
       </c>
+      <c r="G821" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H821" t="s">
+        <v>509</v>
+      </c>
+      <c r="I821" t="s">
+        <v>295</v>
+      </c>
+      <c r="J821" s="63" t="s">
+        <v>2690</v>
+      </c>
+      <c r="K821">
+        <v>821</v>
+      </c>
+      <c r="M821" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N821" t="s">
+        <v>2723</v>
+      </c>
     </row>
     <row r="822" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822">
@@ -43253,6 +43558,27 @@
       <c r="F822" s="29">
         <v>45879</v>
       </c>
+      <c r="G822" s="56">
+        <v>3.6319444444444439E-2</v>
+      </c>
+      <c r="H822" t="s">
+        <v>822</v>
+      </c>
+      <c r="I822" t="s">
+        <v>817</v>
+      </c>
+      <c r="J822" s="63" t="s">
+        <v>2691</v>
+      </c>
+      <c r="K822">
+        <v>822</v>
+      </c>
+      <c r="M822" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N822" t="s">
+        <v>2724</v>
+      </c>
     </row>
     <row r="823" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823">
@@ -43273,6 +43599,27 @@
       <c r="F823" s="29">
         <v>45708</v>
       </c>
+      <c r="G823" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H823" t="s">
+        <v>828</v>
+      </c>
+      <c r="I823" t="s">
+        <v>817</v>
+      </c>
+      <c r="J823" s="63" t="s">
+        <v>2692</v>
+      </c>
+      <c r="K823">
+        <v>823</v>
+      </c>
+      <c r="M823" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N823" t="s">
+        <v>2725</v>
+      </c>
     </row>
     <row r="824" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824">
@@ -43293,6 +43640,27 @@
       <c r="F824" s="29">
         <v>45647</v>
       </c>
+      <c r="G824" s="56">
+        <v>6.400462962962962E-2</v>
+      </c>
+      <c r="H824" s="117" t="s">
+        <v>836</v>
+      </c>
+      <c r="I824" t="s">
+        <v>817</v>
+      </c>
+      <c r="J824" s="63" t="s">
+        <v>2693</v>
+      </c>
+      <c r="K824">
+        <v>824</v>
+      </c>
+      <c r="M824" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N824" t="s">
+        <v>2726</v>
+      </c>
     </row>
     <row r="825" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825">
@@ -43313,6 +43681,27 @@
       <c r="F825" s="29">
         <v>45795</v>
       </c>
+      <c r="G825" s="56">
+        <v>4.3101851851851856E-2</v>
+      </c>
+      <c r="H825" s="117" t="s">
+        <v>846</v>
+      </c>
+      <c r="I825" t="s">
+        <v>817</v>
+      </c>
+      <c r="J825" s="63" t="s">
+        <v>2694</v>
+      </c>
+      <c r="K825">
+        <v>825</v>
+      </c>
+      <c r="M825" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N825" t="s">
+        <v>2727</v>
+      </c>
     </row>
     <row r="826" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826">
@@ -43333,6 +43722,27 @@
       <c r="F826" s="29">
         <v>46024</v>
       </c>
+      <c r="G826" s="56">
+        <v>0.11188657407407408</v>
+      </c>
+      <c r="H826" s="117" t="s">
+        <v>2712</v>
+      </c>
+      <c r="I826" t="s">
+        <v>295</v>
+      </c>
+      <c r="J826" s="63" t="s">
+        <v>2695</v>
+      </c>
+      <c r="K826">
+        <v>826</v>
+      </c>
+      <c r="M826" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N826" t="s">
+        <v>2728</v>
+      </c>
     </row>
     <row r="827" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827">
@@ -43353,6 +43763,27 @@
       <c r="F827" s="29">
         <v>46016</v>
       </c>
+      <c r="G827" s="66">
+        <v>3.4178240740740738E-2</v>
+      </c>
+      <c r="H827" s="117" t="s">
+        <v>826</v>
+      </c>
+      <c r="I827" t="s">
+        <v>817</v>
+      </c>
+      <c r="J827" s="63" t="s">
+        <v>2696</v>
+      </c>
+      <c r="K827">
+        <v>827</v>
+      </c>
+      <c r="M827" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N827" t="s">
+        <v>2729</v>
+      </c>
     </row>
     <row r="828" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828">
@@ -43373,6 +43804,27 @@
       <c r="F828" s="29">
         <v>46009</v>
       </c>
+      <c r="G828" s="56">
+        <v>4.3495370370370372E-2</v>
+      </c>
+      <c r="H828" s="117" t="s">
+        <v>898</v>
+      </c>
+      <c r="I828" t="s">
+        <v>817</v>
+      </c>
+      <c r="J828" s="63" t="s">
+        <v>2697</v>
+      </c>
+      <c r="K828">
+        <v>828</v>
+      </c>
+      <c r="M828" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N828" t="s">
+        <v>2730</v>
+      </c>
     </row>
     <row r="829" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829">
@@ -43393,8 +43845,29 @@
       <c r="F829" s="29">
         <v>44736</v>
       </c>
+      <c r="G829" s="56">
+        <v>9.0856481481481483E-3</v>
+      </c>
+      <c r="H829" s="117" t="s">
+        <v>816</v>
+      </c>
+      <c r="I829" t="s">
+        <v>824</v>
+      </c>
+      <c r="J829" s="63" t="s">
+        <v>2698</v>
+      </c>
+      <c r="K829">
+        <v>829</v>
+      </c>
       <c r="L829" t="s">
         <v>490</v>
+      </c>
+      <c r="M829" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N829" t="s">
+        <v>2731</v>
       </c>
     </row>
     <row r="830" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -43416,6 +43889,27 @@
       <c r="F830" s="29">
         <v>45809</v>
       </c>
+      <c r="G830" s="56">
+        <v>7.3715277777777768E-2</v>
+      </c>
+      <c r="H830" s="117" t="s">
+        <v>1747</v>
+      </c>
+      <c r="I830" t="s">
+        <v>295</v>
+      </c>
+      <c r="J830" s="63" t="s">
+        <v>2700</v>
+      </c>
+      <c r="K830">
+        <v>830</v>
+      </c>
+      <c r="M830" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N830" t="s">
+        <v>2732</v>
+      </c>
     </row>
     <row r="831" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831">
@@ -43436,6 +43930,27 @@
       <c r="F831" s="29">
         <v>46017</v>
       </c>
+      <c r="G831" s="56">
+        <v>2.9687500000000002E-2</v>
+      </c>
+      <c r="H831" s="117" t="s">
+        <v>826</v>
+      </c>
+      <c r="I831" t="s">
+        <v>817</v>
+      </c>
+      <c r="J831" s="63" t="s">
+        <v>2701</v>
+      </c>
+      <c r="K831">
+        <v>831</v>
+      </c>
+      <c r="M831" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N831" t="s">
+        <v>2733</v>
+      </c>
     </row>
     <row r="832" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832">
@@ -43456,11 +43971,32 @@
       <c r="F832" s="29">
         <v>46046</v>
       </c>
+      <c r="G832" s="56">
+        <v>3.201388888888889E-2</v>
+      </c>
+      <c r="H832" s="117" t="s">
+        <v>826</v>
+      </c>
+      <c r="I832" t="s">
+        <v>817</v>
+      </c>
+      <c r="J832" s="63" t="s">
+        <v>2699</v>
+      </c>
+      <c r="K832">
+        <v>832</v>
+      </c>
       <c r="L832" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M832" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N832" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="833" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>834</v>
       </c>
@@ -43479,8 +44015,29 @@
       <c r="F833" s="29">
         <v>45521</v>
       </c>
-    </row>
-    <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G833" s="56">
+        <v>6.9004629629629624E-2</v>
+      </c>
+      <c r="H833" s="117" t="s">
+        <v>846</v>
+      </c>
+      <c r="I833" s="117" t="s">
+        <v>817</v>
+      </c>
+      <c r="J833" s="63" t="s">
+        <v>2702</v>
+      </c>
+      <c r="K833">
+        <v>833</v>
+      </c>
+      <c r="M833" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N833" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="834" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>835</v>
       </c>
@@ -43499,8 +44056,29 @@
       <c r="F834" s="29">
         <v>46040</v>
       </c>
-    </row>
-    <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G834" s="56">
+        <v>6.2141203703703705E-2</v>
+      </c>
+      <c r="H834" s="117" t="s">
+        <v>838</v>
+      </c>
+      <c r="I834" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="J834" s="63" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K834">
+        <v>834</v>
+      </c>
+      <c r="M834" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N834" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="835" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>836</v>
       </c>
@@ -43519,8 +44097,29 @@
       <c r="F835" s="29">
         <v>46016</v>
       </c>
-    </row>
-    <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G835" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H835" s="117" t="s">
+        <v>509</v>
+      </c>
+      <c r="I835" s="117" t="s">
+        <v>817</v>
+      </c>
+      <c r="J835" s="63" t="s">
+        <v>2704</v>
+      </c>
+      <c r="K835">
+        <v>835</v>
+      </c>
+      <c r="M835" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N835" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="836" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>837</v>
       </c>
@@ -43539,8 +44138,29 @@
       <c r="F836" s="29">
         <v>45850</v>
       </c>
-    </row>
-    <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G836" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H836" s="117" t="s">
+        <v>509</v>
+      </c>
+      <c r="I836" s="117" t="s">
+        <v>295</v>
+      </c>
+      <c r="J836" s="63" t="s">
+        <v>2705</v>
+      </c>
+      <c r="K836">
+        <v>836</v>
+      </c>
+      <c r="M836" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N836" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="837" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>838</v>
       </c>
@@ -43559,8 +44179,29 @@
       <c r="F837" s="29">
         <v>46017</v>
       </c>
-    </row>
-    <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G837" s="56">
+        <v>4.7951388888888891E-2</v>
+      </c>
+      <c r="H837" s="117" t="s">
+        <v>826</v>
+      </c>
+      <c r="I837" s="117" t="s">
+        <v>817</v>
+      </c>
+      <c r="J837" s="63" t="s">
+        <v>2706</v>
+      </c>
+      <c r="K837">
+        <v>837</v>
+      </c>
+      <c r="M837" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N837" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="838" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>839</v>
       </c>
@@ -43579,8 +44220,29 @@
       <c r="F838" s="29">
         <v>45750</v>
       </c>
-    </row>
-    <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G838" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H838" s="117" t="s">
+        <v>509</v>
+      </c>
+      <c r="I838" s="117" t="s">
+        <v>824</v>
+      </c>
+      <c r="J838" s="63" t="s">
+        <v>2707</v>
+      </c>
+      <c r="K838">
+        <v>838</v>
+      </c>
+      <c r="M838" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N838" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="839" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>840</v>
       </c>
@@ -43599,8 +44261,29 @@
       <c r="F839" s="29">
         <v>46015</v>
       </c>
-    </row>
-    <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G839" s="56">
+        <v>4.0162037037037038E-2</v>
+      </c>
+      <c r="H839" s="117" t="s">
+        <v>826</v>
+      </c>
+      <c r="I839" s="117" t="s">
+        <v>817</v>
+      </c>
+      <c r="J839" s="63" t="s">
+        <v>2708</v>
+      </c>
+      <c r="K839">
+        <v>839</v>
+      </c>
+      <c r="M839" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N839" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="840" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>841</v>
       </c>
@@ -43610,7 +44293,7 @@
       <c r="C840" t="s">
         <v>591</v>
       </c>
-      <c r="D840" s="26" t="s">
+      <c r="D840" s="117" t="s">
         <v>592</v>
       </c>
       <c r="E840" t="s">
@@ -43619,8 +44302,29 @@
       <c r="F840" s="29">
         <v>45748</v>
       </c>
-    </row>
-    <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G840" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H840" s="117" t="s">
+        <v>509</v>
+      </c>
+      <c r="I840" s="117" t="s">
+        <v>817</v>
+      </c>
+      <c r="J840" s="63" t="s">
+        <v>2709</v>
+      </c>
+      <c r="K840">
+        <v>840</v>
+      </c>
+      <c r="M840" s="57" t="s">
+        <v>865</v>
+      </c>
+      <c r="N840" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="841" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>842</v>
       </c>
@@ -43640,7 +44344,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>843</v>
       </c>
@@ -43660,7 +44364,7 @@
         <v>46033</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>844</v>
       </c>
@@ -43680,7 +44384,7 @@
         <v>46036</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>845</v>
       </c>
@@ -43700,7 +44404,7 @@
         <v>46004</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>846</v>
       </c>
@@ -43720,7 +44424,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>847</v>
       </c>
@@ -43740,7 +44444,7 @@
         <v>46018</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>848</v>
       </c>
@@ -43760,7 +44464,7 @@
         <v>46029</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>849</v>
       </c>
@@ -50923,7 +51627,7 @@
         <v>229</v>
       </c>
       <c r="D1159" s="112" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E1159" s="112" t="s">
         <v>229</v>
@@ -50978,7 +51682,7 @@
         <v>12483003</v>
       </c>
       <c r="C1161" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1161" s="112" t="s">
         <v>5</v>
@@ -51007,7 +51711,7 @@
         <v>11424386</v>
       </c>
       <c r="C1162" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D1162" s="112" t="s">
         <v>5</v>
@@ -51065,10 +51769,10 @@
         <v>15002080</v>
       </c>
       <c r="C1164" s="112" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D1164" s="112" t="s">
         <v>2472</v>
-      </c>
-      <c r="D1164" s="112" t="s">
-        <v>2473</v>
       </c>
       <c r="E1164" s="112" t="s">
         <v>29</v>
@@ -51184,7 +51888,7 @@
         <v>25</v>
       </c>
       <c r="D1168" s="112" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E1168" t="s">
         <v>221</v>
@@ -51196,7 +51900,7 @@
         <v>0.18459490740740739</v>
       </c>
       <c r="H1168" s="112" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="I1168" s="112" t="s">
         <v>817</v>
@@ -51210,13 +51914,13 @@
         <v>12110000</v>
       </c>
       <c r="C1169" s="112" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D1169" s="112" t="s">
         <v>121</v>
       </c>
       <c r="E1169" s="112" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="F1169" s="29">
         <v>45558</v>
@@ -51239,7 +51943,7 @@
         <v>9103620</v>
       </c>
       <c r="C1170" s="112" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D1170" s="112" t="s">
         <v>175</v>
@@ -51254,7 +51958,7 @@
         <v>0.106875</v>
       </c>
       <c r="H1170" s="112" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="I1170" s="112" t="s">
         <v>295</v>
@@ -51268,10 +51972,10 @@
         <v>2604974</v>
       </c>
       <c r="C1171" s="115" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D1171" s="115" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E1171" t="s">
         <v>51</v>
@@ -51283,7 +51987,7 @@
         <v>4.4351851851851858E-2</v>
       </c>
       <c r="H1171" s="115" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="I1171" s="115" t="s">
         <v>295</v>
@@ -51297,7 +52001,7 @@
         <v>13870000</v>
       </c>
       <c r="C1172" s="115" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D1172" s="115" t="s">
         <v>175</v>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8549" uniqueCount="2874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9009" uniqueCount="3063">
   <si>
     <t>Ņ</t>
   </si>
@@ -8534,9 +8534,6 @@
     <t>https://cdn.discordapp.com/attachments/1471844339931021342/1476276472888037426/id_Gz.png?ex=69a0891b&amp;is=699f379b&amp;hm=0b47852fe4787b60c4962107a17a2d8c2182537a9e574cb29f6d5abfa33a9e5b</t>
   </si>
   <si>
-    <t>[o]</t>
-  </si>
-  <si>
     <t>Selene/Summoner/Freyja</t>
   </si>
   <si>
@@ -8649,6 +8646,576 @@
   </si>
   <si>
     <t>nerf sleep SCORE MAXOU</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>OJ</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>OQ</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>OV</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t>OY</t>
+  </si>
+  <si>
+    <t>OZ</t>
+  </si>
+  <si>
+    <t>Oa</t>
+  </si>
+  <si>
+    <t>Ob</t>
+  </si>
+  <si>
+    <t>Oc</t>
+  </si>
+  <si>
+    <t>Od</t>
+  </si>
+  <si>
+    <t>Oe</t>
+  </si>
+  <si>
+    <t>Of</t>
+  </si>
+  <si>
+    <t>Og</t>
+  </si>
+  <si>
+    <t>Oh</t>
+  </si>
+  <si>
+    <t>Oi</t>
+  </si>
+  <si>
+    <t>Theia/Paladin</t>
+  </si>
+  <si>
+    <t>Kronos/Nest Warden</t>
+  </si>
+  <si>
+    <t>Elite Skimmer/Nest Warden</t>
+  </si>
+  <si>
+    <t>Nyx/Elf Legion</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584157995077672/id_OF.jpeg?ex=69a1a7a8&amp;is=69a05628&amp;hm=4936320ae46739b7272c378a637405759c20d67dfe0c2bcd528f91c7053695c6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584208154492939/id_OG.jpg?ex=69a1a7b4&amp;is=69a05634&amp;hm=8456fe1a1db6245e100d2ed0902d4f212e3c71fe352ea06a6f1b23bb24aa89d5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584257248825585/id_OH.png?ex=69a1a7c0&amp;is=69a05640&amp;hm=ea034f03e6ce2ddd0b334c00eab73fdac189b67f2e67432b368be895adf47940</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584306166988860/id_OI.png?ex=69a1a7cc&amp;is=69a0564c&amp;hm=444809f538b03a70b596be60e4525ed182b4669a73bb64e2a6579fbfa9c6278f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584357605933066/id_OJ.png?ex=69a1a7d8&amp;is=69a05658&amp;hm=5a67c78115086b1c5575ee26fc6874bca7d2fd51a1285ddb93b96e82f20d4b59</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584409846251550/id_OK.jpg?ex=69a1a7e4&amp;is=69a05664&amp;hm=e0cd9b74435e423531de4f7ffd8cc7afe88e600343d618b8b8820e046687d9ec</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584481841479773/id_OL.png?ex=69a1a7f6&amp;is=69a05676&amp;hm=d4e721316a20a674749974ede9250c7658d58f3724a167a7f3e0f47260426346</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584532898480270/id_OM.png?ex=69a1a802&amp;is=69a05682&amp;hm=245f31a981adde65a29c0fb43fbb45477d4cbee4566d296ec2ef29b677c69e40</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584605044965470/id_ON.jpg?ex=69a1a813&amp;is=69a05693&amp;hm=f14765f66334a9dfe7de858ebf3711493cfe7280be0b925a542ff2991bc358bc</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584716143562772/id_OO.jpg?ex=69a1a82d&amp;is=69a056ad&amp;hm=fdcab49ce1fd407ec7cd8b152e9570c9abb7e8947409645d08c79e7bb49e6b03</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584899220602910/id_OP.jpg?ex=69a1a859&amp;is=69a056d9&amp;hm=ed432303059a61fa98afaab3758e04a37f7fa12d2140c16936051a6655d200ad</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476584955428474890/id_OQ.png?ex=69a1a866&amp;is=69a056e6&amp;hm=635a645c5a517151ac96685900e035d4d8254c31c49de00edfc83f5c3581b4a1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585004258824283/id_OR.jpg?ex=69a1a872&amp;is=69a056f2&amp;hm=1861473d27e7f277221dd3f8dac174b33bc5809d3726dc0d471eab5c12378fac</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585057689931952/id_OS.png?ex=69a1a87f&amp;is=69a056ff&amp;hm=656341e5a1d88fcebca36a47a78ea829e297ddbf56cd1b2abf760875429dac2d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585137331372052/id_OT.png?ex=69a1a892&amp;is=69a05712&amp;hm=6a4d5144a6873400300e0ee7d4804aaf306d59d88e988ce3c885f65ef73a4a5b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585288728838417/id_OU.png?ex=69a1a8b6&amp;is=69a05736&amp;hm=bd83a6a761db757aae355f07089f8530b751bcaac4df782f3f163d7bf065631d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585371184926791/id_OV.png?ex=69a1a8ca&amp;is=69a0574a&amp;hm=650e803d623324cf2f66cb3178686a50c34f6a8414e11df214f5e83470b3cda5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585427996508201/id_OW.png?ex=69a1a8d7&amp;is=69a05757&amp;hm=a53f7b6e798a6b509b254342e1d739c3018558737ae2f8396b9cfd9afa44edf4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585489426546729/id_OX.jpg?ex=69a1a8e6&amp;is=69a05766&amp;hm=7944fd27142a5d7b46df1b23bd0d9e4721ee7c669e2f919cbc41cdb6ced3da7e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585540966027395/id_OY.png?ex=69a1a8f2&amp;is=69a05772&amp;hm=53bc763ae1ee7a66c8d8d5e0722d49b4de0736b806bbc67df909775f1031e5b8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585604132376728/id_OZ.jpg?ex=69a1a901&amp;is=69a05781&amp;hm=ecf83ae789a9def1e45a0a66ce265fc635dccd06c5587511896d22e1c3048168</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585679663399145/id_Oa.jpg?ex=69a1a913&amp;is=69a05793&amp;hm=630690aa6c98ab4b786855e33ebf2e8153c31532c41a93d8db9f22e5508a3656</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585742762381402/id_Ob.png?ex=69a1a922&amp;is=69a057a2&amp;hm=e787e1840f99f19eb36604c55f1b86d5095dc0de42fe9fa3ea39e5d70c96534c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476585791932334150/id_Oc.png?ex=69a1a92e&amp;is=69a057ae&amp;hm=b1184a2140d7c905672f9630fcbdf6df83e33aba1c7685c9af73e8145d598879</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476586073273536593/id_Od.jpg?ex=69a1a971&amp;is=69a057f1&amp;hm=f11173290d9f27df75a6407856a0b9fe592a44e3e863ada4ff019bde33f70aa8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476586157469991032/id_Oe.png?ex=69a1a985&amp;is=69a05805&amp;hm=0d163e6c9161812d8144ed19141fd4572efa1eef60765999d607dd3a2d082cf9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476586252932481155/id_Of.png?ex=69a1a99c&amp;is=69a0581c&amp;hm=a36302e6d9359772b2414d4a653360d0c420718dfedb70faf773743a92172f3d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476586307835789412/id_Og.png?ex=69a1a9a9&amp;is=69a05829&amp;hm=9f27d7c58357558597defdc4ae0f1429ca256dcf3ed282a99619c68ca0660073</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476586385183080500/id_Oh.png?ex=69a1a9bb&amp;is=69a0583b&amp;hm=bc24615a827eb21046cc0fbb041cc14ccd0334c1cfd94ef2a36d9971cae4ca4b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476586441512321125/id_Oi.png?ex=69a1a9c9&amp;is=69a05849&amp;hm=7ce60d80ea0bb9f0acfee163b71ff98a854e0ea230bbf8f4abf49d7e572754b8</t>
+  </si>
+  <si>
+    <t>Oj</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Ol</t>
+  </si>
+  <si>
+    <t>Om</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>Oo</t>
+  </si>
+  <si>
+    <t>Oq</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>Ot</t>
+  </si>
+  <si>
+    <t>Ou</t>
+  </si>
+  <si>
+    <t>Ov</t>
+  </si>
+  <si>
+    <t>Ow</t>
+  </si>
+  <si>
+    <t>Ox</t>
+  </si>
+  <si>
+    <t>Oy</t>
+  </si>
+  <si>
+    <t>Oz</t>
+  </si>
+  <si>
+    <t>O0</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>O6</t>
+  </si>
+  <si>
+    <t>O7</t>
+  </si>
+  <si>
+    <t>O8</t>
+  </si>
+  <si>
+    <t>O9</t>
+  </si>
+  <si>
+    <t>O(</t>
+  </si>
+  <si>
+    <t>O)</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Zaphkiel/Sorcerer</t>
+  </si>
+  <si>
+    <t>Ragnarok/Nyx/Selene</t>
+  </si>
+  <si>
+    <t>Nest Guardian/Lag?</t>
+  </si>
+  <si>
+    <t>Theia/Nyx</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476606844804792394/id_Oj.jpg?ex=69a1bcc9&amp;is=69a06b49&amp;hm=fd8117e2e90af50ba78e6cae32e6afb10ec82ad2091811ed4c16f826132dcfd1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476606904053797140/id_Ok.png?ex=69a1bcd7&amp;is=69a06b57&amp;hm=02770a541dfbe5513e1fcbf82044796cc47ea0722a37240486b1176af4940b73</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476606979316388014/id_Ol.jpg?ex=69a1bce9&amp;is=69a06b69&amp;hm=8d96206132f3136b7af5e3b1b9a50ce301459953f47d14fc4b126d101ac05a2a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607056940372029/id_Om.png?ex=69a1bcfc&amp;is=69a06b7c&amp;hm=481d4d7d0ebc770123f7cca95599e682c2b14b4962b2b6238863e5ba488a987f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607136132894740/id_On.jpg?ex=69a1bd0f&amp;is=69a06b8f&amp;hm=6dc381723a6de5d214ecc69a2c535d10b3b4a05e09eeef23f72d2a762a54cb23</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607228822687906/id_Oo.jpg?ex=69a1bd25&amp;is=69a06ba5&amp;hm=93e5c3bb6c303bcbb8767466b7f3681e0d94a1a4a7ef62cee5d5524a8d374280</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607311056343233/id_Op.png?ex=69a1bd38&amp;is=69a06bb8&amp;hm=90bf09b3e291a476e415e157f7d3819d23d06d445d74ca1abbf2c57cf8b80e99</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607385563824249/id_Oq.jpg?ex=69a1bd4a&amp;is=69a06bca&amp;hm=b04de04980e7c0bc977cfc2d5210ad25364ac7c6fa76b97a4ea0d7a2e400b321</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607475766526003/id_Or.jpg?ex=69a1bd60&amp;is=69a06be0&amp;hm=cc52bb42376bd35a673134ef11e69354872d6e7dfb97e5651e2b20a2afce51e0</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607541227032851/id_Os.png?ex=69a1bd6f&amp;is=69a06bef&amp;hm=26bd7b46f3d4aa64795bdbd0edcc2092d5669b6640238f940b4cb1addd0c73ea</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607617970208949/id_Ot.jpg?ex=69a1bd82&amp;is=69a06c02&amp;hm=0f193e11ede87c945738d1c690f20254db936616c0108346f8af2922cfd8e01c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607686652199044/id_Ou.png?ex=69a1bd92&amp;is=69a06c12&amp;hm=b0d23e8f76c0261c15d82b03e2ac2cf9eccc6e7b192d016810d2c248dbebf65d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607732349014106/id_Ov.jpg?ex=69a1bd9d&amp;is=69a06c1d&amp;hm=46dbf49ec018fe9c44cec7978c0346440df5d4aae63103ca3926dad9f1bd07c9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607778024984586/id_Ow.jpg?ex=69a1bda8&amp;is=69a06c28&amp;hm=4fb4a671f2b3bd2e1fb9a11b0c5d524b286c41ad0d945c37c5d0f07933a9a28e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476607828046385365/id_Ox.png?ex=69a1bdb4&amp;is=69a06c34&amp;hm=e0b9fc1d157532a3afec36b2848aeb0f6028a4852dba7f8612be00e185dda204</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612305688068149/id_Oy.jpg?ex=69a1c1df&amp;is=69a0705f&amp;hm=1ed7830496ee27a725c209ade8d9fe6bcc4cefc38b799442d2dcbe8acddcca90</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612358490296411/id_Oz.png?ex=69a1c1ec&amp;is=69a0706c&amp;hm=4c0e38de5ee6f5dba80227c482d2daf7430a5ca2fd44336558bb62361a55aa2d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612421744459858/id_O0.jpg?ex=69a1c1fb&amp;is=69a0707b&amp;hm=76e3394479b7f58008445b44fafa16d6666efd6864c658b06d9b175e65a09e41</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612477088174080/id_O1.png?ex=69a1c208&amp;is=69a07088&amp;hm=84f16d2a574dbc2a1399e2ae556fca4fc87cb5dd9a53f746a0afa34a5b001e47</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612537708445758/id_O2.png?ex=69a1c217&amp;is=69a07097&amp;hm=544a02e60735689f6e5cab057ffa4ad45b0f8779924728e62f0e1d09e2c19abe</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612587293642843/id_O3.png?ex=69a1c222&amp;is=69a070a2&amp;hm=d744088816f6479975ef45d62b8d50167d86b5e14c0681e7037a07a2e3e80b86</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612654247444562/id_O4.png?ex=69a1c232&amp;is=69a070b2&amp;hm=285729480544325a35dc9e2e1a7fb7b2b0d04fd85b2d603c13642a9b7e45eabe</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612767321559252/id_O5.jpg?ex=69a1c24d&amp;is=69a070cd&amp;hm=08247815fcfedf6dacbfdd7e0e4a793f79062a92c7fbd7dc98bdddf743003ce9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612930593099787/id_O6.jpg?ex=69a1c274&amp;is=69a070f4&amp;hm=dd0eeedd267c1b91dfa9344c623198f48e71a198018e0daf9716f4197c9c7cc4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476612987824509019/id_O7.jpg?ex=69a1c282&amp;is=69a07102&amp;hm=fd7581d11a5aa3bde6e7594b213f06fa272abe1f2928d2e2430146ca604da47d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476613228330225684/id_O8.png?ex=69a1c2bb&amp;is=69a0713b&amp;hm=245b1e3dce340b6419af481ded3059bba62f9a0eaadaae0c70c74be53dca9c38</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476613281924780102/id_O9.png?ex=69a1c2c8&amp;is=69a07148&amp;hm=105fcc7c1970f826713ae09bf246e2af67023575455a6c459aaee33115fc1a2a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476613348358492200/id_O.png?ex=69a1c2d8&amp;is=69a07158&amp;hm=6adaffbc5ded7c77422d975b314bbfc1188948346e6b93b92decb12b75cb4fd8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476613430994534571/id_O.jpg?ex=69a1c2ec&amp;is=69a0716c&amp;hm=218fe5846da02a3c044cfc5198e9c3457d3e805084a79d55b591f141c04099ba</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476613482366505204/id_PA.png?ex=69a1c2f8&amp;is=69a07178&amp;hm=38105f81f07c113fec803952df251226d9c3cf7ec4e374104ecb47e02db7754f</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>PZ</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Pe</t>
+  </si>
+  <si>
+    <t>Nyx/Ezekiel</t>
+  </si>
+  <si>
+    <t>Elite Skimmer/Ares</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476629590095954193/id_PB.png?ex=69a1d1f8&amp;is=69a08078&amp;hm=ecc81f56f519d99c578d06f0ebd0e32c708d22d2396dbcd0bd0af520063c83ba</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476629688058122464/id_PC.png?ex=69a1d210&amp;is=69a08090&amp;hm=e573a62009f2d5639cb6cb15f9abab9b3636b2553c550052e6d69921d22b4604</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476629769570484234/id_PD.jpg?ex=69a1d223&amp;is=69a080a3&amp;hm=608a2801ac0460ce266f78cacdf3b17831570a29e269feb3239318a74a51b596</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476629850163908654/id_PE.png?ex=69a1d236&amp;is=69a080b6&amp;hm=6cf8fb1d262755609e8c607be20b6a194dbcfba074c373da3335b9a12d6aa652</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476629912772415559/id_PF.png?ex=69a1d245&amp;is=69a080c5&amp;hm=f844207fea70e9e14bf79a932e7f1a8f7492e8e8e847c58a5dee5c7982c2427d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476629972205703250/id_PG.jpg?ex=69a1d253&amp;is=69a080d3&amp;hm=2893b64328ce70eb255f9d53d989501aa82897497f165c555388226e6efa29d7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630024361869442/id_PH.png?ex=69a1d260&amp;is=69a080e0&amp;hm=6357bf1b6eb2f1ddc44ea0800d57fb584de7d2d0be8179efde28a9ca82e9e85e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630075813396601/id_PI.jpg?ex=69a1d26c&amp;is=69a080ec&amp;hm=18c4d16980b84f3309d6ef04f5d4e39ce68106a165b67a9732842d6292e8f4c0</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630141106126999/id_PJ.png?ex=69a1d27c&amp;is=69a080fc&amp;hm=5416845eadd66f1d81d038b74afa56402b790d32e4b19b480517cfce7492ca21</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630458576933038/id_PK.png?ex=69a1d2c7&amp;is=69a08147&amp;hm=e48bed237c520115424662da731de30365f59b0a95fc1185c48e370542ff03c8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630511773417583/id_PL.png?ex=69a1d2d4&amp;is=69a08154&amp;hm=317f0093026be7b9356ac5df941275aba23784bbe7726b33a8da3c1113ccda03</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630563103440977/id_PM.png?ex=69a1d2e0&amp;is=69a08160&amp;hm=cc3da4fed067e6e0881ce48cc8e68815805ccb586f0c87523a33a5a0ffa6f9a4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630644300845278/id_PN.png?ex=69a1d2f4&amp;is=69a08174&amp;hm=3b77de4085458c37ce2613041bc80bf7b7918edf2371f925968c5ffc33c029c2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630700361912435/id_PO.jpg?ex=69a1d301&amp;is=69a08181&amp;hm=380c553c58873e938ad8c0dce9f0261352b4355e3f62e6f537bd12c1dc0a9e19</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630746184683550/id_PP.jpeg?ex=69a1d30c&amp;is=69a0818c&amp;hm=acf48822adfd2fc51522a23203e147dd4e65ad41affefdab208df13a64f8629e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630824580284456/id_PQ.jpg?ex=69a1d31f&amp;is=69a0819f&amp;hm=0c7c9d7841fb49508a860191da9a317f114b3204e33b2f849cb0ab2a63fa5ebd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630892868010096/id_PR.png?ex=69a1d32f&amp;is=69a081af&amp;hm=3802b0c92d57c85e712a2d4e62015b63365e2283ccd621a818b9ca6e2e8f1e12</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630942436294878/id_PS.jpg?ex=69a1d33b&amp;is=69a081bb&amp;hm=8caee7543b731a410496e0013b393ef0aee7785e546eba92e86e08bbade8dc83</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476630998258290820/id_PT.png?ex=69a1d348&amp;is=69a081c8&amp;hm=abd9b43419e2eed011498afa631ffc33f030ab9606f84dee48661374434da72f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631054054854868/id_PU.png?ex=69a1d355&amp;is=69a081d5&amp;hm=fd1679728fda8db044570770b1450698ab61c6273ce5c5827be17247471d2195</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631348969209967/id_PV.png?ex=69a1d39c&amp;is=69a0821c&amp;hm=7a8be91d3337568333e57177e5015d6d6eb040ef15c1a534841878c800a27932</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631416958877726/id_PW.jpg?ex=69a1d3ac&amp;is=69a0822c&amp;hm=dc422102e3ff16efcc37f8004332ef2713920070d2e2c1a7d98f35a7b79247ae</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631475867877386/id_PX.jpg?ex=69a1d3ba&amp;is=69a0823a&amp;hm=7b6de6fe788df5b0deee9f0b57cc16ad5e81bd7f295713d9f6efdf8e049e7dec</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631526610571407/id_PY.jpg?ex=69a1d3c6&amp;is=69a08246&amp;hm=52000ebd528f09c182d7b2cd576640393c4e54b67c35fbe1e8f64294314707bc</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631583141396561/id_PZ.png?ex=69a1d3d3&amp;is=69a08253&amp;hm=e05109df9e2831c47bb790282010e3b0abcf3a71c3a993a52fb801d27e83fb89</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631689295040654/id_Pa.png?ex=69a1d3ed&amp;is=69a0826d&amp;hm=5fb4a22a3197db331e4362070258e55ebdeec4e671e6081cedd27665240bb59e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631739177762918/id_Pb.jpg?ex=69a1d3f9&amp;is=69a08279&amp;hm=13dfc397a0e89291303e83c81bff2d0009cdc92e8c4d509a3ce2750eda460121</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631814415057038/id_Pc.jpg?ex=69a1d40b&amp;is=69a0828b&amp;hm=b0c4898f8b892d64a78a9ae9a6f2ec4ed7389e4fb6d008e1bcbeb10319052141</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631860334563490/id_Pd.jpg?ex=69a1d415&amp;is=69a08295&amp;hm=7be7c18d84ec5e5e0bdf57fbfdd2856d6bccc9cf97408e5498788d1892f8dc93</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631909038559302/id_Pe.png?ex=69a1d421&amp;is=69a082a1&amp;hm=32a8a2dcf83e314fd12ceafbbcb1337de751b9a3ce4d1eaa5910438410855cbb</t>
   </si>
 </sst>
 </file>
@@ -8660,11 +9227,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9197,118 +9771,119 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="67" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -9317,18 +9892,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -9552,8 +10127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A898" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L901" sqref="L901"/>
+    <sheetView tabSelected="1" topLeftCell="A988" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K991" sqref="K991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22564,8 +23139,8 @@
       <c r="G305" s="56" t="s">
         <v>509</v>
       </c>
-      <c r="H305" s="95" t="s">
-        <v>509</v>
+      <c r="H305" s="120" t="s">
+        <v>850</v>
       </c>
       <c r="I305" s="95" t="s">
         <v>295</v>
@@ -46000,11 +46575,11 @@
       <c r="K871">
         <v>871</v>
       </c>
-      <c r="M871" s="119" t="s">
-        <v>2835</v>
+      <c r="M871" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N871" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="872" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46041,11 +46616,11 @@
       <c r="K872">
         <v>872</v>
       </c>
-      <c r="M872" s="119" t="s">
-        <v>2835</v>
+      <c r="M872" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N872" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="873" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46071,7 +46646,7 @@
         <v>4.9340277777777775E-2</v>
       </c>
       <c r="H873" s="119" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="I873" s="119" t="s">
         <v>816</v>
@@ -46082,11 +46657,11 @@
       <c r="K873">
         <v>873</v>
       </c>
-      <c r="M873" s="119" t="s">
-        <v>2835</v>
+      <c r="M873" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N873" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="874" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46123,11 +46698,11 @@
       <c r="K874">
         <v>874</v>
       </c>
-      <c r="M874" s="119" t="s">
-        <v>2835</v>
+      <c r="M874" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N874" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="875" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46153,7 +46728,7 @@
         <v>3.920138888888889E-2</v>
       </c>
       <c r="H875" s="119" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="I875" s="119" t="s">
         <v>816</v>
@@ -46164,11 +46739,11 @@
       <c r="K875">
         <v>875</v>
       </c>
-      <c r="M875" s="119" t="s">
-        <v>2835</v>
+      <c r="M875" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N875" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="876" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46205,11 +46780,11 @@
       <c r="K876">
         <v>876</v>
       </c>
-      <c r="M876" s="119" t="s">
-        <v>2835</v>
+      <c r="M876" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N876" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="877" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46246,11 +46821,11 @@
       <c r="K877">
         <v>877</v>
       </c>
-      <c r="M877" s="119" t="s">
-        <v>2835</v>
+      <c r="M877" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N877" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="878" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46287,11 +46862,11 @@
       <c r="K878">
         <v>878</v>
       </c>
-      <c r="M878" s="119" t="s">
-        <v>2835</v>
+      <c r="M878" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N878" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="879" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46317,7 +46892,7 @@
         <v>2.2766203703703702E-2</v>
       </c>
       <c r="H879" s="119" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="I879" s="119" t="s">
         <v>816</v>
@@ -46328,11 +46903,11 @@
       <c r="K879">
         <v>879</v>
       </c>
-      <c r="M879" s="119" t="s">
-        <v>2835</v>
+      <c r="M879" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N879" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="880" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46369,11 +46944,11 @@
       <c r="K880">
         <v>880</v>
       </c>
-      <c r="M880" s="119" t="s">
-        <v>2835</v>
+      <c r="M880" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N880" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="881" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46410,11 +46985,11 @@
       <c r="K881">
         <v>881</v>
       </c>
-      <c r="M881" s="119" t="s">
-        <v>2835</v>
+      <c r="M881" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N881" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="882" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46451,11 +47026,11 @@
       <c r="K882">
         <v>882</v>
       </c>
-      <c r="M882" s="119" t="s">
-        <v>2835</v>
+      <c r="M882" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N882" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="883" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46495,11 +47070,11 @@
       <c r="L883" t="s">
         <v>481</v>
       </c>
-      <c r="M883" s="119" t="s">
-        <v>2835</v>
+      <c r="M883" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N883" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="884" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46525,7 +47100,7 @@
         <v>0.14259259259259258</v>
       </c>
       <c r="H884" s="119" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="I884" s="119" t="s">
         <v>823</v>
@@ -46536,11 +47111,11 @@
       <c r="K884">
         <v>884</v>
       </c>
-      <c r="M884" s="119" t="s">
-        <v>2835</v>
+      <c r="M884" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N884" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="885" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46580,11 +47155,11 @@
       <c r="L885" t="s">
         <v>758</v>
       </c>
-      <c r="M885" s="119" t="s">
-        <v>2835</v>
+      <c r="M885" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N885" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="886" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46621,11 +47196,11 @@
       <c r="K886">
         <v>886</v>
       </c>
-      <c r="M886" s="119" t="s">
-        <v>2835</v>
+      <c r="M886" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N886" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="887" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46662,11 +47237,11 @@
       <c r="K887">
         <v>887</v>
       </c>
-      <c r="M887" s="119" t="s">
-        <v>2835</v>
+      <c r="M887" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N887" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="888" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46703,11 +47278,11 @@
       <c r="K888">
         <v>888</v>
       </c>
-      <c r="M888" s="119" t="s">
-        <v>2835</v>
+      <c r="M888" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N888" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="889" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46733,7 +47308,7 @@
         <v>509</v>
       </c>
       <c r="H889" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="I889" t="s">
         <v>816</v>
@@ -46744,11 +47319,11 @@
       <c r="K889">
         <v>889</v>
       </c>
-      <c r="M889" s="119" t="s">
-        <v>2835</v>
+      <c r="M889" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N889" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="890" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46785,11 +47360,11 @@
       <c r="K890">
         <v>890</v>
       </c>
-      <c r="M890" s="119" t="s">
-        <v>2835</v>
+      <c r="M890" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N890" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="891" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46826,11 +47401,11 @@
       <c r="K891">
         <v>891</v>
       </c>
-      <c r="M891" s="119" t="s">
-        <v>2835</v>
+      <c r="M891" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N891" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="892" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46867,11 +47442,11 @@
       <c r="K892">
         <v>892</v>
       </c>
-      <c r="M892" s="119" t="s">
-        <v>2835</v>
+      <c r="M892" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N892" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="893" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46908,11 +47483,11 @@
       <c r="K893">
         <v>893</v>
       </c>
-      <c r="M893" s="119" t="s">
-        <v>2835</v>
+      <c r="M893" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N893" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="894" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46949,11 +47524,11 @@
       <c r="K894">
         <v>894</v>
       </c>
-      <c r="M894" s="119" t="s">
-        <v>2835</v>
+      <c r="M894" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N894" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="895" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -46990,11 +47565,11 @@
       <c r="K895">
         <v>895</v>
       </c>
-      <c r="M895" s="119" t="s">
-        <v>2835</v>
+      <c r="M895" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N895" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="896" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47031,11 +47606,11 @@
       <c r="K896">
         <v>896</v>
       </c>
-      <c r="M896" s="119" t="s">
-        <v>2835</v>
+      <c r="M896" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N896" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="897" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47061,7 +47636,7 @@
         <v>4.1215277777777774E-2</v>
       </c>
       <c r="H897" s="119" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="I897" s="119" t="s">
         <v>816</v>
@@ -47075,11 +47650,11 @@
       <c r="L897" t="s">
         <v>811</v>
       </c>
-      <c r="M897" s="119" t="s">
-        <v>2835</v>
+      <c r="M897" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N897" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="898" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47105,7 +47680,7 @@
         <v>0.15035879629629631</v>
       </c>
       <c r="H898" s="119" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="I898" s="119" t="s">
         <v>816</v>
@@ -47116,11 +47691,11 @@
       <c r="K898">
         <v>898</v>
       </c>
-      <c r="M898" s="119" t="s">
-        <v>2835</v>
+      <c r="M898" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N898" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="899" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47157,11 +47732,11 @@
       <c r="K899">
         <v>899</v>
       </c>
-      <c r="M899" s="119" t="s">
-        <v>2835</v>
+      <c r="M899" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N899" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="900" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47199,13 +47774,13 @@
         <v>900</v>
       </c>
       <c r="L900" t="s">
-        <v>2873</v>
-      </c>
-      <c r="M900" s="119" t="s">
-        <v>2835</v>
+        <v>2872</v>
+      </c>
+      <c r="M900" s="57" t="s">
+        <v>864</v>
       </c>
       <c r="N900" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="901" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47227,6 +47802,27 @@
       <c r="F901" s="29">
         <v>46032</v>
       </c>
+      <c r="G901" s="56">
+        <v>3.366898148148148E-2</v>
+      </c>
+      <c r="H901" s="120" t="s">
+        <v>2903</v>
+      </c>
+      <c r="I901" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J901" s="63" t="s">
+        <v>2873</v>
+      </c>
+      <c r="K901">
+        <v>901</v>
+      </c>
+      <c r="M901" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N901" t="s">
+        <v>2907</v>
+      </c>
     </row>
     <row r="902" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902">
@@ -47247,6 +47843,27 @@
       <c r="F902" s="29">
         <v>45803</v>
       </c>
+      <c r="G902" s="56">
+        <v>3.4606481481481481E-2</v>
+      </c>
+      <c r="H902" s="120" t="s">
+        <v>2904</v>
+      </c>
+      <c r="I902" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J902" s="63" t="s">
+        <v>2874</v>
+      </c>
+      <c r="K902">
+        <v>902</v>
+      </c>
+      <c r="M902" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N902" t="s">
+        <v>2908</v>
+      </c>
     </row>
     <row r="903" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903">
@@ -47267,6 +47884,27 @@
       <c r="F903" s="29">
         <v>46017</v>
       </c>
+      <c r="G903" s="56">
+        <v>0.10182870370370371</v>
+      </c>
+      <c r="H903" s="120" t="s">
+        <v>815</v>
+      </c>
+      <c r="I903" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J903" s="63" t="s">
+        <v>2875</v>
+      </c>
+      <c r="K903">
+        <v>903</v>
+      </c>
+      <c r="M903" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N903" t="s">
+        <v>2909</v>
+      </c>
     </row>
     <row r="904" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904">
@@ -47287,6 +47925,27 @@
       <c r="F904" s="29">
         <v>46015</v>
       </c>
+      <c r="G904" s="56">
+        <v>5.2615740740740741E-2</v>
+      </c>
+      <c r="H904" s="120" t="s">
+        <v>842</v>
+      </c>
+      <c r="I904" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J904" s="63" t="s">
+        <v>2876</v>
+      </c>
+      <c r="K904">
+        <v>904</v>
+      </c>
+      <c r="M904" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N904" t="s">
+        <v>2910</v>
+      </c>
     </row>
     <row r="905" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905">
@@ -47307,6 +47966,27 @@
       <c r="F905" s="29">
         <v>46005</v>
       </c>
+      <c r="G905" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H905" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="I905" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J905" s="63" t="s">
+        <v>2877</v>
+      </c>
+      <c r="K905">
+        <v>905</v>
+      </c>
+      <c r="M905" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N905" t="s">
+        <v>2911</v>
+      </c>
     </row>
     <row r="906" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906">
@@ -47327,6 +48007,27 @@
       <c r="F906" s="29">
         <v>45516</v>
       </c>
+      <c r="G906" s="56">
+        <v>4.5243055555555557E-2</v>
+      </c>
+      <c r="H906" s="120" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I906" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J906" s="63" t="s">
+        <v>2878</v>
+      </c>
+      <c r="K906">
+        <v>906</v>
+      </c>
+      <c r="M906" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N906" t="s">
+        <v>2912</v>
+      </c>
     </row>
     <row r="907" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907">
@@ -47347,6 +48048,27 @@
       <c r="F907" s="29">
         <v>46017</v>
       </c>
+      <c r="G907" s="56">
+        <v>3.2986111111111112E-2</v>
+      </c>
+      <c r="H907" s="120" t="s">
+        <v>837</v>
+      </c>
+      <c r="I907" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J907" s="63" t="s">
+        <v>2879</v>
+      </c>
+      <c r="K907">
+        <v>907</v>
+      </c>
+      <c r="M907" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N907" t="s">
+        <v>2913</v>
+      </c>
     </row>
     <row r="908" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908">
@@ -47367,6 +48089,27 @@
       <c r="F908" s="29">
         <v>46016</v>
       </c>
+      <c r="G908" s="56">
+        <v>2.3194444444444445E-2</v>
+      </c>
+      <c r="H908" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I908" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J908" s="63" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K908">
+        <v>908</v>
+      </c>
+      <c r="M908" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N908" t="s">
+        <v>2914</v>
+      </c>
     </row>
     <row r="909" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909">
@@ -47387,6 +48130,27 @@
       <c r="F909" s="29">
         <v>45133</v>
       </c>
+      <c r="G909" s="56">
+        <v>3.7118055555555557E-2</v>
+      </c>
+      <c r="H909" s="120" t="s">
+        <v>948</v>
+      </c>
+      <c r="I909" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J909" s="63" t="s">
+        <v>2881</v>
+      </c>
+      <c r="K909">
+        <v>909</v>
+      </c>
+      <c r="M909" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N909" t="s">
+        <v>2915</v>
+      </c>
     </row>
     <row r="910" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910">
@@ -47407,8 +48171,29 @@
       <c r="F910" s="29">
         <v>45716</v>
       </c>
+      <c r="G910" s="56">
+        <v>4.5879629629629631E-2</v>
+      </c>
+      <c r="H910" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I910" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J910" s="63" t="s">
+        <v>2882</v>
+      </c>
+      <c r="K910">
+        <v>910</v>
+      </c>
       <c r="L910" t="s">
         <v>589</v>
+      </c>
+      <c r="M910" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N910" t="s">
+        <v>2916</v>
       </c>
     </row>
     <row r="911" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -47430,6 +48215,27 @@
       <c r="F911" s="29">
         <v>44647</v>
       </c>
+      <c r="G911" s="56">
+        <v>3.3460648148148149E-2</v>
+      </c>
+      <c r="H911" s="120" t="s">
+        <v>827</v>
+      </c>
+      <c r="I911" s="120" t="s">
+        <v>823</v>
+      </c>
+      <c r="J911" s="63" t="s">
+        <v>2883</v>
+      </c>
+      <c r="K911">
+        <v>911</v>
+      </c>
+      <c r="M911" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N911" t="s">
+        <v>2917</v>
+      </c>
     </row>
     <row r="912" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912">
@@ -47450,8 +48256,29 @@
       <c r="F912" s="29">
         <v>45955</v>
       </c>
-    </row>
-    <row r="913" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G912" s="56">
+        <v>5.6284722222222222E-2</v>
+      </c>
+      <c r="H912" s="120" t="s">
+        <v>2905</v>
+      </c>
+      <c r="I912" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J912" s="63" t="s">
+        <v>2884</v>
+      </c>
+      <c r="K912">
+        <v>912</v>
+      </c>
+      <c r="M912" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N912" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="913" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>914</v>
       </c>
@@ -47470,8 +48297,29 @@
       <c r="F913" s="29">
         <v>45783</v>
       </c>
-    </row>
-    <row r="914" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G913" s="56">
+        <v>2.9270833333333333E-2</v>
+      </c>
+      <c r="H913" s="120" t="s">
+        <v>845</v>
+      </c>
+      <c r="I913" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J913" s="63" t="s">
+        <v>2885</v>
+      </c>
+      <c r="K913">
+        <v>913</v>
+      </c>
+      <c r="M913" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N913" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="914" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>915</v>
       </c>
@@ -47490,8 +48338,29 @@
       <c r="F914" s="29">
         <v>45971</v>
       </c>
-    </row>
-    <row r="915" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G914" s="56">
+        <v>5.167824074074074E-2</v>
+      </c>
+      <c r="H914" s="120" t="s">
+        <v>815</v>
+      </c>
+      <c r="I914" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J914" s="63" t="s">
+        <v>2886</v>
+      </c>
+      <c r="K914">
+        <v>914</v>
+      </c>
+      <c r="M914" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N914" t="s">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="915" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>916</v>
       </c>
@@ -47510,8 +48379,29 @@
       <c r="F915" s="29">
         <v>45652</v>
       </c>
-    </row>
-    <row r="916" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G915" s="56">
+        <v>4.2476851851851849E-2</v>
+      </c>
+      <c r="H915" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I915" t="s">
+        <v>816</v>
+      </c>
+      <c r="J915" s="63" t="s">
+        <v>2887</v>
+      </c>
+      <c r="K915">
+        <v>915</v>
+      </c>
+      <c r="M915" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N915" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="916" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>917</v>
       </c>
@@ -47530,8 +48420,29 @@
       <c r="F916" s="29">
         <v>45868</v>
       </c>
-    </row>
-    <row r="917" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G916" s="56">
+        <v>0.10201388888888889</v>
+      </c>
+      <c r="H916" s="120" t="s">
+        <v>845</v>
+      </c>
+      <c r="I916" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J916" s="63" t="s">
+        <v>2888</v>
+      </c>
+      <c r="K916">
+        <v>916</v>
+      </c>
+      <c r="M916" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N916" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="917" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>918</v>
       </c>
@@ -47550,8 +48461,29 @@
       <c r="F917" s="29">
         <v>46016</v>
       </c>
-    </row>
-    <row r="918" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G917" s="56">
+        <v>1.8888888888888889E-2</v>
+      </c>
+      <c r="H917" s="120" t="s">
+        <v>842</v>
+      </c>
+      <c r="I917" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J917" s="63" t="s">
+        <v>2889</v>
+      </c>
+      <c r="K917">
+        <v>917</v>
+      </c>
+      <c r="M917" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N917" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="918" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>919</v>
       </c>
@@ -47570,8 +48502,29 @@
       <c r="F918" s="29">
         <v>46010</v>
       </c>
-    </row>
-    <row r="919" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G918" s="56">
+        <v>2.9409722222222223E-2</v>
+      </c>
+      <c r="H918" s="120" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I918" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J918" s="63" t="s">
+        <v>2890</v>
+      </c>
+      <c r="K918">
+        <v>918</v>
+      </c>
+      <c r="M918" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N918" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="919" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>920</v>
       </c>
@@ -47590,8 +48543,29 @@
       <c r="F919" s="29">
         <v>45752</v>
       </c>
-    </row>
-    <row r="920" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G919" s="56">
+        <v>4.3356481481481475E-2</v>
+      </c>
+      <c r="H919" s="120" t="s">
+        <v>815</v>
+      </c>
+      <c r="I919" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J919" s="63" t="s">
+        <v>2891</v>
+      </c>
+      <c r="K919">
+        <v>919</v>
+      </c>
+      <c r="M919" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N919" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="920" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>921</v>
       </c>
@@ -47610,8 +48584,29 @@
       <c r="F920" s="29">
         <v>45275</v>
       </c>
-    </row>
-    <row r="921" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G920" s="56">
+        <v>8.2708333333333328E-2</v>
+      </c>
+      <c r="H920" s="120" t="s">
+        <v>2906</v>
+      </c>
+      <c r="I920" s="120" t="s">
+        <v>823</v>
+      </c>
+      <c r="J920" s="63" t="s">
+        <v>2892</v>
+      </c>
+      <c r="K920">
+        <v>920</v>
+      </c>
+      <c r="M920" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N920" t="s">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="921" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>922</v>
       </c>
@@ -47630,8 +48625,29 @@
       <c r="F921" s="29">
         <v>45796</v>
       </c>
-    </row>
-    <row r="922" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G921" s="56">
+        <v>3.5023148148148144E-2</v>
+      </c>
+      <c r="H921" s="120" t="s">
+        <v>815</v>
+      </c>
+      <c r="I921" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J921" s="63" t="s">
+        <v>2893</v>
+      </c>
+      <c r="K921">
+        <v>921</v>
+      </c>
+      <c r="M921" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N921" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="922" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>923</v>
       </c>
@@ -47650,8 +48666,29 @@
       <c r="F922" s="29">
         <v>45982</v>
       </c>
-    </row>
-    <row r="923" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G922" s="56">
+        <v>4.3888888888888887E-2</v>
+      </c>
+      <c r="H922" t="s">
+        <v>842</v>
+      </c>
+      <c r="I922" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J922" s="63" t="s">
+        <v>2894</v>
+      </c>
+      <c r="K922">
+        <v>922</v>
+      </c>
+      <c r="M922" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N922" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="923" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>924</v>
       </c>
@@ -47670,8 +48707,29 @@
       <c r="F923" s="29">
         <v>46039</v>
       </c>
-    </row>
-    <row r="924" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G923" s="56">
+        <v>0.12884259259259259</v>
+      </c>
+      <c r="H923" t="s">
+        <v>895</v>
+      </c>
+      <c r="I923" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J923" s="63" t="s">
+        <v>2895</v>
+      </c>
+      <c r="K923">
+        <v>923</v>
+      </c>
+      <c r="M923" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N923" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="924" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>925</v>
       </c>
@@ -47690,8 +48748,29 @@
       <c r="F924" s="29">
         <v>45561</v>
       </c>
-    </row>
-    <row r="925" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G924" s="56">
+        <v>9.7152777777777768E-2</v>
+      </c>
+      <c r="H924" s="120" t="s">
+        <v>849</v>
+      </c>
+      <c r="I924" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J924" s="63" t="s">
+        <v>2896</v>
+      </c>
+      <c r="K924">
+        <v>924</v>
+      </c>
+      <c r="M924" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N924" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="925" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>926</v>
       </c>
@@ -47710,8 +48789,29 @@
       <c r="F925" s="29">
         <v>45799</v>
       </c>
-    </row>
-    <row r="926" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G925" s="56">
+        <v>5.3460648148148153E-2</v>
+      </c>
+      <c r="H925" t="s">
+        <v>815</v>
+      </c>
+      <c r="I925" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J925" s="63" t="s">
+        <v>2897</v>
+      </c>
+      <c r="K925">
+        <v>925</v>
+      </c>
+      <c r="M925" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N925" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="926" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>927</v>
       </c>
@@ -47730,8 +48830,29 @@
       <c r="F926" s="29">
         <v>45751</v>
       </c>
-    </row>
-    <row r="927" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G926" s="56">
+        <v>6.4513888888888885E-2</v>
+      </c>
+      <c r="H926" t="s">
+        <v>895</v>
+      </c>
+      <c r="I926" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J926" s="63" t="s">
+        <v>2898</v>
+      </c>
+      <c r="K926">
+        <v>926</v>
+      </c>
+      <c r="M926" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N926" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="927" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>928</v>
       </c>
@@ -47750,8 +48871,29 @@
       <c r="F927" s="29">
         <v>45448</v>
       </c>
-    </row>
-    <row r="928" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G927" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H927" t="s">
+        <v>509</v>
+      </c>
+      <c r="I927" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J927" s="63" t="s">
+        <v>2899</v>
+      </c>
+      <c r="K927">
+        <v>927</v>
+      </c>
+      <c r="M927" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N927" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="928" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>929</v>
       </c>
@@ -47770,8 +48912,29 @@
       <c r="F928" s="29">
         <v>45994</v>
       </c>
-    </row>
-    <row r="929" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G928" s="56">
+        <v>0.11135416666666666</v>
+      </c>
+      <c r="H928" t="s">
+        <v>845</v>
+      </c>
+      <c r="I928" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J928" s="63" t="s">
+        <v>2900</v>
+      </c>
+      <c r="K928">
+        <v>928</v>
+      </c>
+      <c r="M928" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N928" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="929" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>930</v>
       </c>
@@ -47790,8 +48953,29 @@
       <c r="F929" s="29">
         <v>45942</v>
       </c>
-    </row>
-    <row r="930" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G929" s="56">
+        <v>2.3356481481481482E-2</v>
+      </c>
+      <c r="H929" t="s">
+        <v>896</v>
+      </c>
+      <c r="I929" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J929" s="63" t="s">
+        <v>2901</v>
+      </c>
+      <c r="K929">
+        <v>929</v>
+      </c>
+      <c r="M929" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N929" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="930" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>931</v>
       </c>
@@ -47810,8 +48994,29 @@
       <c r="F930" s="29">
         <v>46012</v>
       </c>
-    </row>
-    <row r="931" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G930" s="56">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="H930" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I930" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J930" s="63" t="s">
+        <v>2902</v>
+      </c>
+      <c r="K930">
+        <v>930</v>
+      </c>
+      <c r="M930" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N930" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="931" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>932</v>
       </c>
@@ -47830,8 +49035,29 @@
       <c r="F931" s="29">
         <v>46010</v>
       </c>
-    </row>
-    <row r="932" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G931" s="56">
+        <v>2.6180555555555558E-2</v>
+      </c>
+      <c r="H931" t="s">
+        <v>895</v>
+      </c>
+      <c r="I931" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J931" s="63" t="s">
+        <v>2937</v>
+      </c>
+      <c r="K931">
+        <v>931</v>
+      </c>
+      <c r="M931" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N931" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="932" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>933</v>
       </c>
@@ -47850,8 +49076,29 @@
       <c r="F932" s="29">
         <v>46043</v>
       </c>
-    </row>
-    <row r="933" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G932" s="56">
+        <v>4.6087962962962963E-2</v>
+      </c>
+      <c r="H932" s="120" t="s">
+        <v>952</v>
+      </c>
+      <c r="I932" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J932" s="63" t="s">
+        <v>2938</v>
+      </c>
+      <c r="K932">
+        <v>932</v>
+      </c>
+      <c r="M932" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N932" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="933" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>934</v>
       </c>
@@ -47870,8 +49117,29 @@
       <c r="F933" s="29">
         <v>45782</v>
       </c>
-    </row>
-    <row r="934" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G933" s="56">
+        <v>3.5381944444444445E-2</v>
+      </c>
+      <c r="H933" s="120" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I933" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J933" s="63" t="s">
+        <v>2939</v>
+      </c>
+      <c r="K933">
+        <v>933</v>
+      </c>
+      <c r="M933" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N933" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="934" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>935</v>
       </c>
@@ -47890,11 +49158,32 @@
       <c r="F934" s="29">
         <v>46002</v>
       </c>
+      <c r="G934" s="56">
+        <v>3.1469907407407412E-2</v>
+      </c>
+      <c r="H934" s="120" t="s">
+        <v>895</v>
+      </c>
+      <c r="I934" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J934" s="63" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K934">
+        <v>934</v>
+      </c>
       <c r="L934" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="935" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M934" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N934" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="935" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>936</v>
       </c>
@@ -47913,8 +49202,29 @@
       <c r="F935" s="29">
         <v>45709</v>
       </c>
-    </row>
-    <row r="936" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G935" s="56">
+        <v>4.0162037037037038E-2</v>
+      </c>
+      <c r="H935" s="120" t="s">
+        <v>2967</v>
+      </c>
+      <c r="I935" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J935" s="63" t="s">
+        <v>2941</v>
+      </c>
+      <c r="K935">
+        <v>935</v>
+      </c>
+      <c r="M935" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N935" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="936" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>937</v>
       </c>
@@ -47933,8 +49243,29 @@
       <c r="F936" s="29">
         <v>45746</v>
       </c>
-    </row>
-    <row r="937" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G936" s="56">
+        <v>2.3854166666666666E-2</v>
+      </c>
+      <c r="H936" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I936" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J936" s="63" t="s">
+        <v>2943</v>
+      </c>
+      <c r="K936">
+        <v>936</v>
+      </c>
+      <c r="M936" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N936" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="937" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>938</v>
       </c>
@@ -47953,8 +49284,29 @@
       <c r="F937" s="32">
         <v>46014</v>
       </c>
-    </row>
-    <row r="938" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G937" s="56">
+        <v>2.4120370370370372E-2</v>
+      </c>
+      <c r="H937" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I937" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J937" s="63" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K937">
+        <v>937</v>
+      </c>
+      <c r="M937" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N937" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="938" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>939</v>
       </c>
@@ -47973,8 +49325,29 @@
       <c r="F938" s="29">
         <v>45724</v>
       </c>
-    </row>
-    <row r="939" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G938" s="56">
+        <v>5.7708333333333334E-2</v>
+      </c>
+      <c r="H938" s="120" t="s">
+        <v>842</v>
+      </c>
+      <c r="I938" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J938" s="63" t="s">
+        <v>2944</v>
+      </c>
+      <c r="K938">
+        <v>938</v>
+      </c>
+      <c r="M938" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N938" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="939" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>940</v>
       </c>
@@ -47993,8 +49366,29 @@
       <c r="F939" s="29">
         <v>45766</v>
       </c>
-    </row>
-    <row r="940" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G939" s="56">
+        <v>5.2592592592592587E-2</v>
+      </c>
+      <c r="H939" s="120" t="s">
+        <v>815</v>
+      </c>
+      <c r="I939" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J939" s="63" t="s">
+        <v>2945</v>
+      </c>
+      <c r="K939">
+        <v>939</v>
+      </c>
+      <c r="M939" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N939" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="940" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>941</v>
       </c>
@@ -48013,11 +49407,32 @@
       <c r="F940" s="29">
         <v>46016</v>
       </c>
+      <c r="G940" s="56">
+        <v>1.9432870370370371E-2</v>
+      </c>
+      <c r="H940" s="120" t="s">
+        <v>845</v>
+      </c>
+      <c r="I940" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J940" s="63" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K940">
+        <v>940</v>
+      </c>
       <c r="L940" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="941" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M940" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N940" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="941" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>942</v>
       </c>
@@ -48036,8 +49451,29 @@
       <c r="F941" s="29">
         <v>46018</v>
       </c>
-    </row>
-    <row r="942" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G941" s="56">
+        <v>2.6273148148148153E-2</v>
+      </c>
+      <c r="H941" s="120" t="s">
+        <v>835</v>
+      </c>
+      <c r="I941" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J941" s="63" t="s">
+        <v>2947</v>
+      </c>
+      <c r="K941">
+        <v>941</v>
+      </c>
+      <c r="M941" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N941" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="942" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>943</v>
       </c>
@@ -48056,8 +49492,29 @@
       <c r="F942" s="29">
         <v>45746</v>
       </c>
-    </row>
-    <row r="943" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G942" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H942" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="I942" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J942" s="63" t="s">
+        <v>2948</v>
+      </c>
+      <c r="K942">
+        <v>942</v>
+      </c>
+      <c r="M942" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N942" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="943" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>944</v>
       </c>
@@ -48076,8 +49533,29 @@
       <c r="F943" s="29">
         <v>45803</v>
       </c>
-    </row>
-    <row r="944" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G943" s="56">
+        <v>2.342592592592593E-2</v>
+      </c>
+      <c r="H943" s="120" t="s">
+        <v>2968</v>
+      </c>
+      <c r="I943" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J943" s="63" t="s">
+        <v>2949</v>
+      </c>
+      <c r="K943">
+        <v>943</v>
+      </c>
+      <c r="M943" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N943" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="944" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>945</v>
       </c>
@@ -48096,8 +49574,29 @@
       <c r="F944" s="29">
         <v>46031</v>
       </c>
-    </row>
-    <row r="945" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G944" s="56">
+        <v>3.5578703703703703E-2</v>
+      </c>
+      <c r="H944" s="120" t="s">
+        <v>840</v>
+      </c>
+      <c r="I944" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J944" s="63" t="s">
+        <v>2950</v>
+      </c>
+      <c r="K944">
+        <v>944</v>
+      </c>
+      <c r="M944" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N944" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="945" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>946</v>
       </c>
@@ -48116,8 +49615,29 @@
       <c r="F945" s="29">
         <v>46009</v>
       </c>
-    </row>
-    <row r="946" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G945" s="56">
+        <v>3.0937499999999996E-2</v>
+      </c>
+      <c r="H945" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I945" t="s">
+        <v>816</v>
+      </c>
+      <c r="J945" s="63" t="s">
+        <v>2951</v>
+      </c>
+      <c r="K945">
+        <v>945</v>
+      </c>
+      <c r="M945" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N945" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="946" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>947</v>
       </c>
@@ -48136,8 +49656,29 @@
       <c r="F946" s="29">
         <v>45867</v>
       </c>
-    </row>
-    <row r="947" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G946" s="56">
+        <v>5.0752314814814813E-2</v>
+      </c>
+      <c r="H946" s="120" t="s">
+        <v>835</v>
+      </c>
+      <c r="I946" t="s">
+        <v>295</v>
+      </c>
+      <c r="J946" s="63" t="s">
+        <v>2952</v>
+      </c>
+      <c r="K946">
+        <v>946</v>
+      </c>
+      <c r="M946" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N946" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="947" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>948</v>
       </c>
@@ -48156,8 +49697,29 @@
       <c r="F947" s="29">
         <v>46018</v>
       </c>
-    </row>
-    <row r="948" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G947" s="56">
+        <v>4.221064814814815E-2</v>
+      </c>
+      <c r="H947" s="120" t="s">
+        <v>973</v>
+      </c>
+      <c r="I947" t="s">
+        <v>816</v>
+      </c>
+      <c r="J947" s="63" t="s">
+        <v>2953</v>
+      </c>
+      <c r="K947">
+        <v>947</v>
+      </c>
+      <c r="M947" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N947" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="948" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>949</v>
       </c>
@@ -48176,8 +49738,29 @@
       <c r="F948" s="29">
         <v>45656</v>
       </c>
-    </row>
-    <row r="949" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G948" s="56">
+        <v>3.9317129629629625E-2</v>
+      </c>
+      <c r="H948" s="120" t="s">
+        <v>840</v>
+      </c>
+      <c r="I948" t="s">
+        <v>816</v>
+      </c>
+      <c r="J948" s="63" t="s">
+        <v>2954</v>
+      </c>
+      <c r="K948">
+        <v>948</v>
+      </c>
+      <c r="M948" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N948" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="949" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>950</v>
       </c>
@@ -48196,8 +49779,29 @@
       <c r="F949" s="29">
         <v>46016</v>
       </c>
-    </row>
-    <row r="950" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G949" s="56">
+        <v>4.1087962962962958E-2</v>
+      </c>
+      <c r="H949" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I949" t="s">
+        <v>816</v>
+      </c>
+      <c r="J949" s="63" t="s">
+        <v>2955</v>
+      </c>
+      <c r="K949">
+        <v>949</v>
+      </c>
+      <c r="M949" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N949" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="950" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>951</v>
       </c>
@@ -48216,8 +49820,29 @@
       <c r="F950" s="29">
         <v>45996</v>
       </c>
-    </row>
-    <row r="951" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G950" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H950" s="120" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I950" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J950" s="63" t="s">
+        <v>2956</v>
+      </c>
+      <c r="K950">
+        <v>950</v>
+      </c>
+      <c r="M950" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N950" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="951" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>952</v>
       </c>
@@ -48236,8 +49861,29 @@
       <c r="F951" s="29">
         <v>45995</v>
       </c>
-    </row>
-    <row r="952" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G951" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H951" s="120" t="s">
+        <v>2969</v>
+      </c>
+      <c r="I951" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J951" s="63" t="s">
+        <v>2957</v>
+      </c>
+      <c r="K951">
+        <v>951</v>
+      </c>
+      <c r="M951" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N951" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="952" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>953</v>
       </c>
@@ -48256,8 +49902,29 @@
       <c r="F952" s="29">
         <v>46015</v>
       </c>
-    </row>
-    <row r="953" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G952" s="56">
+        <v>3.1157407407407408E-2</v>
+      </c>
+      <c r="H952" s="120" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I952" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J952" s="63" t="s">
+        <v>2958</v>
+      </c>
+      <c r="K952">
+        <v>952</v>
+      </c>
+      <c r="M952" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N952" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="953" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>954</v>
       </c>
@@ -48276,8 +49943,29 @@
       <c r="F953" s="29">
         <v>45870</v>
       </c>
-    </row>
-    <row r="954" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G953" s="56">
+        <v>2.2766203703703702E-2</v>
+      </c>
+      <c r="H953" s="120" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I953" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J953" s="63" t="s">
+        <v>2959</v>
+      </c>
+      <c r="K953">
+        <v>953</v>
+      </c>
+      <c r="M953" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N953" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="954" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>955</v>
       </c>
@@ -48296,8 +49984,29 @@
       <c r="F954" s="29">
         <v>46031</v>
       </c>
-    </row>
-    <row r="955" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G954" s="56">
+        <v>2.5983796296296297E-2</v>
+      </c>
+      <c r="H954" s="120" t="s">
+        <v>2970</v>
+      </c>
+      <c r="I954" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J954" s="63" t="s">
+        <v>2960</v>
+      </c>
+      <c r="K954">
+        <v>954</v>
+      </c>
+      <c r="M954" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N954" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="955" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>956</v>
       </c>
@@ -48316,8 +50025,29 @@
       <c r="F955" s="29">
         <v>46019</v>
       </c>
-    </row>
-    <row r="956" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G955" s="56">
+        <v>3.0648148148148147E-2</v>
+      </c>
+      <c r="H955" s="120" t="s">
+        <v>2967</v>
+      </c>
+      <c r="I955" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J955" s="63" t="s">
+        <v>2961</v>
+      </c>
+      <c r="K955">
+        <v>955</v>
+      </c>
+      <c r="M955" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N955" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="956" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>957</v>
       </c>
@@ -48336,8 +50066,29 @@
       <c r="F956" s="29">
         <v>45656</v>
       </c>
-    </row>
-    <row r="957" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G956" s="56">
+        <v>3.2812500000000001E-2</v>
+      </c>
+      <c r="H956" s="120" t="s">
+        <v>845</v>
+      </c>
+      <c r="I956" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J956" s="63" t="s">
+        <v>2962</v>
+      </c>
+      <c r="K956">
+        <v>956</v>
+      </c>
+      <c r="M956" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N956" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="957" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>958</v>
       </c>
@@ -48356,8 +50107,29 @@
       <c r="F957" s="29">
         <v>46005</v>
       </c>
-    </row>
-    <row r="958" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G957" s="56">
+        <v>2.4884259259259259E-2</v>
+      </c>
+      <c r="H957" s="120" t="s">
+        <v>840</v>
+      </c>
+      <c r="I957" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J957" s="63" t="s">
+        <v>2963</v>
+      </c>
+      <c r="K957">
+        <v>957</v>
+      </c>
+      <c r="M957" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N957" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="958" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>959</v>
       </c>
@@ -48376,8 +50148,29 @@
       <c r="F958" s="29">
         <v>46007</v>
       </c>
-    </row>
-    <row r="959" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G958" s="56">
+        <v>2.6932870370370371E-2</v>
+      </c>
+      <c r="H958" s="120" t="s">
+        <v>948</v>
+      </c>
+      <c r="I958" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J958" s="63" t="s">
+        <v>2964</v>
+      </c>
+      <c r="K958">
+        <v>958</v>
+      </c>
+      <c r="M958" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N958" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="959" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>960</v>
       </c>
@@ -48396,8 +50189,29 @@
       <c r="F959" s="29">
         <v>45784</v>
       </c>
-    </row>
-    <row r="960" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G959" s="56">
+        <v>3.0810185185185187E-2</v>
+      </c>
+      <c r="H959" s="120" t="s">
+        <v>895</v>
+      </c>
+      <c r="I959" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J959" s="63" t="s">
+        <v>2965</v>
+      </c>
+      <c r="K959">
+        <v>959</v>
+      </c>
+      <c r="M959" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N959" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="960" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>961</v>
       </c>
@@ -48416,8 +50230,29 @@
       <c r="F960" s="32">
         <v>46014</v>
       </c>
-    </row>
-    <row r="961" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G960" s="56">
+        <v>2.6724537037037036E-2</v>
+      </c>
+      <c r="H960" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I960" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J960" s="63" t="s">
+        <v>2966</v>
+      </c>
+      <c r="K960">
+        <v>960</v>
+      </c>
+      <c r="M960" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N960" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="961" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>962</v>
       </c>
@@ -48436,8 +50271,29 @@
       <c r="F961" s="29">
         <v>45644</v>
       </c>
-    </row>
-    <row r="962" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G961" s="56">
+        <v>0.10692129629629631</v>
+      </c>
+      <c r="H961" s="120" t="s">
+        <v>3031</v>
+      </c>
+      <c r="I961" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J961" s="63" t="s">
+        <v>3001</v>
+      </c>
+      <c r="K961">
+        <v>961</v>
+      </c>
+      <c r="M961" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N961" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="962" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>963</v>
       </c>
@@ -48456,8 +50312,29 @@
       <c r="F962" s="29">
         <v>46043</v>
       </c>
-    </row>
-    <row r="963" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G962" s="56">
+        <v>3.6944444444444446E-2</v>
+      </c>
+      <c r="H962" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I962" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J962" s="63" t="s">
+        <v>3002</v>
+      </c>
+      <c r="K962">
+        <v>962</v>
+      </c>
+      <c r="M962" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N962" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="963" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>964</v>
       </c>
@@ -48476,8 +50353,29 @@
       <c r="F963" s="29">
         <v>46018</v>
       </c>
-    </row>
-    <row r="964" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G963" s="56">
+        <v>2.3530092592592592E-2</v>
+      </c>
+      <c r="H963" s="120" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I963" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J963" s="63" t="s">
+        <v>3003</v>
+      </c>
+      <c r="K963">
+        <v>963</v>
+      </c>
+      <c r="M963" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N963" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="964" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>965</v>
       </c>
@@ -48496,8 +50394,29 @@
       <c r="F964" s="29">
         <v>45684</v>
       </c>
-    </row>
-    <row r="965" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G964" s="56">
+        <v>4.8842592592592597E-2</v>
+      </c>
+      <c r="H964" s="120" t="s">
+        <v>845</v>
+      </c>
+      <c r="I964" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J964" s="63" t="s">
+        <v>3004</v>
+      </c>
+      <c r="K964">
+        <v>964</v>
+      </c>
+      <c r="M964" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N964" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="965" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>966</v>
       </c>
@@ -48516,8 +50435,29 @@
       <c r="F965" s="29">
         <v>46000</v>
       </c>
-    </row>
-    <row r="966" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G965" s="56">
+        <v>3.0011574074074076E-2</v>
+      </c>
+      <c r="H965" s="120" t="s">
+        <v>847</v>
+      </c>
+      <c r="I965" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J965" s="63" t="s">
+        <v>3005</v>
+      </c>
+      <c r="K965">
+        <v>965</v>
+      </c>
+      <c r="M965" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N965" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="966" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>967</v>
       </c>
@@ -48536,8 +50476,29 @@
       <c r="F966" s="29">
         <v>45756</v>
       </c>
-    </row>
-    <row r="967" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G966" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H966" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="I966" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J966" s="63" t="s">
+        <v>3006</v>
+      </c>
+      <c r="K966">
+        <v>966</v>
+      </c>
+      <c r="M966" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N966" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="967" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>968</v>
       </c>
@@ -48556,8 +50517,29 @@
       <c r="F967" s="32">
         <v>46014</v>
       </c>
-    </row>
-    <row r="968" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G967" s="56">
+        <v>1.6180555555555556E-2</v>
+      </c>
+      <c r="H967" s="120" t="s">
+        <v>835</v>
+      </c>
+      <c r="I967" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J967" s="63" t="s">
+        <v>3007</v>
+      </c>
+      <c r="K967">
+        <v>967</v>
+      </c>
+      <c r="M967" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N967" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="968" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>969</v>
       </c>
@@ -48576,8 +50558,29 @@
       <c r="F968" s="29">
         <v>46014</v>
       </c>
-    </row>
-    <row r="969" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G968" s="56">
+        <v>2.4328703703703703E-2</v>
+      </c>
+      <c r="H968" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I968" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J968" s="63" t="s">
+        <v>3008</v>
+      </c>
+      <c r="K968">
+        <v>968</v>
+      </c>
+      <c r="M968" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N968" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="969" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>970</v>
       </c>
@@ -48596,8 +50599,29 @@
       <c r="F969" s="29">
         <v>45664</v>
       </c>
-    </row>
-    <row r="970" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G969" s="56">
+        <v>0.21752314814814813</v>
+      </c>
+      <c r="H969" s="120" t="s">
+        <v>825</v>
+      </c>
+      <c r="I969" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J969" s="63" t="s">
+        <v>3009</v>
+      </c>
+      <c r="K969">
+        <v>969</v>
+      </c>
+      <c r="M969" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N969" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="970" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>971</v>
       </c>
@@ -48616,8 +50640,29 @@
       <c r="F970" s="29">
         <v>45740</v>
       </c>
-    </row>
-    <row r="971" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G970" s="56">
+        <v>5.8981481481481489E-2</v>
+      </c>
+      <c r="H970" s="120" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I970" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J970" s="63" t="s">
+        <v>3010</v>
+      </c>
+      <c r="K970">
+        <v>970</v>
+      </c>
+      <c r="M970" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N970" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="971" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>972</v>
       </c>
@@ -48636,8 +50681,29 @@
       <c r="F971" s="29">
         <v>46000</v>
       </c>
-    </row>
-    <row r="972" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G971" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H971" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="I971" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J971" s="63" t="s">
+        <v>3011</v>
+      </c>
+      <c r="K971">
+        <v>971</v>
+      </c>
+      <c r="M971" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N971" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="972" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>973</v>
       </c>
@@ -48656,8 +50722,29 @@
       <c r="F972" s="29">
         <v>46017</v>
       </c>
-    </row>
-    <row r="973" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G972" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H972" s="120" t="s">
+        <v>947</v>
+      </c>
+      <c r="I972" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J972" s="63" t="s">
+        <v>3012</v>
+      </c>
+      <c r="K972">
+        <v>972</v>
+      </c>
+      <c r="M972" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N972" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="973" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>974</v>
       </c>
@@ -48676,8 +50763,29 @@
       <c r="F973" s="29">
         <v>46003</v>
       </c>
-    </row>
-    <row r="974" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G973" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H973" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="I973" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J973" s="63" t="s">
+        <v>3013</v>
+      </c>
+      <c r="K973">
+        <v>973</v>
+      </c>
+      <c r="M973" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N973" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="974" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>975</v>
       </c>
@@ -48696,8 +50804,29 @@
       <c r="F974" s="29">
         <v>45738</v>
       </c>
-    </row>
-    <row r="975" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G974" s="56">
+        <v>3.138888888888889E-2</v>
+      </c>
+      <c r="H974" s="120" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I974" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J974" s="63" t="s">
+        <v>3014</v>
+      </c>
+      <c r="K974">
+        <v>974</v>
+      </c>
+      <c r="M974" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N974" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="975" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>976</v>
       </c>
@@ -48716,9 +50845,30 @@
       <c r="F975" s="30">
         <v>45964</v>
       </c>
+      <c r="G975" s="56">
+        <v>5.7199074074074076E-2</v>
+      </c>
+      <c r="H975" t="s">
+        <v>947</v>
+      </c>
+      <c r="I975" t="s">
+        <v>816</v>
+      </c>
+      <c r="J975" s="63" t="s">
+        <v>3015</v>
+      </c>
+      <c r="K975">
+        <v>975</v>
+      </c>
       <c r="L975" s="1"/>
-    </row>
-    <row r="976" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M975" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N975" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="976" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>977</v>
       </c>
@@ -48737,8 +50887,29 @@
       <c r="F976" s="29">
         <v>46017</v>
       </c>
-    </row>
-    <row r="977" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G976" s="56">
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="H976" t="s">
+        <v>815</v>
+      </c>
+      <c r="I976" t="s">
+        <v>816</v>
+      </c>
+      <c r="J976" s="63" t="s">
+        <v>3016</v>
+      </c>
+      <c r="K976">
+        <v>976</v>
+      </c>
+      <c r="M976" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N976" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="977" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>978</v>
       </c>
@@ -48757,8 +50928,29 @@
       <c r="F977" s="29">
         <v>46018</v>
       </c>
-    </row>
-    <row r="978" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G977" s="56">
+        <v>1.9282407407407408E-2</v>
+      </c>
+      <c r="H977" t="s">
+        <v>845</v>
+      </c>
+      <c r="I977" t="s">
+        <v>816</v>
+      </c>
+      <c r="J977" s="63" t="s">
+        <v>3017</v>
+      </c>
+      <c r="K977">
+        <v>977</v>
+      </c>
+      <c r="M977" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N977" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="978" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>979</v>
       </c>
@@ -48777,8 +50969,29 @@
       <c r="F978" s="29">
         <v>45875</v>
       </c>
-    </row>
-    <row r="979" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G978" s="56">
+        <v>2.3194444444444445E-2</v>
+      </c>
+      <c r="H978" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I978" t="s">
+        <v>816</v>
+      </c>
+      <c r="J978" s="63" t="s">
+        <v>3018</v>
+      </c>
+      <c r="K978">
+        <v>978</v>
+      </c>
+      <c r="M978" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N978" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="979" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>980</v>
       </c>
@@ -48797,8 +51010,29 @@
       <c r="F979" s="29">
         <v>46020</v>
       </c>
-    </row>
-    <row r="980" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G979" s="56">
+        <v>3.5231481481481482E-2</v>
+      </c>
+      <c r="H979" t="s">
+        <v>815</v>
+      </c>
+      <c r="I979" t="s">
+        <v>816</v>
+      </c>
+      <c r="J979" s="63" t="s">
+        <v>3019</v>
+      </c>
+      <c r="K979">
+        <v>979</v>
+      </c>
+      <c r="M979" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N979" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="980" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>981</v>
       </c>
@@ -48817,8 +51051,29 @@
       <c r="F980" s="29">
         <v>45610</v>
       </c>
-    </row>
-    <row r="981" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G980" s="56">
+        <v>0.12983796296296296</v>
+      </c>
+      <c r="H980" t="s">
+        <v>947</v>
+      </c>
+      <c r="I980" t="s">
+        <v>816</v>
+      </c>
+      <c r="J980" s="63" t="s">
+        <v>3020</v>
+      </c>
+      <c r="K980">
+        <v>980</v>
+      </c>
+      <c r="M980" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N980" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="981" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>982</v>
       </c>
@@ -48837,8 +51092,29 @@
       <c r="F981" s="29">
         <v>46028</v>
       </c>
-    </row>
-    <row r="982" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G981" s="56">
+        <v>6.4930555555555561E-2</v>
+      </c>
+      <c r="H981" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I981" t="s">
+        <v>816</v>
+      </c>
+      <c r="J981" s="63" t="s">
+        <v>3021</v>
+      </c>
+      <c r="K981">
+        <v>981</v>
+      </c>
+      <c r="M981" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N981" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="982" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>983</v>
       </c>
@@ -48857,8 +51133,29 @@
       <c r="F982" s="29">
         <v>45781</v>
       </c>
-    </row>
-    <row r="983" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G982" s="56">
+        <v>2.462962962962963E-2</v>
+      </c>
+      <c r="H982" t="s">
+        <v>835</v>
+      </c>
+      <c r="I982" t="s">
+        <v>816</v>
+      </c>
+      <c r="J982" s="63" t="s">
+        <v>3022</v>
+      </c>
+      <c r="K982">
+        <v>982</v>
+      </c>
+      <c r="M982" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N982" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="983" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>984</v>
       </c>
@@ -48877,8 +51174,29 @@
       <c r="F983" s="29">
         <v>45804</v>
       </c>
-    </row>
-    <row r="984" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G983" s="56">
+        <v>2.8344907407407412E-2</v>
+      </c>
+      <c r="H983" t="s">
+        <v>3032</v>
+      </c>
+      <c r="I983" t="s">
+        <v>816</v>
+      </c>
+      <c r="J983" s="63" t="s">
+        <v>3023</v>
+      </c>
+      <c r="K983">
+        <v>983</v>
+      </c>
+      <c r="M983" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N983" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="984" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>985</v>
       </c>
@@ -48897,8 +51215,29 @@
       <c r="F984" s="29">
         <v>45344</v>
       </c>
-    </row>
-    <row r="985" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G984" s="56">
+        <v>4.2743055555555555E-2</v>
+      </c>
+      <c r="H984" s="120" t="s">
+        <v>895</v>
+      </c>
+      <c r="I984" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J984" s="63" t="s">
+        <v>3024</v>
+      </c>
+      <c r="K984">
+        <v>984</v>
+      </c>
+      <c r="M984" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N984" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="985" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>986</v>
       </c>
@@ -48917,8 +51256,29 @@
       <c r="F985" s="29">
         <v>46013</v>
       </c>
-    </row>
-    <row r="986" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G985" s="56">
+        <v>1.9282407407407408E-2</v>
+      </c>
+      <c r="H985" s="120" t="s">
+        <v>815</v>
+      </c>
+      <c r="I985" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J985" s="63" t="s">
+        <v>3025</v>
+      </c>
+      <c r="K985">
+        <v>985</v>
+      </c>
+      <c r="M985" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N985" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="986" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>987</v>
       </c>
@@ -48937,8 +51297,29 @@
       <c r="F986" s="29">
         <v>45994</v>
       </c>
-    </row>
-    <row r="987" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G986" s="56">
+        <v>3.2800925925925928E-2</v>
+      </c>
+      <c r="H986" s="120" t="s">
+        <v>897</v>
+      </c>
+      <c r="I986" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J986" s="63" t="s">
+        <v>3026</v>
+      </c>
+      <c r="K986">
+        <v>986</v>
+      </c>
+      <c r="M986" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N986" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="987" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>988</v>
       </c>
@@ -48957,8 +51338,29 @@
       <c r="F987" s="29">
         <v>45973</v>
       </c>
-    </row>
-    <row r="988" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G987" s="56">
+        <v>1.7488425925925925E-2</v>
+      </c>
+      <c r="H987" s="120" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I987" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J987" s="63" t="s">
+        <v>3027</v>
+      </c>
+      <c r="K987">
+        <v>987</v>
+      </c>
+      <c r="M987" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N987" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="988" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>989</v>
       </c>
@@ -48977,11 +51379,32 @@
       <c r="F988" s="29">
         <v>45719</v>
       </c>
+      <c r="G988" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H988" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="I988" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J988" s="63" t="s">
+        <v>3028</v>
+      </c>
+      <c r="K988">
+        <v>988</v>
+      </c>
       <c r="L988" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="989" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M988" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N988" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="989" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>991</v>
       </c>
@@ -49000,8 +51423,29 @@
       <c r="F989" s="29">
         <v>45165</v>
       </c>
-    </row>
-    <row r="990" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G989" s="56">
+        <v>4.0856481481481487E-2</v>
+      </c>
+      <c r="H989" s="120" t="s">
+        <v>840</v>
+      </c>
+      <c r="I989" s="120" t="s">
+        <v>823</v>
+      </c>
+      <c r="J989" s="63" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K989">
+        <v>989</v>
+      </c>
+      <c r="M989" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N989" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="990" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>992</v>
       </c>
@@ -49020,8 +51464,29 @@
       <c r="F990" s="29">
         <v>46005</v>
       </c>
-    </row>
-    <row r="991" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G990" s="56">
+        <v>3.4224537037037032E-2</v>
+      </c>
+      <c r="H990" s="120" t="s">
+        <v>897</v>
+      </c>
+      <c r="I990" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J990" s="63" t="s">
+        <v>3030</v>
+      </c>
+      <c r="K990">
+        <v>990</v>
+      </c>
+      <c r="M990" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N990" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="991" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>993</v>
       </c>
@@ -49041,7 +51506,7 @@
         <v>45467</v>
       </c>
     </row>
-    <row r="992" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>994</v>
       </c>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9009" uniqueCount="3063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="3124">
   <si>
     <t>Ņ</t>
   </si>
@@ -9122,6 +9122,18 @@
     <t>Pe</t>
   </si>
   <si>
+    <t>Pf</t>
+  </si>
+  <si>
+    <t>Pg</t>
+  </si>
+  <si>
+    <t>Ph</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
     <t>Nyx/Ezekiel</t>
   </si>
   <si>
@@ -9216,6 +9228,177 @@
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476631909038559302/id_Pe.png?ex=69a1d421&amp;is=69a082a1&amp;hm=32a8a2dcf83e314fd12ceafbbcb1337de751b9a3ce4d1eaa5910438410855cbb</t>
+  </si>
+  <si>
+    <t>Pj</t>
+  </si>
+  <si>
+    <t>Pk</t>
+  </si>
+  <si>
+    <t>Pl</t>
+  </si>
+  <si>
+    <t>Pm</t>
+  </si>
+  <si>
+    <t>Pn</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>Pp</t>
+  </si>
+  <si>
+    <t>Pq</t>
+  </si>
+  <si>
+    <t>Pr</t>
+  </si>
+  <si>
+    <t>Ps</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Pu</t>
+  </si>
+  <si>
+    <t>Pv</t>
+  </si>
+  <si>
+    <t>Pw</t>
+  </si>
+  <si>
+    <t>Px</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Pz</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>likely wrong date</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663364103966851/id_Pf.jpg?ex=69a1f16d&amp;is=69a09fed&amp;hm=9a05f3778007468430c2e8090989fbfc52637942fcd480354c0f11506990225b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663447499444244/id_Pg.jpg?ex=69a1f180&amp;is=69a0a000&amp;hm=0f0e78c3f672bdee266f4eafdade910deedf18d1fe279916ea495b758e5fe8a9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663522279559340/id_Ph.png?ex=69a1f192&amp;is=69a0a012&amp;hm=f6083a2ad5eebe9f9216164718fb040cc93db6795200998870bcc2fddd558985</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663572544360680/id_Pi.jpg?ex=69a1f19e&amp;is=69a0a01e&amp;hm=0139b77d3a3a60e699ca3cb7fceb6e57461eef7aa8448766dc9d07e6b8068bdf</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663628600971356/id_Pj.png?ex=69a1f1ac&amp;is=69a0a02c&amp;hm=9a6c48ae0fac63ff6a22e774630710c11499d5b54cf4e41a65f60c3e55e96cc4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663681843724428/id_Pk.jpg?ex=69a1f1b8&amp;is=69a0a038&amp;hm=21488a7dc34fbc685238161641b83f98a87bcc17b870ba406110aa6c2c331c00</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663732817104926/id_Pl.png?ex=69a1f1c4&amp;is=69a0a044&amp;hm=3088ed970b19b54dee9060f6d0415795e6e3bcf107dfd1cd5fdb997a49210af5</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663791482700018/id_Pm.png?ex=69a1f1d2&amp;is=69a0a052&amp;hm=8c396e451e0c111688323b4a896d571dd0b2bf6cb3db25549a0fd1e1d1adaf50</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663855123009672/id_Pn.png?ex=69a1f1e2&amp;is=69a0a062&amp;hm=7358a57be7eff314236de6516a4452c1e0459116d97869782e46261c40769067</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476663911674675350/id_Po.png?ex=69a1f1ef&amp;is=69a0a06f&amp;hm=8113d558d705f604dc5024d0209e768a13e2bf2d41297f5cf05be4ea8d1a67b4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664101001494661/id_Pp.png?ex=69a1f21c&amp;is=69a0a09c&amp;hm=af1a68d6ae932e94cf844e9b7aa5a90d6e19ada982af8685e0ce1817126613d2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664162439528491/id_Pq.png?ex=69a1f22b&amp;is=69a0a0ab&amp;hm=32ef3e297a6aa2fbfac451891bc94fcd9063bae5f3291b831b027645b1e6c321</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664226146680962/id_Pr.png?ex=69a1f23a&amp;is=69a0a0ba&amp;hm=0cd5330824898928ffbe0b9e3c6c4823d63400f7a1d85de0563dcbd22e005321</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664469391151166/id_Ps.jpg?ex=69a1f274&amp;is=69a0a0f4&amp;hm=58fac7ea3f0ffea81fcbe4c130c90a49184511922993652e376319302c9b96c8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664560143565021/id_Pt.png?ex=69a1f28a&amp;is=69a0a10a&amp;hm=8fba161a51d33da7dd0c1f12aec0bb570594d5e2b0ca81304a64360527225fe3</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664639138959571/id_Pu.jpg?ex=69a1f29d&amp;is=69a0a11d&amp;hm=90b82ded53532ad28df14bc708bacd6021757d54ee3f5dc8bec911634adf0f39</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664682650669196/id_Pv.jpg?ex=69a1f2a7&amp;is=69a0a127&amp;hm=1773b2b976709548b0796107486ab9722be8f9b6d236e8e3e8c5c89ef9125bbf</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664734886662245/id_Pw.png?ex=69a1f2b3&amp;is=69a0a133&amp;hm=e0ced731c73e4975d928cf84926d9e8277c8c92918ae69244d6cdc8e1f2ff9f2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664804872552568/id_Px.jpg?ex=69a1f2c4&amp;is=69a0a144&amp;hm=18046332733c50c9068838fe08f04632c8d4bd81c18089ba9b403562e198f9a1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476664855267115192/id_Py.jpg?ex=69a1f2d0&amp;is=69a0a150&amp;hm=b409bdc4cf9f71f4b0cf01c150a2b3c3c901f530abff66f0aad11989197176f4</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476665524040630475/id_Pz.jpg?ex=69a1f370&amp;is=69a0a1f0&amp;hm=4486de0e407eff3b0316422931533348b14aa03b8ea8377fb6ed66ee8be6231c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476665578474438696/id_P0.png?ex=69a1f37d&amp;is=69a0a1fd&amp;hm=8b9f818c86c84104d68c62a593f9ac69e645c7b5e9ccfee2715496df51096e38</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476666429888528384/id_P1.png?ex=69a1f448&amp;is=69a0a2c8&amp;hm=8cbca652a9f8c27744730b2410da31b342c8574a9e5c3dc0d1fe5889504543b9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476666484980711628/id_P2.png?ex=69a1f455&amp;is=69a0a2d5&amp;hm=deeec6aa11d20c983ac3e0b8c7ce3755b9499a3cf353d2ef90121f6262b4b07b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476666754217283594/id_P3.png?ex=69a1f495&amp;is=69a0a315&amp;hm=35ec6cd2206aaa1d40be493faabd0fbc40f86ac7b5028771dbc9d304c94a164e</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476666962414407771/id_P4.png?ex=69a1f4c6&amp;is=69a0a346&amp;hm=5bfed681c9049f3124bc18bdc27ddb8ffe9fb7d9b54066fa436497b72df55671</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476667032173940859/id_P5.jpg?ex=69a1f4d7&amp;is=69a0a357&amp;hm=4f39c6694562de6d7da1aae179636e979bfcbce43997d4c40c4545df3bdf250a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476667131633336443/id_P6.png?ex=69a1f4ef&amp;is=69a0a36f&amp;hm=61c5b74c298f98203af907945986b101cb0c7b1066450a1f8f85fd58e29bd11b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476667185223962824/id_P7.png?ex=69a1f4fc&amp;is=69a0a37c&amp;hm=a06f45faf9578d37fe9125e72b4bb5fa86616a13840d24d1bde88560063feafc</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476667239225753650/id_P8.jpg?ex=69a1f508&amp;is=69a0a388&amp;hm=4d67a6d934233684b55b1b9e3c9bc837e2f42a6293179f7c4f0fd4ad6eb7f146</t>
   </si>
 </sst>
 </file>
@@ -10127,8 +10310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A988" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K991" sqref="K991"/>
+    <sheetView tabSelected="1" topLeftCell="A1019" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1021" sqref="L1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -50275,7 +50458,7 @@
         <v>0.10692129629629631</v>
       </c>
       <c r="H961" s="120" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="I961" s="120" t="s">
         <v>816</v>
@@ -50290,7 +50473,7 @@
         <v>864</v>
       </c>
       <c r="N961" t="s">
-        <v>3033</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="962" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50331,7 +50514,7 @@
         <v>864</v>
       </c>
       <c r="N962" t="s">
-        <v>3034</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="963" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50372,7 +50555,7 @@
         <v>864</v>
       </c>
       <c r="N963" t="s">
-        <v>3035</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="964" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50413,7 +50596,7 @@
         <v>864</v>
       </c>
       <c r="N964" t="s">
-        <v>3036</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="965" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50454,7 +50637,7 @@
         <v>864</v>
       </c>
       <c r="N965" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="966" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50495,7 +50678,7 @@
         <v>864</v>
       </c>
       <c r="N966" t="s">
-        <v>3038</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="967" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50536,7 +50719,7 @@
         <v>864</v>
       </c>
       <c r="N967" t="s">
-        <v>3039</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="968" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50577,7 +50760,7 @@
         <v>864</v>
       </c>
       <c r="N968" t="s">
-        <v>3040</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="969" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50618,7 +50801,7 @@
         <v>864</v>
       </c>
       <c r="N969" t="s">
-        <v>3041</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="970" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50659,7 +50842,7 @@
         <v>864</v>
       </c>
       <c r="N970" t="s">
-        <v>3042</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="971" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50700,7 +50883,7 @@
         <v>864</v>
       </c>
       <c r="N971" t="s">
-        <v>3043</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="972" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50741,7 +50924,7 @@
         <v>864</v>
       </c>
       <c r="N972" t="s">
-        <v>3044</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="973" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50782,7 +50965,7 @@
         <v>864</v>
       </c>
       <c r="N973" t="s">
-        <v>3045</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="974" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50823,7 +51006,7 @@
         <v>864</v>
       </c>
       <c r="N974" t="s">
-        <v>3046</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="975" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50865,7 +51048,7 @@
         <v>864</v>
       </c>
       <c r="N975" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="976" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50906,7 +51089,7 @@
         <v>864</v>
       </c>
       <c r="N976" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="977" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50947,7 +51130,7 @@
         <v>864</v>
       </c>
       <c r="N977" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="978" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -50988,7 +51171,7 @@
         <v>864</v>
       </c>
       <c r="N978" t="s">
-        <v>3050</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="979" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51029,7 +51212,7 @@
         <v>864</v>
       </c>
       <c r="N979" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="980" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51070,7 +51253,7 @@
         <v>864</v>
       </c>
       <c r="N980" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="981" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51111,7 +51294,7 @@
         <v>864</v>
       </c>
       <c r="N981" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="982" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51152,7 +51335,7 @@
         <v>864</v>
       </c>
       <c r="N982" t="s">
-        <v>3054</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="983" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51178,7 +51361,7 @@
         <v>2.8344907407407412E-2</v>
       </c>
       <c r="H983" t="s">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="I983" t="s">
         <v>816</v>
@@ -51193,7 +51376,7 @@
         <v>864</v>
       </c>
       <c r="N983" t="s">
-        <v>3055</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="984" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51234,7 +51417,7 @@
         <v>864</v>
       </c>
       <c r="N984" t="s">
-        <v>3056</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="985" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51275,7 +51458,7 @@
         <v>864</v>
       </c>
       <c r="N985" t="s">
-        <v>3057</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="986" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51316,7 +51499,7 @@
         <v>864</v>
       </c>
       <c r="N986" t="s">
-        <v>3058</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="987" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51357,7 +51540,7 @@
         <v>864</v>
       </c>
       <c r="N987" t="s">
-        <v>3059</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="988" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51401,7 +51584,7 @@
         <v>864</v>
       </c>
       <c r="N988" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="989" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51442,7 +51625,7 @@
         <v>864</v>
       </c>
       <c r="N989" t="s">
-        <v>3061</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="990" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51483,7 +51666,7 @@
         <v>864</v>
       </c>
       <c r="N990" t="s">
-        <v>3062</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="991" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -51505,6 +51688,27 @@
       <c r="F991" s="29">
         <v>45467</v>
       </c>
+      <c r="G991" s="56">
+        <v>3.037037037037037E-2</v>
+      </c>
+      <c r="H991" s="120" t="s">
+        <v>835</v>
+      </c>
+      <c r="I991" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J991" s="63" t="s">
+        <v>3031</v>
+      </c>
+      <c r="K991">
+        <v>991</v>
+      </c>
+      <c r="M991" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N991" t="s">
+        <v>3094</v>
+      </c>
     </row>
     <row r="992" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992">
@@ -51525,8 +51729,29 @@
       <c r="F992" s="29">
         <v>45905</v>
       </c>
-    </row>
-    <row r="993" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G992" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H992" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="I992" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J992" s="63" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K992">
+        <v>992</v>
+      </c>
+      <c r="M992" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N992" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="993" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>995</v>
       </c>
@@ -51545,8 +51770,29 @@
       <c r="F993" s="29">
         <v>45976</v>
       </c>
-    </row>
-    <row r="994" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G993" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H993" s="120" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I993" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J993" s="63" t="s">
+        <v>3033</v>
+      </c>
+      <c r="K993">
+        <v>993</v>
+      </c>
+      <c r="M993" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N993" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="994" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>996</v>
       </c>
@@ -51565,8 +51811,29 @@
       <c r="F994" s="29">
         <v>46002</v>
       </c>
-    </row>
-    <row r="995" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G994" s="56">
+        <v>3.9108796296296301E-2</v>
+      </c>
+      <c r="H994" t="s">
+        <v>842</v>
+      </c>
+      <c r="I994" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J994" s="63" t="s">
+        <v>3034</v>
+      </c>
+      <c r="K994">
+        <v>994</v>
+      </c>
+      <c r="M994" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N994" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="995" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>997</v>
       </c>
@@ -51585,8 +51852,29 @@
       <c r="F995" s="29">
         <v>46008</v>
       </c>
-    </row>
-    <row r="996" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G995" s="56">
+        <v>3.8437499999999999E-2</v>
+      </c>
+      <c r="H995" t="s">
+        <v>815</v>
+      </c>
+      <c r="I995" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J995" s="63" t="s">
+        <v>3067</v>
+      </c>
+      <c r="K995">
+        <v>995</v>
+      </c>
+      <c r="M995" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N995" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="996" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>998</v>
       </c>
@@ -51605,8 +51893,29 @@
       <c r="F996" s="29">
         <v>45784</v>
       </c>
-    </row>
-    <row r="997" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G996" s="56">
+        <v>2.4062500000000001E-2</v>
+      </c>
+      <c r="H996" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I996" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J996" s="63" t="s">
+        <v>3068</v>
+      </c>
+      <c r="K996">
+        <v>996</v>
+      </c>
+      <c r="M996" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N996" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="997" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>999</v>
       </c>
@@ -51625,8 +51934,29 @@
       <c r="F997" s="29">
         <v>45854</v>
       </c>
-    </row>
-    <row r="998" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G997" s="56">
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="H997" t="s">
+        <v>845</v>
+      </c>
+      <c r="I997" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J997" s="63" t="s">
+        <v>3069</v>
+      </c>
+      <c r="K997">
+        <v>997</v>
+      </c>
+      <c r="M997" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N997" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="998" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>1000</v>
       </c>
@@ -51645,8 +51975,29 @@
       <c r="F998" s="29">
         <v>46020</v>
       </c>
-    </row>
-    <row r="999" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G998" s="56">
+        <v>5.4606481481481478E-2</v>
+      </c>
+      <c r="H998" t="s">
+        <v>821</v>
+      </c>
+      <c r="I998" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J998" s="63" t="s">
+        <v>3070</v>
+      </c>
+      <c r="K998">
+        <v>998</v>
+      </c>
+      <c r="M998" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N998" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="999" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>1001</v>
       </c>
@@ -51665,8 +52016,29 @@
       <c r="F999" s="29">
         <v>46024</v>
       </c>
-    </row>
-    <row r="1000" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G999" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H999" t="s">
+        <v>1573</v>
+      </c>
+      <c r="I999" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J999" s="63" t="s">
+        <v>3071</v>
+      </c>
+      <c r="K999">
+        <v>999</v>
+      </c>
+      <c r="M999" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N999" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>1002</v>
       </c>
@@ -51685,8 +52057,29 @@
       <c r="F1000" s="29">
         <v>46011</v>
       </c>
-    </row>
-    <row r="1001" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1000" s="56">
+        <v>2.5833333333333333E-2</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>845</v>
+      </c>
+      <c r="I1000" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1000" s="63" t="s">
+        <v>3072</v>
+      </c>
+      <c r="K1000">
+        <v>1000</v>
+      </c>
+      <c r="M1000" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1000" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>1003</v>
       </c>
@@ -51705,8 +52098,29 @@
       <c r="F1001" s="29">
         <v>46018</v>
       </c>
-    </row>
-    <row r="1002" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1001" s="56">
+        <v>4.7129629629629632E-2</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1001" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1001" s="63" t="s">
+        <v>3073</v>
+      </c>
+      <c r="K1001">
+        <v>1001</v>
+      </c>
+      <c r="M1001" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1001" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>1004</v>
       </c>
@@ -51725,8 +52139,29 @@
       <c r="F1002" s="32">
         <v>46014</v>
       </c>
-    </row>
-    <row r="1003" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1002" s="56">
+        <v>2.0011574074074074E-2</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1002" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1002" s="63" t="s">
+        <v>3074</v>
+      </c>
+      <c r="K1002">
+        <v>1002</v>
+      </c>
+      <c r="M1002" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1002" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>1005</v>
       </c>
@@ -51745,8 +52180,29 @@
       <c r="F1003" s="29">
         <v>46018</v>
       </c>
-    </row>
-    <row r="1004" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1003" s="56">
+        <v>1.6493055555555556E-2</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>895</v>
+      </c>
+      <c r="I1003" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1003" s="63" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K1003">
+        <v>1003</v>
+      </c>
+      <c r="M1003" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1003" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>1006</v>
       </c>
@@ -51765,8 +52221,29 @@
       <c r="F1004" s="29">
         <v>45942</v>
       </c>
-    </row>
-    <row r="1005" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1004" s="56">
+        <v>4.5960648148148146E-2</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I1004" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1004" s="63" t="s">
+        <v>3076</v>
+      </c>
+      <c r="K1004">
+        <v>1004</v>
+      </c>
+      <c r="M1004" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1004" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>1007</v>
       </c>
@@ -51785,8 +52262,29 @@
       <c r="F1005" s="29">
         <v>46005</v>
       </c>
-    </row>
-    <row r="1006" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1005" s="56">
+        <v>2.7557870370370368E-2</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1005" s="63" t="s">
+        <v>3077</v>
+      </c>
+      <c r="K1005">
+        <v>1005</v>
+      </c>
+      <c r="M1005" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1005" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>1008</v>
       </c>
@@ -51805,8 +52303,29 @@
       <c r="F1006" s="29">
         <v>46029</v>
       </c>
-    </row>
-    <row r="1007" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1006" s="56">
+        <v>1.9363425925925926E-2</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1006" s="63" t="s">
+        <v>3078</v>
+      </c>
+      <c r="K1006">
+        <v>1006</v>
+      </c>
+      <c r="M1006" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1006" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>1009</v>
       </c>
@@ -51825,8 +52344,29 @@
       <c r="F1007" s="29">
         <v>46030</v>
       </c>
-    </row>
-    <row r="1008" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1007" s="56">
+        <v>1.8703703703703705E-2</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>840</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1007" s="63" t="s">
+        <v>3079</v>
+      </c>
+      <c r="K1007">
+        <v>1007</v>
+      </c>
+      <c r="M1007" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1007" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>1010</v>
       </c>
@@ -51845,8 +52385,29 @@
       <c r="F1008" s="29">
         <v>46015</v>
       </c>
-    </row>
-    <row r="1009" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1008" s="56">
+        <v>5.3576388888888889E-2</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1008" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1008" s="63" t="s">
+        <v>3080</v>
+      </c>
+      <c r="K1008">
+        <v>1008</v>
+      </c>
+      <c r="M1008" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1008" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>1011</v>
       </c>
@@ -51865,8 +52426,29 @@
       <c r="F1009" s="29">
         <v>46025</v>
       </c>
-    </row>
-    <row r="1010" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1009" s="56">
+        <v>2.9560185185185189E-2</v>
+      </c>
+      <c r="H1009" s="120" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1009" s="63" t="s">
+        <v>3081</v>
+      </c>
+      <c r="K1009">
+        <v>1009</v>
+      </c>
+      <c r="M1009" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1009" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>1012</v>
       </c>
@@ -51885,8 +52467,29 @@
       <c r="F1010" s="29">
         <v>45390</v>
       </c>
-    </row>
-    <row r="1011" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1010" s="56">
+        <v>2.0509259259259258E-2</v>
+      </c>
+      <c r="H1010" s="120" t="s">
+        <v>845</v>
+      </c>
+      <c r="I1010" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1010" s="63" t="s">
+        <v>3082</v>
+      </c>
+      <c r="K1010">
+        <v>1010</v>
+      </c>
+      <c r="M1010" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1010" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>1013</v>
       </c>
@@ -51902,11 +52505,35 @@
       <c r="E1011" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1011" s="30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1011" s="30">
+        <v>45769</v>
+      </c>
+      <c r="G1011" s="56">
+        <v>3.4965277777777783E-2</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1011" s="120" t="s">
+        <v>823</v>
+      </c>
+      <c r="J1011" s="63" t="s">
+        <v>3083</v>
+      </c>
+      <c r="K1011">
+        <v>1011</v>
+      </c>
+      <c r="L1011" t="s">
+        <v>3093</v>
+      </c>
+      <c r="M1011" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1011" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>1014</v>
       </c>
@@ -51925,11 +52552,32 @@
       <c r="F1012" s="29">
         <v>46016</v>
       </c>
+      <c r="G1012" s="56">
+        <v>1.3263888888888889E-2</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1012" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1012" s="63" t="s">
+        <v>3084</v>
+      </c>
+      <c r="K1012">
+        <v>1012</v>
+      </c>
       <c r="L1012" s="5">
         <v>45769</v>
       </c>
-    </row>
-    <row r="1013" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1012" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1012" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>1015</v>
       </c>
@@ -51948,8 +52596,29 @@
       <c r="F1013" s="29">
         <v>46024</v>
       </c>
-    </row>
-    <row r="1014" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1013" s="56">
+        <v>2.2824074074074076E-2</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1013" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1013" s="63" t="s">
+        <v>3085</v>
+      </c>
+      <c r="K1013">
+        <v>1013</v>
+      </c>
+      <c r="M1013" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1013" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>1016</v>
       </c>
@@ -51968,8 +52637,29 @@
       <c r="F1014" s="29">
         <v>45085</v>
       </c>
-    </row>
-    <row r="1015" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1014" s="56">
+        <v>0.12972222222222221</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I1014" s="120" t="s">
+        <v>823</v>
+      </c>
+      <c r="J1014" s="63" t="s">
+        <v>3086</v>
+      </c>
+      <c r="K1014">
+        <v>1014</v>
+      </c>
+      <c r="M1014" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1014" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>1017</v>
       </c>
@@ -51988,8 +52678,29 @@
       <c r="F1015" s="29">
         <v>46028</v>
       </c>
-    </row>
-    <row r="1016" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1015" s="56">
+        <v>1.9641203703703706E-2</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1015" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1015" s="63" t="s">
+        <v>3087</v>
+      </c>
+      <c r="K1015">
+        <v>1015</v>
+      </c>
+      <c r="M1015" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1015" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>1018</v>
       </c>
@@ -52008,11 +52719,32 @@
       <c r="F1016" s="29">
         <v>46002</v>
       </c>
+      <c r="G1016" s="56">
+        <v>2.255787037037037E-2</v>
+      </c>
+      <c r="H1016" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1016" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1016" s="63" t="s">
+        <v>3088</v>
+      </c>
+      <c r="K1016">
+        <v>1016</v>
+      </c>
       <c r="L1016" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="1017" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1016" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1016" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>1019</v>
       </c>
@@ -52031,8 +52763,29 @@
       <c r="F1017" s="33">
         <v>45699</v>
       </c>
-    </row>
-    <row r="1018" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1017" s="56">
+        <v>2.6354166666666668E-2</v>
+      </c>
+      <c r="H1017" s="120" t="s">
+        <v>845</v>
+      </c>
+      <c r="I1017" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1017" s="63" t="s">
+        <v>3089</v>
+      </c>
+      <c r="K1017">
+        <v>1017</v>
+      </c>
+      <c r="M1017" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1017" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>1020</v>
       </c>
@@ -52051,8 +52804,29 @@
       <c r="F1018" s="29">
         <v>46001</v>
       </c>
-    </row>
-    <row r="1019" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1018" s="56">
+        <v>2.3171296296296297E-2</v>
+      </c>
+      <c r="H1018" s="120" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1018" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1018" s="63" t="s">
+        <v>3090</v>
+      </c>
+      <c r="K1018">
+        <v>1018</v>
+      </c>
+      <c r="M1018" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1018" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>1021</v>
       </c>
@@ -52071,8 +52845,29 @@
       <c r="F1019" s="29">
         <v>46001</v>
       </c>
-    </row>
-    <row r="1020" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1019" s="56">
+        <v>2.8796296296296296E-2</v>
+      </c>
+      <c r="H1019" s="120" t="s">
+        <v>895</v>
+      </c>
+      <c r="I1019" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1019" s="63" t="s">
+        <v>3091</v>
+      </c>
+      <c r="K1019">
+        <v>1019</v>
+      </c>
+      <c r="M1019" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1019" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>1022</v>
       </c>
@@ -52091,8 +52886,29 @@
       <c r="F1020" s="29">
         <v>45138</v>
       </c>
-    </row>
-    <row r="1021" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1020" s="56">
+        <v>3.2662037037037038E-2</v>
+      </c>
+      <c r="H1020" s="120" t="s">
+        <v>835</v>
+      </c>
+      <c r="I1020" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1020" s="63" t="s">
+        <v>3092</v>
+      </c>
+      <c r="K1020">
+        <v>1020</v>
+      </c>
+      <c r="M1020" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1020" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>1023</v>
       </c>
@@ -52112,7 +52928,7 @@
         <v>45920</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>1024</v>
       </c>
@@ -52132,7 +52948,7 @@
         <v>46027</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>1025</v>
       </c>
@@ -52152,7 +52968,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>1026</v>
       </c>

--- a/data/Olympus.xlsx
+++ b/data/Olympus.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="3124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9396" uniqueCount="3232">
   <si>
     <t>Ņ</t>
   </si>
@@ -9399,6 +9399,330 @@
   </si>
   <si>
     <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476667239225753650/id_P8.jpg?ex=69a1f508&amp;is=69a0a388&amp;hm=4d67a6d934233684b55b1b9e3c9bc837e2f42a6293179f7c4f0fd4ad6eb7f146</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P(</t>
+  </si>
+  <si>
+    <t>P)</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>QD</t>
+  </si>
+  <si>
+    <t>QE</t>
+  </si>
+  <si>
+    <t>QF</t>
+  </si>
+  <si>
+    <t>QG</t>
+  </si>
+  <si>
+    <t>Qe</t>
+  </si>
+  <si>
+    <t>QH</t>
+  </si>
+  <si>
+    <t>QI</t>
+  </si>
+  <si>
+    <t>QJ</t>
+  </si>
+  <si>
+    <t>QK</t>
+  </si>
+  <si>
+    <t>QL</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>QN</t>
+  </si>
+  <si>
+    <t>QO</t>
+  </si>
+  <si>
+    <t>QP</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>QS</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>QU</t>
+  </si>
+  <si>
+    <t>QV</t>
+  </si>
+  <si>
+    <t>QW</t>
+  </si>
+  <si>
+    <t>QX</t>
+  </si>
+  <si>
+    <t>Qy</t>
+  </si>
+  <si>
+    <t>QZ</t>
+  </si>
+  <si>
+    <t>Qa</t>
+  </si>
+  <si>
+    <t>QY</t>
+  </si>
+  <si>
+    <t>Selene/Theia</t>
+  </si>
+  <si>
+    <t>Eliete Crasher/Freyja</t>
+  </si>
+  <si>
+    <t>Ragnarok/Elite Skimmer</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919366200070286/id_P9.jpg?ex=69a2dfd8&amp;is=69a18e58&amp;hm=943cb80f10ceb9af11aa1155fd901fd5127c1670a5dac489b1bd3b03b82bb5e0</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919429789909143/id_P.png?ex=69a2dfe7&amp;is=69a18e67&amp;hm=4061647c841d9900f3f647afd93d9864a4e5310cc1657e482f54c9db5f97ea1d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919479274569788/id_P.jpg?ex=69a2dff3&amp;is=69a18e73&amp;hm=330536dd0b9594d42dc7a259f0ba91bd065a7d87df9aee318bb5d1293103c9c9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919539735199827/id_QA.png?ex=69a2e002&amp;is=69a18e82&amp;hm=09910616b3e680e9b305c0e25a542fb0e4871bf7ab1971ba68518e36a48872e2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919608626778182/id_QB.jpg?ex=69a2e012&amp;is=69a18e92&amp;hm=c0e9e2e2af887383c47c47efa39cdcb1a4f6fe34a35e928053e54f78fad10cec</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919663517765714/id_QC.png?ex=69a2e01f&amp;is=69a18e9f&amp;hm=b9d53417472b38941c085d5ed0bf32c2f3ec35285b387c0e6c7a56a51648c5e9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919720061173811/id_QD.png?ex=69a2e02d&amp;is=69a18ead&amp;hm=b15ab2a3e3202156881cce4237aa116b26d6b2bd879fd9d640ceebfbd55f9f58</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919778932293764/id_QE.jpg?ex=69a2e03b&amp;is=69a18ebb&amp;hm=f7f8559672445372bffa032965f747d59b51122a9439b9c3d5f0c2a51da570f3</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919832237576334/id_QF.png?ex=69a2e047&amp;is=69a18ec7&amp;hm=6653725a93b170c699c8d984d30b4dcd85f380ec27981dbaba87476e36f0580f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919888496033905/id_QG.jpg?ex=69a2e055&amp;is=69a18ed5&amp;hm=846521a0d7a5eb069c18885b7ac41e7027d16156c20302973eeec9d7d0d3c395</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476919949145407631/id_QH.png?ex=69a2e063&amp;is=69a18ee3&amp;hm=f53a3a08d3c01eaf1c6882e1e04eab165c8fbe312868dd25c1e5be73b7b1d6f7</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476920027025510440/id_QI.jpg?ex=69a2e076&amp;is=69a18ef6&amp;hm=587c0386d4a409c60bd01886a3ab737d9463ae523183dbbec0d6343cd2b7a4e1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476920418341355631/id_QJ.jpg?ex=69a2e0d3&amp;is=69a18f53&amp;hm=efc44c9bc9c692f2214de1a18abe74e165fd4d8b09edd44a8c7301502c4c0020</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476920497986998332/id_QK.jpg?ex=69a2e0e6&amp;is=69a18f66&amp;hm=851da0adcee59aa46947a6a335f4e12acc5563c4860fb3f43983455de680901c</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476920636474392626/id_QL.jpg?ex=69a2e107&amp;is=69a18f87&amp;hm=1893f6727a15ee160dc6113eec8793adc30d9cbaffa0f7d93d6a58b7677abc0d</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476920788455133370/id_QM.png?ex=69a2e12b&amp;is=69a18fab&amp;hm=4ea3602ec9a900fb91ed3c194ab928b6e3d728e110bbe78a3e48c4d28ff37169</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476920891701985310/id_QN.jpg?ex=69a2e144&amp;is=69a18fc4&amp;hm=d623893b40f1d127278f2a6157f5641d48d5895904ab26cb57ff52d97803908f</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476920999910965359/id_QO.png?ex=69a2e15e&amp;is=69a18fde&amp;hm=4aedbecaf6fd1248668969407e43756b9c5255501cf4473ef8e2f27e47c438cd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921076557545472/id_QP.png?ex=69a2e170&amp;is=69a18ff0&amp;hm=dba26ba8f05d82052e95ed432e2ebd31b26658d5097c9879de38d3f1bbfef2b6</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921131037360280/id_QQ.png?ex=69a2e17d&amp;is=69a18ffd&amp;hm=62132929b1c6ad1f703a4c1b5cb41d68e24ca2623e6c42f61946f82fd486856b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921244619112498/id_QR.png?ex=69a2e198&amp;is=69a19018&amp;hm=bbf9e803cd653e6d9e42d44440a845ce6bd93cbad096428785dc1a59b381e1ea</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921314538160232/id_QS.png?ex=69a2e1a9&amp;is=69a19029&amp;hm=c712a5cfa811420bac896594c3c77a80ba6e3551ab3feedcc1e45ae5cd0f238a</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921454913388624/id_QT.png?ex=69a2e1ca&amp;is=69a1904a&amp;hm=3954de6093af4a77e49f6bc315c4219ab6e86b2ce5e6860bf23714248e1672c8</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921507065106463/id_QU.png?ex=69a2e1d7&amp;is=69a19057&amp;hm=3f626efb2bc19792a93a346c74cc3353b42c01be55f5b620d46e93575138ea98</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921574933401694/id_QV.png?ex=69a2e1e7&amp;is=69a19067&amp;hm=904c2c853f889b491f272d1985c5ae9b7d88d241ec0c6dbaec7b3fcc8ec19d07</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921628687335505/id_QW.jpg?ex=69a2e1f4&amp;is=69a19074&amp;hm=78276f97b984ca9c892639a2a3ae4745d2151de30c919642caee05b30130b393</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921719796142173/id_QX.png?ex=69a2e209&amp;is=69a19089&amp;hm=d82bd276afef8050d5c91cffa8c2edf67c50f8c04458340b1513ead5075c73fd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921852810231909/id_QY.jpg?ex=69a2e229&amp;is=69a190a9&amp;hm=a83b6902deaa40fe20395e564731afab34a21cb1937c512260381776fee54798</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921907369742510/id_QZ.jpg?ex=69a2e236&amp;is=69a190b6&amp;hm=59e74a176912e6566dc3e63aa1596a4b0281403f4909022964e4bd8b128f204b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476921954685685812/id_Qa.jpg?ex=69a2e241&amp;is=69a190c1&amp;hm=02de424a910048da296d0789a91d106372e0370bf8b282c255dc48d0bddb4554</t>
+  </si>
+  <si>
+    <t>Qb</t>
+  </si>
+  <si>
+    <t>Qc</t>
+  </si>
+  <si>
+    <t>Qd</t>
+  </si>
+  <si>
+    <t>Qf</t>
+  </si>
+  <si>
+    <t>Qg</t>
+  </si>
+  <si>
+    <t>Qh</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Ql</t>
+  </si>
+  <si>
+    <t>Qm</t>
+  </si>
+  <si>
+    <t>Qn</t>
+  </si>
+  <si>
+    <t>Qo</t>
+  </si>
+  <si>
+    <t>Qp</t>
+  </si>
+  <si>
+    <t>Qq</t>
+  </si>
+  <si>
+    <t>Qr</t>
+  </si>
+  <si>
+    <t>Qs</t>
+  </si>
+  <si>
+    <t>Qt</t>
+  </si>
+  <si>
+    <t>Qu</t>
+  </si>
+  <si>
+    <t>Qv</t>
+  </si>
+  <si>
+    <t>Qw</t>
+  </si>
+  <si>
+    <t>Qx</t>
+  </si>
+  <si>
+    <t>Qz</t>
+  </si>
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Qj</t>
+  </si>
+  <si>
+    <t>Qk</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476940993050972341/id_Qb.jpg?ex=69a2f3fc&amp;is=69a1a27c&amp;hm=62bd05633f4ee54661d6196875348dbff0cf2860a6bc8edb89627f883faa85d1</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941078094680064/id_Qc.png?ex=69a2f411&amp;is=69a1a291&amp;hm=8ab1b8b077ba24297f2d815c7a2ec1fce7fff93b17da2f4b5874cdc0ae2fbbac</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941125888512104/id_Qd.jpg?ex=69a2f41c&amp;is=69a1a29c&amp;hm=8e6d6cf479be3d6da3ef2b60dccff570455398470376f98122d4437b3486c573</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941193379184680/id_Qe.png?ex=69a2f42c&amp;is=69a1a2ac&amp;hm=f27c3e0f24fde9cffd6e57aebeba488218f13642094ac8ea708bb4bdce70ccbe</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941259477225635/id_Qf.jpg?ex=69a2f43c&amp;is=69a1a2bc&amp;hm=769c16ea3cbcef1f0cb509d6bd77cfcef7c661033ca32e7b2b3ad8e599eb118b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941337814110391/id_Qg.png?ex=69a2f44f&amp;is=69a1a2cf&amp;hm=c37514cc3a1894e11bdba380b9837991a6350450260a7d66c70f725492e759e9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941405736927242/id_Qh.jpg?ex=69a2f45f&amp;is=69a1a2df&amp;hm=42e134e06f6999c76dd8e0b7b90296c6e299685c335e0ac4fe9d6a724bd2fac2</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941467875541105/id_Qi.jpg?ex=69a2f46e&amp;is=69a1a2ee&amp;hm=c06f938c98dd8f0983ae40af52bdca1aea0b4132acc522ce70768477b30d01f9</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941528575250432/id_Qj.jpg?ex=69a2f47c&amp;is=69a1a2fc&amp;hm=b3733d1681ca163a210d0bfd4092a9a778a5ef5aedd62adc930fc8ee406711bd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941604806852720/id_Qk.png?ex=69a2f48e&amp;is=69a1a30e&amp;hm=c12311bd91ed8a554c67875c1e2df81ff228f23e336ff091108d3b51c3fa0c07</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941670703435917/id_Ql.png?ex=69a2f49e&amp;is=69a1a31e&amp;hm=d759e2397c6c833d8f6864d8b297f7ca2925c68d0c7303d7bdc4fb273a18565b</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941743734653079/id_Qm.png?ex=69a2f4af&amp;is=69a1a32f&amp;hm=2ce46efa178c10fb2bdbb793a4cef05a96cf12160c1b514ce425aece90be28ca</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941825917849681/id_Qn.png?ex=69a2f4c3&amp;is=69a1a343&amp;hm=f86fee6507af255bac85792ec8daf8916119bb79776376120d3c5294e955a7bd</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941926895849593/id_Qo.png?ex=69a2f4db&amp;is=69a1a35b&amp;hm=0c7c409a808c513416cceaf7ea75c0d1a04f9cd4a1a5f702eaee025c3fe99fac</t>
+  </si>
+  <si>
+    <t>https://cdn.discordapp.com/attachments/1466759427955888160/1476941976879366285/id_Qp.jpg?ex=69a2f4e7&amp;is=69a1a367&amp;hm=a155d53d9d15a9b09d9313edd58bd2b7c177048dbe0d9978fb0369e3a2a13099</t>
   </si>
 </sst>
 </file>
@@ -9410,11 +9734,18 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9954,118 +10285,119 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="46" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -10074,18 +10406,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -10310,8 +10642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1019" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1021" sqref="L1021"/>
+    <sheetView tabSelected="1" topLeftCell="A1063" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1080" sqref="L1080"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -52927,6 +53259,27 @@
       <c r="F1021" s="29">
         <v>45920</v>
       </c>
+      <c r="G1021" s="56">
+        <v>2.9155092592592594E-2</v>
+      </c>
+      <c r="H1021" s="121" t="s">
+        <v>2305</v>
+      </c>
+      <c r="I1021" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1021" s="63" t="s">
+        <v>3124</v>
+      </c>
+      <c r="K1021">
+        <v>1021</v>
+      </c>
+      <c r="M1021" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1021" t="s">
+        <v>3159</v>
+      </c>
     </row>
     <row r="1022" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1022">
@@ -52947,6 +53300,27 @@
       <c r="F1022" s="29">
         <v>46027</v>
       </c>
+      <c r="G1022" s="56">
+        <v>1.6469907407407405E-2</v>
+      </c>
+      <c r="H1022" s="121" t="s">
+        <v>840</v>
+      </c>
+      <c r="I1022" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1022" s="63" t="s">
+        <v>3125</v>
+      </c>
+      <c r="K1022">
+        <v>1022</v>
+      </c>
+      <c r="M1022" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1022" t="s">
+        <v>3160</v>
+      </c>
     </row>
     <row r="1023" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1023">
@@ -52967,6 +53341,27 @@
       <c r="F1023" s="29">
         <v>45189</v>
       </c>
+      <c r="G1023" s="56">
+        <v>3.784722222222222E-2</v>
+      </c>
+      <c r="H1023" s="121" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I1023" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1023" s="63" t="s">
+        <v>3126</v>
+      </c>
+      <c r="K1023">
+        <v>1023</v>
+      </c>
+      <c r="M1023" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1023" t="s">
+        <v>3161</v>
+      </c>
     </row>
     <row r="1024" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1024">
@@ -52987,8 +53382,29 @@
       <c r="F1024" s="29">
         <v>46012</v>
       </c>
-    </row>
-    <row r="1025" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1024" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1024" s="121" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1024" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1024" s="63" t="s">
+        <v>3127</v>
+      </c>
+      <c r="K1024">
+        <v>1024</v>
+      </c>
+      <c r="M1024" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1024" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>1027</v>
       </c>
@@ -53007,8 +53423,29 @@
       <c r="F1025" s="29">
         <v>45709</v>
       </c>
-    </row>
-    <row r="1026" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1025" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1025" s="121" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1025" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1025" s="63" t="s">
+        <v>3128</v>
+      </c>
+      <c r="K1025">
+        <v>1025</v>
+      </c>
+      <c r="M1025" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1025" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1026">
         <v>1028</v>
       </c>
@@ -53027,8 +53464,29 @@
       <c r="F1026" s="29">
         <v>46007</v>
       </c>
-    </row>
-    <row r="1027" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1026" s="56">
+        <v>3.7997685185185183E-2</v>
+      </c>
+      <c r="H1026" s="121" t="s">
+        <v>849</v>
+      </c>
+      <c r="I1026" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1026" s="63" t="s">
+        <v>3129</v>
+      </c>
+      <c r="K1026">
+        <v>1026</v>
+      </c>
+      <c r="M1026" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1026" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>1029</v>
       </c>
@@ -53047,8 +53505,29 @@
       <c r="F1027" s="29">
         <v>46035</v>
       </c>
-    </row>
-    <row r="1028" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1027" s="56">
+        <v>1.0231481481481482E-2</v>
+      </c>
+      <c r="H1027" s="121" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1027" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1027" s="63" t="s">
+        <v>3130</v>
+      </c>
+      <c r="K1027">
+        <v>1027</v>
+      </c>
+      <c r="M1027" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1027" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1028">
         <v>1030</v>
       </c>
@@ -53067,8 +53546,29 @@
       <c r="F1028" s="29">
         <v>45693</v>
       </c>
-    </row>
-    <row r="1029" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1028" s="56">
+        <v>3.0659722222222224E-2</v>
+      </c>
+      <c r="H1028" s="121" t="s">
+        <v>845</v>
+      </c>
+      <c r="I1028" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1028" s="63" t="s">
+        <v>3131</v>
+      </c>
+      <c r="K1028">
+        <v>1028</v>
+      </c>
+      <c r="M1028" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1028" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>1031</v>
       </c>
@@ -53087,8 +53587,29 @@
       <c r="F1029" s="29">
         <v>46022</v>
       </c>
-    </row>
-    <row r="1030" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1029" s="56">
+        <v>3.3263888888888891E-2</v>
+      </c>
+      <c r="H1029" s="121" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1029" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1029" s="63" t="s">
+        <v>3132</v>
+      </c>
+      <c r="K1029">
+        <v>1029</v>
+      </c>
+      <c r="M1029" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1029" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1030">
         <v>1032</v>
       </c>
@@ -53107,8 +53628,29 @@
       <c r="F1030" s="29">
         <v>45447</v>
       </c>
-    </row>
-    <row r="1031" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1030" s="56">
+        <v>1.525462962962963E-2</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I1030" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1030" s="63" t="s">
+        <v>3133</v>
+      </c>
+      <c r="K1030">
+        <v>1030</v>
+      </c>
+      <c r="M1030" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1030" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1031">
         <v>1033</v>
       </c>
@@ -53127,8 +53669,29 @@
       <c r="F1031" s="29">
         <v>45962</v>
       </c>
-    </row>
-    <row r="1032" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1031" s="56">
+        <v>3.4479166666666665E-2</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I1031" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1031" s="63" t="s">
+        <v>3135</v>
+      </c>
+      <c r="K1031">
+        <v>1031</v>
+      </c>
+      <c r="M1031" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1031" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1032">
         <v>1034</v>
       </c>
@@ -53147,8 +53710,29 @@
       <c r="F1032" s="29">
         <v>46015</v>
       </c>
-    </row>
-    <row r="1033" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1032" s="56">
+        <v>1.7673611111111109E-2</v>
+      </c>
+      <c r="H1032" s="121" t="s">
+        <v>3156</v>
+      </c>
+      <c r="I1032" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1032" s="63" t="s">
+        <v>3136</v>
+      </c>
+      <c r="K1032">
+        <v>1032</v>
+      </c>
+      <c r="M1032" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1032" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>1035</v>
       </c>
@@ -53167,8 +53751,29 @@
       <c r="F1033" s="29">
         <v>45753</v>
       </c>
-    </row>
-    <row r="1034" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1033" s="56">
+        <v>4.9537037037037039E-2</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>952</v>
+      </c>
+      <c r="I1033" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1033" s="63" t="s">
+        <v>3137</v>
+      </c>
+      <c r="K1033">
+        <v>1033</v>
+      </c>
+      <c r="M1033" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1033" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>1036</v>
       </c>
@@ -53187,8 +53792,29 @@
       <c r="F1034" s="29">
         <v>45793</v>
       </c>
-    </row>
-    <row r="1035" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1034" s="56">
+        <v>3.0995370370370371E-2</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>948</v>
+      </c>
+      <c r="I1034" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1034" s="63" t="s">
+        <v>3138</v>
+      </c>
+      <c r="K1034">
+        <v>1034</v>
+      </c>
+      <c r="M1034" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1034" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>1037</v>
       </c>
@@ -53207,8 +53833,29 @@
       <c r="F1035" s="29">
         <v>45783</v>
       </c>
-    </row>
-    <row r="1036" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1035" s="56">
+        <v>1.2372685185185186E-2</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>847</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1035" s="63" t="s">
+        <v>3139</v>
+      </c>
+      <c r="K1035">
+        <v>1035</v>
+      </c>
+      <c r="M1035" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1035" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1036">
         <v>1038</v>
       </c>
@@ -53227,8 +53874,29 @@
       <c r="F1036" s="29">
         <v>45941</v>
       </c>
-    </row>
-    <row r="1037" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1036" s="56">
+        <v>3.3888888888888885E-2</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>840</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1036" s="63" t="s">
+        <v>3140</v>
+      </c>
+      <c r="K1036">
+        <v>1036</v>
+      </c>
+      <c r="M1036" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1036" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1037">
         <v>1039</v>
       </c>
@@ -53247,8 +53915,29 @@
       <c r="F1037" s="29">
         <v>45741</v>
       </c>
-    </row>
-    <row r="1038" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1037" s="56">
+        <v>4.780092592592592E-2</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>825</v>
+      </c>
+      <c r="I1037" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1037" s="63" t="s">
+        <v>3141</v>
+      </c>
+      <c r="K1037">
+        <v>1037</v>
+      </c>
+      <c r="M1037" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1037" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>1040</v>
       </c>
@@ -53267,11 +53956,32 @@
       <c r="F1038" s="29">
         <v>46046</v>
       </c>
+      <c r="G1038" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1038" s="121" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I1038" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1038" s="63" t="s">
+        <v>3142</v>
+      </c>
+      <c r="K1038">
+        <v>1038</v>
+      </c>
       <c r="L1038" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="1039" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1038" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1038" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>1041</v>
       </c>
@@ -53290,8 +54000,29 @@
       <c r="F1039" s="29">
         <v>45991</v>
       </c>
-    </row>
-    <row r="1040" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1039" s="56">
+        <v>2.4560185185185185E-2</v>
+      </c>
+      <c r="H1039" s="121" t="s">
+        <v>895</v>
+      </c>
+      <c r="I1039" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1039" s="63" t="s">
+        <v>3143</v>
+      </c>
+      <c r="K1039">
+        <v>1039</v>
+      </c>
+      <c r="M1039" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1039" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1040">
         <v>1042</v>
       </c>
@@ -53310,11 +54041,32 @@
       <c r="F1040" s="29">
         <v>46002</v>
       </c>
+      <c r="G1040" s="56">
+        <v>2.6747685185185183E-2</v>
+      </c>
+      <c r="H1040" s="121" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1040" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1040" s="63" t="s">
+        <v>3144</v>
+      </c>
+      <c r="K1040">
+        <v>1040</v>
+      </c>
       <c r="L1040" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="1041" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1040" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1040" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>1043</v>
       </c>
@@ -53333,8 +54085,29 @@
       <c r="F1041" s="29">
         <v>46009</v>
       </c>
-    </row>
-    <row r="1042" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1041" s="56">
+        <v>3.0277777777777778E-2</v>
+      </c>
+      <c r="H1041" s="121" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1041" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1041" s="63" t="s">
+        <v>3145</v>
+      </c>
+      <c r="K1041">
+        <v>1041</v>
+      </c>
+      <c r="M1041" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1041" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>1044</v>
       </c>
@@ -53353,11 +54126,32 @@
       <c r="F1042" s="29">
         <v>46002</v>
       </c>
+      <c r="G1042" s="56">
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="H1042" s="121" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1042" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1042" s="63" t="s">
+        <v>3146</v>
+      </c>
+      <c r="K1042">
+        <v>1042</v>
+      </c>
       <c r="L1042" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="1043" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1042" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1042" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1043">
         <v>1045</v>
       </c>
@@ -53376,8 +54170,29 @@
       <c r="F1043" s="38">
         <v>46021</v>
       </c>
-    </row>
-    <row r="1044" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1043" s="56">
+        <v>2.4293981481481482E-2</v>
+      </c>
+      <c r="H1043" s="121" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1043" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1043" s="63" t="s">
+        <v>3147</v>
+      </c>
+      <c r="K1043">
+        <v>1043</v>
+      </c>
+      <c r="M1043" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1043" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>1046</v>
       </c>
@@ -53396,8 +54211,29 @@
       <c r="F1044" s="29">
         <v>46047</v>
       </c>
-    </row>
-    <row r="1045" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1044" s="56">
+        <v>2.8171296296296302E-2</v>
+      </c>
+      <c r="H1044" s="121" t="s">
+        <v>2475</v>
+      </c>
+      <c r="I1044" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1044" s="63" t="s">
+        <v>3148</v>
+      </c>
+      <c r="K1044">
+        <v>1044</v>
+      </c>
+      <c r="M1044" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1044" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1045">
         <v>1047</v>
       </c>
@@ -53416,8 +54252,29 @@
       <c r="F1045" s="29">
         <v>46023</v>
       </c>
-    </row>
-    <row r="1046" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1045" s="56">
+        <v>1.5821759259259261E-2</v>
+      </c>
+      <c r="H1045" s="121" t="s">
+        <v>835</v>
+      </c>
+      <c r="I1045" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1045" s="63" t="s">
+        <v>3149</v>
+      </c>
+      <c r="K1045">
+        <v>1045</v>
+      </c>
+      <c r="M1045" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1045" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>1048</v>
       </c>
@@ -53436,8 +54293,29 @@
       <c r="F1046" s="29">
         <v>45480</v>
       </c>
-    </row>
-    <row r="1047" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1046" s="56">
+        <v>2.855324074074074E-2</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>3157</v>
+      </c>
+      <c r="I1046" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1046" s="63" t="s">
+        <v>3150</v>
+      </c>
+      <c r="K1046">
+        <v>1046</v>
+      </c>
+      <c r="M1046" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1046" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1047">
         <v>1049</v>
       </c>
@@ -53456,8 +54334,29 @@
       <c r="F1047" s="29">
         <v>45927</v>
       </c>
-    </row>
-    <row r="1048" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1047" s="56">
+        <v>2.5277777777777777E-2</v>
+      </c>
+      <c r="H1047" s="121" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1047" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1047" s="63" t="s">
+        <v>3151</v>
+      </c>
+      <c r="K1047">
+        <v>1047</v>
+      </c>
+      <c r="M1047" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1047" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>1050</v>
       </c>
@@ -53476,8 +54375,29 @@
       <c r="F1048" s="29">
         <v>45477</v>
       </c>
-    </row>
-    <row r="1049" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1048" s="56">
+        <v>3.2511574074074075E-2</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I1048" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1048" s="63" t="s">
+        <v>3155</v>
+      </c>
+      <c r="K1048">
+        <v>1048</v>
+      </c>
+      <c r="M1048" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1048" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1049">
         <v>1051</v>
       </c>
@@ -53496,8 +54416,29 @@
       <c r="F1049" s="29">
         <v>46029</v>
       </c>
-    </row>
-    <row r="1050" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1049" s="56">
+        <v>2.8807870370370373E-2</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>3158</v>
+      </c>
+      <c r="I1049" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1049" s="63" t="s">
+        <v>3153</v>
+      </c>
+      <c r="K1049">
+        <v>1049</v>
+      </c>
+      <c r="M1049" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1049" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1050">
         <v>1052</v>
       </c>
@@ -53516,8 +54457,29 @@
       <c r="F1050" s="32">
         <v>46014</v>
       </c>
-    </row>
-    <row r="1051" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1050" s="56">
+        <v>3.1736111111111111E-2</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>840</v>
+      </c>
+      <c r="I1050" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1050" s="63" t="s">
+        <v>3154</v>
+      </c>
+      <c r="K1050">
+        <v>1050</v>
+      </c>
+      <c r="M1050" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1050" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1051">
         <v>1053</v>
       </c>
@@ -53536,8 +54498,29 @@
       <c r="F1051" s="29">
         <v>45997</v>
       </c>
-    </row>
-    <row r="1052" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1051" s="56">
+        <v>2.8182870370370372E-2</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>896</v>
+      </c>
+      <c r="I1051" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1051" s="63" t="s">
+        <v>3189</v>
+      </c>
+      <c r="K1051">
+        <v>1051</v>
+      </c>
+      <c r="M1051" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1051" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1052">
         <v>1054</v>
       </c>
@@ -53556,8 +54539,29 @@
       <c r="F1052" s="29">
         <v>46028</v>
       </c>
-    </row>
-    <row r="1053" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1052" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1052" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1052" s="63" t="s">
+        <v>3190</v>
+      </c>
+      <c r="K1052">
+        <v>1052</v>
+      </c>
+      <c r="M1052" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1052" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1053">
         <v>1055</v>
       </c>
@@ -53576,11 +54580,32 @@
       <c r="F1053" s="29">
         <v>46002</v>
       </c>
+      <c r="G1053" s="56">
+        <v>7.6851851851851847E-3</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1053" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1053" s="63" t="s">
+        <v>3191</v>
+      </c>
+      <c r="K1053">
+        <v>1053</v>
+      </c>
       <c r="L1053" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="1054" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1053" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1053" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1054">
         <v>1056</v>
       </c>
@@ -53599,8 +54624,29 @@
       <c r="F1054" s="29">
         <v>46019</v>
       </c>
-    </row>
-    <row r="1055" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1054" s="56">
+        <v>2.1817129629629631E-2</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>837</v>
+      </c>
+      <c r="I1054" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1054" s="63" t="s">
+        <v>3134</v>
+      </c>
+      <c r="K1054">
+        <v>1054</v>
+      </c>
+      <c r="M1054" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1054" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1055">
         <v>1057</v>
       </c>
@@ -53619,9 +54665,30 @@
       <c r="F1055" s="30">
         <v>45959</v>
       </c>
+      <c r="G1055" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>2772</v>
+      </c>
+      <c r="I1055" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1055" s="63" t="s">
+        <v>3192</v>
+      </c>
+      <c r="K1055">
+        <v>1055</v>
+      </c>
       <c r="L1055" s="1"/>
-    </row>
-    <row r="1056" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1055" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1055" t="s">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1056">
         <v>1058</v>
       </c>
@@ -53640,8 +54707,29 @@
       <c r="F1056" s="29">
         <v>46013</v>
       </c>
-    </row>
-    <row r="1057" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1056" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1056" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1056" s="63" t="s">
+        <v>3193</v>
+      </c>
+      <c r="K1056">
+        <v>1056</v>
+      </c>
+      <c r="M1056" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1056" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1057">
         <v>1059</v>
       </c>
@@ -53660,8 +54748,29 @@
       <c r="F1057" s="29">
         <v>46020</v>
       </c>
-    </row>
-    <row r="1058" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1057" s="56">
+        <v>1.1168981481481481E-2</v>
+      </c>
+      <c r="H1057" s="121" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1057" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1057" s="63" t="s">
+        <v>3194</v>
+      </c>
+      <c r="K1057">
+        <v>1057</v>
+      </c>
+      <c r="M1057" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1057" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1058">
         <v>1060</v>
       </c>
@@ -53680,8 +54789,29 @@
       <c r="F1058" s="29">
         <v>45816</v>
       </c>
-    </row>
-    <row r="1059" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1058" s="56">
+        <v>3.005787037037037E-2</v>
+      </c>
+      <c r="H1058" s="121" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I1058" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1058" s="63" t="s">
+        <v>3195</v>
+      </c>
+      <c r="K1058">
+        <v>1058</v>
+      </c>
+      <c r="M1058" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1058" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1059">
         <v>1061</v>
       </c>
@@ -53700,8 +54830,29 @@
       <c r="F1059" s="29">
         <v>45878</v>
       </c>
-    </row>
-    <row r="1060" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1059" s="56">
+        <v>2.2905092592592591E-2</v>
+      </c>
+      <c r="H1059" s="121" t="s">
+        <v>815</v>
+      </c>
+      <c r="I1059" s="121" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1059" s="63" t="s">
+        <v>3215</v>
+      </c>
+      <c r="K1059">
+        <v>1059</v>
+      </c>
+      <c r="M1059" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1059" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1060">
         <v>1062</v>
       </c>
@@ -53729,8 +54880,20 @@
       <c r="I1060" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1061" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1060" s="63" t="s">
+        <v>3216</v>
+      </c>
+      <c r="K1060">
+        <v>1060</v>
+      </c>
+      <c r="M1060" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1060" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1061">
         <v>1063</v>
       </c>
@@ -53758,8 +54921,20 @@
       <c r="I1061" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1062" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1061" s="63" t="s">
+        <v>3196</v>
+      </c>
+      <c r="K1061">
+        <v>1061</v>
+      </c>
+      <c r="M1061" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1061" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1062">
         <v>1064</v>
       </c>
@@ -53787,8 +54962,20 @@
       <c r="I1062" s="65" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="1063" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1062" s="63" t="s">
+        <v>3197</v>
+      </c>
+      <c r="K1062">
+        <v>1062</v>
+      </c>
+      <c r="M1062" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1062" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1063">
         <v>1065</v>
       </c>
@@ -53816,8 +55003,20 @@
       <c r="I1063" s="84" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1064" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1063" s="63" t="s">
+        <v>3198</v>
+      </c>
+      <c r="K1063">
+        <v>1063</v>
+      </c>
+      <c r="M1063" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1063" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1064">
         <v>1066</v>
       </c>
@@ -53845,8 +55044,20 @@
       <c r="I1064" s="84" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1065" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1064" s="63" t="s">
+        <v>3199</v>
+      </c>
+      <c r="K1064">
+        <v>1064</v>
+      </c>
+      <c r="M1064" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1064" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1065">
         <v>1067</v>
       </c>
@@ -53874,8 +55085,20 @@
       <c r="I1065" s="84" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1066" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1065" s="63" t="s">
+        <v>3200</v>
+      </c>
+      <c r="K1065">
+        <v>1065</v>
+      </c>
+      <c r="M1065" s="57" t="s">
+        <v>864</v>
+      </c>
+      <c r="N1065" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1066">
         <v>1068</v>
       </c>
@@ -53903,8 +55126,14 @@
       <c r="I1066" s="84" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1067" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1066" s="63" t="s">
+        <v>3201</v>
+      </c>
+      <c r="K1066">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1067">
         <v>1069</v>
       </c>
@@ -53932,8 +55161,14 @@
       <c r="I1067" s="88" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1068" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1067" s="63" t="s">
+        <v>3202</v>
+      </c>
+      <c r="K1067">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1068">
         <v>1070</v>
       </c>
@@ -53961,8 +55196,14 @@
       <c r="I1068" s="88" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1069" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1068" s="63" t="s">
+        <v>3203</v>
+      </c>
+      <c r="K1068">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1069">
         <v>1071</v>
       </c>
@@ -53990,8 +55231,14 @@
       <c r="I1069" s="88" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1070" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1069" s="63" t="s">
+        <v>3204</v>
+      </c>
+      <c r="K1069">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1070">
         <v>1072</v>
       </c>
@@ -54019,8 +55266,14 @@
       <c r="I1070" s="88" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1071" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1070" s="63" t="s">
+        <v>3205</v>
+      </c>
+      <c r="K1070">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1071">
         <v>1073</v>
       </c>
@@ -54048,8 +55301,14 @@
       <c r="I1071" s="89" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1072" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1071" s="63" t="s">
+        <v>3206</v>
+      </c>
+      <c r="K1071">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1072">
         <v>1074</v>
       </c>
@@ -54077,8 +55336,14 @@
       <c r="I1072" s="89" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1073" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1072" s="63" t="s">
+        <v>3207</v>
+      </c>
+      <c r="K1072">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>1075</v>
       </c>
@@ -54106,8 +55371,14 @@
       <c r="I1073" s="89" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1074" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1073" s="63" t="s">
+        <v>3208</v>
+      </c>
+      <c r="K1073">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1074">
         <v>1076</v>
       </c>
@@ -54135,8 +55406,14 @@
       <c r="I1074" s="89" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1075" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1074" s="63" t="s">
+        <v>3152</v>
+      </c>
+      <c r="K1074">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>1077</v>
       </c>
@@ -54164,8 +55441,14 @@
       <c r="I1075" s="90" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1076" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1075" s="63" t="s">
+        <v>3209</v>
+      </c>
+      <c r="K1075">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1076">
         <v>1078</v>
       </c>
@@ -54193,8 +55476,14 @@
       <c r="I1076" s="90" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1077" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1076" s="63" t="s">
+        <v>3210</v>
+      </c>
+      <c r="K1076">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1077">
         <v>1079</v>
       </c>
@@ -54222,8 +55511,14 @@
       <c r="I1077" s="90" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1078" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1077" s="63" t="s">
+        <v>3211</v>
+      </c>
+      <c r="K1077">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1078">
         <v>1080</v>
       </c>
@@ -54251,8 +55546,14 @@
       <c r="I1078" s="90" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1079" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1078" s="63" t="s">
+        <v>3212</v>
+      </c>
+      <c r="K1078">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>1081</v>
       </c>
@@ -54280,8 +55581,14 @@
       <c r="I1079" s="91" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1080" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1079" s="63" t="s">
+        <v>3213</v>
+      </c>
+      <c r="K1079">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1080">
         <v>1082</v>
       </c>
@@ -54309,8 +55616,14 @@
       <c r="I1080" s="91" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="1081" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1080" s="63" t="s">
+        <v>3214</v>
+      </c>
+      <c r="K1080">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1081">
         <v>1083</v>
       </c>
@@ -54339,7 +55652,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="1082" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1082">
         <v>1084</v>
       </c>
@@ -54368,7 +55681,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="1083" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1083">
         <v>1085</v>
       </c>
@@ -54397,7 +55710,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="1084" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1084">
         <v>1086</v>
       </c>
@@ -54426,7 +55739,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="1085" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1085">
         <v>1087</v>
       </c>
@@ -54455,7 +55768,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="1086" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1086">
         <v>1088</v>
       </c>
@@ -54484,7 +55797,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="1087" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1087">
         <v>1089</v>
       </c>
@@ -54513,7 +55826,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="1088" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1088">
         <v>1090</v>
       </c>
